--- a/Lead.xlsx
+++ b/Lead.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ATUAL 2024\Projetos R\Clinica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB0D261-5CE0-43EB-A95D-80A8980ABB22}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E569513-2CB5-4A9B-A223-75D9C666445D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="75">
   <si>
     <t>Data</t>
   </si>
@@ -240,6 +240,12 @@
   </si>
   <si>
     <t>Compareceu</t>
+  </si>
+  <si>
+    <t>Iris</t>
+  </si>
+  <si>
+    <t>Restauração</t>
   </si>
 </sst>
 </file>
@@ -781,7 +787,7 @@
   <dimension ref="A1:O2001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1119,8 +1125,36 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="G10" s="4"/>
+      <c r="A10" s="5">
+        <v>45373</v>
+      </c>
+      <c r="B10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="4">
+        <v>79999999999</v>
+      </c>
+      <c r="H10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" t="s">
+        <v>74</v>
+      </c>
+      <c r="O10" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>

--- a/Lead.xlsx
+++ b/Lead.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ATUAL 2024\Projetos R\Clinica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E569513-2CB5-4A9B-A223-75D9C666445D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC588CA2-4E5C-4E8E-B83D-BF9F510694AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1153,7 +1153,7 @@
         <v>74</v>
       </c>
       <c r="O10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">

--- a/Lead.xlsx
+++ b/Lead.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ATUAL 2024\Projetos R\Clinica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC588CA2-4E5C-4E8E-B83D-BF9F510694AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0BFE05-36EB-4D8E-BBD4-CA61A4B252E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1153,7 +1153,7 @@
         <v>74</v>
       </c>
       <c r="O10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">

--- a/Lead.xlsx
+++ b/Lead.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ATUAL 2024\Projetos R\Clinica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0BFE05-36EB-4D8E-BBD4-CA61A4B252E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33AC4B2-ACC0-4298-A0A2-38519A0CAEA0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1153,7 +1153,7 @@
         <v>74</v>
       </c>
       <c r="O10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">

--- a/Lead.xlsx
+++ b/Lead.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ATUAL 2024\Projetos R\Clinica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33AC4B2-ACC0-4298-A0A2-38519A0CAEA0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C24060-FCBE-4A57-ACC2-17F260BBB959}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="76">
   <si>
     <t>Data</t>
   </si>
@@ -246,6 +246,9 @@
   </si>
   <si>
     <t>Restauração</t>
+  </si>
+  <si>
+    <t>Zefinha</t>
   </si>
 </sst>
 </file>
@@ -786,9 +789,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O2001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1157,8 +1158,36 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="G11" s="4"/>
+      <c r="A11" s="5">
+        <v>45373</v>
+      </c>
+      <c r="B11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11">
+        <v>68</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="4">
+        <v>75999999999</v>
+      </c>
+      <c r="H11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" t="s">
+        <v>25</v>
+      </c>
+      <c r="O11" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
@@ -9123,7 +9152,7 @@
   </sheetData>
   <dataConsolidate/>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="4">
+  <dataValidations disablePrompts="1" count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O2001" xr:uid="{F688FC34-E833-4CD7-A4D5-C5F546A92EE3}">
       <formula1>INDIRECT($O$1)</formula1>
     </dataValidation>

--- a/Lead.xlsx
+++ b/Lead.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ATUAL 2024\Projetos R\Clinica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C24060-FCBE-4A57-ACC2-17F260BBB959}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5329C0B4-D3F5-44B0-A977-C394AEF88FFF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="206">
   <si>
     <t>Data</t>
   </si>
@@ -53,18 +53,6 @@
     <t>Informações adicionais</t>
   </si>
   <si>
-    <t>Anna</t>
-  </si>
-  <si>
-    <t>Rodrigo</t>
-  </si>
-  <si>
-    <t>Miguel</t>
-  </si>
-  <si>
-    <t>Creuza</t>
-  </si>
-  <si>
     <t>Feminino</t>
   </si>
   <si>
@@ -77,33 +65,12 @@
     <t>Sergipe</t>
   </si>
   <si>
-    <t>Paulo Afonso</t>
-  </si>
-  <si>
-    <t>Aracaju</t>
-  </si>
-  <si>
     <t>Lago Aurora</t>
   </si>
   <si>
     <t>Ponte Metálica</t>
   </si>
   <si>
-    <t>Limpeza</t>
-  </si>
-  <si>
-    <t>Limpeza e restauração</t>
-  </si>
-  <si>
-    <t>Revisão</t>
-  </si>
-  <si>
-    <t>Implante</t>
-  </si>
-  <si>
-    <t>Eufrozina</t>
-  </si>
-  <si>
     <t>Blusa vermelha</t>
   </si>
   <si>
@@ -119,12 +86,6 @@
     <t>Pendente</t>
   </si>
   <si>
-    <t>Gustavo</t>
-  </si>
-  <si>
-    <t>Contato 17/03</t>
-  </si>
-  <si>
     <t>Contato 1</t>
   </si>
   <si>
@@ -134,27 +95,12 @@
     <t>Contato 3</t>
   </si>
   <si>
-    <t>Mora em Aracaju, mas sempre vem a Paulo Afonso</t>
-  </si>
-  <si>
-    <t>Contato dia 16</t>
-  </si>
-  <si>
-    <t>Contato dia 18</t>
-  </si>
-  <si>
     <t>Contato 4</t>
   </si>
   <si>
-    <t>Felícita</t>
-  </si>
-  <si>
     <t>Prótese</t>
   </si>
   <si>
-    <t>Contato 18/03</t>
-  </si>
-  <si>
     <t>Alagoas</t>
   </si>
   <si>
@@ -230,25 +176,469 @@
     <t>Tocantins</t>
   </si>
   <si>
-    <t>João Paulo</t>
-  </si>
-  <si>
-    <t>Novembro azul</t>
-  </si>
-  <si>
     <t>Agendou</t>
   </si>
   <si>
     <t>Compareceu</t>
   </si>
   <si>
-    <t>Iris</t>
-  </si>
-  <si>
-    <t>Restauração</t>
-  </si>
-  <si>
-    <t>Zefinha</t>
+    <t>Maria Josefa Ferreira</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mauriza ~Railan Vaqueiro </t>
+  </si>
+  <si>
+    <t>~jose Alves</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ivone | Ivone Maria </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Magda Alves Delgado Rodrigues Cassimiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~emoji </t>
+  </si>
+  <si>
+    <t xml:space="preserve">José Severino dos Santos Juvenal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fernanda Rodrigues de Araujo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dagmar </t>
+  </si>
+  <si>
+    <t>Maria Selma dos Santos Alcantara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fernando Moreira da Silva </t>
+  </si>
+  <si>
+    <t>Roberio Severo dos Santos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~Roberto </t>
+  </si>
+  <si>
+    <t xml:space="preserve">~josinaldo </t>
+  </si>
+  <si>
+    <t>~elpidio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~fernando </t>
+  </si>
+  <si>
+    <t xml:space="preserve">~Gilberto </t>
+  </si>
+  <si>
+    <t>Nelson de Jesus dos Santos</t>
+  </si>
+  <si>
+    <t>~Maria (Maria Aparecida Santos Araujo)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~Edson </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luana  Teixeira dos Santos </t>
+  </si>
+  <si>
+    <t>~Elisalva</t>
+  </si>
+  <si>
+    <t>Raquel</t>
+  </si>
+  <si>
+    <t>~vereador gato</t>
+  </si>
+  <si>
+    <t>Elisangela Ferreira Alves</t>
+  </si>
+  <si>
+    <t>~erivania mari 32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~Otacilio Baiano </t>
+  </si>
+  <si>
+    <t xml:space="preserve">~Elias </t>
+  </si>
+  <si>
+    <t>emoji</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~Alves </t>
+  </si>
+  <si>
+    <t>~clebson sabino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genilson Cardoso </t>
+  </si>
+  <si>
+    <t>~Rodrigo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marcos </t>
+  </si>
+  <si>
+    <t>Cícero</t>
+  </si>
+  <si>
+    <t>~Delson Honório</t>
+  </si>
+  <si>
+    <t>Gesse</t>
+  </si>
+  <si>
+    <t>Lindinez Honorio Bernado</t>
+  </si>
+  <si>
+    <t>Maria das Graças Silva</t>
+  </si>
+  <si>
+    <t>~Jairo</t>
+  </si>
+  <si>
+    <t>~Pastorzinho da Elétrica- Flávio Roberto Gomes Teixeira Junior</t>
+  </si>
+  <si>
+    <t>~Bethy</t>
+  </si>
+  <si>
+    <t>~Jairo (Jairo Daniel de Queiroz)</t>
+  </si>
+  <si>
+    <t>~Izabelcristianafontes12345</t>
+  </si>
+  <si>
+    <t>~erivaniamari32</t>
+  </si>
+  <si>
+    <t>~Afonso Vieira</t>
+  </si>
+  <si>
+    <t>~Alcione Barros</t>
+  </si>
+  <si>
+    <t>~Cicero</t>
+  </si>
+  <si>
+    <t>~Valdemir Messias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fabio Santos </t>
+  </si>
+  <si>
+    <t>~Jociel e Familia</t>
+  </si>
+  <si>
+    <t>~Marcia</t>
+  </si>
+  <si>
+    <t>Sinze</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>Joan</t>
+  </si>
+  <si>
+    <t>Jorge Leandro</t>
+  </si>
+  <si>
+    <t>Ana Andrade</t>
+  </si>
+  <si>
+    <t>Adilson</t>
+  </si>
+  <si>
+    <t>Avanildo Claudiano da paz</t>
+  </si>
+  <si>
+    <t>Ceiça Lima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fernando Barbosa de Souza </t>
+  </si>
+  <si>
+    <t>Jeferson David</t>
+  </si>
+  <si>
+    <t>~Jeminson</t>
+  </si>
+  <si>
+    <t>~Rozineide</t>
+  </si>
+  <si>
+    <t>~Veerlem</t>
+  </si>
+  <si>
+    <t>~Alcineia Souza</t>
+  </si>
+  <si>
+    <t>~Robson Ramalho</t>
+  </si>
+  <si>
+    <t>~andradeana5983</t>
+  </si>
+  <si>
+    <t>~Daniel</t>
+  </si>
+  <si>
+    <t>Vídeo avaliação</t>
+  </si>
+  <si>
+    <t>lig 01/04 (atendeu)</t>
+  </si>
+  <si>
+    <t>lig 01/04 (chamou /caixa de msg) aúdio wpp</t>
+  </si>
+  <si>
+    <t>lig 01/04 (chamou não atendeu) aúdio wpp</t>
+  </si>
+  <si>
+    <t>02/04 lig (atendeu e agendou)</t>
+  </si>
+  <si>
+    <t>02/04 lig (tututu)  cvs wpp</t>
+  </si>
+  <si>
+    <t>02/04 lig (caixa de msg) aúdio wpp  s/resposta lig 16:50h atendeu disse que estava viajando|ligar 03/04 09h e 10h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02/04 lig (não atendeu) aúdio wpp </t>
+  </si>
+  <si>
+    <t xml:space="preserve">03/04 lig. (chamou </t>
+  </si>
+  <si>
+    <t xml:space="preserve">03/04 lig (grave seu recado) aúdio wpp </t>
+  </si>
+  <si>
+    <t>já havia reagido antes  veio até a recepção e encaixe para o atendimento</t>
+  </si>
+  <si>
+    <t>04/04 msg wpp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04/04 msg wpp </t>
+  </si>
+  <si>
+    <t>04/04 aúdio wpp</t>
+  </si>
+  <si>
+    <t>05/04 aúdio wpp</t>
+  </si>
+  <si>
+    <t>05/04 lig (tututu) aúdio wpp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05/04 cvs wpp </t>
+  </si>
+  <si>
+    <t xml:space="preserve">05/04lig ( não atendeu) aúdio wpp </t>
+  </si>
+  <si>
+    <t xml:space="preserve">05/04 ligação atendeu </t>
+  </si>
+  <si>
+    <t>06/04  Dra. Anna aúdio wpp</t>
+  </si>
+  <si>
+    <t>05/04 Dra. Anna aúdio wpp</t>
+  </si>
+  <si>
+    <t>06/04 Dra Anna aúdio wpp</t>
+  </si>
+  <si>
+    <t>06/04 Dra. Anna aúdio wpp</t>
+  </si>
+  <si>
+    <t>06/04 Dra. Anna aúdio wpp + ligação não atendeu</t>
+  </si>
+  <si>
+    <t>06/04 Aúdio+ ligação</t>
+  </si>
+  <si>
+    <t>06/04 Ligação</t>
+  </si>
+  <si>
+    <t>06/04 Aúdio+ ligação (não atendeu)</t>
+  </si>
+  <si>
+    <t>06/04 ligação (não atendeu)</t>
+  </si>
+  <si>
+    <t>06/04 ligação</t>
+  </si>
+  <si>
+    <t>06/04 Aúdio</t>
+  </si>
+  <si>
+    <t>08/04 ligação (não atendeu)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08/04 ligação </t>
+  </si>
+  <si>
+    <t xml:space="preserve">08/04 aúdio wpp </t>
+  </si>
+  <si>
+    <t>08/04 aúdio wpp</t>
+  </si>
+  <si>
+    <t>08/04 D.Anna wa</t>
+  </si>
+  <si>
+    <t>08/04  D.Anna wa</t>
+  </si>
+  <si>
+    <t>08/04 Aúdio wpp</t>
+  </si>
+  <si>
+    <t>lig 03/04 atendeu e fica calado | 03/04 +1 aúdio wpp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ttvs de lig 03/04 AM s/retorno| msgs wpp </t>
+  </si>
+  <si>
+    <t>08/04  ligação</t>
+  </si>
+  <si>
+    <t>08/04 ligação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delmiro G. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">atendeu lig, falou que tem interesse em implantes </t>
+  </si>
+  <si>
+    <t>BLOQUEOU???</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interesse em prótese total </t>
+  </si>
+  <si>
+    <t>interessado em prótese</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qual rua fica, buscando tratamento ortodôntico para o filho </t>
+  </si>
+  <si>
+    <t>Esta realizando consultas medicas(dor no joelho) e cuida da mãe acamada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">disse que tá precisando de tratamento, muita coisa </t>
+  </si>
+  <si>
+    <t>valor de prótese, mora me macururé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paciente não esta satisfeito com a prótese removível </t>
+  </si>
+  <si>
+    <t>Atendeu, quando me indentiquei, ficou mudo e desligou.</t>
+  </si>
+  <si>
+    <t>Ligar as 17:00h</t>
+  </si>
+  <si>
+    <t>querendo saber valor.É de Jeremoabo</t>
+  </si>
+  <si>
+    <t>ligar dia 30/04</t>
+  </si>
+  <si>
+    <t>Prótese total</t>
+  </si>
+  <si>
+    <t>Delmiro Gouveia</t>
+  </si>
+  <si>
+    <t>Macururé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">agendou para sex 05/04 AM </t>
+  </si>
+  <si>
+    <t>cvs via wpp - mandar aúdio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sem resposta até o momento </t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMPARECEU  ter 02/04 PM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">agendou para sab 06/04 AM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ctt por lig s/retorno, msg wpp </t>
+  </si>
+  <si>
+    <t xml:space="preserve">agendou qua 10/04 PM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ficou dever um dia para tarzer o filho para avaliação </t>
+  </si>
+  <si>
+    <t>COMPARECEU 03/04 QUA PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLOQUEOU??  Msg não chegou </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sem resposta </t>
+  </si>
+  <si>
+    <t>disse que não tem interesse em fazer agora</t>
+  </si>
+  <si>
+    <t>COMPARECEU  SEX 05/04 PM</t>
+  </si>
+  <si>
+    <t>agendar depois de quarta</t>
+  </si>
+  <si>
+    <t>agendou qua 10/04 PM</t>
+  </si>
+  <si>
+    <t>agendou qua 10/04 AM 10:00h</t>
+  </si>
+  <si>
+    <t>Esta trabalhando em outra cidade(chega entre o dia 18/20  ligarpara agendar)</t>
+  </si>
+  <si>
+    <t>Mora em Jeremoabo, vai se programar para agendar</t>
+  </si>
+  <si>
+    <t>Esta trabalhando em outra cidade, retorna dia 30/04, entra em contato</t>
+  </si>
+  <si>
+    <t>Informou que mora em Curaça-BA, e não tem como esta vindo a cidade</t>
+  </si>
+  <si>
+    <t>Paciente mora em alagoas, não tem condições de esta vindo a paulo afonso.</t>
+  </si>
+  <si>
+    <t>Paciente trabalha em sergipe, ligar no final do mês para agendar</t>
+  </si>
+  <si>
+    <t>Ligar as 14:00h</t>
+  </si>
+  <si>
+    <t>Foi embora, para Minas, tava de passagem :)</t>
+  </si>
+  <si>
+    <t>Jeremoabo</t>
+  </si>
+  <si>
+    <t>Fim</t>
   </si>
 </sst>
 </file>
@@ -258,7 +648,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="\(##\)\ #####\-####"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -289,13 +679,81 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -322,10 +780,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -336,8 +795,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bom" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
@@ -437,8 +907,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{ADB2FEFD-EA53-4136-A3C5-9787ABBAC659}" name="Status" displayName="Status" ref="C1:C6" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="C1:C6" xr:uid="{6E69E7C9-D77D-467F-837F-243748BB5FC3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{ADB2FEFD-EA53-4136-A3C5-9787ABBAC659}" name="Status" displayName="Status" ref="C1:C7" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="C1:C7" xr:uid="{6E69E7C9-D77D-467F-837F-243748BB5FC3}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{99415A8E-9709-402D-91AF-8F636A4B73E3}" name="Status"/>
   </tableColumns>
@@ -787,27 +1257,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O2001"/>
+  <dimension ref="A1:P1991"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.28515625" customWidth="1"/>
+    <col min="11" max="12" width="19.5703125" style="6" customWidth="1"/>
+    <col min="13" max="13" width="19.5703125" customWidth="1"/>
     <col min="14" max="14" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="21.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -839,629 +1313,1739 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
-        <v>44634</v>
+        <v>45383</v>
       </c>
       <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G2" s="4">
+        <v>82999820812</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="O2" t="s">
+        <v>51</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>45383</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="4">
+        <v>82981603206</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="O3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>45384</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="4">
+        <v>75988434581</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>45384</v>
+      </c>
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="4">
+        <v>75988251572</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="8"/>
+      <c r="K5" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="O5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>45384</v>
+      </c>
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="4">
+        <v>75991029128</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D2">
-        <v>33</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="4">
-        <v>79999999999</v>
-      </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>44941</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="I6" t="s">
+        <v>177</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="O6" t="s">
+        <v>51</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>45384</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="4">
+        <v>82996681520</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="9"/>
+      <c r="K7" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="O7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>45384</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="G8" s="4">
+        <v>75988049330</v>
+      </c>
+      <c r="H8" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="D3">
-        <v>39</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="4">
-        <v>79999999999</v>
-      </c>
-      <c r="H3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" t="s">
-        <v>37</v>
-      </c>
-      <c r="O3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>45032</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="4">
-        <v>75999999999</v>
-      </c>
-      <c r="H4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" t="s">
-        <v>24</v>
-      </c>
-      <c r="O4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>45340</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5">
-        <v>65</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="4">
-        <v>75999999999</v>
-      </c>
-      <c r="H5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" t="s">
-        <v>42</v>
-      </c>
-      <c r="K5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" t="s">
-        <v>39</v>
-      </c>
-      <c r="O5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>45352</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6">
-        <v>67</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="4">
-        <v>75999999999</v>
-      </c>
-      <c r="H6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" t="s">
-        <v>22</v>
-      </c>
-      <c r="O6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>45368</v>
-      </c>
-      <c r="B7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="4">
-        <v>75999999999</v>
-      </c>
-      <c r="H7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K7" t="s">
-        <v>33</v>
-      </c>
-      <c r="O7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>45369</v>
-      </c>
-      <c r="B8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8">
-        <v>60</v>
-      </c>
-      <c r="E8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="4">
-        <v>75999999999</v>
-      </c>
-      <c r="H8" t="s">
-        <v>21</v>
       </c>
       <c r="I8" t="s">
         <v>25</v>
       </c>
-      <c r="K8" t="s">
-        <v>43</v>
+      <c r="J8" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>129</v>
       </c>
       <c r="O8" t="s">
+        <v>51</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>45385</v>
+      </c>
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="4">
+        <v>87981783612</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="10"/>
+      <c r="K9" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="O9" t="s">
+        <v>19</v>
+      </c>
+      <c r="P9" s="10"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>45385</v>
+      </c>
+      <c r="B10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="4">
+        <v>75992144461</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="O10" t="s">
+        <v>20</v>
+      </c>
+      <c r="P10" s="9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>45385</v>
+      </c>
+      <c r="B11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="4">
+        <v>75988555238</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="8"/>
+      <c r="K11" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="O11" t="s">
+        <v>52</v>
+      </c>
+      <c r="P11" s="8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>45385</v>
+      </c>
+      <c r="B12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="4">
+        <v>75999681714</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="8"/>
+      <c r="O12" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="P12" s="8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>45385</v>
+      </c>
+      <c r="B13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="4">
+        <v>87998231341</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P13" s="6"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>45385</v>
+      </c>
+      <c r="B14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="4">
+        <v>82991105401</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P14" s="6"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>45385</v>
+      </c>
+      <c r="B15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="4">
+        <v>75988626153</v>
+      </c>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P15" s="6"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>45385</v>
+      </c>
+      <c r="B16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="4">
+        <v>45998000203</v>
+      </c>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P16" s="6"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>45385</v>
+      </c>
+      <c r="B17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="4">
+        <v>75981426457</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P17" s="6"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>45386</v>
+      </c>
+      <c r="B18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="4">
+        <v>75982607830</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P18" s="6"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>45386</v>
+      </c>
+      <c r="B19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="4">
+        <v>75997002546</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="O19" t="s">
+        <v>19</v>
+      </c>
+      <c r="P19" s="10" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>45386</v>
+      </c>
+      <c r="B20" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>45371</v>
-      </c>
-      <c r="B9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="C20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="4">
+        <v>75988360462</v>
+      </c>
+      <c r="H20" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D9">
-        <v>37</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="J20" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="O20" t="s">
+        <v>176</v>
+      </c>
+      <c r="P20" s="11"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>45386</v>
+      </c>
+      <c r="B21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="4">
+        <v>75988247498</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="O21" t="s">
+        <v>19</v>
+      </c>
+      <c r="P21" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>45386</v>
+      </c>
+      <c r="B22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="4">
+        <v>75999120304</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="O22" t="s">
+        <v>20</v>
+      </c>
+      <c r="P22" s="6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>45386</v>
+      </c>
+      <c r="B23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" t="s">
+        <v>179</v>
+      </c>
+      <c r="G23" s="4">
+        <v>75999063868</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" t="s">
+        <v>25</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="O23" t="s">
+        <v>19</v>
+      </c>
+      <c r="P23" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>45386</v>
+      </c>
+      <c r="B24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="4">
+        <v>75991875914</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="P24" s="6"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>45387</v>
+      </c>
+      <c r="B25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="4">
+        <v>75999119556</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="P25" s="6"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>45387</v>
+      </c>
+      <c r="B26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" s="4">
+        <v>75988387263</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J26" s="8"/>
+      <c r="K26" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="O26" t="s">
+        <v>52</v>
+      </c>
+      <c r="P26" s="8" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>45387</v>
+      </c>
+      <c r="B27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="4">
+        <v>75991803755</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="P27" s="6"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>45387</v>
+      </c>
+      <c r="B28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="4">
+        <v>35997077229</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="O28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P28" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>45387</v>
+      </c>
+      <c r="B29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="4">
+        <v>75999337988</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="P29" s="6"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>45387</v>
+      </c>
+      <c r="B30" t="s">
+        <v>81</v>
+      </c>
+      <c r="G30" s="4">
+        <v>82991291868</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="P30" s="6"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>45387</v>
+      </c>
+      <c r="B31" t="s">
+        <v>82</v>
+      </c>
+      <c r="G31" s="4">
+        <v>74998004631</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="P31" s="6"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>45387</v>
+      </c>
+      <c r="B32" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="4">
+        <v>75992497564</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="P32" s="6"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>45387</v>
+      </c>
+      <c r="B33" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="4">
+        <v>31996851984</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I33" t="s">
+        <v>25</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="O33" t="s">
+        <v>51</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>45387</v>
+      </c>
+      <c r="B34" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="4">
+        <v>75983404714</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="P34" s="6"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>45387</v>
+      </c>
+      <c r="B35" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="4">
+        <v>82996038928</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J35" s="7"/>
+      <c r="K35" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="O35" t="s">
+        <v>51</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="14">
+        <v>45387</v>
+      </c>
+      <c r="B36" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="4">
+        <v>22999526906</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="P36" s="6"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="14">
+        <v>45387</v>
+      </c>
+      <c r="B37" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" s="4">
+        <v>75991377577</v>
+      </c>
+      <c r="H37" t="s">
+        <v>122</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="L37" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="P37" s="6"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="14">
+        <v>45387</v>
+      </c>
+      <c r="B38" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" s="4">
+        <v>82999108404</v>
+      </c>
+      <c r="H38" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="4">
-        <v>75999999999</v>
-      </c>
-      <c r="H9" t="s">
-        <v>70</v>
-      </c>
-      <c r="I9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>45373</v>
-      </c>
-      <c r="B10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="J38" s="6"/>
+      <c r="K38" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="P38" s="6"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" s="14">
+        <v>45388</v>
+      </c>
+      <c r="B39" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" s="4">
+        <v>82981921368</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="P39" s="6"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" s="14">
+        <v>45388</v>
+      </c>
+      <c r="B40" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40" s="4">
+        <v>82996274490</v>
+      </c>
+      <c r="H40" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D10">
-        <v>17</v>
-      </c>
-      <c r="E10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="4">
-        <v>79999999999</v>
-      </c>
-      <c r="H10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" t="s">
-        <v>74</v>
-      </c>
-      <c r="O10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>45373</v>
-      </c>
-      <c r="B11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="J40" s="6"/>
+      <c r="K40" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="P40" s="6"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="14">
+        <v>45388</v>
+      </c>
+      <c r="B41" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" s="4">
+        <v>82981228071</v>
+      </c>
+      <c r="H41" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D11">
-        <v>68</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="J41" s="6"/>
+      <c r="K41" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="P41" s="6"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
+        <v>45388</v>
+      </c>
+      <c r="B42" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" s="4">
+        <v>75988748286</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J42" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="K42" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="P42" s="11"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
+        <v>45388</v>
+      </c>
+      <c r="B43" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" t="s">
+        <v>204</v>
+      </c>
+      <c r="G43" s="4">
+        <v>75999256961</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J43" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="K43" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="P43" s="6"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
+        <v>45388</v>
+      </c>
+      <c r="B44" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" s="4">
+        <v>75991428868</v>
+      </c>
+      <c r="H44" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="4">
-        <v>75999999999</v>
-      </c>
-      <c r="H11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" t="s">
-        <v>25</v>
-      </c>
-      <c r="O11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="G24" s="4"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="G25" s="4"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="G26" s="4"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="G27" s="4"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="G28" s="4"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="G29" s="4"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="G30" s="4"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="G31" s="4"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="G32" s="4"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="G33" s="4"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
-      <c r="G34" s="4"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-      <c r="G35" s="4"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
-      <c r="G36" s="4"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-      <c r="G37" s="4"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
-      <c r="G38" s="4"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
-      <c r="G39" s="4"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
-      <c r="G40" s="4"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="5"/>
-      <c r="G41" s="4"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="5"/>
-      <c r="G42" s="4"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="5"/>
-      <c r="G43" s="4"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
-      <c r="G44" s="4"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
-      <c r="G45" s="4"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="5"/>
-      <c r="G46" s="4"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="5"/>
-      <c r="G47" s="4"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="5"/>
-      <c r="G48" s="4"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="5"/>
-      <c r="G49" s="4"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="5"/>
-      <c r="G50" s="4"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="5"/>
-      <c r="G51" s="4"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="5"/>
-      <c r="G52" s="4"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="5"/>
-      <c r="G53" s="4"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="5"/>
-      <c r="G54" s="4"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="5"/>
-      <c r="G55" s="4"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="5"/>
-      <c r="G56" s="4"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="5"/>
-      <c r="G57" s="4"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="5"/>
-      <c r="G58" s="4"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="5"/>
-      <c r="G59" s="4"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="5"/>
-      <c r="G60" s="4"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="5"/>
-      <c r="G61" s="4"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="5"/>
-      <c r="G62" s="4"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="5"/>
-      <c r="G63" s="4"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="5"/>
-      <c r="G64" s="4"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="5"/>
-      <c r="G65" s="4"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="5"/>
-      <c r="G66" s="4"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="5"/>
-      <c r="G67" s="4"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="5"/>
-      <c r="G68" s="4"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="5"/>
-      <c r="G69" s="4"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="5"/>
-      <c r="G70" s="4"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J44" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="K44" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="P44" s="11"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
+        <v>45388</v>
+      </c>
+      <c r="B45" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" s="4">
+        <v>82981660436</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="P45" s="6"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
+        <v>45388</v>
+      </c>
+      <c r="B46" t="s">
+        <v>97</v>
+      </c>
+      <c r="C46" t="s">
+        <v>10</v>
+      </c>
+      <c r="G46" s="4">
+        <v>75991803755</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="P46" s="6"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
+        <v>45388</v>
+      </c>
+      <c r="B47" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47" s="4">
+        <v>74988100354</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J47" s="13"/>
+      <c r="K47" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="P47" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
+        <v>45388</v>
+      </c>
+      <c r="B48" t="s">
+        <v>99</v>
+      </c>
+      <c r="G48" s="4">
+        <v>82982062061</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="L48" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="P48" s="6"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49" s="5">
+        <v>45388</v>
+      </c>
+      <c r="B49" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49" s="4">
+        <v>75988159246</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="P49" s="6"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" s="5">
+        <v>45388</v>
+      </c>
+      <c r="B50" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G50" s="4">
+        <v>11910296335</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="P50" s="6"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" s="5">
+        <v>45388</v>
+      </c>
+      <c r="B51" t="s">
+        <v>102</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" s="4">
+        <v>75992915243</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J51" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="K51" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="P51" s="6"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52" s="5">
+        <v>45388</v>
+      </c>
+      <c r="B52" t="s">
+        <v>103</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" s="4">
+        <v>82999797955</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="L52" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="P52" s="6"/>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A53" s="5">
+        <v>45388</v>
+      </c>
+      <c r="B53" t="s">
+        <v>104</v>
+      </c>
+      <c r="C53" t="s">
+        <v>10</v>
+      </c>
+      <c r="G53" s="4">
+        <v>75991622042</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="L53" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="P53" s="6"/>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A54" s="5">
+        <v>45388</v>
+      </c>
+      <c r="B54" t="s">
+        <v>105</v>
+      </c>
+      <c r="G54" s="4">
+        <v>82982069224</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="P54" s="6"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A55" s="5">
+        <v>45389</v>
+      </c>
+      <c r="B55" t="s">
+        <v>106</v>
+      </c>
+      <c r="C55" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" t="s">
+        <v>26</v>
+      </c>
+      <c r="G55" s="4">
+        <v>82981337572</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J55" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="K55" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A56" s="5">
+        <v>45389</v>
+      </c>
+      <c r="B56" t="s">
+        <v>107</v>
+      </c>
+      <c r="C56" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" s="4">
+        <v>75983420278</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J56" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="K56" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A57" s="5">
+        <v>45389</v>
+      </c>
+      <c r="B57" t="s">
+        <v>108</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" s="4">
+        <v>75992130915</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J57" s="7"/>
+      <c r="K57" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="L57" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="P57" s="7"/>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A58" s="5">
+        <v>45389</v>
+      </c>
+      <c r="B58" t="s">
+        <v>109</v>
+      </c>
+      <c r="C58" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" s="4">
+        <v>82998353784</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J58" s="6"/>
+      <c r="K58" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="P58" s="6"/>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A59" s="5">
+        <v>45389</v>
+      </c>
+      <c r="B59" t="s">
+        <v>110</v>
+      </c>
+      <c r="C59" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59" s="4">
+        <v>75999996787</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="P59" s="6"/>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A60" s="5">
+        <v>45389</v>
+      </c>
+      <c r="B60" t="s">
+        <v>111</v>
+      </c>
+      <c r="C60" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" s="4">
+        <v>82981743982</v>
+      </c>
+      <c r="H60" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="P60" s="6"/>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A61" s="5">
+        <v>45389</v>
+      </c>
+      <c r="B61" t="s">
+        <v>112</v>
+      </c>
+      <c r="C61" t="s">
+        <v>10</v>
+      </c>
+      <c r="G61" s="4">
+        <v>75983524544</v>
+      </c>
+      <c r="H61" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J61" s="6"/>
+      <c r="K61" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="P61" s="6"/>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A62" s="5">
+        <v>45389</v>
+      </c>
+      <c r="B62" t="s">
+        <v>113</v>
+      </c>
+      <c r="C62" t="s">
+        <v>11</v>
+      </c>
+      <c r="G62" s="4">
+        <v>11982512721</v>
+      </c>
+      <c r="H62" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J62" s="6"/>
+      <c r="K62" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="P62" s="6"/>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A63" s="5">
+        <v>45389</v>
+      </c>
+      <c r="B63" t="s">
+        <v>114</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" s="4">
+        <v>75992054518</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J63" s="6"/>
+      <c r="K63" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="P63" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A64" s="5">
+        <v>45390</v>
+      </c>
+      <c r="B64" t="s">
+        <v>115</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G64" s="4">
+        <v>75998396989</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J64" s="6"/>
+      <c r="K64" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="P64" s="6"/>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A65" s="5">
+        <v>45390</v>
+      </c>
+      <c r="B65" t="s">
+        <v>116</v>
+      </c>
+      <c r="C65" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" t="s">
+        <v>38</v>
+      </c>
+      <c r="G65" s="4">
+        <v>34984283896</v>
+      </c>
+      <c r="H65" t="s">
+        <v>14</v>
+      </c>
+      <c r="J65" s="6"/>
+      <c r="K65" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="O65" t="s">
+        <v>205</v>
+      </c>
+      <c r="P65" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A66" s="5">
+        <v>45390</v>
+      </c>
+      <c r="B66" t="s">
+        <v>117</v>
+      </c>
+      <c r="G66" s="4">
+        <v>75991439307</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J66" s="6"/>
+      <c r="K66" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="P66" s="6"/>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A67" s="5">
+        <v>45390</v>
+      </c>
+      <c r="B67" t="s">
+        <v>118</v>
+      </c>
+      <c r="C67" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67" s="4">
+        <v>75998179677</v>
+      </c>
+      <c r="J67" s="6"/>
+      <c r="K67" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="P67" s="6"/>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A68" s="5">
+        <v>45390</v>
+      </c>
+      <c r="B68" t="s">
+        <v>119</v>
+      </c>
+      <c r="C68" t="s">
+        <v>11</v>
+      </c>
+      <c r="G68" s="4">
+        <v>17988157464</v>
+      </c>
+      <c r="H68" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J68" s="6"/>
+      <c r="K68" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="P68" s="6"/>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A69" s="5">
+        <v>45390</v>
+      </c>
+      <c r="B69" t="s">
+        <v>120</v>
+      </c>
+      <c r="C69" t="s">
+        <v>10</v>
+      </c>
+      <c r="G69" s="4">
+        <v>82998353784</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J69" s="6"/>
+      <c r="K69" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="P69" s="6"/>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A70" s="5">
+        <v>45390</v>
+      </c>
+      <c r="B70" t="s">
+        <v>121</v>
+      </c>
+      <c r="C70" t="s">
+        <v>11</v>
+      </c>
+      <c r="G70" s="4">
+        <v>82981539473</v>
+      </c>
+      <c r="H70" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J70" s="6"/>
+      <c r="K70" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="P70" s="6"/>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="5"/>
       <c r="G71" s="4"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="5"/>
       <c r="G72" s="4"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="5"/>
       <c r="G73" s="4"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="5"/>
       <c r="G74" s="4"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="5"/>
       <c r="G75" s="4"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="5"/>
       <c r="G76" s="4"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="5"/>
       <c r="G77" s="4"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="5"/>
       <c r="G78" s="4"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="5"/>
       <c r="G79" s="4"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="5"/>
       <c r="G80" s="4"/>
     </row>
@@ -9109,60 +10693,20 @@
       <c r="A1991" s="5"/>
       <c r="G1991" s="4"/>
     </row>
-    <row r="1992" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1992" s="5"/>
-      <c r="G1992" s="4"/>
-    </row>
-    <row r="1993" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1993" s="5"/>
-      <c r="G1993" s="4"/>
-    </row>
-    <row r="1994" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1994" s="5"/>
-      <c r="G1994" s="4"/>
-    </row>
-    <row r="1995" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1995" s="5"/>
-      <c r="G1995" s="4"/>
-    </row>
-    <row r="1996" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1996" s="5"/>
-      <c r="G1996" s="4"/>
-    </row>
-    <row r="1997" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1997" s="5"/>
-      <c r="G1997" s="4"/>
-    </row>
-    <row r="1998" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1998" s="5"/>
-      <c r="G1998" s="4"/>
-    </row>
-    <row r="1999" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1999" s="5"/>
-      <c r="G1999" s="4"/>
-    </row>
-    <row r="2000" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2000" s="5"/>
-      <c r="G2000" s="4"/>
-    </row>
-    <row r="2001" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2001" s="5"/>
-      <c r="G2001" s="4"/>
-    </row>
   </sheetData>
   <dataConsolidate/>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O2001" xr:uid="{F688FC34-E833-4CD7-A4D5-C5F546A92EE3}">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1991" xr:uid="{F688FC34-E833-4CD7-A4D5-C5F546A92EE3}">
       <formula1>INDIRECT($O$1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H2001" xr:uid="{93647A22-8740-4623-B66D-0B97A8FAEE52}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1991" xr:uid="{93647A22-8740-4623-B66D-0B97A8FAEE52}">
       <formula1>INDIRECT($H$1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C2001" xr:uid="{5621FDED-ABF2-43E6-AC50-2601095590B7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1991" xr:uid="{5621FDED-ABF2-43E6-AC50-2601095590B7}">
       <formula1>INDIRECT($C$1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E2001" xr:uid="{B5802FD3-4B31-4E49-86A2-E564AC5434C7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1991" xr:uid="{B5802FD3-4B31-4E49-86A2-E564AC5434C7}">
       <formula1>INDIRECT($E$1)</formula1>
     </dataValidation>
   </dataValidations>
@@ -9176,7 +10720,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9194,7 +10738,7 @@
         <v>7</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>4</v>
@@ -9202,170 +10746,173 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>70</v>
+        <v>122</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>205</v>
+      </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Lead.xlsx
+++ b/Lead.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ATUAL 2024\Projetos R\Clinica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5329C0B4-D3F5-44B0-A977-C394AEF88FFF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F54220-DBBB-4367-AB86-85897283315D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="261">
   <si>
     <t>Data</t>
   </si>
@@ -639,6 +639,171 @@
   </si>
   <si>
     <t>Fim</t>
+  </si>
+  <si>
+    <t>Maria de Fátima</t>
+  </si>
+  <si>
+    <t>08/04  Aúdio wpp</t>
+  </si>
+  <si>
+    <t>~Jailson</t>
+  </si>
+  <si>
+    <t>~Sandro</t>
+  </si>
+  <si>
+    <t>~João Martins dos Santos</t>
+  </si>
+  <si>
+    <t>~E Nós</t>
+  </si>
+  <si>
+    <t>~Antônio</t>
+  </si>
+  <si>
+    <t>Emoji</t>
+  </si>
+  <si>
+    <t>~Deus E Fiel</t>
+  </si>
+  <si>
+    <t>~Diego</t>
+  </si>
+  <si>
+    <t>~Binho</t>
+  </si>
+  <si>
+    <t>~arturhgo2</t>
+  </si>
+  <si>
+    <t>~ajoseirenaldovaa</t>
+  </si>
+  <si>
+    <t>~Nyedja</t>
+  </si>
+  <si>
+    <t>~Cida Araújo(Maria Aparecida Araújo da Silva)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~Cica </t>
+  </si>
+  <si>
+    <t>~Edivaldo</t>
+  </si>
+  <si>
+    <t>Analice</t>
+  </si>
+  <si>
+    <t>~Jaciara</t>
+  </si>
+  <si>
+    <t>~yedasantos8603</t>
+  </si>
+  <si>
+    <t>Luis carlos</t>
+  </si>
+  <si>
+    <t>09/04 Ligação Atendeu</t>
+  </si>
+  <si>
+    <t>09/04 Aúdio wpp</t>
+  </si>
+  <si>
+    <t>09/04 Aúdio wpp+ ligação Atendeu</t>
+  </si>
+  <si>
+    <t>09/04  Aúdio wpp</t>
+  </si>
+  <si>
+    <t>10/04 Ligação não atendeu</t>
+  </si>
+  <si>
+    <t>10/04 Ligação atendeu</t>
+  </si>
+  <si>
+    <t>11/04 Ligação atendeu</t>
+  </si>
+  <si>
+    <t>11/04 wa D.Anna</t>
+  </si>
+  <si>
+    <t>11/04 Ligação+ Aúdio</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Agendou 16/04 Interesse em Implante</t>
+  </si>
+  <si>
+    <t>Lead esta na cidade de Bom Jesus da Lapa</t>
+  </si>
+  <si>
+    <t>Agendou ter. 16/04</t>
+  </si>
+  <si>
+    <t>ligar novamente 10/04</t>
+  </si>
+  <si>
+    <t>Reagiu por engano o vídeo</t>
+  </si>
+  <si>
+    <t>Mora em Aguas belas-Al</t>
+  </si>
+  <si>
+    <t>Mora em Maceio pensou que a clinica ficava localizada lá.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Reside em Chorrochó, mas não tem data prevista para visitar Paulo Afonso (interesse em prótese fixa).</t>
+  </si>
+  <si>
+    <t>Agendou 16/04</t>
+  </si>
+  <si>
+    <t>Mora no povoado próxima a Delmiro Gouveia, achou distante mas vai se organizar no trabalho para tentar marcar uma avaliação.</t>
+  </si>
+  <si>
+    <t>Mora no Municipio de Glória, o mesmo relata que não tem condição financeira.</t>
+  </si>
+  <si>
+    <t>Mora em Delmiro, por enquanto vai aguardar um pouco para agendar avaliação.</t>
+  </si>
+  <si>
+    <t>Procura atendimento para esposo, vai esperar chegar de Jeremoabo para conversar e marcar uma avaliação (interesse em implante).</t>
+  </si>
+  <si>
+    <t>Reside em olho d'agua do casado</t>
+  </si>
+  <si>
+    <t>Esta acidentado(Ligar novamente dia 30/04)</t>
+  </si>
+  <si>
+    <t>Implante</t>
+  </si>
+  <si>
+    <t>Águas Belas</t>
+  </si>
+  <si>
+    <t>Maceió</t>
+  </si>
+  <si>
+    <t>Chorrochó</t>
+  </si>
+  <si>
+    <t>Prótese fixa</t>
+  </si>
+  <si>
+    <t>Glória</t>
+  </si>
+  <si>
+    <t>Olho D'Água do Casado</t>
+  </si>
+  <si>
+    <t>Curaça</t>
+  </si>
+  <si>
+    <t>Tratamento</t>
+  </si>
+  <si>
+    <t>Avaliação</t>
   </si>
 </sst>
 </file>
@@ -701,7 +866,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -755,6 +920,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -795,16 +972,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bom" xfId="1" builtinId="26"/>
@@ -1260,8 +1437,8 @@
   <dimension ref="A1:P1991"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I93" sqref="I93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1275,8 +1452,7 @@
     <col min="7" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.28515625" customWidth="1"/>
-    <col min="11" max="12" width="19.5703125" style="6" customWidth="1"/>
-    <col min="13" max="13" width="19.5703125" customWidth="1"/>
+    <col min="11" max="13" width="19.5703125" customWidth="1"/>
     <col min="14" max="14" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="21.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -1350,16 +1526,16 @@
       <c r="H2" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" t="s">
         <v>123</v>
       </c>
       <c r="O2" t="s">
         <v>51</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="6" t="s">
         <v>180</v>
       </c>
     </row>
@@ -1376,19 +1552,22 @@
       <c r="H3" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="I3" t="s">
+        <v>251</v>
+      </c>
+      <c r="J3" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" t="s">
         <v>124</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" t="s">
         <v>159</v>
       </c>
       <c r="O3" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="P3" s="8" t="s">
         <v>181</v>
       </c>
     </row>
@@ -1405,19 +1584,19 @@
       <c r="G4" s="4">
         <v>75988434581</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" t="s">
         <v>125</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="O4" t="s">
         <v>19</v>
       </c>
-      <c r="P4" s="10" t="s">
+      <c r="P4" s="9" t="s">
         <v>182</v>
       </c>
     </row>
@@ -1428,23 +1607,23 @@
       <c r="B5" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="4">
         <v>75988251572</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="6" t="s">
+      <c r="J5" s="7"/>
+      <c r="K5" t="s">
         <v>126</v>
       </c>
       <c r="O5" t="s">
         <v>52</v>
       </c>
-      <c r="P5" s="8" t="s">
+      <c r="P5" s="7" t="s">
         <v>183</v>
       </c>
     </row>
@@ -1455,28 +1634,28 @@
       <c r="B6" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="4">
         <v>75991029128</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" t="s">
         <v>14</v>
       </c>
       <c r="I6" t="s">
         <v>177</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" t="s">
         <v>127</v>
       </c>
       <c r="O6" t="s">
         <v>51</v>
       </c>
-      <c r="P6" s="8" t="s">
+      <c r="P6" s="7" t="s">
         <v>184</v>
       </c>
     </row>
@@ -1490,20 +1669,20 @@
       <c r="G7" s="4">
         <v>82996681520</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" t="s">
         <v>14</v>
       </c>
-      <c r="J7" s="9"/>
-      <c r="K7" s="6" t="s">
+      <c r="J7" s="8"/>
+      <c r="K7" t="s">
         <v>128</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="L7" t="s">
         <v>160</v>
       </c>
       <c r="O7" t="s">
         <v>19</v>
       </c>
-      <c r="P7" s="9" t="s">
+      <c r="P7" s="8" t="s">
         <v>185</v>
       </c>
     </row>
@@ -1520,22 +1699,22 @@
       <c r="G8" s="4">
         <v>75988049330</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" t="s">
         <v>15</v>
       </c>
       <c r="I8" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="J8" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" t="s">
         <v>129</v>
       </c>
       <c r="O8" t="s">
         <v>51</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="P8" s="6" t="s">
         <v>186</v>
       </c>
     </row>
@@ -1552,17 +1731,17 @@
       <c r="G9" s="4">
         <v>87981783612</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="10"/>
-      <c r="K9" s="6" t="s">
+      <c r="J9" s="9"/>
+      <c r="K9" t="s">
         <v>130</v>
       </c>
       <c r="O9" t="s">
         <v>19</v>
       </c>
-      <c r="P9" s="10"/>
+      <c r="P9" s="9"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
@@ -1574,19 +1753,22 @@
       <c r="G10" s="4">
         <v>75992144461</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" t="s">
         <v>14</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="I10" t="s">
+        <v>259</v>
+      </c>
+      <c r="J10" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="K10" t="s">
         <v>131</v>
       </c>
       <c r="O10" t="s">
         <v>20</v>
       </c>
-      <c r="P10" s="9" t="s">
+      <c r="P10" s="8" t="s">
         <v>187</v>
       </c>
     </row>
@@ -1603,17 +1785,17 @@
       <c r="G11" s="4">
         <v>75988555238</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" t="s">
         <v>16</v>
       </c>
-      <c r="J11" s="8"/>
-      <c r="K11" s="6" t="s">
+      <c r="J11" s="7"/>
+      <c r="K11" t="s">
         <v>132</v>
       </c>
       <c r="O11" t="s">
         <v>52</v>
       </c>
-      <c r="P11" s="8" t="s">
+      <c r="P11" s="7" t="s">
         <v>188</v>
       </c>
     </row>
@@ -1630,14 +1812,14 @@
       <c r="G12" s="4">
         <v>75999681714</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="8"/>
-      <c r="O12" s="6" t="s">
+      <c r="J12" s="7"/>
+      <c r="O12" t="s">
         <v>52</v>
       </c>
-      <c r="P12" s="8" t="s">
+      <c r="P12" s="7" t="s">
         <v>188</v>
       </c>
     </row>
@@ -1648,20 +1830,18 @@
       <c r="B13" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="4">
         <v>87998231341</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6" t="s">
+      <c r="K13" t="s">
         <v>133</v>
       </c>
-      <c r="P13" s="6"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
@@ -1670,20 +1850,18 @@
       <c r="B14" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="4">
         <v>82991105401</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" t="s">
         <v>16</v>
       </c>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6" t="s">
+      <c r="K14" t="s">
         <v>133</v>
       </c>
-      <c r="P14" s="6"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
@@ -1692,17 +1870,15 @@
       <c r="B15" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="4">
         <v>75988626153</v>
       </c>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6" t="s">
+      <c r="K15" t="s">
         <v>133</v>
       </c>
-      <c r="P15" s="6"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
@@ -1711,17 +1887,15 @@
       <c r="B16" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="4">
         <v>45998000203</v>
       </c>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6" t="s">
+      <c r="K16" t="s">
         <v>133</v>
       </c>
-      <c r="P16" s="6"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
@@ -1730,20 +1904,18 @@
       <c r="B17" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="4">
         <v>75981426457</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H17" t="s">
         <v>14</v>
       </c>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6" t="s">
+      <c r="K17" t="s">
         <v>133</v>
       </c>
-      <c r="P17" s="6"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
@@ -1752,20 +1924,18 @@
       <c r="B18" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="4">
         <v>75982607830</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="H18" t="s">
         <v>14</v>
       </c>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6" t="s">
+      <c r="K18" t="s">
         <v>133</v>
       </c>
-      <c r="P18" s="6"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
@@ -1774,25 +1944,31 @@
       <c r="B19" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" t="s">
         <v>11</v>
+      </c>
+      <c r="E19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" t="s">
+        <v>204</v>
       </c>
       <c r="G19" s="4">
         <v>75997002546</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="H19" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="10" t="s">
+      <c r="J19" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="K19" s="6" t="s">
+      <c r="K19" t="s">
         <v>133</v>
       </c>
       <c r="O19" t="s">
         <v>19</v>
       </c>
-      <c r="P19" s="10" t="s">
+      <c r="P19" s="9" t="s">
         <v>189</v>
       </c>
     </row>
@@ -1803,28 +1979,28 @@
       <c r="B20" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="4">
         <v>75988360462</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="H20" t="s">
         <v>15</v>
       </c>
-      <c r="J20" s="11" t="s">
+      <c r="J20" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="K20" s="6" t="s">
+      <c r="K20" t="s">
         <v>133</v>
       </c>
-      <c r="L20" s="6" t="s">
+      <c r="L20" t="s">
         <v>150</v>
       </c>
       <c r="O20" t="s">
         <v>176</v>
       </c>
-      <c r="P20" s="11"/>
+      <c r="P20" s="10"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
@@ -1839,17 +2015,16 @@
       <c r="G21" s="4">
         <v>75988247498</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="H21" t="s">
         <v>15</v>
       </c>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6" t="s">
+      <c r="K21" t="s">
         <v>134</v>
       </c>
       <c r="O21" t="s">
         <v>19</v>
       </c>
-      <c r="P21" s="6" t="s">
+      <c r="P21" t="s">
         <v>190</v>
       </c>
     </row>
@@ -1866,19 +2041,22 @@
       <c r="G22" s="4">
         <v>75999120304</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="H22" t="s">
         <v>15</v>
       </c>
-      <c r="J22" s="6" t="s">
+      <c r="I22" t="s">
+        <v>259</v>
+      </c>
+      <c r="J22" t="s">
         <v>170</v>
       </c>
-      <c r="K22" s="6" t="s">
+      <c r="K22" t="s">
         <v>135</v>
       </c>
       <c r="O22" t="s">
         <v>20</v>
       </c>
-      <c r="P22" s="6" t="s">
+      <c r="P22" t="s">
         <v>191</v>
       </c>
     </row>
@@ -1901,22 +2079,22 @@
       <c r="G23" s="4">
         <v>75999063868</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="H23" t="s">
         <v>15</v>
       </c>
       <c r="I23" t="s">
         <v>25</v>
       </c>
-      <c r="J23" s="6" t="s">
+      <c r="J23" t="s">
         <v>171</v>
       </c>
-      <c r="K23" s="6" t="s">
+      <c r="K23" t="s">
         <v>135</v>
       </c>
       <c r="O23" t="s">
         <v>19</v>
       </c>
-      <c r="P23" s="6" t="s">
+      <c r="P23" t="s">
         <v>190</v>
       </c>
     </row>
@@ -1933,14 +2111,12 @@
       <c r="G24" s="4">
         <v>75991875914</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="H24" t="s">
         <v>15</v>
       </c>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6" t="s">
+      <c r="K24" t="s">
         <v>136</v>
       </c>
-      <c r="P24" s="6"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
@@ -1955,14 +2131,12 @@
       <c r="G25" s="4">
         <v>75999119556</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="H25" t="s">
         <v>14</v>
       </c>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6" t="s">
+      <c r="K25" t="s">
         <v>137</v>
       </c>
-      <c r="P25" s="6"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
@@ -1977,17 +2151,17 @@
       <c r="G26" s="4">
         <v>75988387263</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="H26" t="s">
         <v>15</v>
       </c>
-      <c r="J26" s="8"/>
-      <c r="K26" s="6" t="s">
+      <c r="J26" s="7"/>
+      <c r="K26" t="s">
         <v>138</v>
       </c>
       <c r="O26" t="s">
         <v>52</v>
       </c>
-      <c r="P26" s="8" t="s">
+      <c r="P26" s="7" t="s">
         <v>192</v>
       </c>
     </row>
@@ -2004,14 +2178,12 @@
       <c r="G27" s="4">
         <v>75991803755</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="H27" t="s">
         <v>15</v>
       </c>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6" t="s">
+      <c r="K27" t="s">
         <v>136</v>
       </c>
-      <c r="P27" s="6"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
@@ -2026,17 +2198,16 @@
       <c r="G28" s="4">
         <v>35997077229</v>
       </c>
-      <c r="H28" s="6" t="s">
+      <c r="H28" t="s">
         <v>15</v>
       </c>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6" t="s">
+      <c r="K28" t="s">
         <v>136</v>
       </c>
       <c r="O28" t="s">
         <v>20</v>
       </c>
-      <c r="P28" s="6" t="s">
+      <c r="P28" t="s">
         <v>193</v>
       </c>
     </row>
@@ -2047,20 +2218,18 @@
       <c r="B29" t="s">
         <v>80</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="4">
         <v>75999337988</v>
       </c>
-      <c r="H29" s="6" t="s">
+      <c r="H29" t="s">
         <v>14</v>
       </c>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6" t="s">
+      <c r="K29" t="s">
         <v>136</v>
       </c>
-      <c r="P29" s="6"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
@@ -2072,14 +2241,12 @@
       <c r="G30" s="4">
         <v>82991291868</v>
       </c>
-      <c r="H30" s="6" t="s">
+      <c r="H30" t="s">
         <v>14</v>
       </c>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6" t="s">
+      <c r="K30" t="s">
         <v>136</v>
       </c>
-      <c r="P30" s="6"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
@@ -2091,14 +2258,12 @@
       <c r="G31" s="4">
         <v>74998004631</v>
       </c>
-      <c r="H31" s="6" t="s">
+      <c r="H31" t="s">
         <v>14</v>
       </c>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6" t="s">
+      <c r="K31" t="s">
         <v>136</v>
       </c>
-      <c r="P31" s="6"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
@@ -2107,20 +2272,18 @@
       <c r="B32" t="s">
         <v>83</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" t="s">
         <v>11</v>
       </c>
       <c r="G32" s="4">
         <v>75992497564</v>
       </c>
-      <c r="H32" s="6" t="s">
+      <c r="H32" t="s">
         <v>14</v>
       </c>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6" t="s">
+      <c r="K32" t="s">
         <v>136</v>
       </c>
-      <c r="P32" s="6"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
@@ -2129,28 +2292,28 @@
       <c r="B33" t="s">
         <v>84</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" t="s">
         <v>11</v>
       </c>
       <c r="G33" s="4">
         <v>31996851984</v>
       </c>
-      <c r="H33" s="6" t="s">
+      <c r="H33" t="s">
         <v>15</v>
       </c>
       <c r="I33" t="s">
         <v>25</v>
       </c>
-      <c r="J33" s="7" t="s">
+      <c r="J33" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="K33" s="6" t="s">
+      <c r="K33" t="s">
         <v>138</v>
       </c>
       <c r="O33" t="s">
         <v>51</v>
       </c>
-      <c r="P33" s="7" t="s">
+      <c r="P33" s="6" t="s">
         <v>194</v>
       </c>
     </row>
@@ -2161,20 +2324,18 @@
       <c r="B34" t="s">
         <v>85</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" t="s">
         <v>11</v>
       </c>
       <c r="G34" s="4">
         <v>75983404714</v>
       </c>
-      <c r="H34" s="6" t="s">
+      <c r="H34" t="s">
         <v>14</v>
       </c>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6" t="s">
+      <c r="K34" t="s">
         <v>139</v>
       </c>
-      <c r="P34" s="6"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
@@ -2183,56 +2344,54 @@
       <c r="B35" t="s">
         <v>86</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" t="s">
         <v>11</v>
       </c>
       <c r="G35" s="4">
         <v>82996038928</v>
       </c>
-      <c r="H35" s="6" t="s">
+      <c r="H35" t="s">
         <v>14</v>
       </c>
-      <c r="J35" s="7"/>
-      <c r="K35" s="6" t="s">
+      <c r="J35" s="6"/>
+      <c r="K35" t="s">
         <v>140</v>
       </c>
       <c r="O35" t="s">
         <v>51</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="P35" s="6" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="14">
+      <c r="A36" s="5">
         <v>45387</v>
       </c>
       <c r="B36" t="s">
         <v>87</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" t="s">
         <v>11</v>
       </c>
       <c r="G36" s="4">
         <v>22999526906</v>
       </c>
-      <c r="H36" s="6" t="s">
+      <c r="H36" t="s">
         <v>14</v>
       </c>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6" t="s">
+      <c r="K36" t="s">
         <v>141</v>
       </c>
-      <c r="P36" s="6"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="14">
+      <c r="A37" s="5">
         <v>45387</v>
       </c>
       <c r="B37" t="s">
         <v>88</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" t="s">
         <v>11</v>
       </c>
       <c r="G37" s="4">
@@ -2241,85 +2400,78 @@
       <c r="H37" t="s">
         <v>122</v>
       </c>
-      <c r="J37" s="6" t="s">
+      <c r="J37" t="s">
         <v>173</v>
       </c>
-      <c r="K37" s="6" t="s">
+      <c r="K37" t="s">
         <v>136</v>
       </c>
-      <c r="L37" s="6" t="s">
+      <c r="L37" t="s">
         <v>161</v>
       </c>
-      <c r="P37" s="6"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="14">
+      <c r="A38" s="5">
         <v>45387</v>
       </c>
       <c r="B38" t="s">
         <v>89</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" t="s">
         <v>11</v>
       </c>
       <c r="G38" s="4">
         <v>82999108404</v>
       </c>
-      <c r="H38" s="6" t="s">
+      <c r="H38" t="s">
         <v>16</v>
       </c>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6" t="s">
+      <c r="K38" t="s">
         <v>142</v>
       </c>
-      <c r="P38" s="6"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="14">
+      <c r="A39" s="5">
         <v>45388</v>
       </c>
       <c r="B39" t="s">
         <v>90</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="4">
         <v>82981921368</v>
       </c>
-      <c r="H39" s="6" t="s">
+      <c r="H39" t="s">
         <v>15</v>
       </c>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6" t="s">
+      <c r="K39" t="s">
         <v>143</v>
       </c>
-      <c r="P39" s="6"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="14">
+      <c r="A40" s="5">
         <v>45388</v>
       </c>
       <c r="B40" t="s">
         <v>91</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="4">
         <v>82996274490</v>
       </c>
-      <c r="H40" s="6" t="s">
+      <c r="H40" t="s">
         <v>14</v>
       </c>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6" t="s">
+      <c r="K40" t="s">
         <v>144</v>
       </c>
-      <c r="P40" s="6"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="14">
+      <c r="A41" s="5">
         <v>45388</v>
       </c>
       <c r="B41" t="s">
@@ -2331,14 +2483,12 @@
       <c r="G41" s="4">
         <v>82981228071</v>
       </c>
-      <c r="H41" s="6" t="s">
+      <c r="H41" t="s">
         <v>14</v>
       </c>
-      <c r="J41" s="6"/>
-      <c r="K41" s="6" t="s">
+      <c r="K41" t="s">
         <v>145</v>
       </c>
-      <c r="P41" s="6"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
@@ -2353,16 +2503,16 @@
       <c r="G42" s="4">
         <v>75988748286</v>
       </c>
-      <c r="H42" s="6" t="s">
+      <c r="H42" t="s">
         <v>14</v>
       </c>
-      <c r="J42" s="11" t="s">
+      <c r="J42" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="K42" s="6" t="s">
+      <c r="K42" t="s">
         <v>146</v>
       </c>
-      <c r="P42" s="11"/>
+      <c r="P42" s="10"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
@@ -2383,16 +2533,15 @@
       <c r="G43" s="4">
         <v>75999256961</v>
       </c>
-      <c r="H43" s="6" t="s">
+      <c r="H43" t="s">
         <v>15</v>
       </c>
-      <c r="J43" s="6" t="s">
+      <c r="J43" t="s">
         <v>197</v>
       </c>
-      <c r="K43" s="6" t="s">
+      <c r="K43" t="s">
         <v>146</v>
       </c>
-      <c r="P43" s="6"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
@@ -2407,16 +2556,16 @@
       <c r="G44" s="4">
         <v>75991428868</v>
       </c>
-      <c r="H44" s="6" t="s">
+      <c r="H44" t="s">
         <v>16</v>
       </c>
-      <c r="J44" s="11" t="s">
+      <c r="J44" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="K44" s="6" t="s">
+      <c r="K44" t="s">
         <v>147</v>
       </c>
-      <c r="P44" s="11"/>
+      <c r="P44" s="10"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
@@ -2426,19 +2575,17 @@
         <v>96</v>
       </c>
       <c r="C45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G45" s="4">
         <v>82981660436</v>
       </c>
-      <c r="H45" s="6" t="s">
+      <c r="H45" t="s">
         <v>15</v>
       </c>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6" t="s">
+      <c r="K45" t="s">
         <v>148</v>
       </c>
-      <c r="P45" s="6"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
@@ -2453,14 +2600,12 @@
       <c r="G46" s="4">
         <v>75991803755</v>
       </c>
-      <c r="H46" s="6" t="s">
+      <c r="H46" t="s">
         <v>15</v>
       </c>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6" t="s">
+      <c r="K46" t="s">
         <v>149</v>
       </c>
-      <c r="P46" s="6"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
@@ -2472,18 +2617,26 @@
       <c r="C47" t="s">
         <v>11</v>
       </c>
+      <c r="E47" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" t="s">
+        <v>258</v>
+      </c>
       <c r="G47" s="4">
         <v>74988100354</v>
       </c>
-      <c r="H47" s="6" t="s">
+      <c r="H47" t="s">
         <v>14</v>
       </c>
-      <c r="J47" s="13"/>
-      <c r="K47" s="6" t="s">
+      <c r="J47" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="K47" t="s">
         <v>150</v>
       </c>
-      <c r="P47" s="12" t="s">
-        <v>199</v>
+      <c r="O47" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
@@ -2496,17 +2649,15 @@
       <c r="G48" s="4">
         <v>82982062061</v>
       </c>
-      <c r="H48" s="6" t="s">
+      <c r="H48" t="s">
         <v>15</v>
       </c>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6" t="s">
+      <c r="K48" t="s">
         <v>151</v>
       </c>
-      <c r="L48" s="6" t="s">
+      <c r="L48" t="s">
         <v>162</v>
       </c>
-      <c r="P48" s="6"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
@@ -2521,14 +2672,12 @@
       <c r="G49" s="4">
         <v>75988159246</v>
       </c>
-      <c r="H49" s="6" t="s">
+      <c r="H49" t="s">
         <v>14</v>
       </c>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6" t="s">
+      <c r="K49" t="s">
         <v>152</v>
       </c>
-      <c r="P49" s="6"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
@@ -2537,20 +2686,18 @@
       <c r="B50" t="s">
         <v>101</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C50" t="s">
         <v>11</v>
       </c>
       <c r="G50" s="4">
         <v>11910296335</v>
       </c>
-      <c r="H50" s="6" t="s">
+      <c r="H50" t="s">
         <v>14</v>
       </c>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6" t="s">
+      <c r="K50" t="s">
         <v>152</v>
       </c>
-      <c r="P50" s="6"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
@@ -2559,22 +2706,21 @@
       <c r="B51" t="s">
         <v>102</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C51" t="s">
         <v>11</v>
       </c>
       <c r="G51" s="4">
         <v>75992915243</v>
       </c>
-      <c r="H51" s="6" t="s">
+      <c r="H51" t="s">
         <v>14</v>
       </c>
-      <c r="J51" s="6" t="s">
+      <c r="K51" t="s">
+        <v>153</v>
+      </c>
+      <c r="P51" t="s">
         <v>174</v>
       </c>
-      <c r="K51" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="P51" s="6"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
@@ -2583,23 +2729,21 @@
       <c r="B52" t="s">
         <v>103</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C52" t="s">
         <v>11</v>
       </c>
       <c r="G52" s="4">
         <v>82999797955</v>
       </c>
-      <c r="H52" s="6" t="s">
+      <c r="H52" t="s">
         <v>15</v>
       </c>
-      <c r="J52" s="6"/>
-      <c r="K52" s="6" t="s">
+      <c r="K52" t="s">
         <v>154</v>
       </c>
-      <c r="L52" s="6" t="s">
+      <c r="L52" t="s">
         <v>157</v>
       </c>
-      <c r="P52" s="6"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
@@ -2614,17 +2758,15 @@
       <c r="G53" s="4">
         <v>75991622042</v>
       </c>
-      <c r="H53" s="6" t="s">
+      <c r="H53" t="s">
         <v>15</v>
       </c>
-      <c r="J53" s="6"/>
-      <c r="K53" s="6" t="s">
+      <c r="K53" t="s">
         <v>155</v>
       </c>
-      <c r="L53" s="6" t="s">
+      <c r="L53" t="s">
         <v>157</v>
       </c>
-      <c r="P53" s="6"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
@@ -2636,14 +2778,12 @@
       <c r="G54" s="4">
         <v>82982069224</v>
       </c>
-      <c r="H54" s="6" t="s">
+      <c r="H54" t="s">
         <v>15</v>
       </c>
-      <c r="J54" s="6"/>
-      <c r="K54" s="6" t="s">
+      <c r="K54" t="s">
         <v>156</v>
       </c>
-      <c r="P54" s="6"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
@@ -2661,13 +2801,13 @@
       <c r="G55" s="4">
         <v>82981337572</v>
       </c>
-      <c r="H55" s="6" t="s">
+      <c r="H55" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="6" t="s">
+      <c r="J55" t="s">
         <v>200</v>
       </c>
-      <c r="K55" s="6" t="s">
+      <c r="K55" t="s">
         <v>157</v>
       </c>
     </row>
@@ -2681,16 +2821,19 @@
       <c r="C56" t="s">
         <v>11</v>
       </c>
+      <c r="E56" t="s">
+        <v>13</v>
+      </c>
       <c r="G56" s="4">
         <v>75983420278</v>
       </c>
-      <c r="H56" s="6" t="s">
+      <c r="H56" t="s">
         <v>14</v>
       </c>
-      <c r="J56" s="15" t="s">
+      <c r="J56" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="K56" s="6" t="s">
+      <c r="K56" t="s">
         <v>157</v>
       </c>
     </row>
@@ -2701,23 +2844,23 @@
       <c r="B57" t="s">
         <v>108</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C57" t="s">
         <v>11</v>
       </c>
       <c r="G57" s="4">
         <v>75992130915</v>
       </c>
-      <c r="H57" s="6" t="s">
+      <c r="H57" t="s">
         <v>14</v>
       </c>
-      <c r="J57" s="7"/>
-      <c r="K57" s="6" t="s">
+      <c r="J57" s="6"/>
+      <c r="K57" t="s">
         <v>157</v>
       </c>
-      <c r="L57" s="6" t="s">
+      <c r="L57" t="s">
         <v>162</v>
       </c>
-      <c r="P57" s="7"/>
+      <c r="P57" s="6"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
@@ -2732,14 +2875,12 @@
       <c r="G58" s="4">
         <v>82998353784</v>
       </c>
-      <c r="H58" s="6" t="s">
+      <c r="H58" t="s">
         <v>15</v>
       </c>
-      <c r="J58" s="6"/>
-      <c r="K58" s="6" t="s">
+      <c r="K58" t="s">
         <v>157</v>
       </c>
-      <c r="P58" s="6"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
@@ -2754,14 +2895,12 @@
       <c r="G59" s="4">
         <v>75999996787</v>
       </c>
-      <c r="H59" s="6" t="s">
+      <c r="H59" t="s">
         <v>14</v>
       </c>
-      <c r="J59" s="6"/>
-      <c r="K59" s="6" t="s">
+      <c r="K59" t="s">
         <v>157</v>
       </c>
-      <c r="P59" s="6"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
@@ -2776,14 +2915,12 @@
       <c r="G60" s="4">
         <v>82981743982</v>
       </c>
-      <c r="H60" s="6" t="s">
+      <c r="H60" t="s">
         <v>15</v>
       </c>
-      <c r="J60" s="6"/>
-      <c r="K60" s="6" t="s">
+      <c r="K60" t="s">
         <v>157</v>
       </c>
-      <c r="P60" s="6"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
@@ -2798,14 +2935,12 @@
       <c r="G61" s="4">
         <v>75983524544</v>
       </c>
-      <c r="H61" s="6" t="s">
+      <c r="H61" t="s">
         <v>15</v>
       </c>
-      <c r="J61" s="6"/>
-      <c r="K61" s="6" t="s">
+      <c r="K61" t="s">
         <v>157</v>
       </c>
-      <c r="P61" s="6"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
@@ -2820,14 +2955,12 @@
       <c r="G62" s="4">
         <v>11982512721</v>
       </c>
-      <c r="H62" s="6" t="s">
+      <c r="H62" t="s">
         <v>16</v>
       </c>
-      <c r="J62" s="6"/>
-      <c r="K62" s="6" t="s">
+      <c r="K62" t="s">
         <v>157</v>
       </c>
-      <c r="P62" s="6"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
@@ -2836,20 +2969,19 @@
       <c r="B63" t="s">
         <v>114</v>
       </c>
-      <c r="C63" s="6" t="s">
+      <c r="C63" t="s">
         <v>11</v>
       </c>
       <c r="G63" s="4">
         <v>75992054518</v>
       </c>
-      <c r="H63" s="6" t="s">
+      <c r="H63" t="s">
         <v>14</v>
       </c>
-      <c r="J63" s="6"/>
-      <c r="K63" s="6" t="s">
+      <c r="K63" t="s">
         <v>157</v>
       </c>
-      <c r="P63" s="6" t="s">
+      <c r="P63" t="s">
         <v>202</v>
       </c>
     </row>
@@ -2860,20 +2992,18 @@
       <c r="B64" t="s">
         <v>115</v>
       </c>
-      <c r="C64" s="6" t="s">
+      <c r="C64" t="s">
         <v>11</v>
       </c>
       <c r="G64" s="4">
         <v>75998396989</v>
       </c>
-      <c r="H64" s="6" t="s">
+      <c r="H64" t="s">
         <v>15</v>
       </c>
-      <c r="J64" s="6"/>
-      <c r="K64" s="6" t="s">
+      <c r="K64" t="s">
         <v>157</v>
       </c>
-      <c r="P64" s="6"/>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
@@ -2894,15 +3024,14 @@
       <c r="H65" t="s">
         <v>14</v>
       </c>
-      <c r="J65" s="6"/>
-      <c r="K65" s="6" t="s">
+      <c r="J65" t="s">
+        <v>203</v>
+      </c>
+      <c r="K65" t="s">
         <v>157</v>
       </c>
       <c r="O65" t="s">
         <v>205</v>
-      </c>
-      <c r="P65" s="6" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
@@ -2915,14 +3044,12 @@
       <c r="G66" s="4">
         <v>75991439307</v>
       </c>
-      <c r="H66" s="6" t="s">
+      <c r="H66" t="s">
         <v>15</v>
       </c>
-      <c r="J66" s="6"/>
-      <c r="K66" s="6" t="s">
+      <c r="K66" t="s">
         <v>157</v>
       </c>
-      <c r="P66" s="6"/>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
@@ -2937,11 +3064,9 @@
       <c r="G67" s="4">
         <v>75998179677</v>
       </c>
-      <c r="J67" s="6"/>
-      <c r="K67" s="6" t="s">
+      <c r="K67" t="s">
         <v>157</v>
       </c>
-      <c r="P67" s="6"/>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
@@ -2956,14 +3081,12 @@
       <c r="G68" s="4">
         <v>17988157464</v>
       </c>
-      <c r="H68" s="6" t="s">
+      <c r="H68" t="s">
         <v>15</v>
       </c>
-      <c r="J68" s="6"/>
-      <c r="K68" s="6" t="s">
+      <c r="K68" t="s">
         <v>157</v>
       </c>
-      <c r="P68" s="6"/>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
@@ -2978,138 +3101,594 @@
       <c r="G69" s="4">
         <v>82998353784</v>
       </c>
-      <c r="H69" s="6" t="s">
+      <c r="H69" t="s">
         <v>15</v>
       </c>
-      <c r="J69" s="6"/>
-      <c r="K69" s="6" t="s">
+      <c r="K69" t="s">
         <v>158</v>
       </c>
-      <c r="P69" s="6"/>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <v>45390</v>
       </c>
       <c r="B70" t="s">
+        <v>206</v>
+      </c>
+      <c r="C70" t="s">
+        <v>10</v>
+      </c>
+      <c r="G70" s="4">
+        <v>75988061687</v>
+      </c>
+      <c r="H70" t="s">
+        <v>14</v>
+      </c>
+      <c r="K70" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A71" s="5">
+        <v>45390</v>
+      </c>
+      <c r="B71" t="s">
         <v>121</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C71" t="s">
         <v>11</v>
       </c>
-      <c r="G70" s="4">
+      <c r="G71" s="4">
         <v>82981539473</v>
       </c>
-      <c r="H70" s="6" t="s">
+      <c r="H71" t="s">
         <v>15</v>
       </c>
-      <c r="J70" s="6"/>
-      <c r="K70" s="6" t="s">
+      <c r="K71" t="s">
         <v>158</v>
       </c>
-      <c r="P70" s="6"/>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A71" s="5"/>
-      <c r="G71" s="4"/>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A72" s="5"/>
-      <c r="G72" s="4"/>
+      <c r="A72" s="5">
+        <v>45391</v>
+      </c>
+      <c r="B72" t="s">
+        <v>208</v>
+      </c>
+      <c r="C72" t="s">
+        <v>11</v>
+      </c>
+      <c r="G72" s="4">
+        <v>75988072106</v>
+      </c>
+      <c r="H72" t="s">
+        <v>15</v>
+      </c>
+      <c r="I72" t="s">
+        <v>251</v>
+      </c>
+      <c r="K72" t="s">
+        <v>227</v>
+      </c>
+      <c r="O72" t="s">
+        <v>51</v>
+      </c>
+      <c r="P72" s="6" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A73" s="5"/>
-      <c r="G73" s="4"/>
+      <c r="A73" s="5">
+        <v>45391</v>
+      </c>
+      <c r="B73" t="s">
+        <v>209</v>
+      </c>
+      <c r="C73" t="s">
+        <v>11</v>
+      </c>
+      <c r="G73" s="4">
+        <v>82999147231</v>
+      </c>
+      <c r="J73" t="s">
+        <v>237</v>
+      </c>
+      <c r="K73" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A74" s="5"/>
-      <c r="G74" s="4"/>
+      <c r="A74" s="5">
+        <v>45391</v>
+      </c>
+      <c r="B74" t="s">
+        <v>210</v>
+      </c>
+      <c r="C74" t="s">
+        <v>11</v>
+      </c>
+      <c r="G74" s="4">
+        <v>75991119603</v>
+      </c>
+      <c r="H74" t="s">
+        <v>14</v>
+      </c>
+      <c r="K74" t="s">
+        <v>229</v>
+      </c>
+      <c r="O74" t="s">
+        <v>51</v>
+      </c>
+      <c r="P74" s="6" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A75" s="5"/>
-      <c r="G75" s="4"/>
+      <c r="A75" s="5">
+        <v>45391</v>
+      </c>
+      <c r="B75" t="s">
+        <v>211</v>
+      </c>
+      <c r="G75" s="4">
+        <v>82982084022</v>
+      </c>
+      <c r="H75" t="s">
+        <v>14</v>
+      </c>
+      <c r="K75" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A76" s="5"/>
-      <c r="G76" s="4"/>
+      <c r="A76" s="5">
+        <v>45391</v>
+      </c>
+      <c r="B76" t="s">
+        <v>212</v>
+      </c>
+      <c r="C76" t="s">
+        <v>11</v>
+      </c>
+      <c r="G76" s="4">
+        <v>75992669348</v>
+      </c>
+      <c r="H76" t="s">
+        <v>16</v>
+      </c>
+      <c r="K76" t="s">
+        <v>228</v>
+      </c>
+      <c r="L76" s="15">
+        <v>45392</v>
+      </c>
+      <c r="P76" s="10" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A77" s="5"/>
-      <c r="G77" s="4"/>
+      <c r="A77" s="5">
+        <v>45391</v>
+      </c>
+      <c r="B77" t="s">
+        <v>213</v>
+      </c>
+      <c r="G77" s="4">
+        <v>87999986811</v>
+      </c>
+      <c r="H77" t="s">
+        <v>14</v>
+      </c>
+      <c r="K77" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A78" s="5"/>
-      <c r="G78" s="4"/>
+      <c r="A78" s="5">
+        <v>45391</v>
+      </c>
+      <c r="B78" t="s">
+        <v>214</v>
+      </c>
+      <c r="G78" s="4">
+        <v>82981699502</v>
+      </c>
+      <c r="H78" t="s">
+        <v>15</v>
+      </c>
+      <c r="K78" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A79" s="5"/>
-      <c r="G79" s="4"/>
+      <c r="A79" s="5">
+        <v>45391</v>
+      </c>
+      <c r="B79" t="s">
+        <v>215</v>
+      </c>
+      <c r="C79" t="s">
+        <v>11</v>
+      </c>
+      <c r="G79" s="4">
+        <v>75988389736</v>
+      </c>
+      <c r="H79" t="s">
+        <v>14</v>
+      </c>
+      <c r="J79" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="K79" t="s">
+        <v>227</v>
+      </c>
+      <c r="O79" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A80" s="5"/>
-      <c r="G80" s="4"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="5"/>
-      <c r="G81" s="4"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="5"/>
-      <c r="G82" s="4"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="5"/>
-      <c r="G83" s="4"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="5"/>
-      <c r="G84" s="4"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="5"/>
-      <c r="G85" s="4"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="5"/>
-      <c r="G86" s="4"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="5"/>
-      <c r="G87" s="4"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="5"/>
-      <c r="G88" s="4"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="5"/>
-      <c r="G89" s="4"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="5"/>
-      <c r="G90" s="4"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="5"/>
-      <c r="G91" s="4"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="5"/>
-      <c r="G92" s="4"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="5"/>
-      <c r="G93" s="4"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="5">
+        <v>45391</v>
+      </c>
+      <c r="B80" t="s">
+        <v>213</v>
+      </c>
+      <c r="E80" t="s">
+        <v>26</v>
+      </c>
+      <c r="F80" t="s">
+        <v>252</v>
+      </c>
+      <c r="G80" s="4">
+        <v>87999616370</v>
+      </c>
+      <c r="H80" t="s">
+        <v>15</v>
+      </c>
+      <c r="J80" t="s">
+        <v>241</v>
+      </c>
+      <c r="K80" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A81" s="5">
+        <v>45392</v>
+      </c>
+      <c r="B81" t="s">
+        <v>216</v>
+      </c>
+      <c r="C81" t="s">
+        <v>11</v>
+      </c>
+      <c r="G81" s="4">
+        <v>75991199721</v>
+      </c>
+      <c r="H81" t="s">
+        <v>15</v>
+      </c>
+      <c r="K81" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A82" s="5">
+        <v>45392</v>
+      </c>
+      <c r="B82" t="s">
+        <v>217</v>
+      </c>
+      <c r="C82" t="s">
+        <v>11</v>
+      </c>
+      <c r="E82" t="s">
+        <v>26</v>
+      </c>
+      <c r="F82" t="s">
+        <v>253</v>
+      </c>
+      <c r="G82" s="4">
+        <v>82996274686</v>
+      </c>
+      <c r="H82" t="s">
+        <v>14</v>
+      </c>
+      <c r="J82" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="K82" t="s">
+        <v>232</v>
+      </c>
+      <c r="O82" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A83" s="5">
+        <v>45392</v>
+      </c>
+      <c r="B83" t="s">
+        <v>218</v>
+      </c>
+      <c r="C83" t="s">
+        <v>11</v>
+      </c>
+      <c r="G83" s="4">
+        <v>82999561884</v>
+      </c>
+      <c r="H83" t="s">
+        <v>14</v>
+      </c>
+      <c r="K83" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A84" s="5">
+        <v>45392</v>
+      </c>
+      <c r="B84" t="s">
+        <v>219</v>
+      </c>
+      <c r="C84" t="s">
+        <v>10</v>
+      </c>
+      <c r="E84" t="s">
+        <v>12</v>
+      </c>
+      <c r="F84" t="s">
+        <v>254</v>
+      </c>
+      <c r="G84" s="4">
+        <v>75999506451</v>
+      </c>
+      <c r="H84" t="s">
+        <v>16</v>
+      </c>
+      <c r="I84" t="s">
+        <v>255</v>
+      </c>
+      <c r="J84" t="s">
+        <v>243</v>
+      </c>
+      <c r="K84" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A85" s="5">
+        <v>45392</v>
+      </c>
+      <c r="B85" t="s">
+        <v>220</v>
+      </c>
+      <c r="C85" t="s">
+        <v>10</v>
+      </c>
+      <c r="G85" s="4">
+        <v>75992461997</v>
+      </c>
+      <c r="H85" t="s">
+        <v>14</v>
+      </c>
+      <c r="K85" t="s">
+        <v>232</v>
+      </c>
+      <c r="O85" t="s">
+        <v>51</v>
+      </c>
+      <c r="P85" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A86" s="5">
+        <v>45392</v>
+      </c>
+      <c r="B86" t="s">
+        <v>221</v>
+      </c>
+      <c r="G86" s="4">
+        <v>75991001480</v>
+      </c>
+      <c r="I86" t="s">
+        <v>260</v>
+      </c>
+      <c r="J86" t="s">
+        <v>245</v>
+      </c>
+      <c r="K86" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A87" s="5">
+        <v>45393</v>
+      </c>
+      <c r="B87" t="s">
+        <v>222</v>
+      </c>
+      <c r="C87" t="s">
+        <v>11</v>
+      </c>
+      <c r="E87" t="s">
+        <v>12</v>
+      </c>
+      <c r="F87" t="s">
+        <v>256</v>
+      </c>
+      <c r="G87" s="4">
+        <v>75982427193</v>
+      </c>
+      <c r="H87" t="s">
+        <v>14</v>
+      </c>
+      <c r="J87" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="K87" t="s">
+        <v>233</v>
+      </c>
+      <c r="O87" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A88" s="5">
+        <v>45393</v>
+      </c>
+      <c r="B88" t="s">
+        <v>58</v>
+      </c>
+      <c r="E88" t="s">
+        <v>26</v>
+      </c>
+      <c r="F88" t="s">
+        <v>178</v>
+      </c>
+      <c r="G88" s="4">
+        <v>82996064459</v>
+      </c>
+      <c r="H88" t="s">
+        <v>14</v>
+      </c>
+      <c r="I88" t="s">
+        <v>260</v>
+      </c>
+      <c r="J88" t="s">
+        <v>247</v>
+      </c>
+      <c r="K88" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A89" s="5">
+        <v>45393</v>
+      </c>
+      <c r="B89" t="s">
+        <v>223</v>
+      </c>
+      <c r="C89" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" s="4">
+        <v>75999992683</v>
+      </c>
+      <c r="H89" t="s">
+        <v>14</v>
+      </c>
+      <c r="K89" t="s">
+        <v>234</v>
+      </c>
+      <c r="P89" s="14"/>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A90" s="5">
+        <v>45393</v>
+      </c>
+      <c r="B90" t="s">
+        <v>224</v>
+      </c>
+      <c r="C90" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" s="4">
+        <v>79988254997</v>
+      </c>
+      <c r="H90" t="s">
+        <v>14</v>
+      </c>
+      <c r="I90" t="s">
+        <v>251</v>
+      </c>
+      <c r="J90" t="s">
+        <v>248</v>
+      </c>
+      <c r="K90" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A91" s="5">
+        <v>45393</v>
+      </c>
+      <c r="B91" t="s">
+        <v>225</v>
+      </c>
+      <c r="C91" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" s="4">
+        <v>82981249808</v>
+      </c>
+      <c r="H91" t="s">
+        <v>14</v>
+      </c>
+      <c r="K91" t="s">
+        <v>235</v>
+      </c>
+      <c r="P91" s="14"/>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A92" s="5">
+        <v>45393</v>
+      </c>
+      <c r="B92" t="s">
+        <v>213</v>
+      </c>
+      <c r="E92" t="s">
+        <v>26</v>
+      </c>
+      <c r="F92" t="s">
+        <v>257</v>
+      </c>
+      <c r="G92" s="4">
+        <v>82981502797</v>
+      </c>
+      <c r="H92" t="s">
+        <v>14</v>
+      </c>
+      <c r="J92" t="s">
+        <v>249</v>
+      </c>
+      <c r="K92" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A93" s="5">
+        <v>45393</v>
+      </c>
+      <c r="B93" t="s">
+        <v>226</v>
+      </c>
+      <c r="C93" t="s">
+        <v>11</v>
+      </c>
+      <c r="G93" s="4">
+        <v>65981348042</v>
+      </c>
+      <c r="H93" t="s">
+        <v>14</v>
+      </c>
+      <c r="K93" t="s">
+        <v>233</v>
+      </c>
+      <c r="P93" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" s="5"/>
       <c r="G94" s="4"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" s="5"/>
       <c r="G95" s="4"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" s="5"/>
       <c r="G96" s="4"/>
     </row>

--- a/Lead.xlsx
+++ b/Lead.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ATUAL 2024\Projetos R\Clinica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ATENDIMENTO-01\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F54220-DBBB-4367-AB86-85897283315D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA401E9-2C99-413F-8101-03DC9692C591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="436">
   <si>
     <t>Data</t>
   </si>
@@ -221,15 +221,9 @@
     <t xml:space="preserve">~Roberto </t>
   </si>
   <si>
-    <t xml:space="preserve">~josinaldo </t>
-  </si>
-  <si>
     <t>~elpidio</t>
   </si>
   <si>
-    <t xml:space="preserve">~fernando </t>
-  </si>
-  <si>
     <t xml:space="preserve">~Gilberto </t>
   </si>
   <si>
@@ -281,9 +275,6 @@
     <t>~Rodrigo</t>
   </si>
   <si>
-    <t xml:space="preserve">Marcos </t>
-  </si>
-  <si>
     <t>Cícero</t>
   </si>
   <si>
@@ -512,9 +503,6 @@
     <t>08/04 ligação</t>
   </si>
   <si>
-    <t xml:space="preserve">Delmiro G. </t>
-  </si>
-  <si>
     <t xml:space="preserve">atendeu lig, falou que tem interesse em implantes </t>
   </si>
   <si>
@@ -584,9 +572,6 @@
     <t xml:space="preserve">agendou qua 10/04 PM </t>
   </si>
   <si>
-    <t xml:space="preserve">ficou dever um dia para tarzer o filho para avaliação </t>
-  </si>
-  <si>
     <t>COMPARECEU 03/04 QUA PM</t>
   </si>
   <si>
@@ -629,9 +614,6 @@
     <t>Paciente trabalha em sergipe, ligar no final do mês para agendar</t>
   </si>
   <si>
-    <t>Ligar as 14:00h</t>
-  </si>
-  <si>
     <t>Foi embora, para Minas, tava de passagem :)</t>
   </si>
   <si>
@@ -647,9 +629,6 @@
     <t>08/04  Aúdio wpp</t>
   </si>
   <si>
-    <t>~Jailson</t>
-  </si>
-  <si>
     <t>~Sandro</t>
   </si>
   <si>
@@ -698,9 +677,6 @@
     <t>~Jaciara</t>
   </si>
   <si>
-    <t>~yedasantos8603</t>
-  </si>
-  <si>
     <t>Luis carlos</t>
   </si>
   <si>
@@ -746,9 +722,6 @@
     <t>Reagiu por engano o vídeo</t>
   </si>
   <si>
-    <t>Mora em Aguas belas-Al</t>
-  </si>
-  <si>
     <t>Mora em Maceio pensou que a clinica ficava localizada lá.</t>
   </si>
   <si>
@@ -804,6 +777,558 @@
   </si>
   <si>
     <t>Avaliação</t>
+  </si>
+  <si>
+    <t>Ieda</t>
+  </si>
+  <si>
+    <t>Ligar hoje 12.04</t>
+  </si>
+  <si>
+    <t>Paulo Afonso</t>
+  </si>
+  <si>
+    <t>Ligar 30/04</t>
+  </si>
+  <si>
+    <t>~Pasttor Marcos Sarilho (Marcos Sarilho)</t>
+  </si>
+  <si>
+    <t>sexta 26/04</t>
+  </si>
+  <si>
+    <t>~ Cicero Silva</t>
+  </si>
+  <si>
+    <t>12/04 Aúdio wpp</t>
+  </si>
+  <si>
+    <t>~Heder Campos</t>
+  </si>
+  <si>
+    <t>~Jeane Machado</t>
+  </si>
+  <si>
+    <t>12/04 Ligação não atendeu</t>
+  </si>
+  <si>
+    <t>12/04 Ligação atendeu</t>
+  </si>
+  <si>
+    <t>Seg. 15/04</t>
+  </si>
+  <si>
+    <t>(65)98134-8042</t>
+  </si>
+  <si>
+    <t>(82)99606-7220</t>
+  </si>
+  <si>
+    <t>(75)98287-1659</t>
+  </si>
+  <si>
+    <t>(75)98841-7765</t>
+  </si>
+  <si>
+    <t>(82)99116-4511</t>
+  </si>
+  <si>
+    <t>(75)99950-8849</t>
+  </si>
+  <si>
+    <t>Rildo da gazeta</t>
+  </si>
+  <si>
+    <t>Marcos Antonio</t>
+  </si>
+  <si>
+    <t>~. Josy Araujo</t>
+  </si>
+  <si>
+    <t>12/04 Ligação não atendeu+ Aúdio</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ligar terça 16/04</t>
+  </si>
+  <si>
+    <t>12/04 Ligação atendeu+ msg wpp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~Jailson Gomes Lima </t>
+  </si>
+  <si>
+    <t>Mora em Rodelas, vai se programar para agendar avaliação</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Avaliação</t>
+  </si>
+  <si>
+    <t>Faltou</t>
+  </si>
+  <si>
+    <t>Encerrou</t>
+  </si>
+  <si>
+    <t>Desliga a ligação</t>
+  </si>
+  <si>
+    <t>Ligar 19/04</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ~Adailton Maia</t>
+  </si>
+  <si>
+    <t>13/04 Ligação atendeu</t>
+  </si>
+  <si>
+    <t>Adailton relata que no momento não tem condições financeiras.</t>
+  </si>
+  <si>
+    <t>~Valdo Silva</t>
+  </si>
+  <si>
+    <t>13/04 Ligação não atendeu</t>
+  </si>
+  <si>
+    <t>~sozar4867</t>
+  </si>
+  <si>
+    <t>Óbito na família</t>
+  </si>
+  <si>
+    <t>~ednaldopereiras247</t>
+  </si>
+  <si>
+    <t>Avalição</t>
+  </si>
+  <si>
+    <t>87 99931-7422</t>
+  </si>
+  <si>
+    <t>lago aurora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~Terezinha Carvalho </t>
+  </si>
+  <si>
+    <t>Abaré</t>
+  </si>
+  <si>
+    <t>75 99906-1394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eu quero ficar com meu sorriso , não bonito, mas lindo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">~Joaquim </t>
+  </si>
+  <si>
+    <t>75 98806-0891</t>
+  </si>
+  <si>
+    <t>~Antonio cordeiro 30497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~Aline </t>
+  </si>
+  <si>
+    <t xml:space="preserve">~Luciene </t>
+  </si>
+  <si>
+    <t>75 98221-5838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~WILSON </t>
+  </si>
+  <si>
+    <t xml:space="preserve">~José Edilson </t>
+  </si>
+  <si>
+    <t>75 98812-4152</t>
+  </si>
+  <si>
+    <t>msg apagada</t>
+  </si>
+  <si>
+    <t>74 99806-8824</t>
+  </si>
+  <si>
+    <t>74 98155-1703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~nego da borracharia </t>
+  </si>
+  <si>
+    <t>82 98172-2378</t>
+  </si>
+  <si>
+    <t>75 99878-3189</t>
+  </si>
+  <si>
+    <t>~Edenilson Lima</t>
+  </si>
+  <si>
+    <t>75 99123-7801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~Salvador Rodrigues dos Santos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delmiro Gouveia </t>
+  </si>
+  <si>
+    <t>82 98164-0316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15/04 lig 09:38h (tututu) aúdio wpp </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15/04 lig 09:52h (tututu) aúdio wpp </t>
+  </si>
+  <si>
+    <t>15/04 lig 09:55h (tututu) aúdio wpp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15/04 lig 09:34h ( tututu) aúdio wpp </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15/04 lig 09:59h (tututu)  aúdio wpp </t>
+  </si>
+  <si>
+    <t>15/04 lig  10:02h (tututu) aúdio wpp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Elvis Santos de Carvalho </t>
+  </si>
+  <si>
+    <t>está em Juazeiro da BA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15/04 lig 11:03h (atendeu, trabalha fora e vem de folga a cada 60 dias, ficou de agendar em Junho) msg wpp endereço+ mídias de implantes unitários.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">implante (dente da frente) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paulo Afonso </t>
+  </si>
+  <si>
+    <t>Ivanilda Maria da Silva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">avaliação geral </t>
+  </si>
+  <si>
+    <t>15/04 lig 11:20h (atendeu, consulta agendada)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qua. 17/04 PM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15/04 lig 11:36h (caixa postal) aúdio wpp </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wilson Gleison  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15/04 lig 11:43h (atendeu, desligou na cara ao perguntar sobre as dúvidas) msg wpp </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15/04 lig 11:49h (tututu) aúdio wpp </t>
+  </si>
+  <si>
+    <t>avaliação após o dia 15/05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qui. 16/05 AM </t>
+  </si>
+  <si>
+    <t>aúdio, vai viajar só pode passar pela avaliação me Maio após retornar de viagem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~Francisco  Carlos Dipeta </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15/04 lig 11:53h (chamou, atendeu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">~Jucilene </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15/04 lig 14:21h (chamou, caixa de msg)  aúdio wpp </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15/04 lig 14:25h (chamou, caixa de msg) aúdio wpp  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">protocolo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">não perdeu todos os dentes e gostaria de saber se a prótese protocolo daria certo </t>
+  </si>
+  <si>
+    <t>raiox periodontal</t>
+  </si>
+  <si>
+    <t>possui sol. de rx do ano de 2023, pmpa</t>
+  </si>
+  <si>
+    <t>87 98846-4913</t>
+  </si>
+  <si>
+    <t>75 99988-0813</t>
+  </si>
+  <si>
+    <t>75 98863-8681</t>
+  </si>
+  <si>
+    <t>75 99126-6415</t>
+  </si>
+  <si>
+    <t>87 99995-4314</t>
+  </si>
+  <si>
+    <t>75 99168-4821</t>
+  </si>
+  <si>
+    <t>82 99321-1726</t>
+  </si>
+  <si>
+    <t>75 99186-2323</t>
+  </si>
+  <si>
+    <t>75 98831-9439</t>
+  </si>
+  <si>
+    <t>75 99162-2586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interesse em exo, e tratamento geral, mora em roça </t>
+  </si>
+  <si>
+    <t>75 98830-5462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aúdio, valor de protocolo superior </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rodelas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">está em Recife no momento </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15/04 lig 15:05h (atendeu) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caraibeiras, Tacaratu  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itacuruba </t>
+  </si>
+  <si>
+    <t xml:space="preserve">agendou para ela e para esposo </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Maria das Graças  | ~gracinha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15/04 lig 09:10h ( tututu) aúdio wpp /mandou aúdio interesse em protocolo nova ttv de ctt por lig 16:21h S/ retorno, aúdio wpp </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15/04 lig 09:27h ( tututu) aúdio wpp / lig 16:47h </t>
+  </si>
+  <si>
+    <t xml:space="preserve">~maria francinette moura </t>
+  </si>
+  <si>
+    <t>75 98885-9069</t>
+  </si>
+  <si>
+    <t>71 99715-8082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bruno Teles Gomes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16/04 lig 09:40h ( caixa postal) aúdio wpp </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16/04 lig 09:25h (tututu) aúdio wpp lig 10:24h </t>
+  </si>
+  <si>
+    <t xml:space="preserve">implante, tempo de tratamento e como funciona </t>
+  </si>
+  <si>
+    <t xml:space="preserve">veio de férias, família mora aqui,mas vai voltar para Salvador e vem novamente do próximo mês </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ttv lig 10:28h 16/04 (grave se recado) aúdio wpp </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antonio Pereira dos Santos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salvador </t>
+  </si>
+  <si>
+    <t xml:space="preserve">usa prótese, inf e sup </t>
+  </si>
+  <si>
+    <t>qua 24/04 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dejinaldo de Melo Silva </t>
+  </si>
+  <si>
+    <t>lig 16/04 14:30h (tututu) aúdio wpp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">extração </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16/04 ttv lig s/retorno | aúdio wpp </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maria do Carmo  Alves de Araujo </t>
+  </si>
+  <si>
+    <t>75 98889-8049</t>
+  </si>
+  <si>
+    <t>prótese</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ligou </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16/04 lig via wpp </t>
+  </si>
+  <si>
+    <t xml:space="preserve">qua 17/04 PM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INFO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">avaliação mais a frente </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ficou de ver uma data que vem a Paulo Afonso para agendar uma avaliação. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FALAR QUA 17/04 PARA AGENDAR UMA NOVA DATA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16/04 lig. 15:24h não atendeu, msg via wpp não entregue </t>
+  </si>
+  <si>
+    <t>16/04 tvv lig 15:26h/msg wpp</t>
+  </si>
+  <si>
+    <t>16/04 lig 15:31h (caixa postal) aúdio wpp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ficou dever um dia para trazer o filho para avaliação </t>
+  </si>
+  <si>
+    <t>16/04 lig 15:35h (caixa postal) aúdio wpp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16/04 lig 15/43h  caixa de msg  aúdio wpp </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arapiraca </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mora em outra cidade e não tem previsão de vir a Paulo Afonso </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucineia Gomes Silva </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16/04 cvs via wpp </t>
+  </si>
+  <si>
+    <t xml:space="preserve">seg 22/04 AM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16/04 lig 16:27h (chamou, não atendeu) aúdio wpp </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Josinaldo Oliveira de Siqueira </t>
+  </si>
+  <si>
+    <t xml:space="preserve">qua 17/04 11:00h trabalho </t>
+  </si>
+  <si>
+    <t>nunca usou prótese</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protocolo superior </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16/04 lig 16:30h (atendeu, agendeu) </t>
+  </si>
+  <si>
+    <t>82 98174-0474</t>
+  </si>
+  <si>
+    <t>75 98842-9752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~monica ferreira </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16/04 lig 16:57h (chamou, atendeu, desligou na cara) aúdio wpp </t>
+  </si>
+  <si>
+    <t xml:space="preserve">usa prótese, vai tirar 3 dentes superiores para fazer PT e quer saber qual trtamento fazemos aqui </t>
+  </si>
+  <si>
+    <t xml:space="preserve">~Francisvaldo Vaqueiro </t>
+  </si>
+  <si>
+    <t>75 99828-6236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16/04 lig 17:22h (chamou, não atendeu) aúdio wpp </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16/04 lig 17:08h (não atendeu) aúdio wpp </t>
+  </si>
+  <si>
+    <t>16/04 lig 17:35h (atendeu)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sem condições financeiras no momento </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amanda </t>
+  </si>
+  <si>
+    <t xml:space="preserve">interesse em clareamento,  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">seg. 22/04 AM </t>
+  </si>
+  <si>
+    <t>~pauliana</t>
+  </si>
+  <si>
+    <t>87 98181-4522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16/04 lig 17:47h 9chamou, não atendeu) aúdio wpp </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16/04 lig 17:51h (não chama) aúdio wpp </t>
+  </si>
+  <si>
+    <t xml:space="preserve">protese completa </t>
+  </si>
+  <si>
+    <t>FALAR APARTIR DO DIA 06/05 PARA AGENDAR</t>
   </si>
 </sst>
 </file>
@@ -813,7 +1338,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="\(##\)\ #####\-####"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -865,8 +1390,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -893,12 +1433,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -932,8 +1466,61 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -956,12 +1543,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -976,16 +1591,60 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="6" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="6" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="6" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="6" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="6" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="6" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="6" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="6" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="6" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="40% - Ênfase4" xfId="3" builtinId="43"/>
     <cellStyle name="Bom" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Saída" xfId="2" builtinId="21"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -1084,8 +1743,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{ADB2FEFD-EA53-4136-A3C5-9787ABBAC659}" name="Status" displayName="Status" ref="C1:C7" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="C1:C7" xr:uid="{6E69E7C9-D77D-467F-837F-243748BB5FC3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{ADB2FEFD-EA53-4136-A3C5-9787ABBAC659}" name="Status" displayName="Status" ref="C1:C8" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="C1:C8" xr:uid="{6E69E7C9-D77D-467F-837F-243748BB5FC3}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{99415A8E-9709-402D-91AF-8F636A4B73E3}" name="Status"/>
   </tableColumns>
@@ -1114,9 +1773,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1154,9 +1813,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1189,26 +1848,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1241,26 +1883,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1434,17 +2059,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P1991"/>
+  <dimension ref="A1:Q1990"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I93" sqref="I93"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.7109375" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
@@ -1452,12 +2077,15 @@
     <col min="7" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.28515625" customWidth="1"/>
-    <col min="11" max="13" width="19.5703125" customWidth="1"/>
+    <col min="11" max="11" width="18.85546875" customWidth="1"/>
+    <col min="12" max="12" width="17.140625" customWidth="1"/>
+    <col min="13" max="13" width="16.5703125" customWidth="1"/>
     <col min="14" max="14" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.5703125" customWidth="1"/>
+    <col min="16" max="16" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1503,511 +2131,747 @@
       <c r="O1" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="P1" s="40" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="41">
         <v>45383</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D2" s="42"/>
+      <c r="E2" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="G2" s="43">
+        <v>82999820812</v>
+      </c>
+      <c r="H2" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="42" t="s">
+        <v>398</v>
+      </c>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="L2" s="42" t="s">
+        <v>386</v>
+      </c>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42" t="s">
+        <v>280</v>
+      </c>
+      <c r="P2" s="42" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q2" s="44"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="23">
+        <v>45383</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="18">
+        <v>82981603206</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>388</v>
+      </c>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="P3" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q3" s="17"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="31">
+        <v>45384</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="33">
+        <v>75988434581</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="K4" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="L4" s="32" t="s">
+        <v>399</v>
+      </c>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="G2" s="4">
-        <v>82999820812</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="Q4" s="32"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="26">
+        <v>45384</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="25">
+        <v>75988251572</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q5" s="7"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="26">
+        <v>45384</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="25">
+        <v>75991029128</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q6" s="7"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="45">
+        <v>45384</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46" t="s">
+        <v>405</v>
+      </c>
+      <c r="G7" s="47">
+        <v>82996681520</v>
+      </c>
+      <c r="H7" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46" t="s">
+        <v>406</v>
+      </c>
+      <c r="K7" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="L7" s="46" t="s">
+        <v>157</v>
+      </c>
+      <c r="M7" s="46" t="s">
+        <v>400</v>
+      </c>
+      <c r="N7" s="46"/>
+      <c r="O7" s="46" t="s">
+        <v>281</v>
+      </c>
+      <c r="P7" s="46" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q7" s="46"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="26">
+        <v>45384</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="25">
+        <v>75988049330</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q8" s="7"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="31">
+        <v>45385</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="33">
+        <v>87981783612</v>
+      </c>
+      <c r="H9" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="L9" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="32"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="23">
+        <v>45385</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18">
+        <v>75992144461</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="K10" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="L10" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="P10" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="Q10" s="17"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="26">
+        <v>45385</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="25">
+        <v>75988555238</v>
+      </c>
+      <c r="H11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="K2" t="s">
-        <v>123</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q11" s="7"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="26">
+        <v>45385</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="25">
+        <v>75999681714</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q12" s="7"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="31">
+        <v>45385</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="33">
+        <v>87998231341</v>
+      </c>
+      <c r="H13" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="L13" s="49" t="s">
+        <v>404</v>
+      </c>
+      <c r="M13" s="32"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="P13" s="32"/>
+      <c r="Q13" s="32"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="23">
+        <v>45385</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="18">
+        <v>82991105401</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>434</v>
+      </c>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="L14" s="22" t="s">
+        <v>410</v>
+      </c>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="19">
+        <v>45385</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="G15" s="20">
+        <v>75988626153</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="P2" s="6" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>45383</v>
-      </c>
-      <c r="B3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G3" s="4">
-        <v>82981603206</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="31">
+        <v>45385</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="33">
+        <v>45998000203</v>
+      </c>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32" t="s">
+        <v>308</v>
+      </c>
+      <c r="K16" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="L16" s="32" t="s">
+        <v>424</v>
+      </c>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="32"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="50">
+        <v>45385</v>
+      </c>
+      <c r="B17" s="51" t="s">
+        <v>427</v>
+      </c>
+      <c r="C17" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="52">
+        <v>75981426457</v>
+      </c>
+      <c r="H17" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="51" t="s">
+        <v>428</v>
+      </c>
+      <c r="J17" s="51" t="s">
+        <v>426</v>
+      </c>
+      <c r="K17" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="L17" s="51" t="s">
+        <v>425</v>
+      </c>
+      <c r="M17" s="51"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="P17" s="51" t="s">
+        <v>429</v>
+      </c>
+      <c r="Q17" s="51"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="53">
+        <v>45386</v>
+      </c>
+      <c r="B18" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="55">
+        <v>75982607830</v>
+      </c>
+      <c r="H18" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="54" t="s">
+        <v>435</v>
+      </c>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="L18" s="54" t="s">
+        <v>433</v>
+      </c>
+      <c r="M18" s="54"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="54"/>
+      <c r="P18" s="54"/>
+      <c r="Q18" s="54"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="31">
+        <v>45386</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="G19" s="33">
+        <v>75997002546</v>
+      </c>
+      <c r="H19" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="K19" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="P19" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q19" s="32"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="23">
+        <v>45386</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="18">
+        <v>75988360462</v>
+      </c>
+      <c r="H20" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="I3" t="s">
-        <v>251</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="K3" t="s">
-        <v>124</v>
-      </c>
-      <c r="L3" t="s">
-        <v>159</v>
-      </c>
-      <c r="O3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>45384</v>
-      </c>
-      <c r="B4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="4">
-        <v>75988434581</v>
-      </c>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="9" t="s">
+      <c r="I20" s="17"/>
+      <c r="J20" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="K4" t="s">
-        <v>125</v>
-      </c>
-      <c r="O4" t="s">
-        <v>19</v>
-      </c>
-      <c r="P4" s="9" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>45384</v>
-      </c>
-      <c r="B5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="4">
-        <v>75988251572</v>
-      </c>
-      <c r="H5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="7"/>
-      <c r="K5" t="s">
-        <v>126</v>
-      </c>
-      <c r="O5" t="s">
-        <v>52</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>45384</v>
-      </c>
-      <c r="B6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="4">
-        <v>75991029128</v>
-      </c>
-      <c r="H6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" t="s">
-        <v>177</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="K6" t="s">
-        <v>127</v>
-      </c>
-      <c r="O6" t="s">
-        <v>51</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>45384</v>
-      </c>
-      <c r="B7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" s="4">
-        <v>82996681520</v>
-      </c>
-      <c r="H7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="8"/>
-      <c r="K7" t="s">
-        <v>128</v>
-      </c>
-      <c r="L7" t="s">
-        <v>160</v>
-      </c>
-      <c r="O7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P7" s="8" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>45384</v>
-      </c>
-      <c r="B8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="4">
-        <v>75988049330</v>
-      </c>
-      <c r="H8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="K8" t="s">
-        <v>129</v>
-      </c>
-      <c r="O8" t="s">
-        <v>51</v>
-      </c>
-      <c r="P8" s="6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>45385</v>
-      </c>
-      <c r="B9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="4">
-        <v>87981783612</v>
-      </c>
-      <c r="H9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="9"/>
-      <c r="K9" t="s">
+      <c r="K20" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="O9" t="s">
-        <v>19</v>
-      </c>
-      <c r="P9" s="9"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>45385</v>
-      </c>
-      <c r="B10" t="s">
-        <v>61</v>
-      </c>
-      <c r="G10" s="4">
-        <v>75992144461</v>
-      </c>
-      <c r="H10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" t="s">
-        <v>259</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="K10" t="s">
-        <v>131</v>
-      </c>
-      <c r="O10" t="s">
-        <v>20</v>
-      </c>
-      <c r="P10" s="8" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>45385</v>
-      </c>
-      <c r="B11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="4">
-        <v>75988555238</v>
-      </c>
-      <c r="H11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11" s="7"/>
-      <c r="K11" t="s">
-        <v>132</v>
-      </c>
-      <c r="O11" t="s">
-        <v>52</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>45385</v>
-      </c>
-      <c r="B12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="4">
-        <v>75999681714</v>
-      </c>
-      <c r="H12" t="s">
-        <v>16</v>
-      </c>
-      <c r="J12" s="7"/>
-      <c r="O12" t="s">
-        <v>52</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>45385</v>
-      </c>
-      <c r="B13" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="4">
-        <v>87998231341</v>
-      </c>
-      <c r="H13" t="s">
-        <v>15</v>
-      </c>
-      <c r="K13" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>45385</v>
-      </c>
-      <c r="B14" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="4">
-        <v>82991105401</v>
-      </c>
-      <c r="H14" t="s">
-        <v>16</v>
-      </c>
-      <c r="K14" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>45385</v>
-      </c>
-      <c r="B15" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="4">
-        <v>75988626153</v>
-      </c>
-      <c r="K15" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <v>45385</v>
-      </c>
-      <c r="B16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="4">
-        <v>45998000203</v>
-      </c>
-      <c r="K16" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <v>45385</v>
-      </c>
-      <c r="B17" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="4">
-        <v>75981426457</v>
-      </c>
-      <c r="H17" t="s">
-        <v>14</v>
-      </c>
-      <c r="K17" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <v>45386</v>
-      </c>
-      <c r="B18" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="4">
-        <v>75982607830</v>
-      </c>
-      <c r="H18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K18" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
-        <v>45386</v>
-      </c>
-      <c r="B19" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" t="s">
-        <v>204</v>
-      </c>
-      <c r="G19" s="4">
-        <v>75997002546</v>
-      </c>
-      <c r="H19" t="s">
-        <v>16</v>
-      </c>
-      <c r="J19" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="K19" t="s">
-        <v>133</v>
-      </c>
-      <c r="O19" t="s">
-        <v>19</v>
-      </c>
-      <c r="P19" s="9" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
-        <v>45386</v>
-      </c>
-      <c r="B20" t="s">
-        <v>71</v>
-      </c>
-      <c r="C20" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="4">
-        <v>75988360462</v>
-      </c>
-      <c r="H20" t="s">
-        <v>15</v>
-      </c>
-      <c r="J20" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="K20" t="s">
-        <v>133</v>
-      </c>
-      <c r="L20" t="s">
-        <v>150</v>
-      </c>
-      <c r="O20" t="s">
-        <v>176</v>
-      </c>
-      <c r="P20" s="10"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L20" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>45386</v>
       </c>
       <c r="B21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C21" t="s">
         <v>11</v>
@@ -2019,21 +2883,21 @@
         <v>15</v>
       </c>
       <c r="K21" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="O21" t="s">
         <v>19</v>
       </c>
       <c r="P21" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>45386</v>
       </c>
       <c r="B22" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C22" t="s">
         <v>10</v>
@@ -2045,27 +2909,27 @@
         <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="J22" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="K22" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O22" t="s">
         <v>20</v>
       </c>
       <c r="P22" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>45386</v>
       </c>
       <c r="B23" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C23" t="s">
         <v>10</v>
@@ -2074,7 +2938,7 @@
         <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G23" s="4">
         <v>75999063868</v>
@@ -2086,24 +2950,24 @@
         <v>25</v>
       </c>
       <c r="J23" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="K23" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O23" t="s">
         <v>19</v>
       </c>
       <c r="P23" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>45386</v>
       </c>
       <c r="B24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C24" t="s">
         <v>10</v>
@@ -2115,15 +2979,15 @@
         <v>15</v>
       </c>
       <c r="K24" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>45387</v>
       </c>
       <c r="B25" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C25" t="s">
         <v>11</v>
@@ -2135,42 +2999,50 @@
         <v>14</v>
       </c>
       <c r="K25" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="26">
         <v>45387</v>
       </c>
-      <c r="B26" t="s">
-        <v>77</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B26" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G26" s="4">
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="25">
         <v>75988387263</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" s="7" t="s">
         <v>15</v>
       </c>
+      <c r="I26" s="7"/>
       <c r="J26" s="7"/>
-      <c r="K26" t="s">
-        <v>138</v>
-      </c>
-      <c r="O26" t="s">
+      <c r="K26" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7" t="s">
         <v>52</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+      <c r="Q26" s="7"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>45387</v>
       </c>
       <c r="B27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C27" t="s">
         <v>10</v>
@@ -2182,15 +3054,15 @@
         <v>15</v>
       </c>
       <c r="K27" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>45387</v>
       </c>
       <c r="B28" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C28" t="s">
         <v>11</v>
@@ -2202,21 +3074,21 @@
         <v>15</v>
       </c>
       <c r="K28" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="O28" t="s">
         <v>20</v>
       </c>
       <c r="P28" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>45387</v>
       </c>
       <c r="B29" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C29" t="s">
         <v>11</v>
@@ -2228,15 +3100,15 @@
         <v>14</v>
       </c>
       <c r="K29" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>45387</v>
       </c>
       <c r="B30" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G30" s="4">
         <v>82991291868</v>
@@ -2245,15 +3117,15 @@
         <v>14</v>
       </c>
       <c r="K30" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>45387</v>
       </c>
       <c r="B31" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G31" s="4">
         <v>74998004631</v>
@@ -2262,15 +3134,15 @@
         <v>14</v>
       </c>
       <c r="K31" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>45387</v>
       </c>
       <c r="B32" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C32" t="s">
         <v>11</v>
@@ -2282,47 +3154,54 @@
         <v>14</v>
       </c>
       <c r="K32" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="37">
         <v>45387</v>
       </c>
-      <c r="B33" t="s">
-        <v>84</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="B33" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="G33" s="4">
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="39">
         <v>31996851984</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H33" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I33" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="J33" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="K33" t="s">
-        <v>138</v>
-      </c>
-      <c r="O33" t="s">
-        <v>51</v>
-      </c>
-      <c r="P33" s="6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J33" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="K33" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="L33" s="38"/>
+      <c r="M33" s="38"/>
+      <c r="N33" s="38"/>
+      <c r="O33" s="38" t="s">
+        <v>280</v>
+      </c>
+      <c r="P33" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q33" s="24"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>45387</v>
       </c>
       <c r="B34" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C34" t="s">
         <v>11</v>
@@ -2334,42 +3213,50 @@
         <v>14</v>
       </c>
       <c r="K34" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="5">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" s="37">
         <v>45387</v>
       </c>
-      <c r="B35" t="s">
-        <v>86</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="B35" s="38" t="s">
+        <v>272</v>
+      </c>
+      <c r="C35" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="G35" s="4">
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="39">
         <v>82996038928</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H35" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="J35" s="6"/>
-      <c r="K35" t="s">
-        <v>140</v>
-      </c>
-      <c r="O35" t="s">
-        <v>51</v>
-      </c>
-      <c r="P35" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I35" s="38"/>
+      <c r="J35" s="38"/>
+      <c r="K35" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="L35" s="38"/>
+      <c r="M35" s="38"/>
+      <c r="N35" s="38"/>
+      <c r="O35" s="38" t="s">
+        <v>280</v>
+      </c>
+      <c r="P35" s="38" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q35" s="24"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>45387</v>
       </c>
       <c r="B36" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C36" t="s">
         <v>11</v>
@@ -2381,15 +3268,15 @@
         <v>14</v>
       </c>
       <c r="K36" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>45387</v>
       </c>
       <c r="B37" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C37" t="s">
         <v>11</v>
@@ -2398,24 +3285,24 @@
         <v>75991377577</v>
       </c>
       <c r="H37" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="J37" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="K37" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="L37" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>45387</v>
       </c>
       <c r="B38" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C38" t="s">
         <v>11</v>
@@ -2427,15 +3314,15 @@
         <v>16</v>
       </c>
       <c r="K38" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>45388</v>
       </c>
       <c r="B39" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C39" t="s">
         <v>10</v>
@@ -2447,15 +3334,15 @@
         <v>15</v>
       </c>
       <c r="K39" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>45388</v>
       </c>
       <c r="B40" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C40" t="s">
         <v>10</v>
@@ -2467,15 +3354,15 @@
         <v>14</v>
       </c>
       <c r="K40" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>45388</v>
       </c>
       <c r="B41" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C41" t="s">
         <v>11</v>
@@ -2487,92 +3374,120 @@
         <v>14</v>
       </c>
       <c r="K41" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="5">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" s="23">
         <v>45388</v>
       </c>
-      <c r="B42" t="s">
-        <v>93</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="B42" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G42" s="4">
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="18">
         <v>75988748286</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H42" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="J42" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="K42" t="s">
-        <v>146</v>
-      </c>
-      <c r="P42" s="10"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="5">
+      <c r="I42" s="17"/>
+      <c r="J42" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="K42" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" s="23">
         <v>45388</v>
       </c>
-      <c r="B43" t="s">
-        <v>94</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="B43" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E43" t="s">
+      <c r="D43" s="17"/>
+      <c r="E43" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F43" t="s">
-        <v>204</v>
-      </c>
-      <c r="G43" s="4">
+      <c r="F43" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="G43" s="18">
         <v>75999256961</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H43" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="J43" t="s">
-        <v>197</v>
-      </c>
-      <c r="K43" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="5">
+      <c r="I43" s="17"/>
+      <c r="J43" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="K43" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="L43" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" s="23">
         <v>45388</v>
       </c>
-      <c r="B44" t="s">
-        <v>95</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="B44" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G44" s="4">
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="18">
         <v>75991428868</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H44" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="J44" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="K44" t="s">
-        <v>147</v>
-      </c>
-      <c r="P44" s="10"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I44" s="17"/>
+      <c r="J44" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="K44" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>45388</v>
       </c>
       <c r="B45" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C45" t="s">
         <v>10</v>
@@ -2584,15 +3499,15 @@
         <v>15</v>
       </c>
       <c r="K45" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>45388</v>
       </c>
       <c r="B46" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C46" t="s">
         <v>10</v>
@@ -2604,47 +3519,54 @@
         <v>15</v>
       </c>
       <c r="K46" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="5">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" s="30">
         <v>45388</v>
       </c>
-      <c r="B47" t="s">
-        <v>98</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="B47" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="E47" t="s">
+      <c r="D47" s="28"/>
+      <c r="E47" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="F47" t="s">
-        <v>258</v>
-      </c>
-      <c r="G47" s="4">
+      <c r="F47" s="27" t="s">
+        <v>249</v>
+      </c>
+      <c r="G47" s="29">
         <v>74988100354</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H47" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="J47" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="K47" t="s">
-        <v>150</v>
-      </c>
-      <c r="O47" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I47" s="28"/>
+      <c r="J47" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="K47" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="L47" s="28"/>
+      <c r="M47" s="28"/>
+      <c r="N47" s="28"/>
+      <c r="O47" s="27" t="s">
+        <v>281</v>
+      </c>
+      <c r="P47" s="28"/>
+      <c r="Q47" s="28"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>45388</v>
       </c>
       <c r="B48" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G48" s="4">
         <v>82982062061</v>
@@ -2653,18 +3575,18 @@
         <v>15</v>
       </c>
       <c r="K48" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="L48" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>45388</v>
       </c>
       <c r="B49" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C49" t="s">
         <v>11</v>
@@ -2676,15 +3598,15 @@
         <v>14</v>
       </c>
       <c r="K49" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>45388</v>
       </c>
       <c r="B50" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C50" t="s">
         <v>11</v>
@@ -2696,15 +3618,15 @@
         <v>14</v>
       </c>
       <c r="K50" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>45388</v>
       </c>
       <c r="B51" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C51" t="s">
         <v>11</v>
@@ -2716,18 +3638,18 @@
         <v>14</v>
       </c>
       <c r="K51" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="P51" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>45388</v>
       </c>
       <c r="B52" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C52" t="s">
         <v>11</v>
@@ -2739,18 +3661,18 @@
         <v>15</v>
       </c>
       <c r="K52" t="s">
+        <v>151</v>
+      </c>
+      <c r="L52" t="s">
         <v>154</v>
       </c>
-      <c r="L52" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>45388</v>
       </c>
       <c r="B53" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C53" t="s">
         <v>10</v>
@@ -2762,18 +3684,18 @@
         <v>15</v>
       </c>
       <c r="K53" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L53" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>45388</v>
       </c>
       <c r="B54" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G54" s="4">
         <v>82982069224</v>
@@ -2782,41 +3704,52 @@
         <v>15</v>
       </c>
       <c r="K54" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" s="5">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A55" s="30">
         <v>45389</v>
       </c>
-      <c r="B55" t="s">
-        <v>106</v>
-      </c>
-      <c r="C55" t="s">
+      <c r="B55" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="C55" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E55" t="s">
+      <c r="D55" s="28"/>
+      <c r="E55" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="G55" s="4">
+      <c r="F55" s="28"/>
+      <c r="G55" s="29">
         <v>82981337572</v>
       </c>
-      <c r="H55" t="s">
+      <c r="H55" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="J55" t="s">
-        <v>200</v>
-      </c>
-      <c r="K55" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I55" s="28"/>
+      <c r="J55" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="K55" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="L55" s="27"/>
+      <c r="M55" s="28"/>
+      <c r="N55" s="28"/>
+      <c r="O55" s="27" t="s">
+        <v>281</v>
+      </c>
+      <c r="P55" s="27"/>
+      <c r="Q55" s="28"/>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>45389</v>
       </c>
       <c r="B56" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C56" t="s">
         <v>11</v>
@@ -2830,44 +3763,62 @@
       <c r="H56" t="s">
         <v>14</v>
       </c>
-      <c r="J56" s="12" t="s">
-        <v>201</v>
+      <c r="J56" s="11" t="s">
+        <v>196</v>
       </c>
       <c r="K56" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" s="5">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A57" s="19">
         <v>45389</v>
       </c>
-      <c r="B57" t="s">
-        <v>108</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="B57" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C57" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G57" s="4">
+      <c r="D57" s="6"/>
+      <c r="E57" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="G57" s="20">
         <v>75992130915</v>
       </c>
-      <c r="H57" t="s">
+      <c r="H57" s="6" t="s">
         <v>14</v>
       </c>
+      <c r="I57" s="6" t="s">
+        <v>279</v>
+      </c>
       <c r="J57" s="6"/>
-      <c r="K57" t="s">
-        <v>157</v>
-      </c>
-      <c r="L57" t="s">
-        <v>162</v>
-      </c>
-      <c r="P57" s="6"/>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K57" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="L57" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="M57" s="6"/>
+      <c r="N57" s="6"/>
+      <c r="O57" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="P57" s="34">
+        <v>45397</v>
+      </c>
+      <c r="Q57" s="6"/>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>45389</v>
       </c>
       <c r="B58" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C58" t="s">
         <v>10</v>
@@ -2879,15 +3830,15 @@
         <v>15</v>
       </c>
       <c r="K58" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>45389</v>
       </c>
       <c r="B59" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C59" t="s">
         <v>11</v>
@@ -2899,15 +3850,15 @@
         <v>14</v>
       </c>
       <c r="K59" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>45389</v>
       </c>
       <c r="B60" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C60" t="s">
         <v>11</v>
@@ -2919,35 +3870,52 @@
         <v>15</v>
       </c>
       <c r="K60" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A61" s="5">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A61" s="37">
         <v>45389</v>
       </c>
-      <c r="B61" t="s">
-        <v>112</v>
-      </c>
-      <c r="C61" t="s">
+      <c r="B61" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="C61" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="G61" s="4">
+      <c r="D61" s="38"/>
+      <c r="E61" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" s="38" t="s">
+        <v>254</v>
+      </c>
+      <c r="G61" s="39">
         <v>75983524544</v>
       </c>
-      <c r="H61" t="s">
+      <c r="H61" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="K61" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I61" s="38"/>
+      <c r="J61" s="38" t="s">
+        <v>290</v>
+      </c>
+      <c r="K61" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="L61" s="38"/>
+      <c r="M61" s="38"/>
+      <c r="N61" s="38"/>
+      <c r="O61" s="38"/>
+      <c r="P61" s="38"/>
+      <c r="Q61" s="24"/>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>45389</v>
       </c>
       <c r="B62" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C62" t="s">
         <v>11</v>
@@ -2959,15 +3927,15 @@
         <v>16</v>
       </c>
       <c r="K62" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>45389</v>
       </c>
       <c r="B63" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C63" t="s">
         <v>11</v>
@@ -2979,18 +3947,15 @@
         <v>14</v>
       </c>
       <c r="K63" t="s">
-        <v>157</v>
-      </c>
-      <c r="P63" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>45390</v>
       </c>
       <c r="B64" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C64" t="s">
         <v>11</v>
@@ -3002,44 +3967,52 @@
         <v>15</v>
       </c>
       <c r="K64" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A65" s="5">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A65" s="35">
         <v>45390</v>
       </c>
-      <c r="B65" t="s">
-        <v>116</v>
-      </c>
-      <c r="C65" t="s">
+      <c r="B65" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C65" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E65" t="s">
+      <c r="D65" s="15"/>
+      <c r="E65" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="G65" s="4">
+      <c r="F65" s="15"/>
+      <c r="G65" s="16">
         <v>34984283896</v>
       </c>
-      <c r="H65" t="s">
+      <c r="H65" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="J65" t="s">
-        <v>203</v>
-      </c>
-      <c r="K65" t="s">
-        <v>157</v>
-      </c>
-      <c r="O65" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I65" s="15"/>
+      <c r="J65" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="K65" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="L65" s="15"/>
+      <c r="M65" s="15"/>
+      <c r="N65" s="15"/>
+      <c r="O65" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="P65" s="15"/>
+      <c r="Q65" s="15"/>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <v>45390</v>
       </c>
       <c r="B66" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G66" s="4">
         <v>75991439307</v>
@@ -3048,15 +4021,15 @@
         <v>15</v>
       </c>
       <c r="K66" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>45390</v>
       </c>
       <c r="B67" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C67" t="s">
         <v>10</v>
@@ -3065,15 +4038,15 @@
         <v>75998179677</v>
       </c>
       <c r="K67" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>45390</v>
       </c>
       <c r="B68" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C68" t="s">
         <v>11</v>
@@ -3085,15 +4058,15 @@
         <v>15</v>
       </c>
       <c r="K68" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>45390</v>
       </c>
       <c r="B69" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C69" t="s">
         <v>10</v>
@@ -3105,35 +4078,51 @@
         <v>15</v>
       </c>
       <c r="K69" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A70" s="5">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A70" s="19">
         <v>45390</v>
       </c>
-      <c r="B70" t="s">
-        <v>206</v>
-      </c>
-      <c r="C70" t="s">
+      <c r="B70" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C70" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G70" s="4">
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="20">
         <v>75988061687</v>
       </c>
-      <c r="H70" t="s">
+      <c r="H70" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K70" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I70" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="J70" s="6"/>
+      <c r="K70" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="L70" s="6"/>
+      <c r="M70" s="6"/>
+      <c r="N70" s="6"/>
+      <c r="O70" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="P70" s="6" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <v>45390</v>
       </c>
       <c r="B71" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C71" t="s">
         <v>11</v>
@@ -3145,44 +4134,56 @@
         <v>15</v>
       </c>
       <c r="K71" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A72" s="5">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A72" s="19">
         <v>45391</v>
       </c>
-      <c r="B72" t="s">
-        <v>208</v>
-      </c>
-      <c r="C72" t="s">
+      <c r="B72" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="C72" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G72" s="4">
+      <c r="D72" s="6"/>
+      <c r="E72" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="G72" s="20">
         <v>75988072106</v>
       </c>
-      <c r="H72" t="s">
+      <c r="H72" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I72" t="s">
-        <v>251</v>
-      </c>
-      <c r="K72" t="s">
-        <v>227</v>
-      </c>
-      <c r="O72" t="s">
+      <c r="I72" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="J72" s="6"/>
+      <c r="K72" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="L72" s="6"/>
+      <c r="M72" s="6"/>
+      <c r="N72" s="6"/>
+      <c r="O72" s="6" t="s">
         <v>51</v>
       </c>
       <c r="P72" s="6" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+      <c r="Q72" s="6"/>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>45391</v>
       </c>
       <c r="B73" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C73" t="s">
         <v>11</v>
@@ -3191,44 +4192,59 @@
         <v>82999147231</v>
       </c>
       <c r="J73" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="K73" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A74" s="5">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A74" s="19">
         <v>45391</v>
       </c>
-      <c r="B74" t="s">
-        <v>210</v>
-      </c>
-      <c r="C74" t="s">
+      <c r="B74" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C74" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G74" s="4">
+      <c r="D74" s="6"/>
+      <c r="E74" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="G74" s="20">
         <v>75991119603</v>
       </c>
-      <c r="H74" t="s">
+      <c r="H74" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K74" t="s">
-        <v>229</v>
-      </c>
-      <c r="O74" t="s">
+      <c r="I74" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J74" s="6"/>
+      <c r="K74" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="L74" s="6"/>
+      <c r="M74" s="6"/>
+      <c r="N74" s="6"/>
+      <c r="O74" s="6" t="s">
         <v>51</v>
       </c>
       <c r="P74" s="6" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+      <c r="Q74" s="6"/>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <v>45391</v>
       </c>
       <c r="B75" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="G75" s="4">
         <v>82982084022</v>
@@ -3237,41 +4253,50 @@
         <v>14</v>
       </c>
       <c r="K75" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A76" s="5">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A76" s="23">
         <v>45391</v>
       </c>
-      <c r="B76" t="s">
-        <v>212</v>
-      </c>
-      <c r="C76" t="s">
+      <c r="B76" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="C76" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G76" s="4">
+      <c r="D76" s="17"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="17"/>
+      <c r="G76" s="18">
         <v>75992669348</v>
       </c>
-      <c r="H76" t="s">
+      <c r="H76" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="K76" t="s">
-        <v>228</v>
-      </c>
-      <c r="L76" s="15">
+      <c r="I76" s="17"/>
+      <c r="J76" s="17"/>
+      <c r="K76" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="L76" s="22">
         <v>45392</v>
       </c>
-      <c r="P76" s="10" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M76" s="17"/>
+      <c r="N76" s="17"/>
+      <c r="O76" s="17"/>
+      <c r="P76" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q76" s="21"/>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
         <v>45391</v>
       </c>
       <c r="B77" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="G77" s="4">
         <v>87999986811</v>
@@ -3280,15 +4305,15 @@
         <v>14</v>
       </c>
       <c r="K77" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <v>45391</v>
       </c>
       <c r="B78" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="G78" s="4">
         <v>82981699502</v>
@@ -3297,47 +4322,56 @@
         <v>15</v>
       </c>
       <c r="K78" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A79" s="5">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A79" s="30">
         <v>45391</v>
       </c>
-      <c r="B79" t="s">
-        <v>215</v>
-      </c>
-      <c r="C79" t="s">
+      <c r="B79" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="C79" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="G79" s="4">
+      <c r="D79" s="28"/>
+      <c r="E79" s="28"/>
+      <c r="F79" s="28"/>
+      <c r="G79" s="29">
         <v>75988389736</v>
       </c>
-      <c r="H79" t="s">
+      <c r="H79" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="J79" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="K79" t="s">
-        <v>227</v>
-      </c>
-      <c r="O79" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I79" s="28"/>
+      <c r="J79" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="K79" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="L79" s="28"/>
+      <c r="M79" s="28"/>
+      <c r="N79" s="28"/>
+      <c r="O79" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="P79" s="28"/>
+      <c r="Q79" s="28"/>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
         <v>45391</v>
       </c>
       <c r="B80" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="E80" t="s">
         <v>26</v>
       </c>
       <c r="F80" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="G80" s="4">
         <v>87999616370</v>
@@ -3345,19 +4379,16 @@
       <c r="H80" t="s">
         <v>15</v>
       </c>
-      <c r="J80" t="s">
-        <v>241</v>
-      </c>
       <c r="K80" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
         <v>45392</v>
       </c>
       <c r="B81" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C81" t="s">
         <v>11</v>
@@ -3369,47 +4400,54 @@
         <v>15</v>
       </c>
       <c r="K81" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A82" s="5">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A82" s="30">
         <v>45392</v>
       </c>
-      <c r="B82" t="s">
-        <v>217</v>
-      </c>
-      <c r="C82" t="s">
+      <c r="B82" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="C82" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="E82" t="s">
+      <c r="D82" s="28"/>
+      <c r="E82" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="F82" t="s">
-        <v>253</v>
-      </c>
-      <c r="G82" s="4">
+      <c r="F82" s="27" t="s">
+        <v>244</v>
+      </c>
+      <c r="G82" s="29">
         <v>82996274686</v>
       </c>
-      <c r="H82" t="s">
+      <c r="H82" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="J82" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="K82" t="s">
-        <v>232</v>
-      </c>
-      <c r="O82" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I82" s="28"/>
+      <c r="J82" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="K82" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="L82" s="28"/>
+      <c r="M82" s="28"/>
+      <c r="N82" s="28"/>
+      <c r="O82" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="P82" s="28"/>
+      <c r="Q82" s="28"/>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
         <v>45392</v>
       </c>
       <c r="B83" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C83" t="s">
         <v>11</v>
@@ -3421,15 +4459,15 @@
         <v>14</v>
       </c>
       <c r="K83" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
         <v>45392</v>
       </c>
       <c r="B84" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C84" t="s">
         <v>10</v>
@@ -3438,7 +4476,7 @@
         <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="G84" s="4">
         <v>75999506451</v>
@@ -3447,94 +4485,116 @@
         <v>16</v>
       </c>
       <c r="I84" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="J84" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="K84" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A85" s="5">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A85" s="19">
         <v>45392</v>
       </c>
-      <c r="B85" t="s">
-        <v>220</v>
-      </c>
-      <c r="C85" t="s">
+      <c r="B85" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C85" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G85" s="4">
+      <c r="D85" s="6"/>
+      <c r="E85" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="G85" s="20">
         <v>75992461997</v>
       </c>
-      <c r="H85" t="s">
+      <c r="H85" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K85" t="s">
-        <v>232</v>
-      </c>
-      <c r="O85" t="s">
+      <c r="I85" s="6"/>
+      <c r="J85" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="K85" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="L85" s="6"/>
+      <c r="M85" s="6"/>
+      <c r="N85" s="6"/>
+      <c r="O85" s="6" t="s">
         <v>51</v>
       </c>
       <c r="P85" s="6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+      <c r="Q85" s="6"/>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
         <v>45392</v>
       </c>
       <c r="B86" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="G86" s="4">
         <v>75991001480</v>
       </c>
       <c r="I86" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="J86" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="K86" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A87" s="5">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A87" s="30">
         <v>45393</v>
       </c>
-      <c r="B87" t="s">
-        <v>222</v>
-      </c>
-      <c r="C87" t="s">
+      <c r="B87" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="C87" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E87" t="s">
+      <c r="D87" s="15"/>
+      <c r="E87" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F87" t="s">
-        <v>256</v>
-      </c>
-      <c r="G87" s="4">
+      <c r="F87" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="G87" s="16">
         <v>75982427193</v>
       </c>
-      <c r="H87" t="s">
+      <c r="H87" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="J87" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="K87" t="s">
-        <v>233</v>
-      </c>
-      <c r="O87" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I87" s="15"/>
+      <c r="J87" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="K87" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="L87" s="15"/>
+      <c r="M87" s="15"/>
+      <c r="N87" s="15"/>
+      <c r="O87" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="P87" s="15"/>
+      <c r="Q87" s="15"/>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
         <v>45393</v>
       </c>
@@ -3545,7 +4605,7 @@
         <v>26</v>
       </c>
       <c r="F88" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G88" s="4">
         <v>82996064459</v>
@@ -3554,21 +4614,21 @@
         <v>14</v>
       </c>
       <c r="I88" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="J88" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="K88" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
         <v>45393</v>
       </c>
       <c r="B89" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C89" t="s">
         <v>10</v>
@@ -3580,69 +4640,107 @@
         <v>14</v>
       </c>
       <c r="K89" t="s">
-        <v>234</v>
-      </c>
-      <c r="P89" s="14"/>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A90" s="5">
+        <v>226</v>
+      </c>
+      <c r="P89" s="13"/>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A90" s="23">
         <v>45393</v>
       </c>
-      <c r="B90" t="s">
-        <v>224</v>
-      </c>
-      <c r="C90" t="s">
+      <c r="B90" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="C90" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G90" s="4">
+      <c r="D90" s="17"/>
+      <c r="E90" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F90" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="G90" s="18">
         <v>79988254997</v>
       </c>
-      <c r="H90" t="s">
+      <c r="H90" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="I90" t="s">
+      <c r="I90" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="J90" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="K90" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="L90" s="17"/>
+      <c r="M90" s="17"/>
+      <c r="N90" s="17"/>
+      <c r="O90" s="17"/>
+      <c r="P90" s="17"/>
+      <c r="Q90" s="17"/>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A91" s="19">
+        <v>45393</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F91" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="G91" s="36">
+        <v>82981249808</v>
+      </c>
+      <c r="H91" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I91" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="J90" t="s">
-        <v>248</v>
-      </c>
-      <c r="K90" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A91" s="5">
-        <v>45393</v>
-      </c>
-      <c r="B91" t="s">
-        <v>225</v>
-      </c>
-      <c r="C91" t="s">
-        <v>10</v>
-      </c>
-      <c r="G91" s="4">
-        <v>82981249808</v>
-      </c>
-      <c r="H91" t="s">
-        <v>14</v>
-      </c>
-      <c r="K91" t="s">
-        <v>235</v>
-      </c>
-      <c r="P91" s="14"/>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J91" s="6"/>
+      <c r="K91" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="L91" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="M91" s="6"/>
+      <c r="N91" s="6"/>
+      <c r="O91" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="P91" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q91" s="6"/>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" s="5">
         <v>45393</v>
       </c>
       <c r="B92" t="s">
-        <v>213</v>
+        <v>206</v>
+      </c>
+      <c r="C92" t="s">
+        <v>10</v>
       </c>
       <c r="E92" t="s">
         <v>26</v>
       </c>
       <c r="F92" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="G92" s="4">
         <v>82981502797</v>
@@ -3651,236 +4749,1118 @@
         <v>14</v>
       </c>
       <c r="J92" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="K92" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
         <v>45393</v>
       </c>
       <c r="B93" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C93" t="s">
         <v>11</v>
       </c>
-      <c r="G93" s="4">
-        <v>65981348042</v>
+      <c r="E93" t="s">
+        <v>12</v>
+      </c>
+      <c r="F93" t="s">
+        <v>254</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>265</v>
       </c>
       <c r="H93" t="s">
         <v>14</v>
       </c>
+      <c r="I93" t="s">
+        <v>251</v>
+      </c>
+      <c r="J93" t="s">
+        <v>241</v>
+      </c>
       <c r="K93" t="s">
-        <v>233</v>
-      </c>
-      <c r="P93" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A94" s="5"/>
-      <c r="G94" s="4"/>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A95" s="5"/>
-      <c r="G95" s="4"/>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A96" s="5"/>
-      <c r="G96" s="4"/>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="5"/>
-      <c r="G97" s="4"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="5"/>
-      <c r="G98" s="4"/>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="5"/>
-      <c r="G99" s="4"/>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="5"/>
-      <c r="G100" s="4"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="5"/>
-      <c r="G101" s="4"/>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="5"/>
-      <c r="G102" s="4"/>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="5"/>
+        <v>225</v>
+      </c>
+      <c r="L93" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A94" s="5">
+        <v>45393</v>
+      </c>
+      <c r="B94" t="s">
+        <v>271</v>
+      </c>
+      <c r="C94" t="s">
+        <v>11</v>
+      </c>
+      <c r="E94" t="s">
+        <v>26</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="H94" t="s">
+        <v>16</v>
+      </c>
+      <c r="I94" t="s">
+        <v>242</v>
+      </c>
+      <c r="K94" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A95" s="37">
+        <v>45393</v>
+      </c>
+      <c r="B95" s="38" t="s">
+        <v>375</v>
+      </c>
+      <c r="C95" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D95" s="38"/>
+      <c r="E95" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="F95" s="38" t="s">
+        <v>254</v>
+      </c>
+      <c r="G95" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="H95" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="I95" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="J95" s="38"/>
+      <c r="K95" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="L95" s="38" t="s">
+        <v>263</v>
+      </c>
+      <c r="M95" s="38"/>
+      <c r="N95" s="38"/>
+      <c r="O95" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="P95" s="38" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q95" s="6"/>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A96" s="23">
+        <v>45394</v>
+      </c>
+      <c r="B96" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="C96" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D96" s="17"/>
+      <c r="E96" s="17"/>
+      <c r="F96" s="17"/>
+      <c r="G96" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="H96" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I96" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="J96" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="K96" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="L96" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="M96" s="17"/>
+      <c r="N96" s="17"/>
+      <c r="O96" s="17"/>
+      <c r="P96" s="17"/>
+      <c r="Q96" s="17"/>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A97" s="5">
+        <v>45394</v>
+      </c>
+      <c r="B97" t="s">
+        <v>258</v>
+      </c>
+      <c r="C97" t="s">
+        <v>11</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="J97" t="s">
+        <v>282</v>
+      </c>
+      <c r="K97" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A98" s="23">
+        <v>45334</v>
+      </c>
+      <c r="B98" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="C98" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D98" s="17"/>
+      <c r="E98" s="17"/>
+      <c r="F98" s="17"/>
+      <c r="G98" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="H98" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I98" s="17"/>
+      <c r="J98" s="17"/>
+      <c r="K98" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="L98" s="17"/>
+      <c r="M98" s="17"/>
+      <c r="N98" s="17"/>
+      <c r="O98" s="17"/>
+      <c r="P98" s="17"/>
+      <c r="Q98" s="17"/>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A99" s="31">
+        <v>45394</v>
+      </c>
+      <c r="B99" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="C99" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D99" s="32"/>
+      <c r="E99" s="32"/>
+      <c r="F99" s="32"/>
+      <c r="G99" s="33" t="s">
+        <v>359</v>
+      </c>
+      <c r="H99" s="32"/>
+      <c r="I99" s="32"/>
+      <c r="J99" s="32"/>
+      <c r="K99" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="L99" s="32"/>
+      <c r="M99" s="32"/>
+      <c r="N99" s="32"/>
+      <c r="O99" s="32"/>
+      <c r="P99" s="32"/>
+      <c r="Q99" s="32"/>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A100" s="31">
+        <v>45394</v>
+      </c>
+      <c r="B100" s="32" t="s">
+        <v>273</v>
+      </c>
+      <c r="C100" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D100" s="32"/>
+      <c r="E100" s="32"/>
+      <c r="F100" s="32"/>
+      <c r="G100" s="33" t="s">
+        <v>358</v>
+      </c>
+      <c r="H100" s="32"/>
+      <c r="I100" s="32"/>
+      <c r="J100" s="32"/>
+      <c r="K100" s="32" t="s">
+        <v>274</v>
+      </c>
+      <c r="L100" s="32"/>
+      <c r="M100" s="32"/>
+      <c r="N100" s="32"/>
+      <c r="O100" s="32"/>
+      <c r="P100" s="32"/>
+      <c r="Q100" s="32"/>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A101" s="5">
+        <v>45395</v>
+      </c>
+      <c r="B101" t="s">
+        <v>284</v>
+      </c>
+      <c r="C101" t="s">
+        <v>11</v>
+      </c>
+      <c r="E101" t="s">
+        <v>12</v>
+      </c>
+      <c r="F101" t="s">
+        <v>254</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="H101" t="s">
+        <v>15</v>
+      </c>
+      <c r="J101" t="s">
+        <v>286</v>
+      </c>
+      <c r="K101" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A102" s="5">
+        <v>45395</v>
+      </c>
+      <c r="B102" t="s">
+        <v>287</v>
+      </c>
+      <c r="C102" t="s">
+        <v>11</v>
+      </c>
+      <c r="E102" t="s">
+        <v>26</v>
+      </c>
+      <c r="F102" t="s">
+        <v>174</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="H102" t="s">
+        <v>14</v>
+      </c>
+      <c r="I102" t="s">
+        <v>242</v>
+      </c>
+      <c r="K102" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A103" s="5">
+        <v>45395</v>
+      </c>
+      <c r="B103" t="s">
+        <v>289</v>
+      </c>
       <c r="G103" s="4"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="5"/>
-      <c r="G104" s="4"/>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A104" s="5">
+        <v>45395</v>
+      </c>
+      <c r="B104" t="s">
+        <v>291</v>
+      </c>
+      <c r="C104" t="s">
+        <v>11</v>
+      </c>
+      <c r="E104" t="s">
+        <v>12</v>
+      </c>
+      <c r="F104" t="s">
+        <v>247</v>
+      </c>
+      <c r="G104" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="H104" t="s">
+        <v>14</v>
+      </c>
+      <c r="I104" t="s">
+        <v>292</v>
+      </c>
+      <c r="K104" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="5"/>
       <c r="G105" s="4"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="5"/>
-      <c r="G106" s="4"/>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="G107" s="4"/>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="5"/>
-      <c r="G108" s="4"/>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="5"/>
-      <c r="G109" s="4"/>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="5"/>
-      <c r="G110" s="4"/>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="5"/>
-      <c r="G111" s="4"/>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="5"/>
-      <c r="G112" s="4"/>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="5"/>
-      <c r="G113" s="4"/>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="5"/>
-      <c r="G114" s="4"/>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="5"/>
-      <c r="G115" s="4"/>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="5"/>
-      <c r="G116" s="4"/>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="5"/>
-      <c r="G117" s="4"/>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="5"/>
-      <c r="G118" s="4"/>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="5"/>
-      <c r="G119" s="4"/>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="5"/>
-      <c r="G120" s="4"/>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="5"/>
-      <c r="G121" s="4"/>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="5"/>
-      <c r="G122" s="4"/>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="5"/>
-      <c r="G123" s="4"/>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="5"/>
-      <c r="G124" s="4"/>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="5"/>
-      <c r="G125" s="4"/>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="5"/>
-      <c r="G126" s="4"/>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="5"/>
-      <c r="G127" s="4"/>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="5"/>
-      <c r="G128" s="4"/>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="5"/>
-      <c r="G129" s="4"/>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A106" s="23">
+        <v>45395</v>
+      </c>
+      <c r="B106" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="C106" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D106" s="17"/>
+      <c r="E106" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F106" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="G106" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="H106" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="I106" s="17"/>
+      <c r="J106" s="17"/>
+      <c r="K106" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="L106" s="17"/>
+      <c r="M106" s="17"/>
+      <c r="N106" s="17"/>
+      <c r="O106" s="17"/>
+      <c r="P106" s="17"/>
+      <c r="Q106" s="17"/>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A107" s="23">
+        <v>45395</v>
+      </c>
+      <c r="B107" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="C107" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D107" s="17"/>
+      <c r="E107" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F107" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="G107" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="H107" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I107" s="17"/>
+      <c r="J107" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="K107" s="22" t="s">
+        <v>371</v>
+      </c>
+      <c r="L107" s="17"/>
+      <c r="M107" s="17"/>
+      <c r="N107" s="17"/>
+      <c r="O107" s="17"/>
+      <c r="P107" s="17"/>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A108" s="5">
+        <v>45395</v>
+      </c>
+      <c r="B108" t="s">
+        <v>299</v>
+      </c>
+      <c r="C108" t="s">
+        <v>11</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="H108" t="s">
+        <v>15</v>
+      </c>
+      <c r="K108" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A109" s="5">
+        <v>45395</v>
+      </c>
+      <c r="B109" t="s">
+        <v>301</v>
+      </c>
+      <c r="C109" t="s">
+        <v>11</v>
+      </c>
+      <c r="G109" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="H109" t="s">
+        <v>14</v>
+      </c>
+      <c r="K109" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A110" s="5">
+        <v>45395</v>
+      </c>
+      <c r="B110" t="s">
+        <v>302</v>
+      </c>
+      <c r="C110" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="H110" t="s">
+        <v>14</v>
+      </c>
+      <c r="K110" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A111" s="5">
+        <v>45395</v>
+      </c>
+      <c r="B111" t="s">
+        <v>303</v>
+      </c>
+      <c r="C111" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="H111" t="s">
+        <v>15</v>
+      </c>
+      <c r="K111" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A112" s="5">
+        <v>45396</v>
+      </c>
+      <c r="B112" t="s">
+        <v>305</v>
+      </c>
+      <c r="C112" t="s">
+        <v>11</v>
+      </c>
+      <c r="G112" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="H112" t="s">
+        <v>14</v>
+      </c>
+      <c r="K112" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A113" s="5">
+        <v>45396</v>
+      </c>
+      <c r="B113" t="s">
+        <v>306</v>
+      </c>
+      <c r="C113" t="s">
+        <v>11</v>
+      </c>
+      <c r="G113" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="J113" t="s">
+        <v>308</v>
+      </c>
+      <c r="K113" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A114" s="23">
+        <v>45396</v>
+      </c>
+      <c r="B114" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="C114" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D114" s="17"/>
+      <c r="E114" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F114" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="G114" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="H114" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I114" s="17" t="s">
+        <v>328</v>
+      </c>
+      <c r="J114" s="17" t="s">
+        <v>326</v>
+      </c>
+      <c r="K114" s="17" t="s">
+        <v>327</v>
+      </c>
+      <c r="L114" s="17"/>
+      <c r="M114" s="17"/>
+      <c r="N114" s="17"/>
+      <c r="O114" s="17"/>
+      <c r="P114" s="17"/>
+      <c r="Q114" s="8"/>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A115" s="19">
+        <v>45396</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D115" s="6"/>
+      <c r="E115" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F115" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="G115" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="H115" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I115" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="J115" s="6"/>
+      <c r="K115" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="L115" s="6"/>
+      <c r="M115" s="6"/>
+      <c r="N115" s="6"/>
+      <c r="O115" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="P115" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q115" s="6"/>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A116" s="5">
+        <v>45396</v>
+      </c>
+      <c r="B116" t="s">
+        <v>311</v>
+      </c>
+      <c r="C116" t="s">
+        <v>11</v>
+      </c>
+      <c r="G116" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="H116" t="s">
+        <v>15</v>
+      </c>
+      <c r="K116" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A117" s="5">
+        <v>45396</v>
+      </c>
+      <c r="B117" t="s">
+        <v>335</v>
+      </c>
+      <c r="C117" t="s">
+        <v>11</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="H117" t="s">
+        <v>14</v>
+      </c>
+      <c r="K117" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A118" s="23">
+        <v>45396</v>
+      </c>
+      <c r="B118" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="C118" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D118" s="17"/>
+      <c r="E118" s="17"/>
+      <c r="F118" s="17"/>
+      <c r="G118" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="H118" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I118" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="J118" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="K118" s="17" t="s">
+        <v>337</v>
+      </c>
+      <c r="L118" s="17" t="s">
+        <v>380</v>
+      </c>
+      <c r="M118" s="17"/>
+      <c r="N118" s="17"/>
+      <c r="O118" s="17"/>
+      <c r="P118" s="17"/>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A119" s="19">
+        <v>45397</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D119" s="6"/>
+      <c r="E119" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F119" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="G119" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="H119" s="6"/>
+      <c r="I119" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="J119" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="K119" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="L119" s="6"/>
+      <c r="M119" s="6"/>
+      <c r="N119" s="6"/>
+      <c r="O119" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="P119" s="6" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A120" s="23">
+        <v>45397</v>
+      </c>
+      <c r="B120" s="17" t="s">
+        <v>341</v>
+      </c>
+      <c r="C120" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D120" s="17"/>
+      <c r="E120" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F120" s="17" t="s">
+        <v>367</v>
+      </c>
+      <c r="G120" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="H120" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I120" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="J120" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="K120" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="L120" s="17"/>
+      <c r="M120" s="17"/>
+      <c r="N120" s="17"/>
+      <c r="O120" s="17"/>
+      <c r="P120" s="17"/>
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A121" s="5">
+        <v>45397</v>
+      </c>
+      <c r="B121" t="s">
+        <v>343</v>
+      </c>
+      <c r="C121" t="s">
+        <v>10</v>
+      </c>
+      <c r="E121" t="s">
+        <v>12</v>
+      </c>
+      <c r="F121" t="s">
+        <v>296</v>
+      </c>
+      <c r="G121" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="H121" t="s">
+        <v>15</v>
+      </c>
+      <c r="I121" t="s">
+        <v>346</v>
+      </c>
+      <c r="J121" t="s">
+        <v>347</v>
+      </c>
+      <c r="K121" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A122" s="19">
+        <v>45397</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D122" s="6"/>
+      <c r="E122" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F122" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="G122" s="20" t="s">
+        <v>361</v>
+      </c>
+      <c r="H122" s="6"/>
+      <c r="I122" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="J122" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="K122" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="L122" s="6"/>
+      <c r="M122" s="6"/>
+      <c r="N122" s="6"/>
+      <c r="O122" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="P122" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A123" s="5">
+        <v>45397</v>
+      </c>
+      <c r="B123" t="s">
+        <v>372</v>
+      </c>
+      <c r="C123" t="s">
+        <v>10</v>
+      </c>
+      <c r="E123" t="s">
+        <v>12</v>
+      </c>
+      <c r="F123" t="s">
+        <v>363</v>
+      </c>
+      <c r="G123" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="H123" t="s">
+        <v>14</v>
+      </c>
+      <c r="I123" t="s">
+        <v>378</v>
+      </c>
+      <c r="J123" t="s">
+        <v>383</v>
+      </c>
+      <c r="K123" t="s">
+        <v>377</v>
+      </c>
+      <c r="P123" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A124" s="5">
+        <v>45398</v>
+      </c>
+      <c r="B124" t="s">
+        <v>381</v>
+      </c>
+      <c r="C124" t="s">
+        <v>11</v>
+      </c>
+      <c r="E124" t="s">
+        <v>12</v>
+      </c>
+      <c r="F124" t="s">
+        <v>382</v>
+      </c>
+      <c r="G124" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="H124" t="s">
+        <v>14</v>
+      </c>
+      <c r="I124" t="s">
+        <v>396</v>
+      </c>
+      <c r="J124" t="s">
+        <v>379</v>
+      </c>
+      <c r="K124" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A125" s="19">
+        <v>45398</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D125" s="6"/>
+      <c r="E125" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F125" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="G125" s="20" t="s">
+        <v>390</v>
+      </c>
+      <c r="H125" s="6"/>
+      <c r="I125" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="J125" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="K125" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="L125" s="6"/>
+      <c r="M125" s="6"/>
+      <c r="N125" s="6"/>
+      <c r="O125" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="P125" s="6" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A126" s="19">
+        <v>45398</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D126" s="6"/>
+      <c r="E126" s="6"/>
+      <c r="F126" s="6"/>
+      <c r="G126" s="20" t="s">
+        <v>417</v>
+      </c>
+      <c r="H126" s="6"/>
+      <c r="I126" s="6"/>
+      <c r="J126" s="6"/>
+      <c r="K126" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="L126" s="6"/>
+      <c r="M126" s="6"/>
+      <c r="N126" s="6"/>
+      <c r="O126" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="P126" s="6" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A127" s="5">
+        <v>45398</v>
+      </c>
+      <c r="B127" s="48" t="s">
+        <v>418</v>
+      </c>
+      <c r="C127" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="H127" t="s">
+        <v>15</v>
+      </c>
+      <c r="J127" s="48" t="s">
+        <v>420</v>
+      </c>
+      <c r="K127" s="48" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A128" s="5">
+        <v>45398</v>
+      </c>
+      <c r="B128" s="48" t="s">
+        <v>421</v>
+      </c>
+      <c r="C128" t="s">
+        <v>11</v>
+      </c>
+      <c r="G128" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="H128" t="s">
+        <v>14</v>
+      </c>
+      <c r="K128" s="48" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A129" s="5">
+        <v>45398</v>
+      </c>
+      <c r="B129" s="48" t="s">
+        <v>430</v>
+      </c>
+      <c r="C129" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="H129" t="s">
+        <v>14</v>
+      </c>
+      <c r="K129" s="48" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="5"/>
       <c r="G130" s="4"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="5"/>
       <c r="G131" s="4"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="5"/>
       <c r="G132" s="4"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="5"/>
       <c r="G133" s="4"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="5"/>
       <c r="G134" s="4"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="5"/>
       <c r="G135" s="4"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="5"/>
       <c r="G136" s="4"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="5"/>
       <c r="G137" s="4"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="5"/>
       <c r="G138" s="4"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="5"/>
       <c r="G139" s="4"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="5"/>
       <c r="G140" s="4"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="5"/>
       <c r="G141" s="4"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="5"/>
       <c r="G142" s="4"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="5"/>
       <c r="G143" s="4"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="5"/>
       <c r="G144" s="4"/>
     </row>
@@ -11267,25 +13247,21 @@
     <row r="1990" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1990" s="5"/>
       <c r="G1990" s="4"/>
-    </row>
-    <row r="1991" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1991" s="5"/>
-      <c r="G1991" s="4"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1991" xr:uid="{F688FC34-E833-4CD7-A4D5-C5F546A92EE3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1990" xr:uid="{F688FC34-E833-4CD7-A4D5-C5F546A92EE3}">
       <formula1>INDIRECT($O$1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1991" xr:uid="{93647A22-8740-4623-B66D-0B97A8FAEE52}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1990" xr:uid="{93647A22-8740-4623-B66D-0B97A8FAEE52}">
       <formula1>INDIRECT($H$1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1991" xr:uid="{5621FDED-ABF2-43E6-AC50-2601095590B7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1990" xr:uid="{5621FDED-ABF2-43E6-AC50-2601095590B7}">
       <formula1>INDIRECT($C$1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1991" xr:uid="{B5802FD3-4B31-4E49-86A2-E564AC5434C7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1990" xr:uid="{B5802FD3-4B31-4E49-86A2-E564AC5434C7}">
       <formula1>INDIRECT($E$1)</formula1>
     </dataValidation>
   </dataValidations>
@@ -11299,7 +13275,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11364,7 +13340,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
@@ -11383,13 +13359,16 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>205</v>
+        <v>281</v>
       </c>
       <c r="D7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>280</v>
+      </c>
       <c r="D8" t="s">
         <v>30</v>
       </c>

--- a/Lead.xlsx
+++ b/Lead.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ATENDIMENTO-01\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA401E9-2C99-413F-8101-03DC9692C591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8210E38-45D4-4701-AA05-C3B50B2BEFA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="485">
   <si>
     <t>Data</t>
   </si>
@@ -245,9 +245,6 @@
     <t>Raquel</t>
   </si>
   <si>
-    <t>~vereador gato</t>
-  </si>
-  <si>
     <t>Elisangela Ferreira Alves</t>
   </si>
   <si>
@@ -1283,9 +1280,6 @@
     <t xml:space="preserve">16/04 lig 16:57h (chamou, atendeu, desligou na cara) aúdio wpp </t>
   </si>
   <si>
-    <t xml:space="preserve">usa prótese, vai tirar 3 dentes superiores para fazer PT e quer saber qual trtamento fazemos aqui </t>
-  </si>
-  <si>
     <t xml:space="preserve">~Francisvaldo Vaqueiro </t>
   </si>
   <si>
@@ -1328,7 +1322,160 @@
     <t xml:space="preserve">protese completa </t>
   </si>
   <si>
-    <t>FALAR APARTIR DO DIA 06/05 PARA AGENDAR</t>
+    <t>87 98134-8037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~Laurindo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">17/04 lig 08:29h (chamou, não atendeu) aúdio wpp </t>
+  </si>
+  <si>
+    <t xml:space="preserve">prótese total </t>
+  </si>
+  <si>
+    <t xml:space="preserve">usa prótese, vai tirar 3 dentes superiores para fazer PT e quer saber qual tratamento fazemos aqui </t>
+  </si>
+  <si>
+    <t xml:space="preserve">colocou objeção de trabalho e pegar neto na escola, falei que conseguimos alinhar um horário caso ela esteja pronta para a avaliação, visualizou e não respondeu. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">viajou, retorna em MAIO, não quis agendar com antecedência, falou que entra em ctt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">17/04 lig 09:15h (não pode receber chamada) msg wpp </t>
+  </si>
+  <si>
+    <t xml:space="preserve">limpeza, rest </t>
+  </si>
+  <si>
+    <t xml:space="preserve">17/04 mídias prof e rest wpp </t>
+  </si>
+  <si>
+    <t>17/04 lig 09:48h (não é possível completar a lig.)</t>
+  </si>
+  <si>
+    <t>FALAR A PARTIR DO DIA 06/05 PARA AGENDAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17/04 reatv portfolio + link insta </t>
+  </si>
+  <si>
+    <t>75 99111-8468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tatiana Pereira </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ficou de ver um dia para agendar uma avaliação </t>
+  </si>
+  <si>
+    <t xml:space="preserve">implante ou prótese </t>
+  </si>
+  <si>
+    <t xml:space="preserve">perdeu 3 dentes, desinteressada </t>
+  </si>
+  <si>
+    <t xml:space="preserve">17/04 lig 10:10h (chamou, atendeu)  msgs wpp </t>
+  </si>
+  <si>
+    <t xml:space="preserve">17/04 lig 10:07h (não chamou) aúdio wpp </t>
+  </si>
+  <si>
+    <t>17/04 lig 10:34h (grave seu recado) aúdio wpp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sex 19/04 AM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jonas Alves da Silva Gomes  ~vereador gato </t>
+  </si>
+  <si>
+    <t xml:space="preserve">avaliação </t>
+  </si>
+  <si>
+    <t>17/04 lig 10:43h (atendeu, agendou)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17/04 lig 11:09h (telefone indisponivel) aúdio wpp </t>
+  </si>
+  <si>
+    <t xml:space="preserve">17/04 lig 11:14h (chamou, cx de msg) aúdio wpp  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">17/04 lig 11:16h (caixa de msg)  aúdio wpp </t>
+  </si>
+  <si>
+    <t>17/04 lig 11:20h (tututu) aúdio wpp</t>
+  </si>
+  <si>
+    <t>17/04 lig 11:25h (não chama)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17/04 lig 11:22h (chamou , não atende) aúdio wpp </t>
+  </si>
+  <si>
+    <t xml:space="preserve">17/04 lig 11:34h (chamou, não atendeu) aúdio wpp  </t>
+  </si>
+  <si>
+    <t>17/04 lig 11:49 caixa postal, WPP MSGS NÃO CHEGAM BLOQUEOU???</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17/04 lig 11:50h ( tututu) aúdio wpp </t>
+  </si>
+  <si>
+    <t>82 98236-5346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~Catiane Freitas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cristiana Viana </t>
+  </si>
+  <si>
+    <t>75 99217-1693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prof, orto </t>
+  </si>
+  <si>
+    <t xml:space="preserve">17/04 14:30h lig (tututu) aúdio wpp </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monica Nascimento </t>
+  </si>
+  <si>
+    <t>75 99103-5686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17/04 lig 15:20h (atendeu, caiu? Desligou? ) aúdio wpp </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gloria </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sex. 19/04 AM </t>
+  </si>
+  <si>
+    <t>~Marinete Souza</t>
+  </si>
+  <si>
+    <t>75 99136- 0384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17/04 lig 15:29h atendeu estava indo para o trabalho não pode conversar) msg wpp </t>
+  </si>
+  <si>
+    <t>75 9165-4987</t>
+  </si>
+  <si>
+    <t>17/04 aúdio wpp</t>
+  </si>
+  <si>
+    <t>qui. 18/04 pm</t>
+  </si>
+  <si>
+    <t>Fernanda Gomes de Sá (Santuario)</t>
   </si>
 </sst>
 </file>
@@ -1576,7 +1723,7 @@
     <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1621,7 +1768,7 @@
     <xf numFmtId="14" fontId="6" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="6" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1631,11 +1778,7 @@
     <xf numFmtId="14" fontId="6" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="6" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="6" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="6" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -2062,8 +2205,8 @@
   <dimension ref="A1:Q1990"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
+      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O120" sqref="O120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2132,7 +2275,7 @@
         <v>17</v>
       </c>
       <c r="P1" s="40" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -2150,7 +2293,7 @@
         <v>26</v>
       </c>
       <c r="F2" s="42" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G2" s="43">
         <v>82999820812</v>
@@ -2159,22 +2302,22 @@
         <v>16</v>
       </c>
       <c r="I2" s="42" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="J2" s="42"/>
       <c r="K2" s="42" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L2" s="42" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="M2" s="42"/>
       <c r="N2" s="42"/>
       <c r="O2" s="42" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="P2" s="42" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Q2" s="44"/>
     </row>
@@ -2198,26 +2341,26 @@
         <v>15</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K3" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L3" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="N3" s="17"/>
       <c r="O3" s="17" t="s">
         <v>20</v>
       </c>
       <c r="P3" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Q3" s="17"/>
     </row>
@@ -2242,13 +2385,13 @@
       </c>
       <c r="I4" s="32"/>
       <c r="J4" s="32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K4" s="32" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L4" s="32" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M4" s="32"/>
       <c r="N4" s="32"/>
@@ -2256,7 +2399,7 @@
         <v>19</v>
       </c>
       <c r="P4" s="32" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Q4" s="32"/>
     </row>
@@ -2282,7 +2425,7 @@
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
@@ -2291,7 +2434,7 @@
         <v>52</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="7"/>
     </row>
@@ -2315,13 +2458,13 @@
         <v>14</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
@@ -2330,7 +2473,7 @@
         <v>52</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Q6" s="7"/>
     </row>
@@ -2347,7 +2490,7 @@
       <c r="D7" s="46"/>
       <c r="E7" s="46"/>
       <c r="F7" s="46" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G7" s="47">
         <v>82996681520</v>
@@ -2357,23 +2500,23 @@
       </c>
       <c r="I7" s="46"/>
       <c r="J7" s="46" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K7" s="46" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L7" s="46" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M7" s="46" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="46" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="P7" s="46" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Q7" s="46"/>
     </row>
@@ -2400,10 +2543,10 @@
         <v>25</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
@@ -2412,7 +2555,7 @@
         <v>52</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Q8" s="7"/>
     </row>
@@ -2438,10 +2581,10 @@
       <c r="I9" s="32"/>
       <c r="J9" s="32"/>
       <c r="K9" s="32" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L9" s="32" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="M9" s="32"/>
       <c r="N9" s="32"/>
@@ -2471,16 +2614,16 @@
         <v>14</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J10" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K10" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L10" s="17" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="M10" s="17"/>
       <c r="N10" s="17"/>
@@ -2488,7 +2631,7 @@
         <v>20</v>
       </c>
       <c r="P10" s="17" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="Q10" s="17"/>
     </row>
@@ -2514,7 +2657,7 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
@@ -2523,7 +2666,7 @@
         <v>52</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Q11" s="7"/>
     </row>
@@ -2556,7 +2699,7 @@
         <v>52</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Q12" s="7"/>
     </row>
@@ -2582,10 +2725,10 @@
       <c r="I13" s="32"/>
       <c r="J13" s="32"/>
       <c r="K13" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="L13" s="49" t="s">
-        <v>404</v>
+        <v>129</v>
+      </c>
+      <c r="L13" s="48" t="s">
+        <v>403</v>
       </c>
       <c r="M13" s="32"/>
       <c r="N13" s="32"/>
@@ -2615,14 +2758,14 @@
         <v>16</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="J14" s="17"/>
       <c r="K14" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L14" s="22" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="M14" s="17"/>
       <c r="N14" s="17"/>
@@ -2633,48 +2776,50 @@
       <c r="Q14" s="17"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="19">
+      <c r="A15" s="37">
         <v>45385</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="38" t="s">
+        <v>410</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="38" t="s">
+        <v>253</v>
+      </c>
+      <c r="G15" s="39">
+        <v>75988626153</v>
+      </c>
+      <c r="H15" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="38" t="s">
+        <v>413</v>
+      </c>
+      <c r="J15" s="38" t="s">
+        <v>412</v>
+      </c>
+      <c r="K15" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="L15" s="38" t="s">
+        <v>414</v>
+      </c>
+      <c r="M15" s="38"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="38" t="s">
+        <v>279</v>
+      </c>
+      <c r="P15" s="38" t="s">
+        <v>439</v>
+      </c>
+      <c r="Q15" s="38" t="s">
         <v>411</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="G15" s="20">
-        <v>75988626153</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>413</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -2696,13 +2841,13 @@
       <c r="H16" s="32"/>
       <c r="I16" s="32"/>
       <c r="J16" s="32" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K16" s="32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L16" s="32" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="M16" s="32"/>
       <c r="N16" s="32"/>
@@ -2713,121 +2858,123 @@
       <c r="Q16" s="32"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="50">
+      <c r="A17" s="19">
         <v>45385</v>
       </c>
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="20">
+        <v>75981426457</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="P17" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="C17" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="52">
-        <v>75981426457</v>
-      </c>
-      <c r="H17" s="51" t="s">
+      <c r="Q17" s="6"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="49">
+        <v>45386</v>
+      </c>
+      <c r="B18" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="51">
+        <v>75982607830</v>
+      </c>
+      <c r="H18" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="51" t="s">
-        <v>428</v>
-      </c>
-      <c r="J17" s="51" t="s">
-        <v>426</v>
-      </c>
-      <c r="K17" s="51" t="s">
-        <v>130</v>
-      </c>
-      <c r="L17" s="51" t="s">
-        <v>425</v>
-      </c>
-      <c r="M17" s="51"/>
-      <c r="N17" s="51"/>
-      <c r="O17" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="P17" s="51" t="s">
-        <v>429</v>
-      </c>
-      <c r="Q17" s="51"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="53">
+      <c r="I18" s="50" t="s">
+        <v>444</v>
+      </c>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="L18" s="50" t="s">
+        <v>431</v>
+      </c>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="50"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="45">
         <v>45386</v>
       </c>
-      <c r="B18" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" s="54" t="s">
+      <c r="B19" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="55">
-        <v>75982607830</v>
-      </c>
-      <c r="H18" s="54" t="s">
-        <v>14</v>
-      </c>
-      <c r="I18" s="54" t="s">
-        <v>435</v>
-      </c>
-      <c r="J18" s="54"/>
-      <c r="K18" s="54" t="s">
-        <v>130</v>
-      </c>
-      <c r="L18" s="54" t="s">
-        <v>433</v>
-      </c>
-      <c r="M18" s="54"/>
-      <c r="N18" s="54"/>
-      <c r="O18" s="54"/>
-      <c r="P18" s="54"/>
-      <c r="Q18" s="54"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="31">
-        <v>45386</v>
-      </c>
-      <c r="B19" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32" t="s">
+      <c r="D19" s="46"/>
+      <c r="E19" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="32" t="s">
-        <v>198</v>
-      </c>
-      <c r="G19" s="33">
+      <c r="F19" s="46" t="s">
+        <v>197</v>
+      </c>
+      <c r="G19" s="47">
         <v>75997002546</v>
       </c>
-      <c r="H19" s="32" t="s">
+      <c r="H19" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32" t="s">
-        <v>171</v>
-      </c>
-      <c r="K19" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="32" t="s">
+      <c r="I19" s="46"/>
+      <c r="J19" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="K19" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="L19" s="46" t="s">
+        <v>440</v>
+      </c>
+      <c r="M19" s="46"/>
+      <c r="N19" s="46"/>
+      <c r="O19" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="P19" s="32" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q19" s="32"/>
+      <c r="P19" s="46" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q19" s="46"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="23">
@@ -2848,20 +2995,24 @@
       <c r="H20" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="I20" s="17"/>
+      <c r="I20" s="17" t="s">
+        <v>441</v>
+      </c>
       <c r="J20" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K20" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L20" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="M20" s="17"/>
+        <v>146</v>
+      </c>
+      <c r="M20" s="17" t="s">
+        <v>442</v>
+      </c>
       <c r="N20" s="17"/>
       <c r="O20" s="17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="P20" s="17"/>
       <c r="Q20" s="17"/>
@@ -2883,13 +3034,16 @@
         <v>15</v>
       </c>
       <c r="K21" t="s">
-        <v>131</v>
+        <v>130</v>
+      </c>
+      <c r="L21" t="s">
+        <v>443</v>
       </c>
       <c r="O21" t="s">
         <v>19</v>
       </c>
       <c r="P21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
@@ -2909,19 +3063,22 @@
         <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K22" t="s">
-        <v>132</v>
+        <v>131</v>
+      </c>
+      <c r="L22" t="s">
+        <v>445</v>
       </c>
       <c r="O22" t="s">
         <v>20</v>
       </c>
       <c r="P22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
@@ -2938,7 +3095,7 @@
         <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G23" s="4">
         <v>75999063868</v>
@@ -2950,16 +3107,19 @@
         <v>25</v>
       </c>
       <c r="J23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K23" t="s">
-        <v>132</v>
+        <v>131</v>
+      </c>
+      <c r="L23" t="s">
+        <v>452</v>
       </c>
       <c r="O23" t="s">
         <v>19</v>
       </c>
       <c r="P23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
@@ -2979,35 +3139,59 @@
         <v>15</v>
       </c>
       <c r="K24" t="s">
+        <v>132</v>
+      </c>
+      <c r="L24" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="19">
+        <v>45387</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="G25" s="20">
+        <v>75999119556</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
-        <v>45387</v>
-      </c>
-      <c r="B25" t="s">
-        <v>74</v>
-      </c>
-      <c r="C25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="4">
-        <v>75999119556</v>
-      </c>
-      <c r="H25" t="s">
-        <v>14</v>
-      </c>
-      <c r="K25" t="s">
-        <v>134</v>
-      </c>
+      <c r="L25" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="P25" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="Q25" s="6"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="26">
         <v>45387</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>10</v>
@@ -3024,7 +3208,7 @@
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
       <c r="K26" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
@@ -3033,7 +3217,7 @@
         <v>52</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q26" s="7"/>
     </row>
@@ -3042,7 +3226,7 @@
         <v>45387</v>
       </c>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C27" t="s">
         <v>10</v>
@@ -3054,7 +3238,10 @@
         <v>15</v>
       </c>
       <c r="K27" t="s">
-        <v>133</v>
+        <v>132</v>
+      </c>
+      <c r="L27" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
@@ -3062,7 +3249,7 @@
         <v>45387</v>
       </c>
       <c r="B28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C28" t="s">
         <v>11</v>
@@ -3074,13 +3261,16 @@
         <v>15</v>
       </c>
       <c r="K28" t="s">
-        <v>133</v>
+        <v>132</v>
+      </c>
+      <c r="L28" t="s">
+        <v>459</v>
       </c>
       <c r="O28" t="s">
         <v>20</v>
       </c>
       <c r="P28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
@@ -3088,7 +3278,7 @@
         <v>45387</v>
       </c>
       <c r="B29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C29" t="s">
         <v>11</v>
@@ -3100,7 +3290,10 @@
         <v>14</v>
       </c>
       <c r="K29" t="s">
-        <v>133</v>
+        <v>132</v>
+      </c>
+      <c r="L29" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
@@ -3108,7 +3301,10 @@
         <v>45387</v>
       </c>
       <c r="B30" t="s">
-        <v>79</v>
+        <v>78</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
       </c>
       <c r="G30" s="4">
         <v>82991291868</v>
@@ -3117,7 +3313,10 @@
         <v>14</v>
       </c>
       <c r="K30" t="s">
-        <v>133</v>
+        <v>132</v>
+      </c>
+      <c r="L30" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
@@ -3125,7 +3324,7 @@
         <v>45387</v>
       </c>
       <c r="B31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G31" s="4">
         <v>74998004631</v>
@@ -3134,7 +3333,10 @@
         <v>14</v>
       </c>
       <c r="K31" t="s">
-        <v>133</v>
+        <v>132</v>
+      </c>
+      <c r="L31" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
@@ -3142,7 +3344,7 @@
         <v>45387</v>
       </c>
       <c r="B32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C32" t="s">
         <v>11</v>
@@ -3154,54 +3356,59 @@
         <v>14</v>
       </c>
       <c r="K32" t="s">
-        <v>133</v>
+        <v>132</v>
+      </c>
+      <c r="L32" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="37">
+      <c r="A33" s="45">
         <v>45387</v>
       </c>
-      <c r="B33" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="C33" s="38" t="s">
+      <c r="B33" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="39">
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="47">
         <v>31996851984</v>
       </c>
-      <c r="H33" s="38" t="s">
+      <c r="H33" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="I33" s="38" t="s">
+      <c r="I33" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="J33" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="K33" s="38" t="s">
-        <v>135</v>
-      </c>
-      <c r="L33" s="38"/>
-      <c r="M33" s="38"/>
-      <c r="N33" s="38"/>
-      <c r="O33" s="38" t="s">
-        <v>280</v>
-      </c>
-      <c r="P33" s="38" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q33" s="24"/>
+      <c r="J33" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="K33" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="L33" s="46" t="s">
+        <v>465</v>
+      </c>
+      <c r="M33" s="46"/>
+      <c r="N33" s="46"/>
+      <c r="O33" s="46" t="s">
+        <v>279</v>
+      </c>
+      <c r="P33" s="46" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q33" s="46"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>45387</v>
       </c>
       <c r="B34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C34" t="s">
         <v>11</v>
@@ -3213,7 +3420,10 @@
         <v>14</v>
       </c>
       <c r="K34" t="s">
-        <v>136</v>
+        <v>135</v>
+      </c>
+      <c r="L34" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
@@ -3221,7 +3431,7 @@
         <v>45387</v>
       </c>
       <c r="B35" s="38" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C35" s="38" t="s">
         <v>11</v>
@@ -3238,16 +3448,16 @@
       <c r="I35" s="38"/>
       <c r="J35" s="38"/>
       <c r="K35" s="38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L35" s="38"/>
       <c r="M35" s="38"/>
       <c r="N35" s="38"/>
       <c r="O35" s="38" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="P35" s="38" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Q35" s="24"/>
     </row>
@@ -3256,7 +3466,7 @@
         <v>45387</v>
       </c>
       <c r="B36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C36" t="s">
         <v>11</v>
@@ -3268,7 +3478,7 @@
         <v>14</v>
       </c>
       <c r="K36" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
@@ -3276,7 +3486,7 @@
         <v>45387</v>
       </c>
       <c r="B37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C37" t="s">
         <v>11</v>
@@ -3285,16 +3495,16 @@
         <v>75991377577</v>
       </c>
       <c r="H37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K37" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
@@ -3302,7 +3512,7 @@
         <v>45387</v>
       </c>
       <c r="B38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C38" t="s">
         <v>11</v>
@@ -3314,7 +3524,7 @@
         <v>16</v>
       </c>
       <c r="K38" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
@@ -3322,7 +3532,7 @@
         <v>45388</v>
       </c>
       <c r="B39" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C39" t="s">
         <v>10</v>
@@ -3334,7 +3544,7 @@
         <v>15</v>
       </c>
       <c r="K39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
@@ -3342,7 +3552,7 @@
         <v>45388</v>
       </c>
       <c r="B40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C40" t="s">
         <v>10</v>
@@ -3354,7 +3564,7 @@
         <v>14</v>
       </c>
       <c r="K40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
@@ -3362,7 +3572,7 @@
         <v>45388</v>
       </c>
       <c r="B41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C41" t="s">
         <v>11</v>
@@ -3374,7 +3584,7 @@
         <v>14</v>
       </c>
       <c r="K41" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
@@ -3382,7 +3592,7 @@
         <v>45388</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C42" s="17" t="s">
         <v>11</v>
@@ -3398,10 +3608,10 @@
       </c>
       <c r="I42" s="17"/>
       <c r="J42" s="17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K42" s="17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L42" s="17"/>
       <c r="M42" s="17"/>
@@ -3415,7 +3625,7 @@
         <v>45388</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C43" s="17" t="s">
         <v>10</v>
@@ -3425,7 +3635,7 @@
         <v>12</v>
       </c>
       <c r="F43" s="17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G43" s="18">
         <v>75999256961</v>
@@ -3435,13 +3645,13 @@
       </c>
       <c r="I43" s="17"/>
       <c r="J43" s="17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K43" s="17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L43" s="17" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M43" s="17"/>
       <c r="N43" s="17"/>
@@ -3454,7 +3664,7 @@
         <v>45388</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C44" s="17" t="s">
         <v>11</v>
@@ -3470,10 +3680,10 @@
       </c>
       <c r="I44" s="17"/>
       <c r="J44" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K44" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L44" s="17"/>
       <c r="M44" s="17"/>
@@ -3487,7 +3697,7 @@
         <v>45388</v>
       </c>
       <c r="B45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C45" t="s">
         <v>10</v>
@@ -3499,7 +3709,7 @@
         <v>15</v>
       </c>
       <c r="K45" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
@@ -3507,7 +3717,7 @@
         <v>45388</v>
       </c>
       <c r="B46" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C46" t="s">
         <v>10</v>
@@ -3519,7 +3729,7 @@
         <v>15</v>
       </c>
       <c r="K46" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
@@ -3527,7 +3737,7 @@
         <v>45388</v>
       </c>
       <c r="B47" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C47" s="27" t="s">
         <v>11</v>
@@ -3537,7 +3747,7 @@
         <v>12</v>
       </c>
       <c r="F47" s="27" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G47" s="29">
         <v>74988100354</v>
@@ -3547,16 +3757,16 @@
       </c>
       <c r="I47" s="28"/>
       <c r="J47" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K47" s="27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L47" s="28"/>
       <c r="M47" s="28"/>
       <c r="N47" s="28"/>
       <c r="O47" s="27" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="P47" s="28"/>
       <c r="Q47" s="28"/>
@@ -3566,7 +3776,7 @@
         <v>45388</v>
       </c>
       <c r="B48" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G48" s="4">
         <v>82982062061</v>
@@ -3575,10 +3785,10 @@
         <v>15</v>
       </c>
       <c r="K48" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L48" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
@@ -3586,7 +3796,7 @@
         <v>45388</v>
       </c>
       <c r="B49" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C49" t="s">
         <v>11</v>
@@ -3598,7 +3808,7 @@
         <v>14</v>
       </c>
       <c r="K49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
@@ -3606,7 +3816,7 @@
         <v>45388</v>
       </c>
       <c r="B50" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C50" t="s">
         <v>11</v>
@@ -3618,7 +3828,7 @@
         <v>14</v>
       </c>
       <c r="K50" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
@@ -3626,7 +3836,7 @@
         <v>45388</v>
       </c>
       <c r="B51" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C51" t="s">
         <v>11</v>
@@ -3638,10 +3848,10 @@
         <v>14</v>
       </c>
       <c r="K51" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P51" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
@@ -3649,7 +3859,7 @@
         <v>45388</v>
       </c>
       <c r="B52" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C52" t="s">
         <v>11</v>
@@ -3661,10 +3871,10 @@
         <v>15</v>
       </c>
       <c r="K52" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L52" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
@@ -3672,7 +3882,7 @@
         <v>45388</v>
       </c>
       <c r="B53" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C53" t="s">
         <v>10</v>
@@ -3684,10 +3894,10 @@
         <v>15</v>
       </c>
       <c r="K53" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L53" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
@@ -3695,7 +3905,7 @@
         <v>45388</v>
       </c>
       <c r="B54" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G54" s="4">
         <v>82982069224</v>
@@ -3704,7 +3914,7 @@
         <v>15</v>
       </c>
       <c r="K54" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
@@ -3712,7 +3922,7 @@
         <v>45389</v>
       </c>
       <c r="B55" s="27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C55" s="27" t="s">
         <v>10</v>
@@ -3730,16 +3940,16 @@
       </c>
       <c r="I55" s="28"/>
       <c r="J55" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K55" s="27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L55" s="27"/>
       <c r="M55" s="28"/>
       <c r="N55" s="28"/>
       <c r="O55" s="27" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="P55" s="27"/>
       <c r="Q55" s="28"/>
@@ -3749,7 +3959,7 @@
         <v>45389</v>
       </c>
       <c r="B56" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C56" t="s">
         <v>11</v>
@@ -3764,10 +3974,10 @@
         <v>14</v>
       </c>
       <c r="J56" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K56" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
@@ -3775,7 +3985,7 @@
         <v>45389</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>11</v>
@@ -3785,7 +3995,7 @@
         <v>12</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G57" s="20">
         <v>75992130915</v>
@@ -3794,14 +4004,14 @@
         <v>14</v>
       </c>
       <c r="I57" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J57" s="6"/>
       <c r="K57" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L57" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M57" s="6"/>
       <c r="N57" s="6"/>
@@ -3818,7 +4028,7 @@
         <v>45389</v>
       </c>
       <c r="B58" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C58" t="s">
         <v>10</v>
@@ -3830,7 +4040,7 @@
         <v>15</v>
       </c>
       <c r="K58" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
@@ -3838,7 +4048,7 @@
         <v>45389</v>
       </c>
       <c r="B59" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C59" t="s">
         <v>11</v>
@@ -3850,7 +4060,7 @@
         <v>14</v>
       </c>
       <c r="K59" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
@@ -3858,7 +4068,7 @@
         <v>45389</v>
       </c>
       <c r="B60" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C60" t="s">
         <v>11</v>
@@ -3870,7 +4080,7 @@
         <v>15</v>
       </c>
       <c r="K60" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
@@ -3878,7 +4088,7 @@
         <v>45389</v>
       </c>
       <c r="B61" s="38" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C61" s="38" t="s">
         <v>10</v>
@@ -3888,7 +4098,7 @@
         <v>12</v>
       </c>
       <c r="F61" s="38" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G61" s="39">
         <v>75983524544</v>
@@ -3898,10 +4108,10 @@
       </c>
       <c r="I61" s="38"/>
       <c r="J61" s="38" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K61" s="38" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L61" s="38"/>
       <c r="M61" s="38"/>
@@ -3915,7 +4125,7 @@
         <v>45389</v>
       </c>
       <c r="B62" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C62" t="s">
         <v>11</v>
@@ -3927,7 +4137,7 @@
         <v>16</v>
       </c>
       <c r="K62" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
@@ -3935,7 +4145,7 @@
         <v>45389</v>
       </c>
       <c r="B63" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C63" t="s">
         <v>11</v>
@@ -3947,7 +4157,7 @@
         <v>14</v>
       </c>
       <c r="K63" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
@@ -3955,7 +4165,7 @@
         <v>45390</v>
       </c>
       <c r="B64" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C64" t="s">
         <v>11</v>
@@ -3967,7 +4177,7 @@
         <v>15</v>
       </c>
       <c r="K64" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
@@ -3975,7 +4185,7 @@
         <v>45390</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C65" s="10" t="s">
         <v>10</v>
@@ -3993,16 +4203,16 @@
       </c>
       <c r="I65" s="15"/>
       <c r="J65" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K65" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L65" s="15"/>
       <c r="M65" s="15"/>
       <c r="N65" s="15"/>
       <c r="O65" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P65" s="15"/>
       <c r="Q65" s="15"/>
@@ -4012,7 +4222,7 @@
         <v>45390</v>
       </c>
       <c r="B66" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G66" s="4">
         <v>75991439307</v>
@@ -4021,7 +4231,7 @@
         <v>15</v>
       </c>
       <c r="K66" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
@@ -4029,7 +4239,7 @@
         <v>45390</v>
       </c>
       <c r="B67" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C67" t="s">
         <v>10</v>
@@ -4038,7 +4248,7 @@
         <v>75998179677</v>
       </c>
       <c r="K67" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
@@ -4046,7 +4256,7 @@
         <v>45390</v>
       </c>
       <c r="B68" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C68" t="s">
         <v>11</v>
@@ -4058,7 +4268,7 @@
         <v>15</v>
       </c>
       <c r="K68" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
@@ -4066,7 +4276,7 @@
         <v>45390</v>
       </c>
       <c r="B69" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C69" t="s">
         <v>10</v>
@@ -4078,7 +4288,7 @@
         <v>15</v>
       </c>
       <c r="K69" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
@@ -4086,7 +4296,7 @@
         <v>45390</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>10</v>
@@ -4101,11 +4311,11 @@
         <v>14</v>
       </c>
       <c r="I70" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J70" s="6"/>
       <c r="K70" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L70" s="6"/>
       <c r="M70" s="6"/>
@@ -4114,7 +4324,7 @@
         <v>51</v>
       </c>
       <c r="P70" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
@@ -4122,7 +4332,7 @@
         <v>45390</v>
       </c>
       <c r="B71" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C71" t="s">
         <v>11</v>
@@ -4134,7 +4344,7 @@
         <v>15</v>
       </c>
       <c r="K71" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
@@ -4142,7 +4352,7 @@
         <v>45391</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>11</v>
@@ -4152,7 +4362,7 @@
         <v>12</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G72" s="20">
         <v>75988072106</v>
@@ -4161,11 +4371,11 @@
         <v>15</v>
       </c>
       <c r="I72" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J72" s="6"/>
       <c r="K72" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L72" s="6"/>
       <c r="M72" s="6"/>
@@ -4174,7 +4384,7 @@
         <v>51</v>
       </c>
       <c r="P72" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Q72" s="6"/>
     </row>
@@ -4183,7 +4393,7 @@
         <v>45391</v>
       </c>
       <c r="B73" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C73" t="s">
         <v>11</v>
@@ -4192,10 +4402,10 @@
         <v>82999147231</v>
       </c>
       <c r="J73" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K73" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
@@ -4203,7 +4413,7 @@
         <v>45391</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C74" s="6" t="s">
         <v>11</v>
@@ -4213,7 +4423,7 @@
         <v>12</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G74" s="20">
         <v>75991119603</v>
@@ -4226,7 +4436,7 @@
       </c>
       <c r="J74" s="6"/>
       <c r="K74" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L74" s="6"/>
       <c r="M74" s="6"/>
@@ -4235,7 +4445,7 @@
         <v>51</v>
       </c>
       <c r="P74" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Q74" s="6"/>
     </row>
@@ -4244,7 +4454,7 @@
         <v>45391</v>
       </c>
       <c r="B75" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G75" s="4">
         <v>82982084022</v>
@@ -4253,7 +4463,7 @@
         <v>14</v>
       </c>
       <c r="K75" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
@@ -4261,7 +4471,7 @@
         <v>45391</v>
       </c>
       <c r="B76" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C76" s="17" t="s">
         <v>11</v>
@@ -4278,7 +4488,7 @@
       <c r="I76" s="17"/>
       <c r="J76" s="17"/>
       <c r="K76" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L76" s="22">
         <v>45392</v>
@@ -4287,7 +4497,7 @@
       <c r="N76" s="17"/>
       <c r="O76" s="17"/>
       <c r="P76" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="Q76" s="21"/>
     </row>
@@ -4296,7 +4506,7 @@
         <v>45391</v>
       </c>
       <c r="B77" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G77" s="4">
         <v>87999986811</v>
@@ -4305,7 +4515,7 @@
         <v>14</v>
       </c>
       <c r="K77" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
@@ -4313,7 +4523,7 @@
         <v>45391</v>
       </c>
       <c r="B78" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G78" s="4">
         <v>82981699502</v>
@@ -4322,7 +4532,7 @@
         <v>15</v>
       </c>
       <c r="K78" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.25">
@@ -4330,7 +4540,7 @@
         <v>45391</v>
       </c>
       <c r="B79" s="27" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C79" s="27" t="s">
         <v>11</v>
@@ -4346,16 +4556,16 @@
       </c>
       <c r="I79" s="28"/>
       <c r="J79" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K79" s="27" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L79" s="28"/>
       <c r="M79" s="28"/>
       <c r="N79" s="28"/>
       <c r="O79" s="27" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P79" s="28"/>
       <c r="Q79" s="28"/>
@@ -4365,13 +4575,13 @@
         <v>45391</v>
       </c>
       <c r="B80" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E80" t="s">
         <v>26</v>
       </c>
       <c r="F80" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G80" s="4">
         <v>87999616370</v>
@@ -4380,7 +4590,7 @@
         <v>15</v>
       </c>
       <c r="K80" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.25">
@@ -4388,7 +4598,7 @@
         <v>45392</v>
       </c>
       <c r="B81" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C81" t="s">
         <v>11</v>
@@ -4400,7 +4610,7 @@
         <v>15</v>
       </c>
       <c r="K81" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
@@ -4408,7 +4618,7 @@
         <v>45392</v>
       </c>
       <c r="B82" s="28" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C82" s="27" t="s">
         <v>11</v>
@@ -4418,7 +4628,7 @@
         <v>26</v>
       </c>
       <c r="F82" s="27" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G82" s="29">
         <v>82996274686</v>
@@ -4428,16 +4638,16 @@
       </c>
       <c r="I82" s="28"/>
       <c r="J82" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K82" s="27" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L82" s="28"/>
       <c r="M82" s="28"/>
       <c r="N82" s="28"/>
       <c r="O82" s="27" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P82" s="28"/>
       <c r="Q82" s="28"/>
@@ -4447,7 +4657,7 @@
         <v>45392</v>
       </c>
       <c r="B83" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C83" t="s">
         <v>11</v>
@@ -4459,7 +4669,7 @@
         <v>14</v>
       </c>
       <c r="K83" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.25">
@@ -4467,7 +4677,7 @@
         <v>45392</v>
       </c>
       <c r="B84" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C84" t="s">
         <v>10</v>
@@ -4476,7 +4686,7 @@
         <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G84" s="4">
         <v>75999506451</v>
@@ -4485,13 +4695,13 @@
         <v>16</v>
       </c>
       <c r="I84" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J84" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K84" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.25">
@@ -4499,7 +4709,7 @@
         <v>45392</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>10</v>
@@ -4509,7 +4719,7 @@
         <v>12</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G85" s="20">
         <v>75992461997</v>
@@ -4519,10 +4729,10 @@
       </c>
       <c r="I85" s="6"/>
       <c r="J85" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K85" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L85" s="6"/>
       <c r="M85" s="6"/>
@@ -4531,7 +4741,7 @@
         <v>51</v>
       </c>
       <c r="P85" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q85" s="6"/>
     </row>
@@ -4540,19 +4750,19 @@
         <v>45392</v>
       </c>
       <c r="B86" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G86" s="4">
         <v>75991001480</v>
       </c>
       <c r="I86" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J86" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K86" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.25">
@@ -4560,7 +4770,7 @@
         <v>45393</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C87" s="10" t="s">
         <v>11</v>
@@ -4570,7 +4780,7 @@
         <v>12</v>
       </c>
       <c r="F87" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G87" s="16">
         <v>75982427193</v>
@@ -4580,16 +4790,16 @@
       </c>
       <c r="I87" s="15"/>
       <c r="J87" s="12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K87" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L87" s="15"/>
       <c r="M87" s="15"/>
       <c r="N87" s="15"/>
       <c r="O87" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P87" s="15"/>
       <c r="Q87" s="15"/>
@@ -4605,7 +4815,7 @@
         <v>26</v>
       </c>
       <c r="F88" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G88" s="4">
         <v>82996064459</v>
@@ -4614,13 +4824,13 @@
         <v>14</v>
       </c>
       <c r="I88" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J88" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K88" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.25">
@@ -4628,7 +4838,7 @@
         <v>45393</v>
       </c>
       <c r="B89" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C89" t="s">
         <v>10</v>
@@ -4640,7 +4850,7 @@
         <v>14</v>
       </c>
       <c r="K89" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="P89" s="13"/>
     </row>
@@ -4649,7 +4859,7 @@
         <v>45393</v>
       </c>
       <c r="B90" s="17" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C90" s="17" t="s">
         <v>10</v>
@@ -4659,7 +4869,7 @@
         <v>12</v>
       </c>
       <c r="F90" s="17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G90" s="18">
         <v>79988254997</v>
@@ -4668,13 +4878,13 @@
         <v>14</v>
       </c>
       <c r="I90" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J90" s="17" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K90" s="17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L90" s="17"/>
       <c r="M90" s="17"/>
@@ -4688,7 +4898,7 @@
         <v>45393</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C91" s="6" t="s">
         <v>10</v>
@@ -4698,7 +4908,7 @@
         <v>26</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G91" s="36">
         <v>82981249808</v>
@@ -4707,14 +4917,14 @@
         <v>14</v>
       </c>
       <c r="I91" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J91" s="6"/>
       <c r="K91" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L91" s="14" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M91" s="6"/>
       <c r="N91" s="6"/>
@@ -4722,7 +4932,7 @@
         <v>51</v>
       </c>
       <c r="P91" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Q91" s="6"/>
     </row>
@@ -4731,7 +4941,7 @@
         <v>45393</v>
       </c>
       <c r="B92" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C92" t="s">
         <v>10</v>
@@ -4740,7 +4950,7 @@
         <v>26</v>
       </c>
       <c r="F92" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G92" s="4">
         <v>82981502797</v>
@@ -4749,10 +4959,10 @@
         <v>14</v>
       </c>
       <c r="J92" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K92" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.25">
@@ -4760,7 +4970,7 @@
         <v>45393</v>
       </c>
       <c r="B93" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C93" t="s">
         <v>11</v>
@@ -4769,25 +4979,25 @@
         <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H93" t="s">
         <v>14</v>
       </c>
       <c r="I93" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J93" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K93" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L93" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.25">
@@ -4795,7 +5005,7 @@
         <v>45393</v>
       </c>
       <c r="B94" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C94" t="s">
         <v>11</v>
@@ -4804,16 +5014,16 @@
         <v>26</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H94" t="s">
         <v>16</v>
       </c>
       <c r="I94" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K94" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.25">
@@ -4821,7 +5031,7 @@
         <v>45393</v>
       </c>
       <c r="B95" s="38" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C95" s="38" t="s">
         <v>11</v>
@@ -4831,10 +5041,10 @@
         <v>12</v>
       </c>
       <c r="F95" s="38" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G95" s="39" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H95" s="38" t="s">
         <v>15</v>
@@ -4844,10 +5054,10 @@
       </c>
       <c r="J95" s="38"/>
       <c r="K95" s="38" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L95" s="38" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M95" s="38"/>
       <c r="N95" s="38"/>
@@ -4855,16 +5065,16 @@
         <v>51</v>
       </c>
       <c r="P95" s="38" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q95" s="6"/>
+        <v>263</v>
+      </c>
+      <c r="Q95" s="24"/>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" s="23">
         <v>45394</v>
       </c>
       <c r="B96" s="17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C96" s="17" t="s">
         <v>11</v>
@@ -4873,22 +5083,22 @@
       <c r="E96" s="17"/>
       <c r="F96" s="17"/>
       <c r="G96" s="18" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H96" s="17" t="s">
         <v>15</v>
       </c>
       <c r="I96" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J96" s="17" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K96" s="17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L96" s="17" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M96" s="17"/>
       <c r="N96" s="17"/>
@@ -4901,19 +5111,19 @@
         <v>45394</v>
       </c>
       <c r="B97" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C97" t="s">
         <v>11</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J97" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K97" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.25">
@@ -4921,7 +5131,7 @@
         <v>45334</v>
       </c>
       <c r="B98" s="17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C98" s="17" t="s">
         <v>11</v>
@@ -4930,7 +5140,7 @@
       <c r="E98" s="17"/>
       <c r="F98" s="17"/>
       <c r="G98" s="18" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H98" s="17" t="s">
         <v>14</v>
@@ -4938,7 +5148,7 @@
       <c r="I98" s="17"/>
       <c r="J98" s="17"/>
       <c r="K98" s="17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L98" s="17"/>
       <c r="M98" s="17"/>
@@ -4952,7 +5162,7 @@
         <v>45394</v>
       </c>
       <c r="B99" s="32" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C99" s="32" t="s">
         <v>10</v>
@@ -4961,13 +5171,13 @@
       <c r="E99" s="32"/>
       <c r="F99" s="32"/>
       <c r="G99" s="33" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H99" s="32"/>
       <c r="I99" s="32"/>
       <c r="J99" s="32"/>
       <c r="K99" s="32" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L99" s="32"/>
       <c r="M99" s="32"/>
@@ -4981,7 +5191,7 @@
         <v>45394</v>
       </c>
       <c r="B100" s="32" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C100" s="32" t="s">
         <v>10</v>
@@ -4990,13 +5200,13 @@
       <c r="E100" s="32"/>
       <c r="F100" s="32"/>
       <c r="G100" s="33" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H100" s="32"/>
       <c r="I100" s="32"/>
       <c r="J100" s="32"/>
       <c r="K100" s="32" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L100" s="32"/>
       <c r="M100" s="32"/>
@@ -5010,7 +5220,7 @@
         <v>45395</v>
       </c>
       <c r="B101" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C101" t="s">
         <v>11</v>
@@ -5019,19 +5229,19 @@
         <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H101" t="s">
         <v>15</v>
       </c>
       <c r="J101" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K101" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.25">
@@ -5039,7 +5249,7 @@
         <v>45395</v>
       </c>
       <c r="B102" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C102" t="s">
         <v>11</v>
@@ -5048,19 +5258,19 @@
         <v>26</v>
       </c>
       <c r="F102" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H102" t="s">
         <v>14</v>
       </c>
       <c r="I102" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K102" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.25">
@@ -5068,7 +5278,7 @@
         <v>45395</v>
       </c>
       <c r="B103" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G103" s="4"/>
     </row>
@@ -5077,7 +5287,7 @@
         <v>45395</v>
       </c>
       <c r="B104" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C104" t="s">
         <v>11</v>
@@ -5086,19 +5296,19 @@
         <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H104" t="s">
         <v>14</v>
       </c>
       <c r="I104" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K104" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="105" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
@@ -5110,7 +5320,7 @@
         <v>45395</v>
       </c>
       <c r="B106" s="17" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C106" s="17" t="s">
         <v>10</v>
@@ -5120,18 +5330,18 @@
         <v>27</v>
       </c>
       <c r="F106" s="17" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G106" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="H106" s="17" t="s">
         <v>293</v>
-      </c>
-      <c r="H106" s="17" t="s">
-        <v>294</v>
       </c>
       <c r="I106" s="17"/>
       <c r="J106" s="17"/>
       <c r="K106" s="17" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="L106" s="17"/>
       <c r="M106" s="17"/>
@@ -5145,7 +5355,7 @@
         <v>45395</v>
       </c>
       <c r="B107" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C107" s="17" t="s">
         <v>10</v>
@@ -5155,20 +5365,20 @@
         <v>12</v>
       </c>
       <c r="F107" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="G107" s="18" t="s">
         <v>296</v>
-      </c>
-      <c r="G107" s="18" t="s">
-        <v>297</v>
       </c>
       <c r="H107" s="17" t="s">
         <v>15</v>
       </c>
       <c r="I107" s="17"/>
       <c r="J107" s="17" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K107" s="22" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L107" s="17"/>
       <c r="M107" s="17"/>
@@ -5181,19 +5391,19 @@
         <v>45395</v>
       </c>
       <c r="B108" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C108" t="s">
         <v>11</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H108" t="s">
         <v>15</v>
       </c>
       <c r="K108" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.25">
@@ -5201,19 +5411,19 @@
         <v>45395</v>
       </c>
       <c r="B109" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C109" t="s">
         <v>11</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H109" t="s">
         <v>14</v>
       </c>
       <c r="K109" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.25">
@@ -5221,19 +5431,19 @@
         <v>45395</v>
       </c>
       <c r="B110" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C110" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H110" t="s">
         <v>14</v>
       </c>
       <c r="K110" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.25">
@@ -5241,19 +5451,19 @@
         <v>45395</v>
       </c>
       <c r="B111" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C111" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H111" t="s">
         <v>15</v>
       </c>
       <c r="K111" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.25">
@@ -5261,19 +5471,19 @@
         <v>45396</v>
       </c>
       <c r="B112" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C112" t="s">
         <v>11</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H112" t="s">
         <v>14</v>
       </c>
       <c r="K112" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.25">
@@ -5281,19 +5491,19 @@
         <v>45396</v>
       </c>
       <c r="B113" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C113" t="s">
         <v>11</v>
       </c>
       <c r="G113" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="J113" t="s">
         <v>307</v>
       </c>
-      <c r="J113" t="s">
-        <v>308</v>
-      </c>
       <c r="K113" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.25">
@@ -5301,7 +5511,7 @@
         <v>45396</v>
       </c>
       <c r="B114" s="17" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C114" s="17" t="s">
         <v>11</v>
@@ -5311,22 +5521,22 @@
         <v>26</v>
       </c>
       <c r="F114" s="17" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G114" s="18" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H114" s="17" t="s">
         <v>14</v>
       </c>
       <c r="I114" s="17" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J114" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="K114" s="17" t="s">
         <v>326</v>
-      </c>
-      <c r="K114" s="17" t="s">
-        <v>327</v>
       </c>
       <c r="L114" s="17"/>
       <c r="M114" s="17"/>
@@ -5336,64 +5546,64 @@
       <c r="Q114" s="8"/>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A115" s="19">
+      <c r="A115" s="26">
         <v>45396</v>
       </c>
-      <c r="B115" s="6" t="s">
+      <c r="B115" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D115" s="7"/>
+      <c r="E115" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F115" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="G115" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="H115" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I115" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="C115" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D115" s="6"/>
-      <c r="E115" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F115" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="G115" s="20" t="s">
-        <v>310</v>
-      </c>
-      <c r="H115" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I115" s="6" t="s">
+      <c r="J115" s="7"/>
+      <c r="K115" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="J115" s="6"/>
-      <c r="K115" s="6" t="s">
+      <c r="L115" s="7"/>
+      <c r="M115" s="7"/>
+      <c r="N115" s="7"/>
+      <c r="O115" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P115" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="L115" s="6"/>
-      <c r="M115" s="6"/>
-      <c r="N115" s="6"/>
-      <c r="O115" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="P115" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="Q115" s="6"/>
+      <c r="Q115" s="7"/>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116" s="5">
         <v>45396</v>
       </c>
       <c r="B116" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C116" t="s">
         <v>11</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H116" t="s">
         <v>15</v>
       </c>
       <c r="K116" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.25">
@@ -5401,19 +5611,19 @@
         <v>45396</v>
       </c>
       <c r="B117" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C117" t="s">
         <v>11</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H117" t="s">
         <v>14</v>
       </c>
       <c r="K117" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.25">
@@ -5421,7 +5631,7 @@
         <v>45396</v>
       </c>
       <c r="B118" s="17" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C118" s="17" t="s">
         <v>11</v>
@@ -5430,22 +5640,22 @@
       <c r="E118" s="17"/>
       <c r="F118" s="17"/>
       <c r="G118" s="18" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H118" s="17" t="s">
         <v>15</v>
       </c>
       <c r="I118" s="17" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J118" s="17" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="K118" s="17" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="L118" s="17" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="M118" s="17"/>
       <c r="N118" s="17"/>
@@ -5457,7 +5667,7 @@
         <v>45397</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C119" s="6" t="s">
         <v>11</v>
@@ -5467,20 +5677,20 @@
         <v>26</v>
       </c>
       <c r="F119" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="G119" s="20" t="s">
         <v>317</v>
-      </c>
-      <c r="G119" s="20" t="s">
-        <v>318</v>
       </c>
       <c r="H119" s="6"/>
       <c r="I119" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J119" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K119" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L119" s="6"/>
       <c r="M119" s="6"/>
@@ -5489,7 +5699,7 @@
         <v>51</v>
       </c>
       <c r="P119" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.25">
@@ -5497,7 +5707,7 @@
         <v>45397</v>
       </c>
       <c r="B120" s="17" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C120" s="17" t="s">
         <v>11</v>
@@ -5507,22 +5717,22 @@
         <v>27</v>
       </c>
       <c r="F120" s="17" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G120" s="18" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H120" s="17" t="s">
         <v>16</v>
       </c>
       <c r="I120" s="17" t="s">
+        <v>347</v>
+      </c>
+      <c r="J120" s="17" t="s">
         <v>348</v>
       </c>
-      <c r="J120" s="17" t="s">
-        <v>349</v>
-      </c>
       <c r="K120" s="17" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L120" s="17"/>
       <c r="M120" s="17"/>
@@ -5535,7 +5745,7 @@
         <v>45397</v>
       </c>
       <c r="B121" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C121" t="s">
         <v>10</v>
@@ -5544,22 +5754,22 @@
         <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H121" t="s">
         <v>15</v>
       </c>
       <c r="I121" t="s">
+        <v>345</v>
+      </c>
+      <c r="J121" t="s">
         <v>346</v>
       </c>
-      <c r="J121" t="s">
-        <v>347</v>
-      </c>
       <c r="K121" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.25">
@@ -5567,7 +5777,7 @@
         <v>45397</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C122" s="6" t="s">
         <v>11</v>
@@ -5577,20 +5787,20 @@
         <v>12</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G122" s="20" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H122" s="6"/>
       <c r="I122" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="J122" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="K122" s="6" t="s">
         <v>364</v>
-      </c>
-      <c r="K122" s="6" t="s">
-        <v>365</v>
       </c>
       <c r="L122" s="6"/>
       <c r="M122" s="6"/>
@@ -5599,7 +5809,7 @@
         <v>51</v>
       </c>
       <c r="P122" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.25">
@@ -5607,7 +5817,7 @@
         <v>45397</v>
       </c>
       <c r="B123" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C123" t="s">
         <v>10</v>
@@ -5616,25 +5826,25 @@
         <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H123" t="s">
         <v>14</v>
       </c>
       <c r="I123" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="J123" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="K123" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="P123" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.25">
@@ -5642,7 +5852,7 @@
         <v>45398</v>
       </c>
       <c r="B124" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C124" t="s">
         <v>11</v>
@@ -5651,22 +5861,22 @@
         <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H124" t="s">
         <v>14</v>
       </c>
       <c r="I124" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J124" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K124" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.25">
@@ -5674,7 +5884,7 @@
         <v>45398</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C125" s="6" t="s">
         <v>10</v>
@@ -5684,20 +5894,20 @@
         <v>12</v>
       </c>
       <c r="F125" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G125" s="20" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H125" s="6"/>
       <c r="I125" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="J125" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="J125" s="6" t="s">
+      <c r="K125" s="6" t="s">
         <v>392</v>
-      </c>
-      <c r="K125" s="6" t="s">
-        <v>393</v>
       </c>
       <c r="L125" s="6"/>
       <c r="M125" s="6"/>
@@ -5706,7 +5916,7 @@
         <v>51</v>
       </c>
       <c r="P125" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.25">
@@ -5714,7 +5924,7 @@
         <v>45398</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C126" s="6" t="s">
         <v>10</v>
@@ -5723,13 +5933,13 @@
       <c r="E126" s="6"/>
       <c r="F126" s="6"/>
       <c r="G126" s="20" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H126" s="6"/>
       <c r="I126" s="6"/>
       <c r="J126" s="6"/>
       <c r="K126" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="L126" s="6"/>
       <c r="M126" s="6"/>
@@ -5738,129 +5948,310 @@
         <v>51</v>
       </c>
       <c r="P126" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A127" s="5">
+      <c r="A127" s="23">
         <v>45398</v>
       </c>
-      <c r="B127" s="48" t="s">
+      <c r="B127" s="17" t="s">
+        <v>417</v>
+      </c>
+      <c r="C127" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D127" s="17"/>
+      <c r="E127" s="17"/>
+      <c r="F127" s="17"/>
+      <c r="G127" s="18" t="s">
+        <v>415</v>
+      </c>
+      <c r="H127" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I127" s="17" t="s">
+        <v>436</v>
+      </c>
+      <c r="J127" s="17" t="s">
+        <v>437</v>
+      </c>
+      <c r="K127" s="17" t="s">
         <v>418</v>
       </c>
-      <c r="C127" t="s">
-        <v>10</v>
-      </c>
-      <c r="G127" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="H127" t="s">
-        <v>15</v>
-      </c>
-      <c r="J127" s="48" t="s">
-        <v>420</v>
-      </c>
-      <c r="K127" s="48" t="s">
-        <v>419</v>
-      </c>
+      <c r="L127" s="17"/>
+      <c r="M127" s="17"/>
+      <c r="N127" s="17"/>
+      <c r="O127" s="17"/>
+      <c r="P127" s="17" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q127" s="17"/>
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A128" s="5">
         <v>45398</v>
       </c>
-      <c r="B128" s="48" t="s">
-        <v>421</v>
+      <c r="B128" t="s">
+        <v>419</v>
       </c>
       <c r="C128" t="s">
         <v>11</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H128" t="s">
         <v>14</v>
       </c>
-      <c r="K128" s="48" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K128" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129" s="5">
         <v>45398</v>
       </c>
-      <c r="B129" s="48" t="s">
-        <v>430</v>
+      <c r="B129" t="s">
+        <v>428</v>
       </c>
       <c r="C129" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="H129" t="s">
         <v>14</v>
       </c>
-      <c r="K129" s="48" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A130" s="5"/>
-      <c r="G130" s="4"/>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A131" s="5"/>
-      <c r="G131" s="4"/>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A132" s="5"/>
-      <c r="G132" s="4"/>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A133" s="5"/>
-      <c r="G133" s="4"/>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134" s="5"/>
-      <c r="G134" s="4"/>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A135" s="5"/>
-      <c r="G135" s="4"/>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A136" s="5"/>
-      <c r="G136" s="4"/>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K129" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A130" s="5">
+        <v>45399</v>
+      </c>
+      <c r="B130" t="s">
+        <v>434</v>
+      </c>
+      <c r="C130" t="s">
+        <v>11</v>
+      </c>
+      <c r="G130" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="H130" t="s">
+        <v>14</v>
+      </c>
+      <c r="K130" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A131" s="23">
+        <v>45399</v>
+      </c>
+      <c r="B131" s="17" t="s">
+        <v>447</v>
+      </c>
+      <c r="C131" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D131" s="17"/>
+      <c r="E131" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F131" s="17" t="s">
+        <v>328</v>
+      </c>
+      <c r="G131" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="H131" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I131" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="J131" s="17" t="s">
+        <v>450</v>
+      </c>
+      <c r="K131" s="17" t="s">
+        <v>451</v>
+      </c>
+      <c r="L131" s="17"/>
+      <c r="M131" s="17"/>
+      <c r="N131" s="17"/>
+      <c r="O131" s="17"/>
+      <c r="P131" s="17" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A132" s="5">
+        <v>45399</v>
+      </c>
+      <c r="B132" t="s">
+        <v>468</v>
+      </c>
+      <c r="C132" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="H132" t="s">
+        <v>15</v>
+      </c>
+      <c r="K132" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A133" s="5">
+        <v>45399</v>
+      </c>
+      <c r="B133" t="s">
+        <v>469</v>
+      </c>
+      <c r="C133" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="H133" t="s">
+        <v>14</v>
+      </c>
+      <c r="I133" t="s">
+        <v>471</v>
+      </c>
+      <c r="K133" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A134" s="19">
+        <v>45399</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D134" s="6"/>
+      <c r="E134" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F134" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="G134" s="20" t="s">
+        <v>474</v>
+      </c>
+      <c r="H134" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I134" s="6"/>
+      <c r="J134" s="6"/>
+      <c r="K134" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="L134" s="6"/>
+      <c r="M134" s="6"/>
+      <c r="N134" s="6"/>
+      <c r="O134" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="P134" s="6" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A135" s="5">
+        <v>45399</v>
+      </c>
+      <c r="B135" t="s">
+        <v>478</v>
+      </c>
+      <c r="C135" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="H135" t="s">
+        <v>15</v>
+      </c>
+      <c r="K135" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A136" s="19">
+        <v>45399</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D136" s="6"/>
+      <c r="E136" s="6"/>
+      <c r="F136" s="6"/>
+      <c r="G136" s="20" t="s">
+        <v>481</v>
+      </c>
+      <c r="H136" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I136" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="J136" s="6"/>
+      <c r="K136" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="L136" s="6"/>
+      <c r="M136" s="6"/>
+      <c r="N136" s="6"/>
+      <c r="O136" s="6"/>
+      <c r="P136" s="6" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137" s="5"/>
       <c r="G137" s="4"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138" s="5"/>
       <c r="G138" s="4"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139" s="5"/>
       <c r="G139" s="4"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140" s="5"/>
       <c r="G140" s="4"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141" s="5"/>
       <c r="G141" s="4"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142" s="5"/>
       <c r="G142" s="4"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A143" s="5"/>
       <c r="G143" s="4"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A144" s="5"/>
       <c r="G144" s="4"/>
     </row>
@@ -13340,7 +13731,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
@@ -13359,7 +13750,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D7" t="s">
         <v>29</v>
@@ -13367,7 +13758,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D8" t="s">
         <v>30</v>

--- a/Lead.xlsx
+++ b/Lead.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ATENDIMENTO-01\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodrigo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8210E38-45D4-4701-AA05-C3B50B2BEFA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038DEFAA-4309-489E-B739-1507ADA75039}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="593">
   <si>
     <t>Data</t>
   </si>
@@ -278,9 +278,6 @@
     <t>~Delson Honório</t>
   </si>
   <si>
-    <t>Gesse</t>
-  </si>
-  <si>
     <t>Lindinez Honorio Bernado</t>
   </si>
   <si>
@@ -290,9 +287,6 @@
     <t>~Jairo</t>
   </si>
   <si>
-    <t>~Pastorzinho da Elétrica- Flávio Roberto Gomes Teixeira Junior</t>
-  </si>
-  <si>
     <t>~Bethy</t>
   </si>
   <si>
@@ -326,9 +320,6 @@
     <t>~Marcia</t>
   </si>
   <si>
-    <t>Sinze</t>
-  </si>
-  <si>
     <t>Maria</t>
   </si>
   <si>
@@ -434,9 +425,6 @@
     <t xml:space="preserve">05/04 ligação atendeu </t>
   </si>
   <si>
-    <t>06/04  Dra. Anna aúdio wpp</t>
-  </si>
-  <si>
     <t>05/04 Dra. Anna aúdio wpp</t>
   </si>
   <si>
@@ -464,9 +452,6 @@
     <t>06/04 ligação</t>
   </si>
   <si>
-    <t>06/04 Aúdio</t>
-  </si>
-  <si>
     <t>08/04 ligação (não atendeu)</t>
   </si>
   <si>
@@ -494,9 +479,6 @@
     <t xml:space="preserve">ttvs de lig 03/04 AM s/retorno| msgs wpp </t>
   </si>
   <si>
-    <t>08/04  ligação</t>
-  </si>
-  <si>
     <t>08/04 ligação</t>
   </si>
   <si>
@@ -527,9 +509,6 @@
     <t xml:space="preserve">paciente não esta satisfeito com a prótese removível </t>
   </si>
   <si>
-    <t>Atendeu, quando me indentiquei, ficou mudo e desligou.</t>
-  </si>
-  <si>
     <t>Ligar as 17:00h</t>
   </si>
   <si>
@@ -599,9 +578,6 @@
     <t>Mora em Jeremoabo, vai se programar para agendar</t>
   </si>
   <si>
-    <t>Esta trabalhando em outra cidade, retorna dia 30/04, entra em contato</t>
-  </si>
-  <si>
     <t>Informou que mora em Curaça-BA, e não tem como esta vindo a cidade</t>
   </si>
   <si>
@@ -1476,6 +1452,354 @@
   </si>
   <si>
     <t>Fernanda Gomes de Sá (Santuario)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trabalha em Delmiro, alinhar um agendamento para um dia de sábado </t>
+  </si>
+  <si>
+    <t xml:space="preserve">~José Eloy </t>
+  </si>
+  <si>
+    <t>75 98809-7708</t>
+  </si>
+  <si>
+    <t>82 99956-8944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~Bel </t>
+  </si>
+  <si>
+    <t>75 98823-7354</t>
+  </si>
+  <si>
+    <t>Cord</t>
+  </si>
+  <si>
+    <t>75 98847-2530</t>
+  </si>
+  <si>
+    <t>75 98855-6310</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18/04 lig 09:17h (atendeu super grosso, disse que clicou, mas não tem interesse nenhum não) </t>
+  </si>
+  <si>
+    <t>18/04 lig 09:21h (caixa) aúdio wpp</t>
+  </si>
+  <si>
+    <t>18/04 lig 09:34h (chamou, não atende) aúdio wpp</t>
+  </si>
+  <si>
+    <t>18/04 lig 09:35h (tututu) aúdio wpp</t>
+  </si>
+  <si>
+    <t>18/04 lig 09:24h (atendeu e desligou)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Janice     ~APENAS OBSERVO </t>
+  </si>
+  <si>
+    <t>usou a campanha como meio de pedir ajuda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ajuda </t>
+  </si>
+  <si>
+    <t>82 98114-6133</t>
+  </si>
+  <si>
+    <t>Luciene de Araujo Silva</t>
+  </si>
+  <si>
+    <t>06/04  Dra. Anna aúdio wpp| aúdio + mídias Nay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18/04 aúdio May, oferencendo avaliação </t>
+  </si>
+  <si>
+    <t>Jesse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18/04 aúdio May, convite avaliação </t>
+  </si>
+  <si>
+    <t xml:space="preserve">18/04 aúdio May, alinhar hr avaliação </t>
+  </si>
+  <si>
+    <t xml:space="preserve">08/04  ligaçãoAtendeu, quando me indentiquei, ficou mudo e desligou. 18/04 11:53h lig não chama / aúdio wpp </t>
+  </si>
+  <si>
+    <t xml:space="preserve">18/04 respondeu que está sem condição financeira no momento </t>
+  </si>
+  <si>
+    <t xml:space="preserve">implantes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ficou de entrar em ctt quando estivesse pronta para avaliação </t>
+  </si>
+  <si>
+    <t xml:space="preserve">18/04 aúdio May wpp </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Flávio Roberto Gomes Teixeira Junior   ~Pastorzinho da Elétrica-</t>
+  </si>
+  <si>
+    <t>Esta trabalhando em outra cidade, retorna dia 30/04, entrar em contato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18/04 wpp AGENDAR </t>
+  </si>
+  <si>
+    <t>18/04 14:44h (não chama)  aúdio wpp para agendar av.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18/04 lig 15:03h amiga que atendeu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">17/04 aúdio wpp </t>
+  </si>
+  <si>
+    <t>06/04 Aúdio 08/04 ligação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18/04 lig 15:07h (chamou, não atendeu) aúdio wpp </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaline Lima </t>
+  </si>
+  <si>
+    <t xml:space="preserve">implante </t>
+  </si>
+  <si>
+    <t>18/04 lig (não atendeu)  aúdio wpp</t>
+  </si>
+  <si>
+    <t>18/04 aúdio wpp</t>
+  </si>
+  <si>
+    <t>75 99145-1841</t>
+  </si>
+  <si>
+    <t>82 98111-2224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tonicley Torres de Souza </t>
+  </si>
+  <si>
+    <t xml:space="preserve">18/04 lig 16:29h não chama aúdio wpp </t>
+  </si>
+  <si>
+    <t xml:space="preserve">prótese </t>
+  </si>
+  <si>
+    <t xml:space="preserve">falar 19/04 para AGENDAR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">~Francisco Santos </t>
+  </si>
+  <si>
+    <t>82 99110-3946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~Josivaldo </t>
+  </si>
+  <si>
+    <t>11 99567-3806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gloria- povoado </t>
+  </si>
+  <si>
+    <t xml:space="preserve">19/04 lig 16:15 (não chama) aúdio wpp </t>
+  </si>
+  <si>
+    <t>19/04 lig  16:19h (chamou, não atendeu) aúdio wpp</t>
+  </si>
+  <si>
+    <t>Neide Sinze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19/04 lig 16:22h (chamou, atendeu, desligou ou caiu) aúdio wpp </t>
+  </si>
+  <si>
+    <t xml:space="preserve">19/04 lig 16:31h (grave seu recado agora) aúdio wpp </t>
+  </si>
+  <si>
+    <t xml:space="preserve">19/04 lig 16:40h (chamou, nãoa tendeu) aúdio wpp </t>
+  </si>
+  <si>
+    <t xml:space="preserve">19/04 lig 16:44h(tututu) aúdio wpp </t>
+  </si>
+  <si>
+    <t>AGENDAR final do mês</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19/04 aúdio wpp </t>
+  </si>
+  <si>
+    <t xml:space="preserve">está na cidade no começo do mês </t>
+  </si>
+  <si>
+    <t xml:space="preserve">limpeza, clareamento </t>
+  </si>
+  <si>
+    <t xml:space="preserve">não sabe ler </t>
+  </si>
+  <si>
+    <t xml:space="preserve">19/04 aúdio wpp  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">19/04 lig 16:56h (chamou, não atendeu) aúdio wpp </t>
+  </si>
+  <si>
+    <t xml:space="preserve">19/04 lig 17:00h (chamou, não atende) aúdio wpp </t>
+  </si>
+  <si>
+    <t xml:space="preserve">19/04 lig 17:05h (tututu) aúdio wpp </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agua Branca </t>
+  </si>
+  <si>
+    <t xml:space="preserve">19/04 17:29h (tututu) aúdio wpp </t>
+  </si>
+  <si>
+    <t xml:space="preserve">limpeza e clareamento </t>
+  </si>
+  <si>
+    <t xml:space="preserve">19/04 aúdio wpp+ mídias clareamento e limpeza </t>
+  </si>
+  <si>
+    <t>restaurações</t>
+  </si>
+  <si>
+    <t>19/04 lig  17:38h (chamou,atendeu)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">viajou, volta com 90 dias </t>
+  </si>
+  <si>
+    <t xml:space="preserve">19/04 lig 17:41h (chamou, não atendeu) aúdio wpp </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glória </t>
+  </si>
+  <si>
+    <t xml:space="preserve">19/04 lig 17:45h (chamou, não atendeu) aúdio wpp </t>
+  </si>
+  <si>
+    <t xml:space="preserve">viajou, volta em JULHO  </t>
+  </si>
+  <si>
+    <t>75 99994-4893</t>
+  </si>
+  <si>
+    <t>75 99159-9182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prótese flex </t>
+  </si>
+  <si>
+    <t xml:space="preserve">José  João </t>
+  </si>
+  <si>
+    <t>82 99953-8637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~José Carlos </t>
+  </si>
+  <si>
+    <t>82 99982-7204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20/04 aúdio + mídias prótese </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jardim Bahia- PA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">está em Maceio, disse que quando voltar entra em ctt para agendar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FALAR 12 DE MAIO </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Renan Calisto  ~confiando em Deus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">canal, exo </t>
+  </si>
+  <si>
+    <t>20/04 lig 08:52h (chamou, atendeu)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">perguntou se atende pelo plano olare, ficou de ver no trabalho qual dia consegue agendar para vir para uma avaliação </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20/04 lig 09:12h </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20/04 lig 09:16h (atendeu, estava ocupado no trabalho ficou de me retornar) aúdio wpp </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valdilene </t>
+  </si>
+  <si>
+    <t>75 99829-5592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trabalho não pôde conversar  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20/04 09:48h (chamou, não atendeu) aúdio wpp </t>
+  </si>
+  <si>
+    <t>75 98131-5592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gildivan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20/04 10:48h (caixa de msg) aúdio wpp </t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>77 98150-9797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nazaré </t>
+  </si>
+  <si>
+    <t>para a esposa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">um pino de 1 dente </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20/04 11:11h (tututu) aúdio wpp </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20/04 aúdio wpp </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20/04 lig 11:46h (atendeu </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Marcos     ~Salmo 23/91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tem uma ponte de 2 dentes quer saber quanto fica para trocar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ficou de agendar depois disse que agora não dá </t>
+  </si>
+  <si>
+    <t>20/04 lig 11:50h (caixa)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20/04 lig 11:44h atendeu </t>
   </si>
 </sst>
 </file>
@@ -1553,7 +1877,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1579,12 +1903,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1597,19 +1915,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.89999084444715716"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1720,10 +2026,10 @@
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1737,51 +2043,52 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="6" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="6" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="16" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="6" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="6" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="8" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="6" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="6" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="14" fontId="6" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="6" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="6" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="6" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="6" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="16" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="6" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="6" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="6" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="6" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="6" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="6" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="6" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="6" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="40% - Ênfase4" xfId="3" builtinId="43"/>
@@ -1916,9 +2223,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1956,9 +2263,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1991,9 +2298,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2026,9 +2350,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2202,11 +2543,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q1990"/>
+  <dimension ref="A1:Q1989"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O120" sqref="O120"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A152" sqref="A152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2274,137 +2615,137 @@
       <c r="O1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="40" t="s">
-        <v>394</v>
+      <c r="P1" s="36" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="41">
+      <c r="A2" s="37">
         <v>45383</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42" t="s">
+      <c r="D2" s="38"/>
+      <c r="E2" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="42" t="s">
-        <v>173</v>
-      </c>
-      <c r="G2" s="43">
+      <c r="F2" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="G2" s="39">
         <v>82999820812</v>
       </c>
-      <c r="H2" s="42" t="s">
+      <c r="H2" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="42" t="s">
-        <v>397</v>
-      </c>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42" t="s">
-        <v>119</v>
-      </c>
-      <c r="L2" s="42" t="s">
-        <v>385</v>
-      </c>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42" t="s">
-        <v>279</v>
-      </c>
-      <c r="P2" s="42" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q2" s="44"/>
+      <c r="I2" s="38" t="s">
+        <v>389</v>
+      </c>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="L2" s="38" t="s">
+        <v>377</v>
+      </c>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="P2" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q2" s="40"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="23">
+      <c r="A3" s="20">
         <v>45383</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="18">
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="15">
         <v>82981603206</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="K3" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="L3" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="M3" s="17" t="s">
-        <v>387</v>
-      </c>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17" t="s">
+      <c r="I3" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q3" s="17"/>
+      <c r="P3" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q3" s="14"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="31">
+      <c r="A4" s="28">
         <v>45384</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="33">
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="30">
         <v>75988434581</v>
       </c>
-      <c r="H4" s="32" t="s">
+      <c r="H4" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="K4" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="L4" s="32" t="s">
-        <v>398</v>
-      </c>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32" t="s">
+      <c r="I4" s="29"/>
+      <c r="J4" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="K4" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="L4" s="29" t="s">
+        <v>390</v>
+      </c>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="P4" s="32" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q4" s="32"/>
+      <c r="P4" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q4" s="29"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="26">
+      <c r="A5" s="23">
         <v>45384</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -2416,7 +2757,7 @@
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="25">
+      <c r="G5" s="22">
         <v>75988251572</v>
       </c>
       <c r="H5" s="7" t="s">
@@ -2425,7 +2766,7 @@
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
@@ -2434,12 +2775,12 @@
         <v>52</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="Q5" s="7"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="26">
+      <c r="A6" s="23">
         <v>45384</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -2451,20 +2792,20 @@
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="25">
+      <c r="G6" s="22">
         <v>75991029128</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
@@ -2473,55 +2814,55 @@
         <v>52</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="Q6" s="7"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="45">
+      <c r="A7" s="41">
         <v>45384</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46" t="s">
-        <v>404</v>
-      </c>
-      <c r="G7" s="47">
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42" t="s">
+        <v>396</v>
+      </c>
+      <c r="G7" s="43">
         <v>82996681520</v>
       </c>
-      <c r="H7" s="46" t="s">
+      <c r="H7" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46" t="s">
-        <v>405</v>
-      </c>
-      <c r="K7" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="L7" s="46" t="s">
-        <v>156</v>
-      </c>
-      <c r="M7" s="46" t="s">
-        <v>399</v>
-      </c>
-      <c r="N7" s="46"/>
-      <c r="O7" s="46" t="s">
-        <v>280</v>
-      </c>
-      <c r="P7" s="46" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q7" s="46"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42" t="s">
+        <v>397</v>
+      </c>
+      <c r="K7" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="L7" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="M7" s="42" t="s">
+        <v>391</v>
+      </c>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42" t="s">
+        <v>272</v>
+      </c>
+      <c r="P7" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q7" s="42"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="26">
+      <c r="A8" s="23">
         <v>45384</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -2533,7 +2874,7 @@
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="25">
+      <c r="G8" s="22">
         <v>75988049330</v>
       </c>
       <c r="H8" s="7" t="s">
@@ -2543,10 +2884,10 @@
         <v>25</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
@@ -2555,88 +2896,88 @@
         <v>52</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="Q8" s="7"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="31">
+      <c r="A9" s="28">
         <v>45385</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="33">
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="30">
         <v>87981783612</v>
       </c>
-      <c r="H9" s="32" t="s">
+      <c r="H9" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="L9" s="32" t="s">
-        <v>400</v>
-      </c>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="32" t="s">
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="L9" s="29" t="s">
+        <v>392</v>
+      </c>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="32"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="23">
+      <c r="A10" s="20">
         <v>45385</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="18">
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="15">
         <v>75992144461</v>
       </c>
-      <c r="H10" s="17" t="s">
+      <c r="H10" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="J10" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="K10" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="L10" s="17" t="s">
-        <v>402</v>
-      </c>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17" t="s">
+      <c r="I10" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="P10" s="17" t="s">
-        <v>401</v>
-      </c>
-      <c r="Q10" s="17"/>
+      <c r="P10" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="Q10" s="14"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="26">
+      <c r="A11" s="23">
         <v>45385</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -2648,7 +2989,7 @@
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
-      <c r="G11" s="25">
+      <c r="G11" s="22">
         <v>75988555238</v>
       </c>
       <c r="H11" s="7" t="s">
@@ -2657,7 +2998,7 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
@@ -2666,12 +3007,12 @@
         <v>52</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="Q11" s="7"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="26">
+      <c r="A12" s="23">
         <v>45385</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -2683,7 +3024,7 @@
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="25">
+      <c r="G12" s="22">
         <v>75999681714</v>
       </c>
       <c r="H12" s="7" t="s">
@@ -2699,170 +3040,170 @@
         <v>52</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="Q12" s="7"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="31">
+      <c r="A13" s="28">
         <v>45385</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="33">
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="30">
         <v>87998231341</v>
       </c>
-      <c r="H13" s="32" t="s">
+      <c r="H13" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="L13" s="48" t="s">
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="L13" s="44" t="s">
+        <v>395</v>
+      </c>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="20">
+        <v>45385</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="15">
+        <v>82991105401</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>424</v>
+      </c>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="L14" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="33">
+        <v>45385</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>402</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>245</v>
+      </c>
+      <c r="G15" s="35">
+        <v>75988626153</v>
+      </c>
+      <c r="H15" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="34" t="s">
+        <v>405</v>
+      </c>
+      <c r="J15" s="34" t="s">
+        <v>404</v>
+      </c>
+      <c r="K15" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="L15" s="34" t="s">
+        <v>406</v>
+      </c>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="P15" s="34" t="s">
+        <v>431</v>
+      </c>
+      <c r="Q15" s="34" t="s">
         <v>403</v>
       </c>
-      <c r="M13" s="32"/>
-      <c r="N13" s="32"/>
-      <c r="O13" s="32" t="s">
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="28">
+        <v>45385</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="30">
+        <v>45998000203</v>
+      </c>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="K16" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="L16" s="29" t="s">
+        <v>414</v>
+      </c>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="P13" s="32"/>
-      <c r="Q13" s="32"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="23">
+      <c r="P16" s="29"/>
+      <c r="Q16" s="29"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="16">
         <v>45385</v>
       </c>
-      <c r="B14" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="18">
-        <v>82991105401</v>
-      </c>
-      <c r="H14" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="17" t="s">
-        <v>432</v>
-      </c>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="L14" s="22" t="s">
-        <v>409</v>
-      </c>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="37">
-        <v>45385</v>
-      </c>
-      <c r="B15" s="38" t="s">
-        <v>410</v>
-      </c>
-      <c r="C15" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="38" t="s">
-        <v>253</v>
-      </c>
-      <c r="G15" s="39">
-        <v>75988626153</v>
-      </c>
-      <c r="H15" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="I15" s="38" t="s">
-        <v>413</v>
-      </c>
-      <c r="J15" s="38" t="s">
-        <v>412</v>
-      </c>
-      <c r="K15" s="38" t="s">
-        <v>129</v>
-      </c>
-      <c r="L15" s="38" t="s">
-        <v>414</v>
-      </c>
-      <c r="M15" s="38"/>
-      <c r="N15" s="38"/>
-      <c r="O15" s="38" t="s">
-        <v>279</v>
-      </c>
-      <c r="P15" s="38" t="s">
-        <v>439</v>
-      </c>
-      <c r="Q15" s="38" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="31">
-        <v>45385</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="33">
-        <v>45998000203</v>
-      </c>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32" t="s">
-        <v>307</v>
-      </c>
-      <c r="K16" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="L16" s="32" t="s">
-        <v>422</v>
-      </c>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="32"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="19">
-        <v>45385</v>
-      </c>
       <c r="B17" s="6" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>10</v>
@@ -2870,23 +3211,23 @@
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="20">
+      <c r="G17" s="17">
         <v>75981426457</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
@@ -2894,128 +3235,128 @@
         <v>51</v>
       </c>
       <c r="P17" s="6" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="Q17" s="6"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="49">
+      <c r="A18" s="45">
         <v>45386</v>
       </c>
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="50" t="s">
+      <c r="C18" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="51">
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="47">
         <v>75982607830</v>
       </c>
-      <c r="H18" s="50" t="s">
+      <c r="H18" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="50" t="s">
-        <v>444</v>
-      </c>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50" t="s">
-        <v>129</v>
-      </c>
-      <c r="L18" s="50" t="s">
-        <v>431</v>
-      </c>
-      <c r="M18" s="50"/>
-      <c r="N18" s="50"/>
-      <c r="O18" s="50"/>
-      <c r="P18" s="50"/>
-      <c r="Q18" s="50"/>
+      <c r="I18" s="46" t="s">
+        <v>436</v>
+      </c>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="L18" s="46" t="s">
+        <v>423</v>
+      </c>
+      <c r="M18" s="46"/>
+      <c r="N18" s="46"/>
+      <c r="O18" s="46"/>
+      <c r="P18" s="46"/>
+      <c r="Q18" s="46"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="45">
+      <c r="A19" s="41">
         <v>45386</v>
       </c>
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="46" t="s">
+      <c r="C19" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46" t="s">
+      <c r="D19" s="42"/>
+      <c r="E19" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="46" t="s">
-        <v>197</v>
-      </c>
-      <c r="G19" s="47">
+      <c r="F19" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="G19" s="43">
         <v>75997002546</v>
       </c>
-      <c r="H19" s="46" t="s">
+      <c r="H19" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46" t="s">
-        <v>170</v>
-      </c>
-      <c r="K19" s="46" t="s">
-        <v>129</v>
-      </c>
-      <c r="L19" s="46" t="s">
-        <v>440</v>
-      </c>
-      <c r="M19" s="46"/>
-      <c r="N19" s="46"/>
-      <c r="O19" s="46" t="s">
+      <c r="I19" s="42"/>
+      <c r="J19" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="K19" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="L19" s="42" t="s">
+        <v>432</v>
+      </c>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="P19" s="46" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q19" s="46"/>
+      <c r="P19" s="42" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q19" s="42"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="23">
+      <c r="A20" s="20">
         <v>45386</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="18">
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="15">
         <v>75988360462</v>
       </c>
-      <c r="H20" s="17" t="s">
+      <c r="H20" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="I20" s="17" t="s">
-        <v>441</v>
-      </c>
-      <c r="J20" s="17" t="s">
+      <c r="I20" s="14" t="s">
+        <v>433</v>
+      </c>
+      <c r="J20" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="K20" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="L20" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="M20" s="14" t="s">
+        <v>434</v>
+      </c>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="K20" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="L20" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="M20" s="17" t="s">
-        <v>442</v>
-      </c>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
@@ -3034,16 +3375,16 @@
         <v>15</v>
       </c>
       <c r="K21" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L21" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="O21" t="s">
         <v>19</v>
       </c>
       <c r="P21" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
@@ -3063,22 +3404,22 @@
         <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="J22" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="K22" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L22" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="O22" t="s">
         <v>20</v>
       </c>
       <c r="P22" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
@@ -3095,7 +3436,7 @@
         <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="G23" s="4">
         <v>75999063868</v>
@@ -3107,19 +3448,19 @@
         <v>25</v>
       </c>
       <c r="J23" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="K23" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L23" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="O23" t="s">
         <v>19</v>
       </c>
       <c r="P23" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
@@ -3139,55 +3480,55 @@
         <v>15</v>
       </c>
       <c r="K24" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L24" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="19">
+      <c r="A25" s="33">
         <v>45387</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>455</v>
-      </c>
-      <c r="C25" s="6" t="s">
+      <c r="B25" s="34" t="s">
+        <v>447</v>
+      </c>
+      <c r="C25" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="G25" s="20">
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="G25" s="35">
         <v>75999119556</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="H25" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="I25" s="6" t="s">
-        <v>456</v>
-      </c>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="L25" s="6" t="s">
-        <v>457</v>
-      </c>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6" t="s">
+      <c r="I25" s="34" t="s">
+        <v>448</v>
+      </c>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="L25" s="34" t="s">
+        <v>449</v>
+      </c>
+      <c r="M25" s="34"/>
+      <c r="N25" s="34"/>
+      <c r="O25" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="P25" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="Q25" s="6"/>
+      <c r="P25" s="34" t="s">
+        <v>446</v>
+      </c>
+      <c r="Q25" s="34"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="26">
+      <c r="A26" s="23">
         <v>45387</v>
       </c>
       <c r="B26" s="7" t="s">
@@ -3199,7 +3540,7 @@
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
-      <c r="G26" s="25">
+      <c r="G26" s="22">
         <v>75988387263</v>
       </c>
       <c r="H26" s="7" t="s">
@@ -3208,7 +3549,7 @@
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
       <c r="K26" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
@@ -3217,7 +3558,7 @@
         <v>52</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="Q26" s="7"/>
     </row>
@@ -3238,10 +3579,10 @@
         <v>15</v>
       </c>
       <c r="K27" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L27" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
@@ -3254,6 +3595,9 @@
       <c r="C28" t="s">
         <v>11</v>
       </c>
+      <c r="E28" t="s">
+        <v>26</v>
+      </c>
       <c r="G28" s="4">
         <v>35997077229</v>
       </c>
@@ -3261,40 +3605,58 @@
         <v>15</v>
       </c>
       <c r="K28" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L28" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="O28" t="s">
         <v>20</v>
       </c>
       <c r="P28" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
+      <c r="A29" s="20">
         <v>45387</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G29" s="4">
+      <c r="D29" s="14"/>
+      <c r="E29" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="G29" s="15">
         <v>75999337988</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="K29" t="s">
-        <v>132</v>
-      </c>
-      <c r="L29" t="s">
-        <v>460</v>
-      </c>
+      <c r="I29" s="14" t="s">
+        <v>448</v>
+      </c>
+      <c r="J29" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="K29" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="L29" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
@@ -3313,10 +3675,10 @@
         <v>14</v>
       </c>
       <c r="K30" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L30" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
@@ -3333,10 +3695,10 @@
         <v>14</v>
       </c>
       <c r="K31" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L31" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
@@ -3356,52 +3718,52 @@
         <v>14</v>
       </c>
       <c r="K32" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L32" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="45">
+      <c r="A33" s="41">
         <v>45387</v>
       </c>
-      <c r="B33" s="46" t="s">
+      <c r="B33" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="C33" s="46" t="s">
+      <c r="C33" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="47">
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="43">
         <v>31996851984</v>
       </c>
-      <c r="H33" s="46" t="s">
+      <c r="H33" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="I33" s="46" t="s">
+      <c r="I33" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="J33" s="46" t="s">
-        <v>167</v>
-      </c>
-      <c r="K33" s="46" t="s">
-        <v>134</v>
-      </c>
-      <c r="L33" s="46" t="s">
-        <v>465</v>
-      </c>
-      <c r="M33" s="46"/>
-      <c r="N33" s="46"/>
-      <c r="O33" s="46" t="s">
-        <v>279</v>
-      </c>
-      <c r="P33" s="46" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q33" s="46"/>
+      <c r="J33" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="K33" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="L33" s="42" t="s">
+        <v>457</v>
+      </c>
+      <c r="M33" s="42"/>
+      <c r="N33" s="42"/>
+      <c r="O33" s="42" t="s">
+        <v>271</v>
+      </c>
+      <c r="P33" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q33" s="42"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
@@ -3420,46 +3782,46 @@
         <v>14</v>
       </c>
       <c r="K34" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="L34" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="37">
+      <c r="A35" s="33">
         <v>45387</v>
       </c>
-      <c r="B35" s="38" t="s">
+      <c r="B35" s="34" t="s">
+        <v>263</v>
+      </c>
+      <c r="C35" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="35">
+        <v>82996038928</v>
+      </c>
+      <c r="H35" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="I35" s="34"/>
+      <c r="J35" s="34"/>
+      <c r="K35" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="L35" s="34"/>
+      <c r="M35" s="34"/>
+      <c r="N35" s="34"/>
+      <c r="O35" s="34" t="s">
         <v>271</v>
       </c>
-      <c r="C35" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="39">
-        <v>82996038928</v>
-      </c>
-      <c r="H35" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="I35" s="38"/>
-      <c r="J35" s="38"/>
-      <c r="K35" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="L35" s="38"/>
-      <c r="M35" s="38"/>
-      <c r="N35" s="38"/>
-      <c r="O35" s="38" t="s">
-        <v>279</v>
-      </c>
-      <c r="P35" s="38" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q35" s="24"/>
+      <c r="P35" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q35" s="21"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
@@ -3478,7 +3840,10 @@
         <v>14</v>
       </c>
       <c r="K36" t="s">
-        <v>137</v>
+        <v>496</v>
+      </c>
+      <c r="L36" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
@@ -3495,48 +3860,78 @@
         <v>75991377577</v>
       </c>
       <c r="H37" t="s">
-        <v>118</v>
+        <v>115</v>
+      </c>
+      <c r="I37" t="s">
+        <v>448</v>
       </c>
       <c r="J37" t="s">
-        <v>168</v>
+        <v>502</v>
       </c>
       <c r="K37" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L37" t="s">
-        <v>157</v>
+        <v>501</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="5">
+      <c r="A38" s="45">
         <v>45387</v>
       </c>
-      <c r="B38" t="s">
-        <v>85</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="B38" s="46" t="s">
+        <v>498</v>
+      </c>
+      <c r="C38" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="G38" s="4">
+      <c r="D38" s="46"/>
+      <c r="E38" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="F38" s="46" t="s">
+        <v>166</v>
+      </c>
+      <c r="G38" s="47">
         <v>82999108404</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H38" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="K38" t="s">
-        <v>138</v>
-      </c>
+      <c r="I38" s="46" t="s">
+        <v>503</v>
+      </c>
+      <c r="J38" s="49" t="s">
+        <v>508</v>
+      </c>
+      <c r="K38" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="L38" s="46" t="s">
+        <v>499</v>
+      </c>
+      <c r="M38" s="46"/>
+      <c r="N38" s="46"/>
+      <c r="O38" s="46"/>
+      <c r="P38" s="46"/>
+      <c r="Q38" s="46"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>45388</v>
       </c>
       <c r="B39" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C39" t="s">
         <v>10</v>
       </c>
+      <c r="E39" t="s">
+        <v>26</v>
+      </c>
+      <c r="F39" t="s">
+        <v>166</v>
+      </c>
       <c r="G39" s="4">
         <v>82981921368</v>
       </c>
@@ -3544,7 +3939,10 @@
         <v>15</v>
       </c>
       <c r="K39" t="s">
-        <v>139</v>
+        <v>135</v>
+      </c>
+      <c r="L39" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
@@ -3552,7 +3950,7 @@
         <v>45388</v>
       </c>
       <c r="B40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C40" t="s">
         <v>10</v>
@@ -3563,8 +3961,11 @@
       <c r="H40" t="s">
         <v>14</v>
       </c>
+      <c r="J40" t="s">
+        <v>504</v>
+      </c>
       <c r="K40" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
@@ -3572,7 +3973,7 @@
         <v>45388</v>
       </c>
       <c r="B41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C41" t="s">
         <v>11</v>
@@ -3584,120 +3985,125 @@
         <v>14</v>
       </c>
       <c r="K41" t="s">
-        <v>141</v>
+        <v>137</v>
+      </c>
+      <c r="L41" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" s="23">
+      <c r="A42" s="20">
         <v>45388</v>
       </c>
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="14" t="s">
+        <v>506</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="15">
+        <v>75988748286</v>
+      </c>
+      <c r="H42" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="K42" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="L42" s="14" t="s">
+        <v>509</v>
+      </c>
+      <c r="M42" s="14"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="14"/>
+      <c r="P42" s="14"/>
+      <c r="Q42" s="14"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" s="20">
+        <v>45388</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="G43" s="15">
+        <v>75999256961</v>
+      </c>
+      <c r="H43" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="K43" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="L43" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="M43" s="14"/>
+      <c r="N43" s="14"/>
+      <c r="O43" s="14"/>
+      <c r="P43" s="14"/>
+      <c r="Q43" s="14"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" s="20">
+        <v>45388</v>
+      </c>
+      <c r="B44" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="C42" s="17" t="s">
+      <c r="C44" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="18">
-        <v>75988748286</v>
-      </c>
-      <c r="H42" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="K42" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="23">
-        <v>45388</v>
-      </c>
-      <c r="B43" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C43" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F43" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="G43" s="18">
-        <v>75999256961</v>
-      </c>
-      <c r="H43" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="K43" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="L43" s="17" t="s">
-        <v>282</v>
-      </c>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="17"/>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="23">
-        <v>45388</v>
-      </c>
-      <c r="B44" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="18">
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="15">
         <v>75991428868</v>
       </c>
-      <c r="H44" s="17" t="s">
+      <c r="H44" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="I44" s="17"/>
-      <c r="J44" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="K44" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="17"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14" t="s">
+        <v>507</v>
+      </c>
+      <c r="K44" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="L44" s="14"/>
+      <c r="M44" s="14"/>
+      <c r="N44" s="14"/>
+      <c r="O44" s="14"/>
+      <c r="P44" s="14"/>
+      <c r="Q44" s="14"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>45388</v>
       </c>
       <c r="B45" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C45" t="s">
         <v>10</v>
@@ -3709,7 +4115,10 @@
         <v>15</v>
       </c>
       <c r="K45" t="s">
-        <v>144</v>
+        <v>140</v>
+      </c>
+      <c r="L45" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
@@ -3717,7 +4126,7 @@
         <v>45388</v>
       </c>
       <c r="B46" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C46" t="s">
         <v>10</v>
@@ -3729,54 +4138,60 @@
         <v>15</v>
       </c>
       <c r="K46" t="s">
-        <v>145</v>
+        <v>141</v>
+      </c>
+      <c r="L46" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="30">
+      <c r="A47" s="27">
         <v>45388</v>
       </c>
-      <c r="B47" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="C47" s="27" t="s">
+      <c r="B47" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="C47" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D47" s="28"/>
-      <c r="E47" s="27" t="s">
+      <c r="D47" s="25"/>
+      <c r="E47" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="F47" s="27" t="s">
-        <v>248</v>
-      </c>
-      <c r="G47" s="29">
+      <c r="F47" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="G47" s="26">
         <v>74988100354</v>
       </c>
-      <c r="H47" s="27" t="s">
+      <c r="H47" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="I47" s="28"/>
-      <c r="J47" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="K47" s="27" t="s">
-        <v>146</v>
-      </c>
-      <c r="L47" s="28"/>
-      <c r="M47" s="28"/>
-      <c r="N47" s="28"/>
-      <c r="O47" s="27" t="s">
-        <v>280</v>
-      </c>
-      <c r="P47" s="28"/>
-      <c r="Q47" s="28"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="K47" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="L47" s="25"/>
+      <c r="M47" s="25"/>
+      <c r="N47" s="25"/>
+      <c r="O47" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="P47" s="25"/>
+      <c r="Q47" s="25"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>45388</v>
       </c>
       <c r="B48" t="s">
-        <v>95</v>
+        <v>93</v>
+      </c>
+      <c r="C48" t="s">
+        <v>10</v>
       </c>
       <c r="G48" s="4">
         <v>82982062061</v>
@@ -3785,10 +4200,10 @@
         <v>15</v>
       </c>
       <c r="K48" t="s">
-        <v>147</v>
+        <v>512</v>
       </c>
       <c r="L48" t="s">
-        <v>158</v>
+        <v>513</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
@@ -3796,7 +4211,7 @@
         <v>45388</v>
       </c>
       <c r="B49" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C49" t="s">
         <v>11</v>
@@ -3808,7 +4223,10 @@
         <v>14</v>
       </c>
       <c r="K49" t="s">
-        <v>148</v>
+        <v>143</v>
+      </c>
+      <c r="L49" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
@@ -3816,7 +4234,7 @@
         <v>45388</v>
       </c>
       <c r="B50" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C50" t="s">
         <v>11</v>
@@ -3828,7 +4246,10 @@
         <v>14</v>
       </c>
       <c r="K50" t="s">
-        <v>148</v>
+        <v>143</v>
+      </c>
+      <c r="L50" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
@@ -3836,7 +4257,7 @@
         <v>45388</v>
       </c>
       <c r="B51" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C51" t="s">
         <v>11</v>
@@ -3848,10 +4269,13 @@
         <v>14</v>
       </c>
       <c r="K51" t="s">
-        <v>149</v>
+        <v>144</v>
+      </c>
+      <c r="L51" t="s">
+        <v>533</v>
       </c>
       <c r="P51" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
@@ -3859,11 +4283,17 @@
         <v>45388</v>
       </c>
       <c r="B52" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C52" t="s">
         <v>11</v>
       </c>
+      <c r="E52" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" t="s">
+        <v>166</v>
+      </c>
       <c r="G52" s="4">
         <v>82999797955</v>
       </c>
@@ -3871,10 +4301,10 @@
         <v>15</v>
       </c>
       <c r="K52" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="L52" t="s">
-        <v>153</v>
+        <v>534</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
@@ -3882,7 +4312,7 @@
         <v>45388</v>
       </c>
       <c r="B53" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C53" t="s">
         <v>10</v>
@@ -3894,10 +4324,10 @@
         <v>15</v>
       </c>
       <c r="K53" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="L53" t="s">
-        <v>153</v>
+        <v>535</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
@@ -3905,7 +4335,16 @@
         <v>45388</v>
       </c>
       <c r="B54" t="s">
-        <v>101</v>
+        <v>531</v>
+      </c>
+      <c r="C54" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" t="s">
+        <v>26</v>
+      </c>
+      <c r="F54" t="s">
+        <v>166</v>
       </c>
       <c r="G54" s="4">
         <v>82982069224</v>
@@ -3914,121 +4353,135 @@
         <v>15</v>
       </c>
       <c r="K54" t="s">
+        <v>147</v>
+      </c>
+      <c r="L54" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A55" s="27">
+        <v>45389</v>
+      </c>
+      <c r="B55" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="C55" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" s="25"/>
+      <c r="E55" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="F55" s="25"/>
+      <c r="G55" s="26">
+        <v>82981337572</v>
+      </c>
+      <c r="H55" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="I55" s="25"/>
+      <c r="J55" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="K55" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="L55" s="24"/>
+      <c r="M55" s="25"/>
+      <c r="N55" s="25"/>
+      <c r="O55" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="P55" s="24"/>
+      <c r="Q55" s="25"/>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A56" s="45">
+        <v>45389</v>
+      </c>
+      <c r="B56" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="C56" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" s="46"/>
+      <c r="E56" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" s="46"/>
+      <c r="G56" s="47">
+        <v>75983420278</v>
+      </c>
+      <c r="H56" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="I56" s="46" t="s">
+        <v>536</v>
+      </c>
+      <c r="J56" s="51" t="s">
+        <v>187</v>
+      </c>
+      <c r="K56" s="46" t="s">
+        <v>148</v>
+      </c>
+      <c r="L56" s="46"/>
+      <c r="M56" s="46"/>
+      <c r="N56" s="46"/>
+      <c r="O56" s="46"/>
+      <c r="P56" s="46"/>
+      <c r="Q56" s="46"/>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A57" s="23">
+        <v>45389</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G57" s="22">
+        <v>75992130915</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L57" s="7" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A55" s="30">
-        <v>45389</v>
-      </c>
-      <c r="B55" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="C55" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="D55" s="28"/>
-      <c r="E55" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="F55" s="28"/>
-      <c r="G55" s="29">
-        <v>82981337572</v>
-      </c>
-      <c r="H55" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="I55" s="28"/>
-      <c r="J55" s="27" t="s">
-        <v>194</v>
-      </c>
-      <c r="K55" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="L55" s="27"/>
-      <c r="M55" s="28"/>
-      <c r="N55" s="28"/>
-      <c r="O55" s="27" t="s">
-        <v>280</v>
-      </c>
-      <c r="P55" s="27"/>
-      <c r="Q55" s="28"/>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A56" s="5">
-        <v>45389</v>
-      </c>
-      <c r="B56" t="s">
-        <v>103</v>
-      </c>
-      <c r="C56" t="s">
-        <v>11</v>
-      </c>
-      <c r="E56" t="s">
-        <v>13</v>
-      </c>
-      <c r="G56" s="4">
-        <v>75983420278</v>
-      </c>
-      <c r="H56" t="s">
-        <v>14</v>
-      </c>
-      <c r="J56" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="K56" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A57" s="19">
-        <v>45389</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F57" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="G57" s="20">
-        <v>75992130915</v>
-      </c>
-      <c r="H57" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I57" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="J57" s="6"/>
-      <c r="K57" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="L57" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="M57" s="6"/>
-      <c r="N57" s="6"/>
-      <c r="O57" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="P57" s="34">
+      <c r="M57" s="7"/>
+      <c r="N57" s="7"/>
+      <c r="O57" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P57" s="52">
         <v>45397</v>
       </c>
-      <c r="Q57" s="6"/>
+      <c r="Q57" s="7"/>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>45389</v>
       </c>
       <c r="B58" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C58" t="s">
         <v>10</v>
@@ -4040,7 +4493,10 @@
         <v>15</v>
       </c>
       <c r="K58" t="s">
-        <v>153</v>
+        <v>148</v>
+      </c>
+      <c r="L58" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
@@ -4048,7 +4504,7 @@
         <v>45389</v>
       </c>
       <c r="B59" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C59" t="s">
         <v>11</v>
@@ -4060,7 +4516,10 @@
         <v>14</v>
       </c>
       <c r="K59" t="s">
-        <v>153</v>
+        <v>148</v>
+      </c>
+      <c r="L59" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
@@ -4068,11 +4527,17 @@
         <v>45389</v>
       </c>
       <c r="B60" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C60" t="s">
         <v>11</v>
       </c>
+      <c r="E60" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" t="s">
+        <v>166</v>
+      </c>
       <c r="G60" s="4">
         <v>82981743982</v>
       </c>
@@ -4080,56 +4545,62 @@
         <v>15</v>
       </c>
       <c r="K60" t="s">
-        <v>153</v>
+        <v>148</v>
+      </c>
+      <c r="L60" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A61" s="37">
+      <c r="A61" s="33">
         <v>45389</v>
       </c>
-      <c r="B61" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="C61" s="38" t="s">
+      <c r="B61" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="C61" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="D61" s="38"/>
-      <c r="E61" s="38" t="s">
+      <c r="D61" s="34"/>
+      <c r="E61" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="F61" s="38" t="s">
-        <v>253</v>
-      </c>
-      <c r="G61" s="39">
+      <c r="F61" s="34" t="s">
+        <v>245</v>
+      </c>
+      <c r="G61" s="35">
         <v>75983524544</v>
       </c>
-      <c r="H61" s="38" t="s">
+      <c r="H61" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="I61" s="38"/>
-      <c r="J61" s="38" t="s">
-        <v>289</v>
-      </c>
-      <c r="K61" s="38" t="s">
-        <v>153</v>
-      </c>
-      <c r="L61" s="38"/>
-      <c r="M61" s="38"/>
-      <c r="N61" s="38"/>
-      <c r="O61" s="38"/>
-      <c r="P61" s="38"/>
-      <c r="Q61" s="24"/>
+      <c r="I61" s="34"/>
+      <c r="J61" s="34" t="s">
+        <v>281</v>
+      </c>
+      <c r="K61" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="L61" s="34"/>
+      <c r="M61" s="34"/>
+      <c r="N61" s="34"/>
+      <c r="O61" s="34"/>
+      <c r="P61" s="34"/>
+      <c r="Q61" s="21"/>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>45389</v>
       </c>
       <c r="B62" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C62" t="s">
         <v>11</v>
       </c>
+      <c r="F62" t="s">
+        <v>545</v>
+      </c>
       <c r="G62" s="4">
         <v>11982512721</v>
       </c>
@@ -4137,7 +4608,10 @@
         <v>16</v>
       </c>
       <c r="K62" t="s">
-        <v>153</v>
+        <v>148</v>
+      </c>
+      <c r="L62" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
@@ -4145,7 +4619,7 @@
         <v>45389</v>
       </c>
       <c r="B63" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C63" t="s">
         <v>11</v>
@@ -4156,8 +4630,17 @@
       <c r="H63" t="s">
         <v>14</v>
       </c>
+      <c r="I63" t="s">
+        <v>547</v>
+      </c>
+      <c r="J63" t="s">
+        <v>555</v>
+      </c>
       <c r="K63" t="s">
-        <v>153</v>
+        <v>148</v>
+      </c>
+      <c r="L63" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
@@ -4165,7 +4648,7 @@
         <v>45390</v>
       </c>
       <c r="B64" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C64" t="s">
         <v>11</v>
@@ -4176,53 +4659,62 @@
       <c r="H64" t="s">
         <v>15</v>
       </c>
+      <c r="I64" t="s">
+        <v>549</v>
+      </c>
+      <c r="J64" t="s">
+        <v>551</v>
+      </c>
       <c r="K64" t="s">
-        <v>153</v>
+        <v>148</v>
+      </c>
+      <c r="L64" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A65" s="35">
+      <c r="A65" s="31">
         <v>45390</v>
       </c>
-      <c r="B65" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="C65" s="10" t="s">
+      <c r="B65" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C65" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D65" s="15"/>
-      <c r="E65" s="10" t="s">
+      <c r="D65" s="12"/>
+      <c r="E65" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F65" s="15"/>
-      <c r="G65" s="16">
+      <c r="F65" s="12"/>
+      <c r="G65" s="13">
         <v>34984283896</v>
       </c>
-      <c r="H65" s="10" t="s">
+      <c r="H65" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I65" s="15"/>
-      <c r="J65" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="K65" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="L65" s="15"/>
-      <c r="M65" s="15"/>
-      <c r="N65" s="15"/>
-      <c r="O65" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="P65" s="15"/>
-      <c r="Q65" s="15"/>
+      <c r="I65" s="12"/>
+      <c r="J65" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="K65" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="L65" s="12"/>
+      <c r="M65" s="12"/>
+      <c r="N65" s="12"/>
+      <c r="O65" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="P65" s="12"/>
+      <c r="Q65" s="12"/>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <v>45390</v>
       </c>
       <c r="B66" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G66" s="4">
         <v>75991439307</v>
@@ -4231,32 +4723,57 @@
         <v>15</v>
       </c>
       <c r="K66" t="s">
-        <v>153</v>
+        <v>148</v>
+      </c>
+      <c r="L66" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A67" s="5">
+      <c r="A67" s="23">
         <v>45390</v>
       </c>
-      <c r="B67" t="s">
-        <v>114</v>
-      </c>
-      <c r="C67" t="s">
+      <c r="B67" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C67" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G67" s="4">
+      <c r="D67" s="7"/>
+      <c r="E67" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="G67" s="22">
         <v>75998179677</v>
       </c>
-      <c r="K67" t="s">
-        <v>153</v>
-      </c>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
+      <c r="J67" s="7"/>
+      <c r="K67" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L67" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="M67" s="7"/>
+      <c r="N67" s="7"/>
+      <c r="O67" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P67" s="52">
+        <v>45391</v>
+      </c>
+      <c r="Q67" s="7"/>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>45390</v>
       </c>
       <c r="B68" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C68" t="s">
         <v>11</v>
@@ -4268,7 +4785,10 @@
         <v>15</v>
       </c>
       <c r="K68" t="s">
-        <v>153</v>
+        <v>148</v>
+      </c>
+      <c r="L68" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
@@ -4276,7 +4796,7 @@
         <v>45390</v>
       </c>
       <c r="B69" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C69" t="s">
         <v>10</v>
@@ -4288,55 +4808,65 @@
         <v>15</v>
       </c>
       <c r="K69" t="s">
-        <v>154</v>
+        <v>149</v>
+      </c>
+      <c r="L69" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A70" s="19">
+      <c r="A70" s="33">
         <v>45390</v>
       </c>
-      <c r="B70" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="C70" s="6" t="s">
+      <c r="B70" s="34" t="s">
+        <v>191</v>
+      </c>
+      <c r="C70" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="20">
+      <c r="D70" s="34"/>
+      <c r="E70" s="34"/>
+      <c r="F70" s="34"/>
+      <c r="G70" s="35">
         <v>75988061687</v>
       </c>
-      <c r="H70" s="6" t="s">
+      <c r="H70" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="I70" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="J70" s="6"/>
-      <c r="K70" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="L70" s="6"/>
-      <c r="M70" s="6"/>
-      <c r="N70" s="6"/>
-      <c r="O70" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="P70" s="6" t="s">
-        <v>332</v>
-      </c>
+      <c r="I70" s="34" t="s">
+        <v>378</v>
+      </c>
+      <c r="J70" s="34"/>
+      <c r="K70" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="L70" s="34"/>
+      <c r="M70" s="34"/>
+      <c r="N70" s="34"/>
+      <c r="O70" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="P70" s="34" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q70" s="34"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <v>45390</v>
       </c>
       <c r="B71" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C71" t="s">
         <v>11</v>
       </c>
+      <c r="E71" t="s">
+        <v>26</v>
+      </c>
+      <c r="F71" t="s">
+        <v>166</v>
+      </c>
       <c r="G71" s="4">
         <v>82981539473</v>
       </c>
@@ -4344,56 +4874,56 @@
         <v>15</v>
       </c>
       <c r="K71" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A72" s="19">
+      <c r="A72" s="33">
         <v>45391</v>
       </c>
-      <c r="B72" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="C72" s="6" t="s">
+      <c r="B72" s="34" t="s">
+        <v>268</v>
+      </c>
+      <c r="C72" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6" t="s">
+      <c r="D72" s="34"/>
+      <c r="E72" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="F72" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="G72" s="20">
+      <c r="F72" s="34" t="s">
+        <v>245</v>
+      </c>
+      <c r="G72" s="35">
         <v>75988072106</v>
       </c>
-      <c r="H72" s="6" t="s">
+      <c r="H72" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="I72" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="J72" s="6"/>
-      <c r="K72" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="L72" s="6"/>
-      <c r="M72" s="6"/>
-      <c r="N72" s="6"/>
-      <c r="O72" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="P72" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q72" s="6"/>
+      <c r="I72" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="J72" s="34"/>
+      <c r="K72" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="L72" s="34"/>
+      <c r="M72" s="34"/>
+      <c r="N72" s="34"/>
+      <c r="O72" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="P72" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q72" s="34"/>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>45391</v>
       </c>
       <c r="B73" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C73" t="s">
         <v>11</v>
@@ -4402,59 +4932,59 @@
         <v>82999147231</v>
       </c>
       <c r="J73" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="K73" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A74" s="19">
+      <c r="A74" s="33">
         <v>45391</v>
       </c>
-      <c r="B74" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="C74" s="6" t="s">
+      <c r="B74" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="C74" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6" t="s">
+      <c r="D74" s="34"/>
+      <c r="E74" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="F74" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="G74" s="20">
+      <c r="F74" s="34" t="s">
+        <v>245</v>
+      </c>
+      <c r="G74" s="35">
         <v>75991119603</v>
       </c>
-      <c r="H74" s="6" t="s">
+      <c r="H74" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="I74" s="6" t="s">
+      <c r="I74" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="J74" s="6"/>
-      <c r="K74" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="L74" s="6"/>
-      <c r="M74" s="6"/>
-      <c r="N74" s="6"/>
-      <c r="O74" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="P74" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q74" s="6"/>
+      <c r="J74" s="34"/>
+      <c r="K74" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="L74" s="34"/>
+      <c r="M74" s="34"/>
+      <c r="N74" s="34"/>
+      <c r="O74" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="P74" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q74" s="34"/>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <v>45391</v>
       </c>
       <c r="B75" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="G75" s="4">
         <v>82982084022</v>
@@ -4463,50 +4993,50 @@
         <v>14</v>
       </c>
       <c r="K75" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A76" s="23">
+      <c r="A76" s="20">
         <v>45391</v>
       </c>
-      <c r="B76" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="C76" s="17" t="s">
+      <c r="B76" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="C76" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D76" s="17"/>
-      <c r="E76" s="17"/>
-      <c r="F76" s="17"/>
-      <c r="G76" s="18">
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c r="G76" s="15">
         <v>75992669348</v>
       </c>
-      <c r="H76" s="17" t="s">
+      <c r="H76" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="I76" s="17"/>
-      <c r="J76" s="17"/>
-      <c r="K76" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="L76" s="22">
+      <c r="I76" s="14"/>
+      <c r="J76" s="14"/>
+      <c r="K76" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="L76" s="19">
         <v>45392</v>
       </c>
-      <c r="M76" s="17"/>
-      <c r="N76" s="17"/>
-      <c r="O76" s="17"/>
-      <c r="P76" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q76" s="21"/>
+      <c r="M76" s="14"/>
+      <c r="N76" s="14"/>
+      <c r="O76" s="14"/>
+      <c r="P76" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q76" s="18"/>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
         <v>45391</v>
       </c>
       <c r="B77" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="G77" s="4">
         <v>87999986811</v>
@@ -4515,7 +5045,7 @@
         <v>14</v>
       </c>
       <c r="K77" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
@@ -4523,7 +5053,7 @@
         <v>45391</v>
       </c>
       <c r="B78" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="G78" s="4">
         <v>82981699502</v>
@@ -4532,56 +5062,56 @@
         <v>15</v>
       </c>
       <c r="K78" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A79" s="30">
+      <c r="A79" s="27">
         <v>45391</v>
       </c>
-      <c r="B79" s="27" t="s">
-        <v>207</v>
-      </c>
-      <c r="C79" s="27" t="s">
+      <c r="B79" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="C79" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D79" s="28"/>
-      <c r="E79" s="28"/>
-      <c r="F79" s="28"/>
-      <c r="G79" s="29">
+      <c r="D79" s="25"/>
+      <c r="E79" s="25"/>
+      <c r="F79" s="25"/>
+      <c r="G79" s="26">
         <v>75988389736</v>
       </c>
-      <c r="H79" s="27" t="s">
+      <c r="H79" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="I79" s="28"/>
-      <c r="J79" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="K79" s="27" t="s">
-        <v>218</v>
-      </c>
-      <c r="L79" s="28"/>
-      <c r="M79" s="28"/>
-      <c r="N79" s="28"/>
-      <c r="O79" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="P79" s="28"/>
-      <c r="Q79" s="28"/>
+      <c r="I79" s="25"/>
+      <c r="J79" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="K79" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="L79" s="25"/>
+      <c r="M79" s="25"/>
+      <c r="N79" s="25"/>
+      <c r="O79" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="P79" s="25"/>
+      <c r="Q79" s="25"/>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
         <v>45391</v>
       </c>
       <c r="B80" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="E80" t="s">
         <v>26</v>
       </c>
       <c r="F80" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="G80" s="4">
         <v>87999616370</v>
@@ -4590,7 +5120,7 @@
         <v>15</v>
       </c>
       <c r="K80" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.25">
@@ -4598,7 +5128,7 @@
         <v>45392</v>
       </c>
       <c r="B81" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C81" t="s">
         <v>11</v>
@@ -4610,54 +5140,54 @@
         <v>15</v>
       </c>
       <c r="K81" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A82" s="30">
+      <c r="A82" s="27">
         <v>45392</v>
       </c>
-      <c r="B82" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="C82" s="27" t="s">
+      <c r="B82" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="C82" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D82" s="28"/>
-      <c r="E82" s="27" t="s">
+      <c r="D82" s="25"/>
+      <c r="E82" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="F82" s="27" t="s">
-        <v>243</v>
-      </c>
-      <c r="G82" s="29">
+      <c r="F82" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="G82" s="26">
         <v>82996274686</v>
       </c>
-      <c r="H82" s="27" t="s">
+      <c r="H82" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="I82" s="28"/>
-      <c r="J82" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="K82" s="27" t="s">
-        <v>223</v>
-      </c>
-      <c r="L82" s="28"/>
-      <c r="M82" s="28"/>
-      <c r="N82" s="28"/>
-      <c r="O82" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="P82" s="28"/>
-      <c r="Q82" s="28"/>
+      <c r="I82" s="25"/>
+      <c r="J82" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="K82" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="L82" s="25"/>
+      <c r="M82" s="25"/>
+      <c r="N82" s="25"/>
+      <c r="O82" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="P82" s="25"/>
+      <c r="Q82" s="25"/>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
         <v>45392</v>
       </c>
       <c r="B83" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C83" t="s">
         <v>11</v>
@@ -4669,7 +5199,7 @@
         <v>14</v>
       </c>
       <c r="K83" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.25">
@@ -4677,7 +5207,7 @@
         <v>45392</v>
       </c>
       <c r="B84" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C84" t="s">
         <v>10</v>
@@ -4686,7 +5216,7 @@
         <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="G84" s="4">
         <v>75999506451</v>
@@ -4695,114 +5225,114 @@
         <v>16</v>
       </c>
       <c r="I84" t="s">
+        <v>237</v>
+      </c>
+      <c r="J84" t="s">
+        <v>225</v>
+      </c>
+      <c r="K84" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A85" s="33">
+        <v>45392</v>
+      </c>
+      <c r="B85" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="C85" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D85" s="34"/>
+      <c r="E85" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F85" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="J84" t="s">
-        <v>233</v>
-      </c>
-      <c r="K84" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A85" s="19">
-        <v>45392</v>
-      </c>
-      <c r="B85" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D85" s="6"/>
-      <c r="E85" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F85" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="G85" s="20">
+      <c r="G85" s="35">
         <v>75992461997</v>
       </c>
-      <c r="H85" s="6" t="s">
+      <c r="H85" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="I85" s="6"/>
-      <c r="J85" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="K85" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="L85" s="6"/>
-      <c r="M85" s="6"/>
-      <c r="N85" s="6"/>
-      <c r="O85" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="P85" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q85" s="6"/>
+      <c r="I85" s="34"/>
+      <c r="J85" s="34" t="s">
+        <v>359</v>
+      </c>
+      <c r="K85" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="L85" s="34"/>
+      <c r="M85" s="34"/>
+      <c r="N85" s="34"/>
+      <c r="O85" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="P85" s="34" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q85" s="34"/>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
         <v>45392</v>
       </c>
       <c r="B86" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="G86" s="4">
         <v>75991001480</v>
       </c>
       <c r="I86" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="J86" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="K86" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A87" s="30">
+      <c r="A87" s="27">
         <v>45393</v>
       </c>
-      <c r="B87" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="C87" s="10" t="s">
+      <c r="B87" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="C87" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D87" s="15"/>
-      <c r="E87" s="10" t="s">
+      <c r="D87" s="12"/>
+      <c r="E87" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F87" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="G87" s="16">
+      <c r="F87" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="G87" s="13">
         <v>75982427193</v>
       </c>
-      <c r="H87" s="10" t="s">
+      <c r="H87" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I87" s="15"/>
-      <c r="J87" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="K87" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="L87" s="15"/>
-      <c r="M87" s="15"/>
-      <c r="N87" s="15"/>
-      <c r="O87" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="P87" s="15"/>
-      <c r="Q87" s="15"/>
+      <c r="I87" s="12"/>
+      <c r="J87" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="K87" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="L87" s="12"/>
+      <c r="M87" s="12"/>
+      <c r="N87" s="12"/>
+      <c r="O87" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="P87" s="12"/>
+      <c r="Q87" s="12"/>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
@@ -4815,7 +5345,7 @@
         <v>26</v>
       </c>
       <c r="F88" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="G88" s="4">
         <v>82996064459</v>
@@ -4824,13 +5354,13 @@
         <v>14</v>
       </c>
       <c r="I88" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="J88" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="K88" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.25">
@@ -4838,7 +5368,7 @@
         <v>45393</v>
       </c>
       <c r="B89" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C89" t="s">
         <v>10</v>
@@ -4850,55 +5380,54 @@
         <v>14</v>
       </c>
       <c r="K89" t="s">
-        <v>225</v>
-      </c>
-      <c r="P89" s="13"/>
+        <v>217</v>
+      </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A90" s="23">
+      <c r="A90" s="20">
         <v>45393</v>
       </c>
-      <c r="B90" s="17" t="s">
+      <c r="B90" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C90" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F90" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="G90" s="15">
+        <v>79988254997</v>
+      </c>
+      <c r="H90" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I90" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="J90" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="K90" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="C90" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D90" s="17"/>
-      <c r="E90" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F90" s="17" t="s">
-        <v>253</v>
-      </c>
-      <c r="G90" s="18">
-        <v>79988254997</v>
-      </c>
-      <c r="H90" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="I90" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="J90" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="K90" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="L90" s="17"/>
-      <c r="M90" s="17"/>
-      <c r="N90" s="17"/>
-      <c r="O90" s="17"/>
-      <c r="P90" s="17"/>
-      <c r="Q90" s="17"/>
+      <c r="L90" s="14"/>
+      <c r="M90" s="14"/>
+      <c r="N90" s="14"/>
+      <c r="O90" s="14"/>
+      <c r="P90" s="14"/>
+      <c r="Q90" s="14"/>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A91" s="19">
+      <c r="A91" s="16">
         <v>45393</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="C91" s="6" t="s">
         <v>10</v>
@@ -4908,23 +5437,23 @@
         <v>26</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="G91" s="36">
+        <v>166</v>
+      </c>
+      <c r="G91" s="32">
         <v>82981249808</v>
       </c>
       <c r="H91" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I91" s="6" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="J91" s="6"/>
       <c r="K91" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="L91" s="14" t="s">
-        <v>252</v>
+        <v>218</v>
+      </c>
+      <c r="L91" s="11" t="s">
+        <v>244</v>
       </c>
       <c r="M91" s="6"/>
       <c r="N91" s="6"/>
@@ -4932,7 +5461,7 @@
         <v>51</v>
       </c>
       <c r="P91" s="6" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="Q91" s="6"/>
     </row>
@@ -4941,7 +5470,7 @@
         <v>45393</v>
       </c>
       <c r="B92" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="C92" t="s">
         <v>10</v>
@@ -4950,7 +5479,7 @@
         <v>26</v>
       </c>
       <c r="F92" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="G92" s="4">
         <v>82981502797</v>
@@ -4959,10 +5488,10 @@
         <v>14</v>
       </c>
       <c r="J92" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="K92" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.25">
@@ -4970,7 +5499,7 @@
         <v>45393</v>
       </c>
       <c r="B93" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C93" t="s">
         <v>11</v>
@@ -4979,25 +5508,25 @@
         <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="H93" t="s">
         <v>14</v>
       </c>
       <c r="I93" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="J93" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="K93" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="L93" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.25">
@@ -5005,7 +5534,7 @@
         <v>45393</v>
       </c>
       <c r="B94" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C94" t="s">
         <v>11</v>
@@ -5014,213 +5543,213 @@
         <v>26</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="H94" t="s">
         <v>16</v>
       </c>
       <c r="I94" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="K94" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A95" s="37">
+      <c r="A95" s="33">
         <v>45393</v>
       </c>
-      <c r="B95" s="38" t="s">
-        <v>374</v>
-      </c>
-      <c r="C95" s="38" t="s">
+      <c r="B95" s="34" t="s">
+        <v>366</v>
+      </c>
+      <c r="C95" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="D95" s="38"/>
-      <c r="E95" s="38" t="s">
+      <c r="D95" s="34"/>
+      <c r="E95" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="F95" s="38" t="s">
-        <v>253</v>
-      </c>
-      <c r="G95" s="39" t="s">
+      <c r="F95" s="34" t="s">
+        <v>245</v>
+      </c>
+      <c r="G95" s="35" t="s">
+        <v>258</v>
+      </c>
+      <c r="H95" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="I95" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="J95" s="34"/>
+      <c r="K95" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="L95" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="M95" s="34"/>
+      <c r="N95" s="34"/>
+      <c r="O95" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="P95" s="34" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q95" s="21"/>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A96" s="20">
+        <v>45394</v>
+      </c>
+      <c r="B96" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="C96" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
+      <c r="G96" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="H96" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I96" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="J96" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="K96" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="L96" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="H95" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="I95" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="J95" s="38"/>
-      <c r="K95" s="38" t="s">
-        <v>225</v>
-      </c>
-      <c r="L95" s="38" t="s">
-        <v>262</v>
-      </c>
-      <c r="M95" s="38"/>
-      <c r="N95" s="38"/>
-      <c r="O95" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="P95" s="38" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q95" s="24"/>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A96" s="23">
-        <v>45394</v>
-      </c>
-      <c r="B96" s="17" t="s">
-        <v>255</v>
-      </c>
-      <c r="C96" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D96" s="17"/>
-      <c r="E96" s="17"/>
-      <c r="F96" s="17"/>
-      <c r="G96" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="H96" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="I96" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="J96" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="K96" s="17" t="s">
-        <v>275</v>
-      </c>
-      <c r="L96" s="17" t="s">
-        <v>274</v>
-      </c>
-      <c r="M96" s="17"/>
-      <c r="N96" s="17"/>
-      <c r="O96" s="17"/>
-      <c r="P96" s="17"/>
-      <c r="Q96" s="17"/>
+      <c r="M96" s="14"/>
+      <c r="N96" s="14"/>
+      <c r="O96" s="14"/>
+      <c r="P96" s="14"/>
+      <c r="Q96" s="14"/>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" s="5">
         <v>45394</v>
       </c>
       <c r="B97" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="C97" t="s">
         <v>11</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="J97" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="K97" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A98" s="23">
+      <c r="A98" s="20">
         <v>45334</v>
       </c>
-      <c r="B98" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="C98" s="17" t="s">
+      <c r="B98" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="C98" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D98" s="17"/>
-      <c r="E98" s="17"/>
-      <c r="F98" s="17"/>
-      <c r="G98" s="18" t="s">
-        <v>269</v>
-      </c>
-      <c r="H98" s="17" t="s">
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c r="G98" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="H98" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="I98" s="17"/>
-      <c r="J98" s="17"/>
-      <c r="K98" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="L98" s="17"/>
-      <c r="M98" s="17"/>
-      <c r="N98" s="17"/>
-      <c r="O98" s="17"/>
-      <c r="P98" s="17"/>
-      <c r="Q98" s="17"/>
+      <c r="I98" s="14"/>
+      <c r="J98" s="14"/>
+      <c r="K98" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="L98" s="14"/>
+      <c r="M98" s="14"/>
+      <c r="N98" s="14"/>
+      <c r="O98" s="14"/>
+      <c r="P98" s="14"/>
+      <c r="Q98" s="14"/>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A99" s="31">
+      <c r="A99" s="28">
         <v>45394</v>
       </c>
-      <c r="B99" s="32" t="s">
-        <v>260</v>
-      </c>
-      <c r="C99" s="32" t="s">
+      <c r="B99" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="C99" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D99" s="32"/>
-      <c r="E99" s="32"/>
-      <c r="F99" s="32"/>
-      <c r="G99" s="33" t="s">
-        <v>358</v>
-      </c>
-      <c r="H99" s="32"/>
-      <c r="I99" s="32"/>
-      <c r="J99" s="32"/>
-      <c r="K99" s="32" t="s">
-        <v>261</v>
-      </c>
-      <c r="L99" s="32"/>
-      <c r="M99" s="32"/>
-      <c r="N99" s="32"/>
-      <c r="O99" s="32"/>
-      <c r="P99" s="32"/>
-      <c r="Q99" s="32"/>
+      <c r="D99" s="29"/>
+      <c r="E99" s="29"/>
+      <c r="F99" s="29"/>
+      <c r="G99" s="30" t="s">
+        <v>350</v>
+      </c>
+      <c r="H99" s="29"/>
+      <c r="I99" s="29"/>
+      <c r="J99" s="29"/>
+      <c r="K99" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="L99" s="29"/>
+      <c r="M99" s="29"/>
+      <c r="N99" s="29"/>
+      <c r="O99" s="29"/>
+      <c r="P99" s="29"/>
+      <c r="Q99" s="29"/>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A100" s="31">
+      <c r="A100" s="28">
         <v>45394</v>
       </c>
-      <c r="B100" s="32" t="s">
-        <v>272</v>
-      </c>
-      <c r="C100" s="32" t="s">
+      <c r="B100" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="C100" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D100" s="32"/>
-      <c r="E100" s="32"/>
-      <c r="F100" s="32"/>
-      <c r="G100" s="33" t="s">
-        <v>357</v>
-      </c>
-      <c r="H100" s="32"/>
-      <c r="I100" s="32"/>
-      <c r="J100" s="32"/>
-      <c r="K100" s="32" t="s">
-        <v>273</v>
-      </c>
-      <c r="L100" s="32"/>
-      <c r="M100" s="32"/>
-      <c r="N100" s="32"/>
-      <c r="O100" s="32"/>
-      <c r="P100" s="32"/>
-      <c r="Q100" s="32"/>
+      <c r="D100" s="29"/>
+      <c r="E100" s="29"/>
+      <c r="F100" s="29"/>
+      <c r="G100" s="30" t="s">
+        <v>349</v>
+      </c>
+      <c r="H100" s="29"/>
+      <c r="I100" s="29"/>
+      <c r="J100" s="29"/>
+      <c r="K100" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="L100" s="29"/>
+      <c r="M100" s="29"/>
+      <c r="N100" s="29"/>
+      <c r="O100" s="29"/>
+      <c r="P100" s="29"/>
+      <c r="Q100" s="29"/>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" s="5">
         <v>45395</v>
       </c>
       <c r="B101" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="C101" t="s">
         <v>11</v>
@@ -5229,19 +5758,19 @@
         <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="H101" t="s">
         <v>15</v>
       </c>
       <c r="J101" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="K101" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.25">
@@ -5249,7 +5778,7 @@
         <v>45395</v>
       </c>
       <c r="B102" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C102" t="s">
         <v>11</v>
@@ -5258,19 +5787,19 @@
         <v>26</v>
       </c>
       <c r="F102" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="H102" t="s">
         <v>14</v>
       </c>
       <c r="I102" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="K102" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.25">
@@ -5278,7 +5807,7 @@
         <v>45395</v>
       </c>
       <c r="B103" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="G103" s="4"/>
     </row>
@@ -5287,7 +5816,7 @@
         <v>45395</v>
       </c>
       <c r="B104" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="C104" t="s">
         <v>11</v>
@@ -5296,114 +5825,131 @@
         <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="H104" t="s">
         <v>14</v>
       </c>
       <c r="I104" t="s">
+        <v>283</v>
+      </c>
+      <c r="K104" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A105" s="20">
+        <v>45395</v>
+      </c>
+      <c r="B105" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="C105" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D105" s="14"/>
+      <c r="E105" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F105" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="G105" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="H105" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="I105" s="14"/>
+      <c r="J105" s="14"/>
+      <c r="K105" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="L105" s="14"/>
+      <c r="M105" s="14"/>
+      <c r="N105" s="14"/>
+      <c r="O105" s="14"/>
+      <c r="P105" s="14"/>
+      <c r="Q105" s="14"/>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A106" s="20">
+        <v>45395</v>
+      </c>
+      <c r="B106" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="C106" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D106" s="14"/>
+      <c r="E106" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F106" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="G106" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="H106" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I106" s="14"/>
+      <c r="J106" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="K106" s="19" t="s">
+        <v>362</v>
+      </c>
+      <c r="L106" s="14"/>
+      <c r="M106" s="14"/>
+      <c r="N106" s="14"/>
+      <c r="O106" s="14"/>
+      <c r="P106" s="14"/>
+      <c r="Q106" s="14"/>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A107" s="5">
+        <v>45395</v>
+      </c>
+      <c r="B107" t="s">
+        <v>290</v>
+      </c>
+      <c r="C107" t="s">
+        <v>11</v>
+      </c>
+      <c r="G107" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="K104" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="105" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="5"/>
-      <c r="G105" s="4"/>
-    </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A106" s="23">
-        <v>45395</v>
-      </c>
-      <c r="B106" s="17" t="s">
-        <v>368</v>
-      </c>
-      <c r="C106" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D106" s="17"/>
-      <c r="E106" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="F106" s="17" t="s">
-        <v>365</v>
-      </c>
-      <c r="G106" s="18" t="s">
-        <v>292</v>
-      </c>
-      <c r="H106" s="17" t="s">
-        <v>293</v>
-      </c>
-      <c r="I106" s="17"/>
-      <c r="J106" s="17"/>
-      <c r="K106" s="17" t="s">
-        <v>369</v>
-      </c>
-      <c r="L106" s="17"/>
-      <c r="M106" s="17"/>
-      <c r="N106" s="17"/>
-      <c r="O106" s="17"/>
-      <c r="P106" s="17"/>
-      <c r="Q106" s="17"/>
-    </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A107" s="23">
-        <v>45395</v>
-      </c>
-      <c r="B107" s="17" t="s">
-        <v>294</v>
-      </c>
-      <c r="C107" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D107" s="17"/>
-      <c r="E107" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F107" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="G107" s="18" t="s">
-        <v>296</v>
-      </c>
-      <c r="H107" s="17" t="s">
+      <c r="H107" t="s">
         <v>15</v>
       </c>
-      <c r="I107" s="17"/>
-      <c r="J107" s="17" t="s">
-        <v>297</v>
-      </c>
-      <c r="K107" s="22" t="s">
-        <v>370</v>
-      </c>
-      <c r="L107" s="17"/>
-      <c r="M107" s="17"/>
-      <c r="N107" s="17"/>
-      <c r="O107" s="17"/>
-      <c r="P107" s="17"/>
+      <c r="K107" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108" s="5">
         <v>45395</v>
       </c>
       <c r="B108" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C108" t="s">
         <v>11</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>299</v>
+        <v>345</v>
       </c>
       <c r="H108" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K108" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.25">
@@ -5411,19 +5957,19 @@
         <v>45395</v>
       </c>
       <c r="B109" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C109" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="H109" t="s">
         <v>14</v>
       </c>
       <c r="K109" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.25">
@@ -5431,39 +5977,39 @@
         <v>45395</v>
       </c>
       <c r="B110" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C110" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>352</v>
+        <v>295</v>
       </c>
       <c r="H110" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K110" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111" s="5">
-        <v>45395</v>
+        <v>45396</v>
       </c>
       <c r="B111" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>303</v>
+        <v>343</v>
       </c>
       <c r="H111" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K111" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.25">
@@ -5471,443 +6017,455 @@
         <v>45396</v>
       </c>
       <c r="B112" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="C112" t="s">
         <v>11</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="H112" t="s">
+        <v>298</v>
+      </c>
+      <c r="J112" t="s">
+        <v>299</v>
+      </c>
+      <c r="K112" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A113" s="20">
+        <v>45396</v>
+      </c>
+      <c r="B113" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="C113" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D113" s="14"/>
+      <c r="E113" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F113" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="G113" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="H113" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="K112" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A113" s="5">
-        <v>45396</v>
-      </c>
-      <c r="B113" t="s">
-        <v>305</v>
-      </c>
-      <c r="C113" t="s">
-        <v>11</v>
-      </c>
-      <c r="G113" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="J113" t="s">
-        <v>307</v>
-      </c>
-      <c r="K113" t="s">
-        <v>323</v>
-      </c>
+      <c r="I113" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="J113" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="K113" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="L113" s="14"/>
+      <c r="M113" s="14"/>
+      <c r="N113" s="14"/>
+      <c r="O113" s="14"/>
+      <c r="P113" s="14"/>
+      <c r="Q113" s="14"/>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114" s="23">
         <v>45396</v>
       </c>
-      <c r="B114" s="17" t="s">
+      <c r="B114" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D114" s="7"/>
+      <c r="E114" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F114" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="G114" s="22" t="s">
+        <v>301</v>
+      </c>
+      <c r="H114" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I114" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="J114" s="7"/>
+      <c r="K114" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="L114" s="7"/>
+      <c r="M114" s="7"/>
+      <c r="N114" s="7"/>
+      <c r="O114" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P114" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="C114" s="17" t="s">
+      <c r="Q114" s="7"/>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A115" s="5">
+        <v>45396</v>
+      </c>
+      <c r="B115" t="s">
+        <v>302</v>
+      </c>
+      <c r="C115" t="s">
         <v>11</v>
       </c>
-      <c r="D114" s="17"/>
-      <c r="E114" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F114" s="17" t="s">
-        <v>316</v>
-      </c>
-      <c r="G114" s="18" t="s">
-        <v>308</v>
-      </c>
-      <c r="H114" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="I114" s="17" t="s">
-        <v>327</v>
-      </c>
-      <c r="J114" s="17" t="s">
+      <c r="G115" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="H115" t="s">
+        <v>15</v>
+      </c>
+      <c r="K115" t="s">
         <v>325</v>
       </c>
-      <c r="K114" s="17" t="s">
-        <v>326</v>
-      </c>
-      <c r="L114" s="17"/>
-      <c r="M114" s="17"/>
-      <c r="N114" s="17"/>
-      <c r="O114" s="17"/>
-      <c r="P114" s="17"/>
-      <c r="Q114" s="8"/>
-    </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A115" s="26">
-        <v>45396</v>
-      </c>
-      <c r="B115" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="C115" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D115" s="7"/>
-      <c r="E115" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F115" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="G115" s="25" t="s">
-        <v>309</v>
-      </c>
-      <c r="H115" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I115" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="J115" s="7"/>
-      <c r="K115" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="L115" s="7"/>
-      <c r="M115" s="7"/>
-      <c r="N115" s="7"/>
-      <c r="O115" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="P115" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q115" s="7"/>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116" s="5">
         <v>45396</v>
       </c>
       <c r="B116" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="C116" t="s">
         <v>11</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="H116" t="s">
+        <v>14</v>
+      </c>
+      <c r="K116" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A117" s="20">
+        <v>45396</v>
+      </c>
+      <c r="B117" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="C117" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D117" s="14"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="14"/>
+      <c r="G117" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="H117" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="K116" t="s">
+      <c r="I117" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="J117" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="K117" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="L117" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="M117" s="14"/>
+      <c r="N117" s="14"/>
+      <c r="O117" s="14"/>
+      <c r="P117" s="14"/>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A118" s="16">
+        <v>45397</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D118" s="6"/>
+      <c r="E118" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F118" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="G118" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="H118" s="6"/>
+      <c r="I118" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="J118" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="K118" s="6" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A117" s="5">
-        <v>45396</v>
-      </c>
-      <c r="B117" t="s">
+      <c r="L118" s="6"/>
+      <c r="M118" s="6"/>
+      <c r="N118" s="6"/>
+      <c r="O118" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="P118" s="6" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A119" s="20">
+        <v>45397</v>
+      </c>
+      <c r="B119" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="C119" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D119" s="14"/>
+      <c r="E119" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F119" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="G119" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="H119" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I119" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="J119" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="K119" s="14" t="s">
+        <v>335</v>
+      </c>
+      <c r="L119" s="14"/>
+      <c r="M119" s="14"/>
+      <c r="N119" s="14"/>
+      <c r="O119" s="14"/>
+      <c r="P119" s="14"/>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A120" s="5">
+        <v>45397</v>
+      </c>
+      <c r="B120" t="s">
         <v>334</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C120" t="s">
+        <v>10</v>
+      </c>
+      <c r="E120" t="s">
+        <v>12</v>
+      </c>
+      <c r="F120" t="s">
+        <v>287</v>
+      </c>
+      <c r="G120" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="H120" t="s">
+        <v>15</v>
+      </c>
+      <c r="I120" t="s">
+        <v>337</v>
+      </c>
+      <c r="J120" t="s">
+        <v>338</v>
+      </c>
+      <c r="K120" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A121" s="16">
+        <v>45397</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="C121" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G117" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="H117" t="s">
+      <c r="D121" s="6"/>
+      <c r="E121" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F121" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="G121" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="H121" s="6"/>
+      <c r="I121" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="J121" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="K121" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="L121" s="6"/>
+      <c r="M121" s="6"/>
+      <c r="N121" s="6"/>
+      <c r="O121" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="P121" s="6" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A122" s="5">
+        <v>45397</v>
+      </c>
+      <c r="B122" t="s">
+        <v>363</v>
+      </c>
+      <c r="C122" t="s">
+        <v>10</v>
+      </c>
+      <c r="E122" t="s">
+        <v>12</v>
+      </c>
+      <c r="F122" t="s">
+        <v>354</v>
+      </c>
+      <c r="G122" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="H122" t="s">
         <v>14</v>
       </c>
-      <c r="K117" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A118" s="23">
-        <v>45396</v>
-      </c>
-      <c r="B118" s="17" t="s">
-        <v>313</v>
-      </c>
-      <c r="C118" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D118" s="17"/>
-      <c r="E118" s="17"/>
-      <c r="F118" s="17"/>
-      <c r="G118" s="18" t="s">
-        <v>314</v>
-      </c>
-      <c r="H118" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="I118" s="17" t="s">
-        <v>330</v>
-      </c>
-      <c r="J118" s="17" t="s">
-        <v>359</v>
-      </c>
-      <c r="K118" s="17" t="s">
-        <v>336</v>
-      </c>
-      <c r="L118" s="17" t="s">
-        <v>379</v>
-      </c>
-      <c r="M118" s="17"/>
-      <c r="N118" s="17"/>
-      <c r="O118" s="17"/>
-      <c r="P118" s="17"/>
-    </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A119" s="19">
-        <v>45397</v>
-      </c>
-      <c r="B119" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="C119" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D119" s="6"/>
-      <c r="E119" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F119" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="G119" s="20" t="s">
-        <v>317</v>
-      </c>
-      <c r="H119" s="6"/>
-      <c r="I119" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="J119" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="K119" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="L119" s="6"/>
-      <c r="M119" s="6"/>
-      <c r="N119" s="6"/>
-      <c r="O119" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="P119" s="6" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A120" s="23">
-        <v>45397</v>
-      </c>
-      <c r="B120" s="17" t="s">
-        <v>340</v>
-      </c>
-      <c r="C120" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D120" s="17"/>
-      <c r="E120" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="F120" s="17" t="s">
-        <v>366</v>
-      </c>
-      <c r="G120" s="18" t="s">
-        <v>349</v>
-      </c>
-      <c r="H120" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="I120" s="17" t="s">
-        <v>347</v>
-      </c>
-      <c r="J120" s="17" t="s">
-        <v>348</v>
-      </c>
-      <c r="K120" s="17" t="s">
-        <v>343</v>
-      </c>
-      <c r="L120" s="17"/>
-      <c r="M120" s="17"/>
-      <c r="N120" s="17"/>
-      <c r="O120" s="17"/>
-      <c r="P120" s="17"/>
-    </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A121" s="5">
-        <v>45397</v>
-      </c>
-      <c r="B121" t="s">
-        <v>342</v>
-      </c>
-      <c r="C121" t="s">
-        <v>10</v>
-      </c>
-      <c r="E121" t="s">
-        <v>12</v>
-      </c>
-      <c r="F121" t="s">
-        <v>295</v>
-      </c>
-      <c r="G121" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="H121" t="s">
-        <v>15</v>
-      </c>
-      <c r="I121" t="s">
-        <v>345</v>
-      </c>
-      <c r="J121" t="s">
-        <v>346</v>
-      </c>
-      <c r="K121" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A122" s="19">
-        <v>45397</v>
-      </c>
-      <c r="B122" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="C122" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D122" s="6"/>
-      <c r="E122" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F122" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="G122" s="20" t="s">
-        <v>360</v>
-      </c>
-      <c r="H122" s="6"/>
-      <c r="I122" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="J122" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="K122" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="L122" s="6"/>
-      <c r="M122" s="6"/>
-      <c r="N122" s="6"/>
-      <c r="O122" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="P122" s="6" t="s">
-        <v>383</v>
+      <c r="I122" t="s">
+        <v>369</v>
+      </c>
+      <c r="J122" t="s">
+        <v>374</v>
+      </c>
+      <c r="K122" t="s">
+        <v>368</v>
+      </c>
+      <c r="P122" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A123" s="5">
-        <v>45397</v>
+        <v>45398</v>
       </c>
       <c r="B123" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
         <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="H123" t="s">
         <v>14</v>
       </c>
       <c r="I123" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="J123" t="s">
+        <v>370</v>
+      </c>
+      <c r="K123" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A124" s="33">
+        <v>45398</v>
+      </c>
+      <c r="B124" s="34" t="s">
+        <v>380</v>
+      </c>
+      <c r="C124" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D124" s="34"/>
+      <c r="E124" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F124" s="34" t="s">
+        <v>320</v>
+      </c>
+      <c r="G124" s="35" t="s">
+        <v>381</v>
+      </c>
+      <c r="H124" s="34"/>
+      <c r="I124" s="34" t="s">
         <v>382</v>
       </c>
-      <c r="K123" t="s">
-        <v>376</v>
-      </c>
-      <c r="P123" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A124" s="5">
+      <c r="J124" s="34" t="s">
+        <v>383</v>
+      </c>
+      <c r="K124" s="34" t="s">
+        <v>384</v>
+      </c>
+      <c r="L124" s="34"/>
+      <c r="M124" s="34"/>
+      <c r="N124" s="34"/>
+      <c r="O124" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="P124" s="34" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A125" s="16">
         <v>45398</v>
       </c>
-      <c r="B124" t="s">
-        <v>380</v>
-      </c>
-      <c r="C124" t="s">
-        <v>11</v>
-      </c>
-      <c r="E124" t="s">
-        <v>12</v>
-      </c>
-      <c r="F124" t="s">
-        <v>381</v>
-      </c>
-      <c r="G124" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="H124" t="s">
-        <v>14</v>
-      </c>
-      <c r="I124" t="s">
-        <v>395</v>
-      </c>
-      <c r="J124" t="s">
-        <v>378</v>
-      </c>
-      <c r="K124" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A125" s="19">
-        <v>45398</v>
-      </c>
       <c r="B125" s="6" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="C125" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D125" s="6"/>
-      <c r="E125" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F125" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="G125" s="20" t="s">
-        <v>389</v>
+      <c r="E125" s="6"/>
+      <c r="F125" s="6"/>
+      <c r="G125" s="17" t="s">
+        <v>408</v>
       </c>
       <c r="H125" s="6"/>
-      <c r="I125" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="J125" s="6" t="s">
-        <v>391</v>
-      </c>
+      <c r="I125" s="6"/>
+      <c r="J125" s="6"/>
       <c r="K125" s="6" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="L125" s="6"/>
       <c r="M125" s="6"/>
@@ -5916,176 +6474,164 @@
         <v>51</v>
       </c>
       <c r="P125" s="6" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A126" s="19">
+      <c r="A126" s="20">
         <v>45398</v>
       </c>
-      <c r="B126" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="C126" s="6" t="s">
+      <c r="B126" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="C126" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D126" s="6"/>
-      <c r="E126" s="6"/>
-      <c r="F126" s="6"/>
-      <c r="G126" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="H126" s="6"/>
-      <c r="I126" s="6"/>
-      <c r="J126" s="6"/>
-      <c r="K126" s="6" t="s">
+      <c r="D126" s="14"/>
+      <c r="E126" s="14"/>
+      <c r="F126" s="14"/>
+      <c r="G126" s="15" t="s">
         <v>407</v>
       </c>
-      <c r="L126" s="6"/>
-      <c r="M126" s="6"/>
-      <c r="N126" s="6"/>
-      <c r="O126" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="P126" s="6" t="s">
-        <v>408</v>
-      </c>
+      <c r="H126" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I126" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="J126" s="14" t="s">
+        <v>429</v>
+      </c>
+      <c r="K126" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="L126" s="14"/>
+      <c r="M126" s="14"/>
+      <c r="N126" s="14"/>
+      <c r="O126" s="14"/>
+      <c r="P126" s="14" t="s">
+        <v>430</v>
+      </c>
+      <c r="Q126" s="14"/>
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A127" s="23">
+      <c r="A127" s="5">
         <v>45398</v>
       </c>
-      <c r="B127" s="17" t="s">
-        <v>417</v>
-      </c>
-      <c r="C127" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D127" s="17"/>
-      <c r="E127" s="17"/>
-      <c r="F127" s="17"/>
-      <c r="G127" s="18" t="s">
-        <v>415</v>
-      </c>
-      <c r="H127" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="I127" s="17" t="s">
-        <v>436</v>
-      </c>
-      <c r="J127" s="17" t="s">
-        <v>437</v>
-      </c>
-      <c r="K127" s="17" t="s">
-        <v>418</v>
-      </c>
-      <c r="L127" s="17"/>
-      <c r="M127" s="17"/>
-      <c r="N127" s="17"/>
-      <c r="O127" s="17"/>
-      <c r="P127" s="17" t="s">
-        <v>438</v>
-      </c>
-      <c r="Q127" s="17"/>
+      <c r="B127" t="s">
+        <v>411</v>
+      </c>
+      <c r="C127" t="s">
+        <v>11</v>
+      </c>
+      <c r="G127" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="H127" t="s">
+        <v>14</v>
+      </c>
+      <c r="K127" t="s">
+        <v>413</v>
+      </c>
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A128" s="5">
         <v>45398</v>
       </c>
       <c r="B128" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C128" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H128" t="s">
         <v>14</v>
       </c>
       <c r="K128" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129" s="5">
-        <v>45398</v>
+        <v>45399</v>
       </c>
       <c r="B129" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="H129" t="s">
         <v>14</v>
       </c>
       <c r="K129" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A130" s="5">
+      <c r="A130" s="20">
         <v>45399</v>
       </c>
-      <c r="B130" t="s">
-        <v>434</v>
-      </c>
-      <c r="C130" t="s">
-        <v>11</v>
-      </c>
-      <c r="G130" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="H130" t="s">
+      <c r="B130" s="14" t="s">
+        <v>439</v>
+      </c>
+      <c r="C130" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D130" s="14"/>
+      <c r="E130" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F130" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="G130" s="15" t="s">
+        <v>438</v>
+      </c>
+      <c r="H130" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="K130" t="s">
-        <v>435</v>
+      <c r="I130" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="J130" s="14" t="s">
+        <v>442</v>
+      </c>
+      <c r="K130" s="14" t="s">
+        <v>443</v>
+      </c>
+      <c r="L130" s="14"/>
+      <c r="M130" s="14"/>
+      <c r="N130" s="14"/>
+      <c r="O130" s="14"/>
+      <c r="P130" s="14" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A131" s="23">
+      <c r="A131" s="5">
         <v>45399</v>
       </c>
-      <c r="B131" s="17" t="s">
-        <v>447</v>
-      </c>
-      <c r="C131" s="17" t="s">
+      <c r="B131" t="s">
+        <v>460</v>
+      </c>
+      <c r="C131" t="s">
         <v>10</v>
       </c>
-      <c r="D131" s="17"/>
-      <c r="E131" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F131" s="17" t="s">
-        <v>328</v>
-      </c>
-      <c r="G131" s="18" t="s">
-        <v>446</v>
-      </c>
-      <c r="H131" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="I131" s="17" t="s">
-        <v>449</v>
-      </c>
-      <c r="J131" s="17" t="s">
-        <v>450</v>
-      </c>
-      <c r="K131" s="17" t="s">
-        <v>451</v>
-      </c>
-      <c r="L131" s="17"/>
-      <c r="M131" s="17"/>
-      <c r="N131" s="17"/>
-      <c r="O131" s="17"/>
-      <c r="P131" s="17" t="s">
-        <v>448</v>
+      <c r="G131" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="H131" t="s">
+        <v>15</v>
+      </c>
+      <c r="K131" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.25">
@@ -6093,229 +6639,621 @@
         <v>45399</v>
       </c>
       <c r="B132" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="C132" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="H132" t="s">
+        <v>14</v>
+      </c>
+      <c r="I132" t="s">
+        <v>463</v>
+      </c>
+      <c r="K132" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A133" s="33">
+        <v>45399</v>
+      </c>
+      <c r="B133" s="34" t="s">
+        <v>465</v>
+      </c>
+      <c r="C133" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D133" s="34"/>
+      <c r="E133" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F133" s="34" t="s">
+        <v>468</v>
+      </c>
+      <c r="G133" s="35" t="s">
+        <v>466</v>
+      </c>
+      <c r="H133" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="I133" s="34"/>
+      <c r="J133" s="34"/>
+      <c r="K133" s="34" t="s">
         <v>467</v>
       </c>
-      <c r="H132" t="s">
+      <c r="L133" s="34"/>
+      <c r="M133" s="34"/>
+      <c r="N133" s="34"/>
+      <c r="O133" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="P133" s="34" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A134" s="5">
+        <v>45399</v>
+      </c>
+      <c r="B134" t="s">
+        <v>470</v>
+      </c>
+      <c r="C134" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="H134" t="s">
         <v>15</v>
       </c>
-      <c r="K132" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A133" s="5">
+      <c r="K134" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A135" s="16">
         <v>45399</v>
       </c>
-      <c r="B133" t="s">
-        <v>469</v>
-      </c>
-      <c r="C133" t="s">
+      <c r="B135" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="C135" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G133" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="H133" t="s">
+      <c r="D135" s="6"/>
+      <c r="E135" s="6"/>
+      <c r="F135" s="6"/>
+      <c r="G135" s="17" t="s">
+        <v>473</v>
+      </c>
+      <c r="H135" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I135" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="J135" s="6"/>
+      <c r="K135" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="L135" s="6"/>
+      <c r="M135" s="6"/>
+      <c r="N135" s="6"/>
+      <c r="O135" s="6"/>
+      <c r="P135" s="6" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A136" s="41">
+        <v>45399</v>
+      </c>
+      <c r="B136" s="42" t="s">
+        <v>478</v>
+      </c>
+      <c r="C136" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D136" s="42"/>
+      <c r="E136" s="42"/>
+      <c r="F136" s="42"/>
+      <c r="G136" s="43" t="s">
+        <v>479</v>
+      </c>
+      <c r="H136" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="I133" t="s">
-        <v>471</v>
-      </c>
-      <c r="K133" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A134" s="19">
+      <c r="I136" s="42"/>
+      <c r="J136" s="42"/>
+      <c r="K136" s="48" t="s">
+        <v>486</v>
+      </c>
+      <c r="L136" s="42"/>
+      <c r="M136" s="42"/>
+      <c r="N136" s="42"/>
+      <c r="O136" s="42"/>
+      <c r="P136" s="42"/>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A137" s="41">
         <v>45399</v>
       </c>
-      <c r="B134" s="6" t="s">
-        <v>473</v>
-      </c>
-      <c r="C134" s="6" t="s">
+      <c r="B137" s="42" t="s">
+        <v>491</v>
+      </c>
+      <c r="C137" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="D134" s="6"/>
-      <c r="E134" s="6" t="s">
+      <c r="D137" s="42"/>
+      <c r="E137" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="F137" s="42" t="s">
+        <v>308</v>
+      </c>
+      <c r="G137" s="43" t="s">
+        <v>480</v>
+      </c>
+      <c r="H137" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="I137" s="42" t="s">
+        <v>493</v>
+      </c>
+      <c r="J137" s="42" t="s">
+        <v>492</v>
+      </c>
+      <c r="K137" s="42" t="s">
+        <v>487</v>
+      </c>
+      <c r="L137" s="42"/>
+      <c r="M137" s="42"/>
+      <c r="N137" s="42"/>
+      <c r="O137" s="42"/>
+      <c r="P137" s="42"/>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A138" s="5">
+        <v>45399</v>
+      </c>
+      <c r="B138" t="s">
+        <v>481</v>
+      </c>
+      <c r="C138" t="s">
+        <v>11</v>
+      </c>
+      <c r="G138" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="H138" t="s">
+        <v>15</v>
+      </c>
+      <c r="K138" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A139" s="5">
+        <v>45399</v>
+      </c>
+      <c r="B139" t="s">
+        <v>483</v>
+      </c>
+      <c r="C139" t="s">
+        <v>11</v>
+      </c>
+      <c r="G139" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="H139" t="s">
+        <v>14</v>
+      </c>
+      <c r="K139" t="s">
+        <v>489</v>
+      </c>
+      <c r="L139" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A140" s="5">
+        <v>45400</v>
+      </c>
+      <c r="B140" t="s">
+        <v>588</v>
+      </c>
+      <c r="C140" t="s">
+        <v>11</v>
+      </c>
+      <c r="E140" t="s">
         <v>12</v>
       </c>
-      <c r="F134" s="6" t="s">
-        <v>476</v>
-      </c>
-      <c r="G134" s="20" t="s">
-        <v>474</v>
-      </c>
-      <c r="H134" s="6" t="s">
+      <c r="F140" t="s">
+        <v>320</v>
+      </c>
+      <c r="G140" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="H140" t="s">
+        <v>15</v>
+      </c>
+      <c r="K140" t="s">
+        <v>490</v>
+      </c>
+      <c r="L140" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A141" s="5">
+        <v>45400</v>
+      </c>
+      <c r="B141" t="s">
+        <v>495</v>
+      </c>
+      <c r="C141" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="H141" t="s">
+        <v>15</v>
+      </c>
+      <c r="J141" t="s">
+        <v>589</v>
+      </c>
+      <c r="K141" t="s">
+        <v>516</v>
+      </c>
+      <c r="L141" t="s">
+        <v>592</v>
+      </c>
+      <c r="P141" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A142" s="5">
+        <v>45400</v>
+      </c>
+      <c r="B142" t="s">
+        <v>514</v>
+      </c>
+      <c r="C142" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="H142" t="s">
+        <v>15</v>
+      </c>
+      <c r="I142" t="s">
+        <v>515</v>
+      </c>
+      <c r="K142" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A143" s="45">
+        <v>45400</v>
+      </c>
+      <c r="B143" s="46" t="s">
+        <v>520</v>
+      </c>
+      <c r="C143" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D143" s="46"/>
+      <c r="E143" s="46"/>
+      <c r="F143" s="46"/>
+      <c r="G143" s="47" t="s">
+        <v>518</v>
+      </c>
+      <c r="H143" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="I143" s="46" t="s">
+        <v>522</v>
+      </c>
+      <c r="J143" s="46" t="s">
+        <v>523</v>
+      </c>
+      <c r="K143" s="46" t="s">
+        <v>521</v>
+      </c>
+      <c r="L143" s="46" t="s">
+        <v>537</v>
+      </c>
+      <c r="M143" s="46"/>
+      <c r="N143" s="46"/>
+      <c r="O143" s="46"/>
+      <c r="P143" s="46"/>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A144" s="5">
+        <v>45400</v>
+      </c>
+      <c r="B144" t="s">
+        <v>524</v>
+      </c>
+      <c r="C144" t="s">
+        <v>11</v>
+      </c>
+      <c r="E144" t="s">
+        <v>12</v>
+      </c>
+      <c r="F144" t="s">
+        <v>308</v>
+      </c>
+      <c r="G144" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="I144" t="s">
+        <v>299</v>
+      </c>
+      <c r="J144" t="s">
+        <v>538</v>
+      </c>
+      <c r="K144" s="50" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A145" s="5">
+        <v>45401</v>
+      </c>
+      <c r="B145" t="s">
+        <v>526</v>
+      </c>
+      <c r="C145" t="s">
+        <v>11</v>
+      </c>
+      <c r="E145" t="s">
+        <v>12</v>
+      </c>
+      <c r="F145" t="s">
+        <v>528</v>
+      </c>
+      <c r="G145" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="H145" t="s">
         <v>14</v>
       </c>
-      <c r="I134" s="6"/>
-      <c r="J134" s="6"/>
-      <c r="K134" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="L134" s="6"/>
-      <c r="M134" s="6"/>
-      <c r="N134" s="6"/>
-      <c r="O134" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="P134" s="6" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A135" s="5">
-        <v>45399</v>
-      </c>
-      <c r="B135" t="s">
-        <v>478</v>
-      </c>
-      <c r="C135" t="s">
+      <c r="I145" t="s">
+        <v>539</v>
+      </c>
+      <c r="J145" t="s">
+        <v>540</v>
+      </c>
+      <c r="K145" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A146" s="20">
+        <v>45401</v>
+      </c>
+      <c r="B146" s="14" t="s">
+        <v>567</v>
+      </c>
+      <c r="C146" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D146" s="14"/>
+      <c r="E146" s="14"/>
+      <c r="F146" s="14"/>
+      <c r="G146" s="15" t="s">
+        <v>556</v>
+      </c>
+      <c r="H146" s="14"/>
+      <c r="I146" s="14" t="s">
+        <v>568</v>
+      </c>
+      <c r="J146" s="14" t="s">
+        <v>570</v>
+      </c>
+      <c r="K146" s="14" t="s">
+        <v>569</v>
+      </c>
+      <c r="L146" s="14"/>
+      <c r="M146" s="14"/>
+      <c r="N146" s="14"/>
+      <c r="O146" s="14"/>
+      <c r="P146" s="14"/>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A147" s="45">
+        <v>45401</v>
+      </c>
+      <c r="B147" s="46" t="s">
+        <v>582</v>
+      </c>
+      <c r="C147" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="G135" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="H135" t="s">
+      <c r="D147" s="46"/>
+      <c r="E147" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="F147" s="46" t="s">
+        <v>564</v>
+      </c>
+      <c r="G147" s="47" t="s">
+        <v>557</v>
+      </c>
+      <c r="H147" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="I147" s="46" t="s">
+        <v>558</v>
+      </c>
+      <c r="J147" s="46" t="s">
+        <v>565</v>
+      </c>
+      <c r="K147" s="46" t="s">
+        <v>563</v>
+      </c>
+      <c r="L147" s="46" t="s">
+        <v>566</v>
+      </c>
+      <c r="M147" s="46"/>
+      <c r="N147" s="46"/>
+      <c r="O147" s="46"/>
+      <c r="P147" s="46"/>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A148" s="5">
+        <v>45401</v>
+      </c>
+      <c r="B148" t="s">
+        <v>559</v>
+      </c>
+      <c r="C148" t="s">
+        <v>11</v>
+      </c>
+      <c r="G148" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="H148" t="s">
         <v>15</v>
       </c>
-      <c r="K135" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A136" s="19">
-        <v>45399</v>
-      </c>
-      <c r="B136" s="6" t="s">
-        <v>484</v>
-      </c>
-      <c r="C136" s="6" t="s">
+      <c r="K148" s="50" t="s">
+        <v>571</v>
+      </c>
+      <c r="O148" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A149" s="5">
+        <v>45402</v>
+      </c>
+      <c r="B149" t="s">
+        <v>561</v>
+      </c>
+      <c r="C149" t="s">
+        <v>11</v>
+      </c>
+      <c r="G149" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="H149" t="s">
+        <v>14</v>
+      </c>
+      <c r="J149" t="s">
+        <v>575</v>
+      </c>
+      <c r="K149" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A150" s="5">
+        <v>45402</v>
+      </c>
+      <c r="B150" t="s">
+        <v>573</v>
+      </c>
+      <c r="C150" t="s">
         <v>10</v>
       </c>
-      <c r="D136" s="6"/>
-      <c r="E136" s="6"/>
-      <c r="F136" s="6"/>
-      <c r="G136" s="20" t="s">
-        <v>481</v>
-      </c>
-      <c r="H136" s="6" t="s">
+      <c r="G150" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="H150" t="s">
         <v>15</v>
       </c>
-      <c r="I136" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="J136" s="6"/>
-      <c r="K136" s="6" t="s">
-        <v>482</v>
-      </c>
-      <c r="L136" s="6"/>
-      <c r="M136" s="6"/>
-      <c r="N136" s="6"/>
-      <c r="O136" s="6"/>
-      <c r="P136" s="6" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A137" s="5"/>
-      <c r="G137" s="4"/>
-    </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A138" s="5"/>
-      <c r="G138" s="4"/>
-    </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A139" s="5"/>
-      <c r="G139" s="4"/>
-    </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A140" s="5"/>
-      <c r="G140" s="4"/>
-    </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A141" s="5"/>
-      <c r="G141" s="4"/>
-    </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A142" s="5"/>
-      <c r="G142" s="4"/>
-    </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A143" s="5"/>
-      <c r="G143" s="4"/>
-    </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A144" s="5"/>
-      <c r="G144" s="4"/>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" s="5"/>
-      <c r="G145" s="4"/>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" s="5"/>
-      <c r="G146" s="4"/>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" s="5"/>
-      <c r="G147" s="4"/>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" s="5"/>
-      <c r="G148" s="4"/>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" s="5"/>
-      <c r="G149" s="4"/>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" s="5"/>
-      <c r="G150" s="4"/>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" s="5"/>
-      <c r="G151" s="4"/>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" s="5"/>
-      <c r="G152" s="4"/>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K150" t="s">
+        <v>576</v>
+      </c>
+      <c r="O150" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A151" s="5">
+        <v>45402</v>
+      </c>
+      <c r="B151" t="s">
+        <v>578</v>
+      </c>
+      <c r="C151" t="s">
+        <v>11</v>
+      </c>
+      <c r="G151" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="H151" t="s">
+        <v>14</v>
+      </c>
+      <c r="I151" t="s">
+        <v>584</v>
+      </c>
+      <c r="J151" t="s">
+        <v>583</v>
+      </c>
+      <c r="K151" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A152" s="5">
+        <v>45402</v>
+      </c>
+      <c r="B152" t="s">
+        <v>580</v>
+      </c>
+      <c r="C152" t="s">
+        <v>11</v>
+      </c>
+      <c r="G152" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="H152" t="s">
+        <v>15</v>
+      </c>
+      <c r="K152" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A153" s="5"/>
       <c r="G153" s="4"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A154" s="5"/>
       <c r="G154" s="4"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A155" s="5"/>
       <c r="G155" s="4"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A156" s="5"/>
       <c r="G156" s="4"/>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A157" s="5"/>
       <c r="G157" s="4"/>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A158" s="5"/>
       <c r="G158" s="4"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A159" s="5"/>
       <c r="G159" s="4"/>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A160" s="5"/>
       <c r="G160" s="4"/>
     </row>
@@ -13635,24 +14573,20 @@
       <c r="A1989" s="5"/>
       <c r="G1989" s="4"/>
     </row>
-    <row r="1990" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1990" s="5"/>
-      <c r="G1990" s="4"/>
-    </row>
   </sheetData>
   <dataConsolidate/>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1990" xr:uid="{F688FC34-E833-4CD7-A4D5-C5F546A92EE3}">
+  <dataValidations disablePrompts="1" count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C146:C1989 C2:C144" xr:uid="{5621FDED-ABF2-43E6-AC50-2601095590B7}">
+      <formula1>INDIRECT($C$1)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1989" xr:uid="{F688FC34-E833-4CD7-A4D5-C5F546A92EE3}">
       <formula1>INDIRECT($O$1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1990" xr:uid="{93647A22-8740-4623-B66D-0B97A8FAEE52}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1989" xr:uid="{93647A22-8740-4623-B66D-0B97A8FAEE52}">
       <formula1>INDIRECT($H$1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1990" xr:uid="{5621FDED-ABF2-43E6-AC50-2601095590B7}">
-      <formula1>INDIRECT($C$1)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1990" xr:uid="{B5802FD3-4B31-4E49-86A2-E564AC5434C7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1989" xr:uid="{B5802FD3-4B31-4E49-86A2-E564AC5434C7}">
       <formula1>INDIRECT($E$1)</formula1>
     </dataValidation>
   </dataValidations>
@@ -13666,7 +14600,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13731,7 +14665,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
@@ -13750,7 +14684,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D7" t="s">
         <v>29</v>
@@ -13758,7 +14692,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="D8" t="s">
         <v>30</v>

--- a/Lead.xlsx
+++ b/Lead.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ATENDIMENTO-01\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodrigo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5B672FA-A49E-4033-A64D-4245BDE579BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{387E114F-8424-43A6-8E6C-E500B0A2EC65}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2072" uniqueCount="1092">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2071" uniqueCount="1091">
   <si>
     <t>Data</t>
   </si>
@@ -2815,9 +2815,6 @@
   </si>
   <si>
     <t xml:space="preserve"> (82) 98833-9623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leads mês de Maio </t>
   </si>
   <si>
     <t xml:space="preserve">~Cida Bispo </t>
@@ -3307,7 +3304,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="\(##\)\ #####\-####"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3380,15 +3377,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Bahnschrift SemiBold SemiConden"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="20">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3491,12 +3481,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3547,7 +3531,7 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3611,11 +3595,7 @@
     <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3763,9 +3743,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3803,9 +3783,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3838,9 +3818,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3873,9 +3870,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4049,11 +4063,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q1990"/>
+  <dimension ref="A1:Q1989"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A281" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B234" sqref="B234"/>
+      <pane ySplit="1" topLeftCell="A227" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A232" sqref="A232:XFD232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4241,11 +4255,11 @@
         <v>352</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="N4" s="12"/>
       <c r="O4" s="12" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="P4" s="12" t="s">
         <v>167</v>
@@ -4364,7 +4378,7 @@
       <c r="P7" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="Q7" s="64"/>
+      <c r="Q7" s="60"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
@@ -4436,7 +4450,7 @@
       </c>
       <c r="N9" s="12"/>
       <c r="O9" s="12" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="P9" s="12"/>
     </row>
@@ -4576,11 +4590,11 @@
         <v>357</v>
       </c>
       <c r="M13" s="12" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="N13" s="12"/>
       <c r="O13" s="12" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="P13" s="12"/>
     </row>
@@ -4614,11 +4628,11 @@
         <v>363</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="N14" s="9"/>
       <c r="O14" s="9" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="P14" s="9"/>
     </row>
@@ -4658,7 +4672,7 @@
         <v>367</v>
       </c>
       <c r="M15" s="23" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="N15" s="23"/>
       <c r="O15" s="23" t="s">
@@ -4694,11 +4708,11 @@
         <v>372</v>
       </c>
       <c r="M16" s="12" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="N16" s="12"/>
       <c r="O16" s="12" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="P16" s="12"/>
     </row>
@@ -4775,7 +4789,7 @@
       <c r="N18" s="29"/>
       <c r="O18" s="29"/>
       <c r="P18" s="29"/>
-      <c r="Q18" s="64"/>
+      <c r="Q18" s="60"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="17">
@@ -4813,12 +4827,12 @@
       <c r="M19" s="18"/>
       <c r="N19" s="18"/>
       <c r="O19" s="18" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="P19" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="Q19" s="64"/>
+      <c r="Q19" s="60"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
@@ -4881,7 +4895,7 @@
         <v>390</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="P21" s="4" t="s">
         <v>174</v>
@@ -4963,7 +4977,7 @@
         <v>839</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
@@ -5031,7 +5045,7 @@
       <c r="P25" s="23" t="s">
         <v>400</v>
       </c>
-      <c r="Q25" s="64"/>
+      <c r="Q25" s="60"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
@@ -5270,7 +5284,7 @@
       <c r="P33" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="Q33" s="64"/>
+      <c r="Q33" s="60"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="31">
@@ -5420,7 +5434,7 @@
       <c r="N38" s="29"/>
       <c r="O38" s="29"/>
       <c r="P38" s="29"/>
-      <c r="Q38" s="64"/>
+      <c r="Q38" s="60"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="31">
@@ -5953,7 +5967,7 @@
       <c r="N56" s="29"/>
       <c r="O56" s="29"/>
       <c r="P56" s="29"/>
-      <c r="Q56" s="64"/>
+      <c r="Q56" s="60"/>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="14">
@@ -6076,43 +6090,43 @@
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A61" s="66">
+      <c r="A61" s="62">
         <v>45389</v>
       </c>
-      <c r="B61" s="67" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C61" s="67" t="s">
+      <c r="B61" s="63" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C61" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="D61" s="67"/>
-      <c r="E61" s="67" t="s">
+      <c r="D61" s="63"/>
+      <c r="E61" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="F61" s="67" t="s">
+      <c r="F61" s="63" t="s">
         <v>241</v>
       </c>
-      <c r="G61" s="68">
+      <c r="G61" s="64">
         <v>75983524544</v>
       </c>
-      <c r="H61" s="67" t="s">
+      <c r="H61" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="I61" s="67"/>
-      <c r="J61" s="67"/>
-      <c r="K61" s="67" t="s">
+      <c r="I61" s="63"/>
+      <c r="J61" s="63"/>
+      <c r="K61" s="63" t="s">
         <v>146</v>
       </c>
-      <c r="L61" s="67" t="s">
+      <c r="L61" s="63" t="s">
         <v>843</v>
       </c>
-      <c r="M61" s="67"/>
-      <c r="N61" s="67"/>
-      <c r="O61" s="67" t="s">
+      <c r="M61" s="63"/>
+      <c r="N61" s="63"/>
+      <c r="O61" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="P61" s="67" t="s">
-        <v>1051</v>
+      <c r="P61" s="63" t="s">
+        <v>1050</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
@@ -6381,7 +6395,7 @@
       <c r="P70" s="23" t="s">
         <v>301</v>
       </c>
-      <c r="Q70" s="64"/>
+      <c r="Q70" s="60"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="31">
@@ -6455,7 +6469,7 @@
       <c r="P72" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="Q72" s="64"/>
+      <c r="Q72" s="60"/>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="31">
@@ -6520,7 +6534,7 @@
       <c r="P74" s="23" t="s">
         <v>217</v>
       </c>
-      <c r="Q74" s="64"/>
+      <c r="Q74" s="60"/>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="52">
@@ -6595,7 +6609,7 @@
       <c r="P76" s="45" t="s">
         <v>218</v>
       </c>
-      <c r="Q76" s="64"/>
+      <c r="Q76" s="60"/>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="8">
@@ -6895,7 +6909,7 @@
       <c r="P85" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="Q85" s="64"/>
+      <c r="Q85" s="60"/>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="31">
@@ -7345,7 +7359,7 @@
         <v>249</v>
       </c>
       <c r="L99" s="12" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="M99" s="12"/>
       <c r="N99" s="12"/>
@@ -7375,7 +7389,7 @@
         <v>255</v>
       </c>
       <c r="L100" s="12" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="M100" s="12"/>
       <c r="N100" s="12"/>
@@ -7507,7 +7521,7 @@
         <v>327</v>
       </c>
       <c r="L105" s="9" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="M105" s="9"/>
       <c r="N105" s="9"/>
@@ -7545,7 +7559,7 @@
         <v>328</v>
       </c>
       <c r="L106" s="9" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="M106" s="9"/>
       <c r="N106" s="9"/>
@@ -7612,7 +7626,7 @@
         <v>288</v>
       </c>
       <c r="L109" s="4" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.25">
@@ -7635,7 +7649,7 @@
         <v>289</v>
       </c>
       <c r="L110" s="4" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.25">
@@ -7942,7 +7956,7 @@
         <v>313</v>
       </c>
       <c r="L120" s="4" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.25">
@@ -8017,7 +8031,7 @@
         <v>332</v>
       </c>
       <c r="L122" s="4" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="P122" s="4" t="s">
         <v>350</v>
@@ -8086,7 +8100,7 @@
         <v>346</v>
       </c>
       <c r="L124" s="23" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="M124" s="23"/>
       <c r="N124" s="23"/>
@@ -8158,7 +8172,7 @@
         <v>369</v>
       </c>
       <c r="L126" s="9" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="M126" s="9"/>
       <c r="N126" s="9"/>
@@ -8207,7 +8221,7 @@
         <v>378</v>
       </c>
       <c r="L128" s="4" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.25">
@@ -8263,7 +8277,7 @@
         <v>397</v>
       </c>
       <c r="L130" s="9" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="M130" s="9"/>
       <c r="N130" s="9"/>
@@ -8292,7 +8306,7 @@
         <v>408</v>
       </c>
       <c r="L131" s="4" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.25">
@@ -8318,7 +8332,7 @@
         <v>416</v>
       </c>
       <c r="L132" s="4" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.25">
@@ -8350,7 +8364,7 @@
         <v>418</v>
       </c>
       <c r="L133" s="23" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="M133" s="23"/>
       <c r="N133" s="23"/>
@@ -8381,11 +8395,11 @@
         <v>422</v>
       </c>
       <c r="L134" s="4" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A135" s="65">
+      <c r="A135" s="61">
         <v>45399</v>
       </c>
       <c r="B135" s="15" t="s">
@@ -8407,7 +8421,7 @@
         <v>299</v>
       </c>
       <c r="J135" s="15" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="K135" s="15" t="s">
         <v>423</v>
@@ -8590,7 +8604,7 @@
         <v>523</v>
       </c>
       <c r="M141" s="4" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="P141" s="4" t="s">
         <v>521</v>
@@ -8619,7 +8633,7 @@
         <v>460</v>
       </c>
       <c r="L142" s="4" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.25">
@@ -8857,7 +8871,7 @@
         <v>509</v>
       </c>
       <c r="L150" s="4" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="O150" s="4" t="s">
         <v>19</v>
@@ -8986,7 +9000,7 @@
         <v>558</v>
       </c>
       <c r="L156" s="4" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="157" spans="1:16" x14ac:dyDescent="0.25">
@@ -9009,7 +9023,7 @@
         <v>561</v>
       </c>
       <c r="L157" s="4" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="158" spans="1:16" x14ac:dyDescent="0.25">
@@ -9062,7 +9076,7 @@
         <v>560</v>
       </c>
       <c r="L159" s="4" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.25">
@@ -9115,7 +9129,7 @@
         <v>570</v>
       </c>
       <c r="L161" s="9" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="M161" s="9"/>
       <c r="N161" s="9"/>
@@ -9235,7 +9249,7 @@
         <v>551</v>
       </c>
       <c r="L165" s="9" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="M165" s="9"/>
       <c r="N165" s="9"/>
@@ -9481,7 +9495,7 @@
         <v>624</v>
       </c>
       <c r="L173" s="4" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="174" spans="1:16" x14ac:dyDescent="0.25">
@@ -9576,7 +9590,7 @@
         <v>641</v>
       </c>
       <c r="L176" s="23" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="M176" s="23"/>
       <c r="N176" s="23"/>
@@ -9654,7 +9668,7 @@
         <v>655</v>
       </c>
       <c r="L178" s="23" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="M178" s="23"/>
       <c r="N178" s="23"/>
@@ -9723,7 +9737,7 @@
         <v>688</v>
       </c>
       <c r="L180" s="4" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="181" spans="1:16" x14ac:dyDescent="0.25">
@@ -9746,7 +9760,7 @@
         <v>688</v>
       </c>
       <c r="L181" s="4" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="182" spans="1:16" x14ac:dyDescent="0.25">
@@ -9917,7 +9931,7 @@
         <v>682</v>
       </c>
       <c r="L186" s="9" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="M186" s="9"/>
       <c r="N186" s="9"/>
@@ -9941,7 +9955,7 @@
         <v>702</v>
       </c>
       <c r="L187" s="4" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="188" spans="1:16" x14ac:dyDescent="0.25">
@@ -9973,7 +9987,7 @@
         <v>686</v>
       </c>
       <c r="L188" s="57" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="M188" s="57"/>
       <c r="N188" s="57"/>
@@ -10031,7 +10045,7 @@
         <v>696</v>
       </c>
       <c r="L190" s="4" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="191" spans="1:16" x14ac:dyDescent="0.25">
@@ -10098,7 +10112,7 @@
         <v>735</v>
       </c>
       <c r="L192" s="4" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="193" spans="1:16" x14ac:dyDescent="0.25">
@@ -10133,7 +10147,7 @@
         <v>735</v>
       </c>
       <c r="L193" s="4" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="194" spans="1:16" x14ac:dyDescent="0.25">
@@ -10240,7 +10254,7 @@
         <v>739</v>
       </c>
       <c r="L197" s="4" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="O197" s="4" t="s">
         <v>19</v>
@@ -10275,7 +10289,7 @@
         <v>716</v>
       </c>
       <c r="L198" s="23" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="M198" s="23"/>
       <c r="N198" s="23"/>
@@ -10346,7 +10360,7 @@
         <v>738</v>
       </c>
       <c r="L200" s="4" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="201" spans="1:16" x14ac:dyDescent="0.25">
@@ -10366,7 +10380,7 @@
         <v>743</v>
       </c>
       <c r="L201" s="4" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="202" spans="1:16" x14ac:dyDescent="0.25">
@@ -10398,7 +10412,7 @@
         <v>725</v>
       </c>
       <c r="L202" s="4" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="203" spans="1:16" x14ac:dyDescent="0.25">
@@ -10432,7 +10446,7 @@
         <v>764</v>
       </c>
       <c r="L203" s="9" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="M203" s="9"/>
       <c r="N203" s="9"/>
@@ -10459,7 +10473,7 @@
         <v>771</v>
       </c>
       <c r="L204" s="4" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="205" spans="1:16" x14ac:dyDescent="0.25">
@@ -10530,7 +10544,7 @@
         <v>764</v>
       </c>
       <c r="L206" s="4" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="207" spans="1:16" x14ac:dyDescent="0.25">
@@ -10556,7 +10570,7 @@
         <v>766</v>
       </c>
       <c r="L207" s="4" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="208" spans="1:16" x14ac:dyDescent="0.25">
@@ -10611,7 +10625,7 @@
         <v>796</v>
       </c>
       <c r="L209" s="4" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="210" spans="1:16" x14ac:dyDescent="0.25">
@@ -10631,7 +10645,7 @@
         <v>794</v>
       </c>
       <c r="L210" s="4" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="211" spans="1:16" x14ac:dyDescent="0.25">
@@ -10651,7 +10665,7 @@
         <v>795</v>
       </c>
       <c r="L211" s="4" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="212" spans="1:16" x14ac:dyDescent="0.25">
@@ -10674,7 +10688,7 @@
         <v>797</v>
       </c>
       <c r="L212" s="4" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="213" spans="1:16" x14ac:dyDescent="0.25">
@@ -10720,7 +10734,7 @@
         <v>787</v>
       </c>
       <c r="L214" s="4" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="215" spans="1:16" x14ac:dyDescent="0.25">
@@ -10786,7 +10800,7 @@
         <v>790</v>
       </c>
       <c r="L217" s="4" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="218" spans="1:16" x14ac:dyDescent="0.25">
@@ -10815,7 +10829,7 @@
         <v>796</v>
       </c>
       <c r="L218" s="4" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="219" spans="1:16" x14ac:dyDescent="0.25">
@@ -10851,7 +10865,7 @@
         <v>803</v>
       </c>
       <c r="L219" s="9" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="M219" s="9"/>
       <c r="N219" s="9"/>
@@ -10921,7 +10935,7 @@
         <v>812</v>
       </c>
       <c r="L222" s="4" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="223" spans="1:16" x14ac:dyDescent="0.25">
@@ -10981,7 +10995,7 @@
         <v>819</v>
       </c>
       <c r="L224" s="4" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="225" spans="1:16" x14ac:dyDescent="0.25">
@@ -11001,7 +11015,7 @@
         <v>821</v>
       </c>
       <c r="L225" s="4" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="226" spans="1:16" x14ac:dyDescent="0.25">
@@ -11058,7 +11072,7 @@
         <v>831</v>
       </c>
       <c r="L227" s="4" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="228" spans="1:16" x14ac:dyDescent="0.25">
@@ -11115,7 +11129,7 @@
         <v>833</v>
       </c>
       <c r="L229" s="4" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="230" spans="1:16" x14ac:dyDescent="0.25">
@@ -11170,207 +11184,210 @@
         <v>892</v>
       </c>
       <c r="M231" s="4" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="232" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A232" s="59"/>
-      <c r="B232" s="62" t="s">
-        <v>931</v>
-      </c>
-      <c r="C232" s="60"/>
-      <c r="D232" s="60"/>
-      <c r="E232" s="60"/>
-      <c r="F232" s="60"/>
-      <c r="G232" s="61"/>
-      <c r="H232" s="60"/>
-      <c r="I232" s="60"/>
-      <c r="J232" s="60"/>
-      <c r="K232" s="60"/>
-      <c r="L232" s="60"/>
-      <c r="M232" s="60"/>
-      <c r="N232" s="60"/>
-      <c r="O232" s="60"/>
-      <c r="P232" s="60"/>
+      <c r="A232" s="31">
+        <v>45413</v>
+      </c>
+      <c r="B232" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="C232" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G232" s="32" t="s">
+        <v>856</v>
+      </c>
+      <c r="H232" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K232" s="4" t="s">
+        <v>865</v>
+      </c>
     </row>
     <row r="233" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A233" s="31">
+      <c r="A233" s="25">
         <v>45413</v>
       </c>
-      <c r="B233" s="4" t="s">
-        <v>936</v>
-      </c>
-      <c r="C233" s="4" t="s">
+      <c r="B233" s="26" t="s">
+        <v>854</v>
+      </c>
+      <c r="C233" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D233" s="26"/>
+      <c r="E233" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F233" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="G233" s="27" t="s">
+        <v>855</v>
+      </c>
+      <c r="H233" s="26" t="s">
+        <v>554</v>
+      </c>
+      <c r="I233" s="26" t="s">
+        <v>857</v>
+      </c>
+      <c r="J233" s="26" t="s">
+        <v>858</v>
+      </c>
+      <c r="K233" s="26" t="s">
+        <v>859</v>
+      </c>
+      <c r="L233" s="26" t="s">
+        <v>964</v>
+      </c>
+      <c r="M233" s="26"/>
+      <c r="N233" s="26"/>
+      <c r="O233" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="P233" s="26" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="234" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A234" s="17">
+        <v>45413</v>
+      </c>
+      <c r="B234" s="18" t="s">
+        <v>860</v>
+      </c>
+      <c r="C234" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D234" s="18"/>
+      <c r="E234" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F234" s="18" t="s">
+        <v>862</v>
+      </c>
+      <c r="G234" s="19" t="s">
+        <v>861</v>
+      </c>
+      <c r="H234" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="I234" s="18"/>
+      <c r="J234" s="18" t="s">
+        <v>864</v>
+      </c>
+      <c r="K234" s="18" t="s">
+        <v>863</v>
+      </c>
+      <c r="L234" s="18"/>
+      <c r="M234" s="18"/>
+      <c r="N234" s="18"/>
+      <c r="O234" s="18"/>
+      <c r="P234" s="18"/>
+    </row>
+    <row r="235" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A235" s="31">
+        <v>45413</v>
+      </c>
+      <c r="B235" s="4" t="s">
+        <v>866</v>
+      </c>
+      <c r="C235" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G233" s="32" t="s">
-        <v>856</v>
-      </c>
-      <c r="H233" s="4" t="s">
+      <c r="G235" s="32" t="s">
+        <v>867</v>
+      </c>
+      <c r="H235" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I235" s="4" t="s">
+        <v>869</v>
+      </c>
+      <c r="J235" s="4" t="s">
+        <v>870</v>
+      </c>
+      <c r="K235" s="4" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="236" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A236" s="17">
+        <v>45413</v>
+      </c>
+      <c r="B236" s="18" t="s">
+        <v>871</v>
+      </c>
+      <c r="C236" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D236" s="18"/>
+      <c r="E236" s="18"/>
+      <c r="F236" s="18"/>
+      <c r="G236" s="19" t="s">
+        <v>872</v>
+      </c>
+      <c r="H236" s="18" t="s">
+        <v>554</v>
+      </c>
+      <c r="I236" s="18" t="s">
+        <v>874</v>
+      </c>
+      <c r="J236" s="18"/>
+      <c r="K236" s="18" t="s">
+        <v>873</v>
+      </c>
+      <c r="L236" s="18"/>
+      <c r="M236" s="18" t="s">
+        <v>875</v>
+      </c>
+      <c r="N236" s="18"/>
+      <c r="O236" s="18"/>
+      <c r="P236" s="18"/>
+    </row>
+    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A237" s="31">
+        <v>45413</v>
+      </c>
+      <c r="B237" s="4" t="s">
+        <v>876</v>
+      </c>
+      <c r="C237" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G237" s="32" t="s">
+        <v>877</v>
+      </c>
+      <c r="H237" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K233" s="4" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A234" s="25">
-        <v>45413</v>
-      </c>
-      <c r="B234" s="26" t="s">
-        <v>854</v>
-      </c>
-      <c r="C234" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D234" s="26"/>
-      <c r="E234" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="F234" s="26" t="s">
-        <v>286</v>
-      </c>
-      <c r="G234" s="27" t="s">
-        <v>855</v>
-      </c>
-      <c r="H234" s="26" t="s">
-        <v>554</v>
-      </c>
-      <c r="I234" s="26" t="s">
-        <v>857</v>
-      </c>
-      <c r="J234" s="26" t="s">
-        <v>858</v>
-      </c>
-      <c r="K234" s="26" t="s">
-        <v>859</v>
-      </c>
-      <c r="L234" s="26" t="s">
-        <v>965</v>
-      </c>
-      <c r="M234" s="26"/>
-      <c r="N234" s="26"/>
-      <c r="O234" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="P234" s="26" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A235" s="17">
-        <v>45413</v>
-      </c>
-      <c r="B235" s="18" t="s">
-        <v>860</v>
-      </c>
-      <c r="C235" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D235" s="18"/>
-      <c r="E235" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F235" s="18" t="s">
-        <v>862</v>
-      </c>
-      <c r="G235" s="19" t="s">
-        <v>861</v>
-      </c>
-      <c r="H235" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="I235" s="18"/>
-      <c r="J235" s="18" t="s">
-        <v>864</v>
-      </c>
-      <c r="K235" s="18" t="s">
-        <v>863</v>
-      </c>
-      <c r="L235" s="18"/>
-      <c r="M235" s="18"/>
-      <c r="N235" s="18"/>
-      <c r="O235" s="18"/>
-      <c r="P235" s="18"/>
-    </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A236" s="31">
-        <v>45413</v>
-      </c>
-      <c r="B236" s="4" t="s">
-        <v>866</v>
-      </c>
-      <c r="C236" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G236" s="32" t="s">
-        <v>867</v>
-      </c>
-      <c r="H236" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I236" s="4" t="s">
-        <v>869</v>
-      </c>
-      <c r="J236" s="4" t="s">
-        <v>870</v>
-      </c>
-      <c r="K236" s="4" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A237" s="17">
-        <v>45413</v>
-      </c>
-      <c r="B237" s="18" t="s">
-        <v>871</v>
-      </c>
-      <c r="C237" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D237" s="18"/>
-      <c r="E237" s="18"/>
-      <c r="F237" s="18"/>
-      <c r="G237" s="19" t="s">
-        <v>872</v>
-      </c>
-      <c r="H237" s="18" t="s">
-        <v>554</v>
-      </c>
-      <c r="I237" s="18" t="s">
-        <v>874</v>
-      </c>
-      <c r="J237" s="18"/>
-      <c r="K237" s="18" t="s">
-        <v>873</v>
-      </c>
-      <c r="L237" s="18"/>
-      <c r="M237" s="18" t="s">
-        <v>875</v>
-      </c>
-      <c r="N237" s="18"/>
-      <c r="O237" s="18"/>
-      <c r="P237" s="18"/>
+      <c r="K237" s="50" t="s">
+        <v>878</v>
+      </c>
     </row>
     <row r="238" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A238" s="31">
         <v>45413</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G238" s="32" t="s">
-        <v>877</v>
+        <v>880</v>
       </c>
       <c r="H238" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K238" s="50" t="s">
-        <v>878</v>
+        <v>554</v>
+      </c>
+      <c r="K238" s="4" t="s">
+        <v>883</v>
+      </c>
+      <c r="L238" s="4" t="s">
+        <v>964</v>
       </c>
     </row>
     <row r="239" spans="1:16" x14ac:dyDescent="0.25">
@@ -11378,22 +11395,25 @@
         <v>45413</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="C239" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G239" s="32" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="H239" s="4" t="s">
-        <v>554</v>
+        <v>699</v>
+      </c>
+      <c r="J239" s="4" t="s">
+        <v>885</v>
       </c>
       <c r="K239" s="4" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="L239" s="4" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="240" spans="1:16" x14ac:dyDescent="0.25">
@@ -11401,25 +11421,19 @@
         <v>45413</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>881</v>
+        <v>886</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G240" s="32" t="s">
-        <v>882</v>
+        <v>887</v>
       </c>
       <c r="H240" s="4" t="s">
-        <v>699</v>
-      </c>
-      <c r="J240" s="4" t="s">
-        <v>885</v>
+        <v>15</v>
       </c>
       <c r="K240" s="4" t="s">
-        <v>884</v>
-      </c>
-      <c r="L240" s="4" t="s">
-        <v>965</v>
+        <v>888</v>
       </c>
     </row>
     <row r="241" spans="1:16" x14ac:dyDescent="0.25">
@@ -11427,19 +11441,22 @@
         <v>45413</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>886</v>
+        <v>890</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G241" s="32" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="H241" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K241" s="4" t="s">
-        <v>888</v>
+        <v>891</v>
+      </c>
+      <c r="L241" s="4" t="s">
+        <v>964</v>
       </c>
     </row>
     <row r="242" spans="1:16" x14ac:dyDescent="0.25">
@@ -11447,48 +11464,48 @@
         <v>45413</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>890</v>
+        <v>894</v>
       </c>
       <c r="C242" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G242" s="32" t="s">
-        <v>889</v>
+        <v>893</v>
       </c>
       <c r="H242" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="I242" s="4" t="s">
+        <v>907</v>
+      </c>
       <c r="K242" s="4" t="s">
-        <v>891</v>
+        <v>895</v>
       </c>
       <c r="L242" s="4" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="243" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A243" s="31">
-        <v>45413</v>
+        <v>45414</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="C243" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G243" s="32" t="s">
-        <v>893</v>
+        <v>897</v>
       </c>
       <c r="H243" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I243" s="4" t="s">
-        <v>907</v>
+        <v>699</v>
       </c>
       <c r="K243" s="4" t="s">
-        <v>895</v>
+        <v>900</v>
       </c>
       <c r="L243" s="4" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="244" spans="1:16" x14ac:dyDescent="0.25">
@@ -11496,99 +11513,96 @@
         <v>45414</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="C244" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G244" s="32" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="H244" s="4" t="s">
-        <v>699</v>
+        <v>14</v>
       </c>
       <c r="K244" s="4" t="s">
-        <v>900</v>
-      </c>
-      <c r="L244" s="4" t="s">
-        <v>965</v>
+        <v>901</v>
       </c>
     </row>
     <row r="245" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A245" s="31">
+      <c r="A245" s="8">
         <v>45414</v>
       </c>
-      <c r="B245" s="4" t="s">
-        <v>898</v>
-      </c>
-      <c r="C245" s="4" t="s">
+      <c r="B245" s="9" t="s">
+        <v>903</v>
+      </c>
+      <c r="C245" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D245" s="9"/>
+      <c r="E245" s="9"/>
+      <c r="F245" s="9"/>
+      <c r="G245" s="10" t="s">
+        <v>902</v>
+      </c>
+      <c r="H245" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I245" s="9" t="s">
+        <v>906</v>
+      </c>
+      <c r="J245" s="9" t="s">
+        <v>905</v>
+      </c>
+      <c r="K245" s="9" t="s">
+        <v>904</v>
+      </c>
+      <c r="L245" s="9"/>
+      <c r="M245" s="9"/>
+      <c r="N245" s="9"/>
+      <c r="O245" s="9"/>
+      <c r="P245" s="9"/>
+    </row>
+    <row r="246" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A246" s="31">
+        <v>45414</v>
+      </c>
+      <c r="B246" s="4" t="s">
+        <v>908</v>
+      </c>
+      <c r="C246" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G245" s="32" t="s">
-        <v>899</v>
-      </c>
-      <c r="H245" s="4" t="s">
+      <c r="G246" s="32" t="s">
+        <v>909</v>
+      </c>
+      <c r="H246" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K245" s="4" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A246" s="8">
-        <v>45414</v>
-      </c>
-      <c r="B246" s="9" t="s">
-        <v>903</v>
-      </c>
-      <c r="C246" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D246" s="9"/>
-      <c r="E246" s="9"/>
-      <c r="F246" s="9"/>
-      <c r="G246" s="10" t="s">
-        <v>902</v>
-      </c>
-      <c r="H246" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I246" s="9" t="s">
-        <v>906</v>
-      </c>
-      <c r="J246" s="9" t="s">
-        <v>905</v>
-      </c>
-      <c r="K246" s="9" t="s">
-        <v>904</v>
-      </c>
-      <c r="L246" s="9"/>
-      <c r="M246" s="9"/>
-      <c r="N246" s="9"/>
-      <c r="O246" s="9"/>
-      <c r="P246" s="9"/>
+      <c r="K246" s="4" t="s">
+        <v>910</v>
+      </c>
+      <c r="L246" s="4" t="s">
+        <v>964</v>
+      </c>
     </row>
     <row r="247" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A247" s="31">
         <v>45414</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>908</v>
+        <v>578</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G247" s="32" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="H247" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K247" s="4" t="s">
-        <v>910</v>
-      </c>
-      <c r="L247" s="4" t="s">
-        <v>965</v>
+        <v>912</v>
       </c>
     </row>
     <row r="248" spans="1:16" x14ac:dyDescent="0.25">
@@ -11596,42 +11610,57 @@
         <v>45414</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>578</v>
+        <v>913</v>
       </c>
       <c r="C248" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G248" s="32" t="s">
-        <v>911</v>
+        <v>914</v>
       </c>
       <c r="H248" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="I248" s="4" t="s">
+        <v>925</v>
+      </c>
       <c r="K248" s="4" t="s">
-        <v>912</v>
+        <v>924</v>
       </c>
     </row>
     <row r="249" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A249" s="31">
-        <v>45414</v>
+        <v>45415</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>913</v>
+        <v>923</v>
       </c>
       <c r="C249" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="E249" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F249" s="4" t="s">
+        <v>286</v>
+      </c>
       <c r="G249" s="32" t="s">
-        <v>914</v>
+        <v>922</v>
       </c>
       <c r="H249" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I249" s="4" t="s">
-        <v>925</v>
+        <v>926</v>
+      </c>
+      <c r="J249" s="4" t="s">
+        <v>934</v>
       </c>
       <c r="K249" s="4" t="s">
-        <v>924</v>
+        <v>927</v>
+      </c>
+      <c r="P249" s="4" t="s">
+        <v>933</v>
       </c>
     </row>
     <row r="250" spans="1:16" x14ac:dyDescent="0.25">
@@ -11639,34 +11668,34 @@
         <v>45415</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>923</v>
+        <v>947</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E250" s="4" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F250" s="4" t="s">
-        <v>286</v>
+        <v>241</v>
       </c>
       <c r="G250" s="32" t="s">
-        <v>922</v>
+        <v>928</v>
       </c>
       <c r="H250" s="4" t="s">
-        <v>15</v>
+        <v>554</v>
       </c>
       <c r="I250" s="4" t="s">
-        <v>926</v>
+        <v>314</v>
       </c>
       <c r="J250" s="4" t="s">
-        <v>935</v>
+        <v>949</v>
       </c>
       <c r="K250" s="4" t="s">
-        <v>927</v>
-      </c>
-      <c r="P250" s="4" t="s">
-        <v>934</v>
+        <v>948</v>
+      </c>
+      <c r="L250" s="50" t="s">
+        <v>971</v>
       </c>
     </row>
     <row r="251" spans="1:16" x14ac:dyDescent="0.25">
@@ -11674,34 +11703,22 @@
         <v>45415</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>948</v>
+        <v>929</v>
       </c>
       <c r="C251" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E251" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F251" s="4" t="s">
-        <v>241</v>
-      </c>
       <c r="G251" s="32" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="H251" s="4" t="s">
-        <v>554</v>
-      </c>
-      <c r="I251" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="J251" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="K251" s="4" t="s">
         <v>950</v>
       </c>
-      <c r="K251" s="4" t="s">
-        <v>949</v>
-      </c>
-      <c r="L251" s="50" t="s">
-        <v>972</v>
+      <c r="L251" s="4" t="s">
+        <v>964</v>
       </c>
     </row>
     <row r="252" spans="1:16" x14ac:dyDescent="0.25">
@@ -11709,22 +11726,22 @@
         <v>45415</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="C252" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G252" s="32" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="H252" s="4" t="s">
-        <v>699</v>
+        <v>15</v>
+      </c>
+      <c r="I252" s="4" t="s">
+        <v>945</v>
       </c>
       <c r="K252" s="4" t="s">
-        <v>951</v>
-      </c>
-      <c r="L252" s="4" t="s">
-        <v>965</v>
+        <v>946</v>
       </c>
     </row>
     <row r="253" spans="1:16" x14ac:dyDescent="0.25">
@@ -11732,144 +11749,147 @@
         <v>45415</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>932</v>
+        <v>936</v>
       </c>
       <c r="C253" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G253" s="32" t="s">
+        <v>937</v>
+      </c>
+      <c r="H253" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="K253" s="4" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="254" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A254" s="22">
+        <v>45415</v>
+      </c>
+      <c r="B254" s="23" t="s">
+        <v>941</v>
+      </c>
+      <c r="C254" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G253" s="32" t="s">
-        <v>933</v>
-      </c>
-      <c r="H253" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I253" s="4" t="s">
-        <v>946</v>
-      </c>
-      <c r="K253" s="4" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="254" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A254" s="31">
+      <c r="D254" s="23"/>
+      <c r="E254" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F254" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="G254" s="24" t="s">
+        <v>938</v>
+      </c>
+      <c r="H254" s="23" t="s">
+        <v>554</v>
+      </c>
+      <c r="I254" s="23" t="s">
+        <v>940</v>
+      </c>
+      <c r="J254" s="23" t="s">
+        <v>1012</v>
+      </c>
+      <c r="K254" s="23" t="s">
+        <v>939</v>
+      </c>
+      <c r="L254" s="23"/>
+      <c r="M254" s="23"/>
+      <c r="N254" s="23"/>
+      <c r="O254" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="P254" s="23" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="255" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A255" s="14">
         <v>45415</v>
       </c>
-      <c r="B254" s="4" t="s">
-        <v>937</v>
-      </c>
-      <c r="C254" s="4" t="s">
+      <c r="B255" s="15" t="s">
+        <v>942</v>
+      </c>
+      <c r="C255" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D255" s="15">
+        <v>55</v>
+      </c>
+      <c r="E255" s="15"/>
+      <c r="F255" s="15"/>
+      <c r="G255" s="16" t="s">
+        <v>943</v>
+      </c>
+      <c r="H255" s="15" t="s">
+        <v>554</v>
+      </c>
+      <c r="I255" s="15" t="s">
+        <v>962</v>
+      </c>
+      <c r="J255" s="15" t="s">
+        <v>961</v>
+      </c>
+      <c r="K255" s="15" t="s">
+        <v>939</v>
+      </c>
+      <c r="L255" s="15"/>
+      <c r="M255" s="15"/>
+      <c r="N255" s="15"/>
+      <c r="O255" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="P255" s="15" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="256" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A256" s="31">
+        <v>45415</v>
+      </c>
+      <c r="B256" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C256" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G254" s="32" t="s">
-        <v>938</v>
-      </c>
-      <c r="H254" s="4" t="s">
+      <c r="G256" s="32" t="s">
+        <v>951</v>
+      </c>
+      <c r="H256" s="4" t="s">
         <v>554</v>
       </c>
-      <c r="K254" s="4" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="255" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A255" s="22">
-        <v>45415</v>
-      </c>
-      <c r="B255" s="23" t="s">
-        <v>942</v>
-      </c>
-      <c r="C255" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D255" s="23"/>
-      <c r="E255" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F255" s="23" t="s">
-        <v>419</v>
-      </c>
-      <c r="G255" s="24" t="s">
-        <v>939</v>
-      </c>
-      <c r="H255" s="23" t="s">
-        <v>554</v>
-      </c>
-      <c r="I255" s="23" t="s">
-        <v>941</v>
-      </c>
-      <c r="J255" s="23" t="s">
-        <v>1013</v>
-      </c>
-      <c r="K255" s="23" t="s">
-        <v>940</v>
-      </c>
-      <c r="L255" s="23"/>
-      <c r="M255" s="23"/>
-      <c r="N255" s="23"/>
-      <c r="O255" s="23" t="s">
-        <v>261</v>
-      </c>
-      <c r="P255" s="23" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="256" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A256" s="14">
-        <v>45415</v>
-      </c>
-      <c r="B256" s="15" t="s">
-        <v>943</v>
-      </c>
-      <c r="C256" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D256" s="15">
-        <v>55</v>
-      </c>
-      <c r="E256" s="15"/>
-      <c r="F256" s="15"/>
-      <c r="G256" s="16" t="s">
-        <v>944</v>
-      </c>
-      <c r="H256" s="15" t="s">
-        <v>554</v>
-      </c>
-      <c r="I256" s="15" t="s">
-        <v>963</v>
-      </c>
-      <c r="J256" s="15" t="s">
-        <v>962</v>
-      </c>
-      <c r="K256" s="15" t="s">
-        <v>940</v>
-      </c>
-      <c r="L256" s="15"/>
-      <c r="M256" s="15"/>
-      <c r="N256" s="15"/>
-      <c r="O256" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="P256" s="15" t="s">
-        <v>953</v>
+      <c r="K256" s="50" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="257" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A257" s="31">
-        <v>45415</v>
+        <v>45416</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>64</v>
+        <v>957</v>
       </c>
       <c r="C257" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G257" s="32" t="s">
-        <v>952</v>
+        <v>958</v>
       </c>
       <c r="H257" s="4" t="s">
-        <v>554</v>
-      </c>
-      <c r="K257" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="I257" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="J257" s="4" t="s">
         <v>960</v>
+      </c>
+      <c r="K257" s="4" t="s">
+        <v>963</v>
       </c>
     </row>
     <row r="258" spans="1:16" x14ac:dyDescent="0.25">
@@ -11877,25 +11897,19 @@
         <v>45416</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>958</v>
+        <v>965</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G258" s="32" t="s">
-        <v>959</v>
+        <v>966</v>
       </c>
       <c r="H258" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I258" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="J258" s="4" t="s">
-        <v>961</v>
+        <v>554</v>
       </c>
       <c r="K258" s="4" t="s">
-        <v>964</v>
+        <v>967</v>
       </c>
     </row>
     <row r="259" spans="1:16" x14ac:dyDescent="0.25">
@@ -11903,19 +11917,22 @@
         <v>45416</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>966</v>
+        <v>972</v>
       </c>
       <c r="C259" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G259" s="32" t="s">
-        <v>967</v>
+        <v>973</v>
       </c>
       <c r="H259" s="4" t="s">
         <v>554</v>
       </c>
+      <c r="I259" s="4" t="s">
+        <v>1028</v>
+      </c>
       <c r="K259" s="4" t="s">
-        <v>968</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="260" spans="1:16" x14ac:dyDescent="0.25">
@@ -11923,22 +11940,22 @@
         <v>45416</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G260" s="32" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="H260" s="4" t="s">
-        <v>554</v>
-      </c>
-      <c r="I260" s="4" t="s">
-        <v>1029</v>
+        <v>15</v>
       </c>
       <c r="K260" s="4" t="s">
         <v>1007</v>
+      </c>
+      <c r="O260" s="4" t="s">
+        <v>1018</v>
       </c>
     </row>
     <row r="261" spans="1:16" x14ac:dyDescent="0.25">
@@ -11946,22 +11963,19 @@
         <v>45416</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="C261" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G261" s="32" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H261" s="4" t="s">
         <v>15</v>
       </c>
       <c r="K261" s="4" t="s">
         <v>1008</v>
-      </c>
-      <c r="O261" s="4" t="s">
-        <v>1019</v>
       </c>
     </row>
     <row r="262" spans="1:16" x14ac:dyDescent="0.25">
@@ -11969,19 +11983,19 @@
         <v>45416</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="C262" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G262" s="32" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H262" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K262" s="4" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="263" spans="1:16" x14ac:dyDescent="0.25">
@@ -11989,7 +12003,7 @@
         <v>45416</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>979</v>
+        <v>1009</v>
       </c>
       <c r="C263" s="4" t="s">
         <v>11</v>
@@ -11998,36 +12012,39 @@
         <v>980</v>
       </c>
       <c r="H263" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="I263" s="4" t="s">
+        <v>671</v>
+      </c>
+      <c r="J263" s="4" t="s">
+        <v>1013</v>
       </c>
       <c r="K263" s="4" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="264" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A264" s="31">
-        <v>45416</v>
+        <v>45417</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>1010</v>
+        <v>981</v>
       </c>
       <c r="C264" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G264" s="32" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H264" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I264" s="4" t="s">
-        <v>671</v>
-      </c>
-      <c r="J264" s="4" t="s">
-        <v>1014</v>
+        <v>14</v>
       </c>
       <c r="K264" s="4" t="s">
-        <v>1011</v>
+        <v>1022</v>
+      </c>
+      <c r="O264" s="4" t="s">
+        <v>1018</v>
       </c>
     </row>
     <row r="265" spans="1:16" x14ac:dyDescent="0.25">
@@ -12035,22 +12052,22 @@
         <v>45417</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="C265" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G265" s="32" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="H265" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="I265" s="4" t="s">
+        <v>1019</v>
+      </c>
       <c r="K265" s="4" t="s">
-        <v>1023</v>
-      </c>
-      <c r="O265" s="4" t="s">
-        <v>1019</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="266" spans="1:16" x14ac:dyDescent="0.25">
@@ -12058,83 +12075,86 @@
         <v>45417</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="E266" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F266" s="4" t="s">
+        <v>286</v>
       </c>
       <c r="G266" s="32" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="H266" s="4" t="s">
-        <v>14</v>
+        <v>554</v>
       </c>
       <c r="I266" s="4" t="s">
-        <v>1020</v>
+        <v>1029</v>
+      </c>
+      <c r="J266" s="4" t="s">
+        <v>1052</v>
       </c>
       <c r="K266" s="4" t="s">
-        <v>1012</v>
+        <v>1016</v>
+      </c>
+      <c r="L266" s="4" t="s">
+        <v>1030</v>
+      </c>
+      <c r="O266" s="4" t="s">
+        <v>1031</v>
       </c>
     </row>
     <row r="267" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A267" s="31">
         <v>45417</v>
       </c>
-      <c r="B267" s="4" t="s">
-        <v>986</v>
+      <c r="B267" s="59" t="s">
+        <v>987</v>
       </c>
       <c r="C267" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E267" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F267" s="4" t="s">
-        <v>286</v>
-      </c>
       <c r="G267" s="32" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="H267" s="4" t="s">
-        <v>554</v>
+        <v>14</v>
       </c>
       <c r="I267" s="4" t="s">
-        <v>1030</v>
-      </c>
-      <c r="J267" s="4" t="s">
-        <v>1053</v>
+        <v>989</v>
       </c>
       <c r="K267" s="4" t="s">
-        <v>1017</v>
-      </c>
-      <c r="L267" s="4" t="s">
-        <v>1031</v>
-      </c>
-      <c r="O267" s="4" t="s">
-        <v>1032</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="268" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A268" s="31">
         <v>45417</v>
       </c>
-      <c r="B268" s="63" t="s">
-        <v>988</v>
+      <c r="B268" s="4" t="s">
+        <v>990</v>
       </c>
       <c r="C268" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G268" s="32" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="H268" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I268" s="4" t="s">
-        <v>990</v>
+        <v>402</v>
+      </c>
+      <c r="J268" s="4" t="s">
+        <v>992</v>
       </c>
       <c r="K268" s="4" t="s">
-        <v>1024</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="269" spans="1:16" x14ac:dyDescent="0.25">
@@ -12142,143 +12162,149 @@
         <v>45417</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>991</v>
+        <v>57</v>
       </c>
       <c r="C269" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G269" s="32" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="H269" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I269" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="J269" s="4" t="s">
-        <v>993</v>
+        <v>1020</v>
       </c>
       <c r="K269" s="4" t="s">
         <v>1011</v>
       </c>
     </row>
     <row r="270" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A270" s="31">
+      <c r="A270" s="14">
         <v>45417</v>
       </c>
-      <c r="B270" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C270" s="4" t="s">
+      <c r="B270" s="15" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C270" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G270" s="32" t="s">
+      <c r="D270" s="15"/>
+      <c r="E270" s="15"/>
+      <c r="F270" s="15"/>
+      <c r="G270" s="16" t="s">
         <v>994</v>
       </c>
-      <c r="H270" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I270" s="4" t="s">
+      <c r="H270" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I270" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="J270" s="15" t="s">
+        <v>1015</v>
+      </c>
+      <c r="K270" s="15" t="s">
+        <v>1011</v>
+      </c>
+      <c r="L270" s="15"/>
+      <c r="M270" s="15"/>
+      <c r="N270" s="15"/>
+      <c r="O270" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="P270" s="15" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="271" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A271" s="17">
+        <v>45417</v>
+      </c>
+      <c r="B271" s="18" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C271" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D271" s="18"/>
+      <c r="E271" s="18"/>
+      <c r="F271" s="18"/>
+      <c r="G271" s="19" t="s">
+        <v>995</v>
+      </c>
+      <c r="H271" s="18" t="s">
+        <v>554</v>
+      </c>
+      <c r="I271" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="J271" s="18" t="s">
         <v>1021</v>
       </c>
-      <c r="K270" s="4" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="271" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A271" s="14">
+      <c r="K271" s="18" t="s">
+        <v>1011</v>
+      </c>
+      <c r="L271" s="18"/>
+      <c r="M271" s="18"/>
+      <c r="N271" s="18"/>
+      <c r="O271" s="18"/>
+      <c r="P271" s="18"/>
+    </row>
+    <row r="272" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A272" s="31">
         <v>45417</v>
       </c>
-      <c r="B271" s="15" t="s">
-        <v>1015</v>
-      </c>
-      <c r="C271" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D271" s="15"/>
-      <c r="E271" s="15"/>
-      <c r="F271" s="15"/>
-      <c r="G271" s="16" t="s">
-        <v>995</v>
-      </c>
-      <c r="H271" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I271" s="15" t="s">
-        <v>344</v>
-      </c>
-      <c r="J271" s="15" t="s">
-        <v>1016</v>
-      </c>
-      <c r="K271" s="15" t="s">
-        <v>1012</v>
-      </c>
-      <c r="L271" s="15"/>
-      <c r="M271" s="15"/>
-      <c r="N271" s="15"/>
-      <c r="O271" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="P271" s="15" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="272" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A272" s="17">
-        <v>45417</v>
-      </c>
-      <c r="B272" s="18" t="s">
-        <v>1004</v>
-      </c>
-      <c r="C272" s="18" t="s">
+      <c r="B272" s="59" t="s">
+        <v>996</v>
+      </c>
+      <c r="C272" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D272" s="18"/>
-      <c r="E272" s="18"/>
-      <c r="F272" s="18"/>
-      <c r="G272" s="19" t="s">
-        <v>996</v>
-      </c>
-      <c r="H272" s="18" t="s">
+      <c r="G272" s="32" t="s">
+        <v>997</v>
+      </c>
+      <c r="H272" s="4" t="s">
         <v>554</v>
       </c>
-      <c r="I272" s="18" t="s">
-        <v>344</v>
-      </c>
-      <c r="J272" s="18" t="s">
-        <v>1022</v>
-      </c>
-      <c r="K272" s="18" t="s">
-        <v>1012</v>
-      </c>
-      <c r="L272" s="18"/>
-      <c r="M272" s="18"/>
-      <c r="N272" s="18"/>
-      <c r="O272" s="18"/>
-      <c r="P272" s="18"/>
+      <c r="I272" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="K272" s="4" t="s">
+        <v>1011</v>
+      </c>
     </row>
     <row r="273" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A273" s="31">
         <v>45417</v>
       </c>
-      <c r="B273" s="63" t="s">
-        <v>997</v>
+      <c r="B273" s="4" t="s">
+        <v>998</v>
       </c>
       <c r="C273" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="E273" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F273" s="4" t="s">
+        <v>286</v>
       </c>
       <c r="G273" s="32" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="H273" s="4" t="s">
         <v>554</v>
       </c>
       <c r="I273" s="4" t="s">
-        <v>458</v>
+        <v>446</v>
+      </c>
+      <c r="J273" s="4" t="s">
+        <v>1024</v>
       </c>
       <c r="K273" s="4" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="274" spans="1:16" x14ac:dyDescent="0.25">
@@ -12286,98 +12312,92 @@
         <v>45417</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="C274" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E274" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F274" s="4" t="s">
-        <v>286</v>
-      </c>
       <c r="G274" s="32" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="H274" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I274" s="4" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K274" s="4" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="275" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A275" s="14">
+        <v>45418</v>
+      </c>
+      <c r="B275" s="15" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C275" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D275" s="15"/>
+      <c r="E275" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F275" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="G275" s="16" t="s">
+        <v>1005</v>
+      </c>
+      <c r="H275" s="15" t="s">
         <v>554</v>
       </c>
-      <c r="I274" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="J274" s="4" t="s">
+      <c r="I275" s="15" t="s">
+        <v>1034</v>
+      </c>
+      <c r="J275" s="15" t="s">
+        <v>1036</v>
+      </c>
+      <c r="K275" s="15" t="s">
+        <v>1017</v>
+      </c>
+      <c r="L275" s="15" t="s">
+        <v>1038</v>
+      </c>
+      <c r="M275" s="15"/>
+      <c r="N275" s="15"/>
+      <c r="O275" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="P275" s="15" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="276" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A276" s="31">
+        <v>45418</v>
+      </c>
+      <c r="B276" s="4" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C276" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G276" s="32" t="s">
         <v>1025</v>
       </c>
-      <c r="K274" s="4" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="275" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A275" s="31">
-        <v>45417</v>
-      </c>
-      <c r="B275" s="4" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C275" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G275" s="32" t="s">
-        <v>1002</v>
-      </c>
-      <c r="H275" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I275" s="4" t="s">
-        <v>1003</v>
-      </c>
-      <c r="K275" s="4" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="276" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A276" s="14">
-        <v>45418</v>
-      </c>
-      <c r="B276" s="15" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C276" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D276" s="15"/>
-      <c r="E276" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F276" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="G276" s="16" t="s">
-        <v>1006</v>
-      </c>
-      <c r="H276" s="15" t="s">
-        <v>554</v>
-      </c>
-      <c r="I276" s="15" t="s">
-        <v>1035</v>
-      </c>
-      <c r="J276" s="15" t="s">
+      <c r="H276" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="I276" s="4" t="s">
+        <v>1027</v>
+      </c>
+      <c r="J276" s="4" t="s">
         <v>1037</v>
       </c>
-      <c r="K276" s="15" t="s">
-        <v>1018</v>
-      </c>
-      <c r="L276" s="15" t="s">
-        <v>1039</v>
-      </c>
-      <c r="M276" s="15"/>
-      <c r="N276" s="15"/>
-      <c r="O276" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="P276" s="15" t="s">
-        <v>1036</v>
+      <c r="K276" s="4" t="s">
+        <v>1010</v>
       </c>
     </row>
     <row r="277" spans="1:16" x14ac:dyDescent="0.25">
@@ -12385,25 +12405,16 @@
         <v>45418</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>1027</v>
-      </c>
-      <c r="C277" s="4" t="s">
-        <v>10</v>
+        <v>1032</v>
       </c>
       <c r="G277" s="32" t="s">
-        <v>1026</v>
+        <v>1033</v>
       </c>
       <c r="H277" s="4" t="s">
-        <v>699</v>
-      </c>
-      <c r="I277" s="4" t="s">
-        <v>1028</v>
-      </c>
-      <c r="J277" s="4" t="s">
-        <v>1038</v>
+        <v>14</v>
       </c>
       <c r="K277" s="4" t="s">
-        <v>1011</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="278" spans="1:16" x14ac:dyDescent="0.25">
@@ -12411,15 +12422,18 @@
         <v>45418</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>1033</v>
+        <v>1039</v>
+      </c>
+      <c r="C278" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="G278" s="32" t="s">
-        <v>1034</v>
+        <v>1040</v>
       </c>
       <c r="H278" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K278" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K278" s="50" t="s">
         <v>1060</v>
       </c>
     </row>
@@ -12428,18 +12442,18 @@
         <v>45418</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G279" s="32" t="s">
         <v>1041</v>
       </c>
       <c r="H279" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K279" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="K279" s="4" t="s">
         <v>1061</v>
       </c>
     </row>
@@ -12451,80 +12465,80 @@
         <v>1043</v>
       </c>
       <c r="C280" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G280" s="32" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H280" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="K280" s="4" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="281" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A281" s="25">
+        <v>45419</v>
+      </c>
+      <c r="B281" s="26" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C281" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D281" s="26">
+        <v>56</v>
+      </c>
+      <c r="E281" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F281" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="G281" s="27" t="s">
+        <v>1045</v>
+      </c>
+      <c r="H281" s="26" t="s">
+        <v>554</v>
+      </c>
+      <c r="I281" s="26" t="s">
+        <v>402</v>
+      </c>
+      <c r="J281" s="26" t="s">
+        <v>1048</v>
+      </c>
+      <c r="K281" s="26" t="s">
+        <v>1047</v>
+      </c>
+      <c r="L281" s="26"/>
+      <c r="M281" s="26"/>
+      <c r="N281" s="26"/>
+      <c r="O281" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="P281" s="26" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="282" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A282" s="31">
+        <v>45419</v>
+      </c>
+      <c r="B282" s="4" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C282" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G280" s="32" t="s">
-        <v>1042</v>
-      </c>
-      <c r="H280" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K280" s="4" t="s">
+      <c r="G282" s="32" t="s">
+        <v>1054</v>
+      </c>
+      <c r="H282" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="K282" s="4" t="s">
         <v>1062</v>
-      </c>
-    </row>
-    <row r="281" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A281" s="31">
-        <v>45418</v>
-      </c>
-      <c r="B281" s="4" t="s">
-        <v>1044</v>
-      </c>
-      <c r="C281" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G281" s="32" t="s">
-        <v>1045</v>
-      </c>
-      <c r="H281" s="4" t="s">
-        <v>554</v>
-      </c>
-      <c r="K281" s="4" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="282" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A282" s="25">
-        <v>45419</v>
-      </c>
-      <c r="B282" s="26" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C282" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D282" s="26">
-        <v>56</v>
-      </c>
-      <c r="E282" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="F282" s="26" t="s">
-        <v>297</v>
-      </c>
-      <c r="G282" s="27" t="s">
-        <v>1046</v>
-      </c>
-      <c r="H282" s="26" t="s">
-        <v>554</v>
-      </c>
-      <c r="I282" s="26" t="s">
-        <v>402</v>
-      </c>
-      <c r="J282" s="26" t="s">
-        <v>1049</v>
-      </c>
-      <c r="K282" s="26" t="s">
-        <v>1048</v>
-      </c>
-      <c r="L282" s="26"/>
-      <c r="M282" s="26"/>
-      <c r="N282" s="26"/>
-      <c r="O282" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="P282" s="26" t="s">
-        <v>1050</v>
       </c>
     </row>
     <row r="283" spans="1:16" x14ac:dyDescent="0.25">
@@ -12532,18 +12546,18 @@
         <v>45419</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G283" s="32" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="H283" s="4" t="s">
         <v>554</v>
       </c>
-      <c r="K283" s="4" t="s">
+      <c r="K283" s="50" t="s">
         <v>1063</v>
       </c>
     </row>
@@ -12552,19 +12566,19 @@
         <v>45419</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G284" s="32" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="H284" s="4" t="s">
         <v>554</v>
       </c>
       <c r="K284" s="50" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="285" spans="1:16" x14ac:dyDescent="0.25">
@@ -12572,77 +12586,80 @@
         <v>45419</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>1058</v>
+        <v>1064</v>
       </c>
       <c r="C285" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G285" s="32" t="s">
+        <v>1065</v>
+      </c>
+      <c r="H285" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K285" s="4" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="286" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A286" s="25">
+        <v>45419</v>
+      </c>
+      <c r="B286" s="26" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C286" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G285" s="32" t="s">
-        <v>1059</v>
-      </c>
-      <c r="H285" s="4" t="s">
+      <c r="D286" s="26"/>
+      <c r="E286" s="26"/>
+      <c r="F286" s="26"/>
+      <c r="G286" s="27" t="s">
+        <v>1066</v>
+      </c>
+      <c r="H286" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="I286" s="26" t="s">
+        <v>1076</v>
+      </c>
+      <c r="J286" s="26" t="s">
+        <v>1077</v>
+      </c>
+      <c r="K286" s="26" t="s">
+        <v>1071</v>
+      </c>
+      <c r="L286" s="26"/>
+      <c r="M286" s="26"/>
+      <c r="N286" s="26"/>
+      <c r="O286" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="P286" s="26" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="287" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A287" s="31">
+        <v>45419</v>
+      </c>
+      <c r="B287" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C287" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G287" s="32" t="s">
+        <v>938</v>
+      </c>
+      <c r="H287" s="4" t="s">
         <v>554</v>
       </c>
-      <c r="K285" s="50" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="286" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A286" s="31">
-        <v>45419</v>
-      </c>
-      <c r="B286" s="4" t="s">
-        <v>1065</v>
-      </c>
-      <c r="C286" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G286" s="32" t="s">
-        <v>1066</v>
-      </c>
-      <c r="H286" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K286" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="287" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A287" s="25">
-        <v>45419</v>
-      </c>
-      <c r="B287" s="26" t="s">
-        <v>1080</v>
-      </c>
-      <c r="C287" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="D287" s="26"/>
-      <c r="E287" s="26"/>
-      <c r="F287" s="26"/>
-      <c r="G287" s="27" t="s">
-        <v>1067</v>
-      </c>
-      <c r="H287" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="I287" s="26" t="s">
-        <v>1077</v>
-      </c>
-      <c r="J287" s="26" t="s">
-        <v>1078</v>
-      </c>
-      <c r="K287" s="26" t="s">
-        <v>1072</v>
-      </c>
-      <c r="L287" s="26"/>
-      <c r="M287" s="26"/>
-      <c r="N287" s="26"/>
-      <c r="O287" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="P287" s="26" t="s">
-        <v>1081</v>
+      <c r="J287" s="4" t="s">
+        <v>1074</v>
+      </c>
+      <c r="K287" s="4" t="s">
+        <v>1073</v>
       </c>
     </row>
     <row r="288" spans="1:16" x14ac:dyDescent="0.25">
@@ -12655,85 +12672,82 @@
       <c r="C288" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="E288" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F288" s="4" t="s">
+        <v>286</v>
+      </c>
       <c r="G288" s="32" t="s">
-        <v>939</v>
+        <v>1070</v>
       </c>
       <c r="H288" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="I288" s="4" t="s">
+        <v>1072</v>
+      </c>
+      <c r="J288" s="4" t="s">
+        <v>1078</v>
+      </c>
+      <c r="K288" s="4" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="289" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A289" s="25">
+        <v>45420</v>
+      </c>
+      <c r="B289" s="26" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C289" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D289" s="26"/>
+      <c r="E289" s="26"/>
+      <c r="F289" s="26"/>
+      <c r="G289" s="27" t="s">
+        <v>1081</v>
+      </c>
+      <c r="H289" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="I289" s="26" t="s">
+        <v>402</v>
+      </c>
+      <c r="J289" s="26"/>
+      <c r="K289" s="26" t="s">
+        <v>1082</v>
+      </c>
+      <c r="L289" s="26"/>
+      <c r="M289" s="26"/>
+      <c r="N289" s="26"/>
+      <c r="O289" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="P289" s="26" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="290" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A290" s="31">
+        <v>45420</v>
+      </c>
+      <c r="B290" s="4" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C290" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G290" s="32" t="s">
+        <v>1085</v>
+      </c>
+      <c r="H290" s="4" t="s">
         <v>554</v>
       </c>
-      <c r="J288" s="4" t="s">
-        <v>1075</v>
-      </c>
-      <c r="K288" s="4" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="289" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A289" s="31">
-        <v>45419</v>
-      </c>
-      <c r="B289" s="4" t="s">
-        <v>1070</v>
-      </c>
-      <c r="C289" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E289" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F289" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="G289" s="32" t="s">
-        <v>1071</v>
-      </c>
-      <c r="H289" s="4" t="s">
-        <v>699</v>
-      </c>
-      <c r="I289" s="4" t="s">
-        <v>1073</v>
-      </c>
-      <c r="J289" s="4" t="s">
-        <v>1079</v>
-      </c>
-      <c r="K289" s="4" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="290" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A290" s="25">
-        <v>45420</v>
-      </c>
-      <c r="B290" s="26" t="s">
-        <v>1085</v>
-      </c>
-      <c r="C290" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D290" s="26"/>
-      <c r="E290" s="26"/>
-      <c r="F290" s="26"/>
-      <c r="G290" s="27" t="s">
-        <v>1082</v>
-      </c>
-      <c r="H290" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="I290" s="26" t="s">
-        <v>402</v>
-      </c>
-      <c r="J290" s="26"/>
-      <c r="K290" s="26" t="s">
-        <v>1083</v>
-      </c>
-      <c r="L290" s="26"/>
-      <c r="M290" s="26"/>
-      <c r="N290" s="26"/>
-      <c r="O290" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="P290" s="26" t="s">
-        <v>1084</v>
+      <c r="K290" s="4" t="s">
+        <v>1089</v>
       </c>
     </row>
     <row r="291" spans="1:16" x14ac:dyDescent="0.25">
@@ -12741,46 +12755,30 @@
         <v>45420</v>
       </c>
       <c r="B291" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C291" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G291" s="32" t="s">
         <v>1087</v>
       </c>
-      <c r="C291" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G291" s="32" t="s">
-        <v>1086</v>
-      </c>
       <c r="H291" s="4" t="s">
-        <v>554</v>
-      </c>
-      <c r="K291" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="I291" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="J291" s="4" t="s">
         <v>1090</v>
       </c>
+      <c r="K291" s="50" t="s">
+        <v>1082</v>
+      </c>
     </row>
     <row r="292" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A292" s="31">
-        <v>45420</v>
-      </c>
-      <c r="B292" s="4" t="s">
-        <v>1089</v>
-      </c>
-      <c r="C292" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G292" s="32" t="s">
-        <v>1088</v>
-      </c>
-      <c r="H292" s="4" t="s">
-        <v>699</v>
-      </c>
-      <c r="I292" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="J292" s="4" t="s">
-        <v>1091</v>
-      </c>
-      <c r="K292" s="50" t="s">
-        <v>1083</v>
-      </c>
+      <c r="A292" s="31"/>
+      <c r="G292" s="32"/>
     </row>
     <row r="293" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A293" s="31"/>
@@ -19569,25 +19567,21 @@
     <row r="1989" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1989" s="31"/>
       <c r="G1989" s="32"/>
-    </row>
-    <row r="1990" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1990" s="31"/>
-      <c r="G1990" s="32"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C144 C146:C1990" xr:uid="{5621FDED-ABF2-43E6-AC50-2601095590B7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C144 C146:C1989" xr:uid="{5621FDED-ABF2-43E6-AC50-2601095590B7}">
       <formula1>INDIRECT($C$1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1990" xr:uid="{F688FC34-E833-4CD7-A4D5-C5F546A92EE3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1989" xr:uid="{F688FC34-E833-4CD7-A4D5-C5F546A92EE3}">
       <formula1>INDIRECT($O$1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1990" xr:uid="{93647A22-8740-4623-B66D-0B97A8FAEE52}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1989" xr:uid="{93647A22-8740-4623-B66D-0B97A8FAEE52}">
       <formula1>INDIRECT($H$1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1990" xr:uid="{B5802FD3-4B31-4E49-86A2-E564AC5434C7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1989" xr:uid="{B5802FD3-4B31-4E49-86A2-E564AC5434C7}">
       <formula1>INDIRECT($E$1)</formula1>
     </dataValidation>
   </dataValidations>
@@ -19669,7 +19663,7 @@
         <v>113</v>
       </c>
       <c r="C5" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
@@ -19710,7 +19704,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D9" t="s">
         <v>30</v>

--- a/Lead.xlsx
+++ b/Lead.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodrigo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{387E114F-8424-43A6-8E6C-E500B0A2EC65}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72382FB-FDB9-48EA-A292-66B291A4DB32}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4065,9 +4065,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q1989"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A227" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A232" sqref="A232:XFD232"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A187" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A208" sqref="A208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10575,7 +10575,7 @@
     </row>
     <row r="208" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A208" s="31">
-        <v>45469</v>
+        <v>45408</v>
       </c>
       <c r="B208" s="4" t="s">
         <v>759</v>
@@ -19571,7 +19571,7 @@
   </sheetData>
   <dataConsolidate/>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="4">
+  <dataValidations disablePrompts="1" count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C144 C146:C1989" xr:uid="{5621FDED-ABF2-43E6-AC50-2601095590B7}">
       <formula1>INDIRECT($C$1)</formula1>
     </dataValidation>
@@ -19595,7 +19595,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Lead.xlsx
+++ b/Lead.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodrigo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72382FB-FDB9-48EA-A292-66B291A4DB32}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D118DBB6-5A35-4777-961B-992C0A53D58C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4063,11 +4063,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q1989"/>
+  <dimension ref="A1:P1989"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A187" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A208" sqref="A208"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4084,14 +4084,13 @@
     <col min="10" max="10" width="22.28515625" style="4" customWidth="1"/>
     <col min="11" max="11" width="10.140625" style="4" customWidth="1"/>
     <col min="12" max="12" width="11" style="4" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" style="4" customWidth="1"/>
-    <col min="14" max="14" width="13.28515625" style="4" customWidth="1"/>
-    <col min="15" max="15" width="13.85546875" style="4" customWidth="1"/>
-    <col min="16" max="16" width="22.28515625" style="4" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="4"/>
+    <col min="13" max="13" width="61.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" style="4" customWidth="1"/>
+    <col min="15" max="15" width="22.28515625" style="4" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4131,15 +4130,14 @@
       <c r="M1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="1"/>
+      <c r="N1" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="O1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P1" s="1" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>45383</v>
       </c>
@@ -4175,15 +4173,14 @@
       <c r="M2" s="6" t="s">
         <v>835</v>
       </c>
-      <c r="N2" s="6"/>
+      <c r="N2" s="6" t="s">
+        <v>261</v>
+      </c>
       <c r="O2" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="P2" s="6" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>45383</v>
       </c>
@@ -4217,15 +4214,14 @@
       <c r="M3" s="9" t="s">
         <v>835</v>
       </c>
-      <c r="N3" s="9"/>
+      <c r="N3" s="9" t="s">
+        <v>20</v>
+      </c>
       <c r="O3" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="P3" s="9" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>45384</v>
       </c>
@@ -4257,15 +4253,14 @@
       <c r="M4" s="12" t="s">
         <v>969</v>
       </c>
-      <c r="N4" s="12"/>
+      <c r="N4" s="12" t="s">
+        <v>1018</v>
+      </c>
       <c r="O4" s="12" t="s">
-        <v>1018</v>
-      </c>
-      <c r="P4" s="12" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>45384</v>
       </c>
@@ -4291,15 +4286,14 @@
       </c>
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
+      <c r="N5" s="15" t="s">
+        <v>51</v>
+      </c>
       <c r="O5" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="P5" s="15" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>45384</v>
       </c>
@@ -4329,15 +4323,14 @@
       </c>
       <c r="L6" s="15"/>
       <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
+      <c r="N6" s="15" t="s">
+        <v>51</v>
+      </c>
       <c r="O6" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="P6" s="15" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <v>45384</v>
       </c>
@@ -4371,16 +4364,15 @@
       <c r="M7" s="18" t="s">
         <v>353</v>
       </c>
-      <c r="N7" s="18"/>
+      <c r="N7" s="18" t="s">
+        <v>262</v>
+      </c>
       <c r="O7" s="18" t="s">
-        <v>262</v>
-      </c>
-      <c r="P7" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="Q7" s="60"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P7" s="60"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>45384</v>
       </c>
@@ -4410,15 +4402,14 @@
       </c>
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
+      <c r="N8" s="15" t="s">
+        <v>51</v>
+      </c>
       <c r="O8" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="P8" s="15" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>45385</v>
       </c>
@@ -4448,13 +4439,12 @@
       <c r="M9" s="12" t="s">
         <v>835</v>
       </c>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12" t="s">
+      <c r="N9" s="12" t="s">
         <v>1018</v>
       </c>
-      <c r="P9" s="12"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O9" s="12"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>45385</v>
       </c>
@@ -4488,15 +4478,14 @@
       <c r="M10" s="9" t="s">
         <v>835</v>
       </c>
-      <c r="N10" s="9"/>
+      <c r="N10" s="9" t="s">
+        <v>20</v>
+      </c>
       <c r="O10" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="P10" s="9" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>45385</v>
       </c>
@@ -4522,15 +4511,14 @@
       </c>
       <c r="L11" s="15"/>
       <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
+      <c r="N11" s="15" t="s">
+        <v>51</v>
+      </c>
       <c r="O11" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="P11" s="15" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>45385</v>
       </c>
@@ -4554,15 +4542,14 @@
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
       <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
+      <c r="N12" s="15" t="s">
+        <v>51</v>
+      </c>
       <c r="O12" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="P12" s="15" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>45385</v>
       </c>
@@ -4592,13 +4579,12 @@
       <c r="M13" s="12" t="s">
         <v>969</v>
       </c>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12" t="s">
+      <c r="N13" s="12" t="s">
         <v>1018</v>
       </c>
-      <c r="P13" s="12"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O13" s="12"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>45385</v>
       </c>
@@ -4630,13 +4616,12 @@
       <c r="M14" s="9" t="s">
         <v>969</v>
       </c>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9" t="s">
+      <c r="N14" s="9" t="s">
         <v>1018</v>
       </c>
-      <c r="P14" s="9"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O14" s="9"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="22">
         <v>45385</v>
       </c>
@@ -4674,15 +4659,14 @@
       <c r="M15" s="23" t="s">
         <v>969</v>
       </c>
-      <c r="N15" s="23"/>
+      <c r="N15" s="23" t="s">
+        <v>261</v>
+      </c>
       <c r="O15" s="23" t="s">
-        <v>261</v>
-      </c>
-      <c r="P15" s="23" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>45385</v>
       </c>
@@ -4710,13 +4694,12 @@
       <c r="M16" s="12" t="s">
         <v>970</v>
       </c>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12" t="s">
+      <c r="N16" s="12" t="s">
         <v>1018</v>
       </c>
-      <c r="P16" s="12"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O16" s="12"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="17">
         <v>45385</v>
       </c>
@@ -4748,15 +4731,14 @@
         <v>373</v>
       </c>
       <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
+      <c r="N17" s="18" t="s">
+        <v>50</v>
+      </c>
       <c r="O17" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="P17" s="18" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="28">
         <v>45386</v>
       </c>
@@ -4788,10 +4770,9 @@
       <c r="M18" s="29"/>
       <c r="N18" s="29"/>
       <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="60"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P18" s="60"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="17">
         <v>45386</v>
       </c>
@@ -4825,16 +4806,15 @@
         <v>387</v>
       </c>
       <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
+      <c r="N19" s="18" t="s">
+        <v>1018</v>
+      </c>
       <c r="O19" s="18" t="s">
-        <v>1018</v>
-      </c>
-      <c r="P19" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="Q19" s="60"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P19" s="60"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>45386</v>
       </c>
@@ -4870,9 +4850,8 @@
       </c>
       <c r="N20" s="9"/>
       <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="31">
         <v>45386</v>
       </c>
@@ -4894,14 +4873,14 @@
       <c r="L21" s="4" t="s">
         <v>390</v>
       </c>
+      <c r="N21" s="4" t="s">
+        <v>1018</v>
+      </c>
       <c r="O21" s="4" t="s">
-        <v>1018</v>
-      </c>
-      <c r="P21" s="4" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="31">
         <v>45386</v>
       </c>
@@ -4932,14 +4911,14 @@
       <c r="M22" s="4" t="s">
         <v>838</v>
       </c>
+      <c r="N22" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="O22" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="P22" s="4" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="31">
         <v>45386</v>
       </c>
@@ -4976,11 +4955,11 @@
       <c r="M23" s="4" t="s">
         <v>839</v>
       </c>
-      <c r="O23" s="4" t="s">
+      <c r="N23" s="4" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="31">
         <v>45386</v>
       </c>
@@ -5006,7 +4985,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="22">
         <v>45387</v>
       </c>
@@ -5038,16 +5017,15 @@
         <v>403</v>
       </c>
       <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
+      <c r="N25" s="23" t="s">
+        <v>50</v>
+      </c>
       <c r="O25" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="P25" s="23" t="s">
         <v>400</v>
       </c>
-      <c r="Q25" s="60"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P25" s="60"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>45387</v>
       </c>
@@ -5073,15 +5051,14 @@
       </c>
       <c r="L26" s="15"/>
       <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
+      <c r="N26" s="15" t="s">
+        <v>51</v>
+      </c>
       <c r="O26" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="P26" s="15" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="31">
         <v>45387</v>
       </c>
@@ -5107,7 +5084,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="31">
         <v>45387</v>
       </c>
@@ -5132,14 +5109,14 @@
       <c r="L28" s="4" t="s">
         <v>405</v>
       </c>
+      <c r="N28" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="O28" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="P28" s="4" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>45387</v>
       </c>
@@ -5177,9 +5154,8 @@
       <c r="M29" s="9"/>
       <c r="N29" s="9"/>
       <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="31">
         <v>45387</v>
       </c>
@@ -5202,7 +5178,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="31">
         <v>45387</v>
       </c>
@@ -5222,7 +5198,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="31">
         <v>45387</v>
       </c>
@@ -5245,7 +5221,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="17">
         <v>45387</v>
       </c>
@@ -5277,16 +5253,15 @@
         <v>411</v>
       </c>
       <c r="M33" s="18"/>
-      <c r="N33" s="18"/>
+      <c r="N33" s="18" t="s">
+        <v>261</v>
+      </c>
       <c r="O33" s="18" t="s">
-        <v>261</v>
-      </c>
-      <c r="P33" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="Q33" s="60"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P33" s="60"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="31">
         <v>45387</v>
       </c>
@@ -5309,7 +5284,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="22">
         <v>45387</v>
       </c>
@@ -5335,15 +5310,14 @@
       </c>
       <c r="L35" s="23"/>
       <c r="M35" s="23"/>
-      <c r="N35" s="23"/>
+      <c r="N35" s="23" t="s">
+        <v>261</v>
+      </c>
       <c r="O35" s="23" t="s">
-        <v>261</v>
-      </c>
-      <c r="P35" s="23" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="31">
         <v>45387</v>
       </c>
@@ -5366,7 +5340,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="31">
         <v>45387</v>
       </c>
@@ -5395,7 +5369,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="28">
         <v>45387</v>
       </c>
@@ -5433,10 +5407,9 @@
       <c r="M38" s="29"/>
       <c r="N38" s="29"/>
       <c r="O38" s="29"/>
-      <c r="P38" s="29"/>
-      <c r="Q38" s="60"/>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P38" s="60"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="31">
         <v>45388</v>
       </c>
@@ -5468,7 +5441,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="31">
         <v>45388</v>
       </c>
@@ -5494,7 +5467,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="31">
         <v>45388</v>
       </c>
@@ -5517,7 +5490,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <v>45388</v>
       </c>
@@ -5549,9 +5522,8 @@
       <c r="M42" s="9"/>
       <c r="N42" s="9"/>
       <c r="O42" s="9"/>
-      <c r="P42" s="9"/>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <v>45388</v>
       </c>
@@ -5587,9 +5559,8 @@
       <c r="M43" s="9"/>
       <c r="N43" s="9"/>
       <c r="O43" s="9"/>
-      <c r="P43" s="9"/>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <v>45388</v>
       </c>
@@ -5619,9 +5590,8 @@
       <c r="M44" s="9"/>
       <c r="N44" s="9"/>
       <c r="O44" s="9"/>
-      <c r="P44" s="9"/>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="31">
         <v>45388</v>
       </c>
@@ -5647,7 +5617,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="31">
         <v>45388</v>
       </c>
@@ -5673,7 +5643,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="35">
         <v>45388</v>
       </c>
@@ -5705,13 +5675,12 @@
       </c>
       <c r="L47" s="37"/>
       <c r="M47" s="37"/>
-      <c r="N47" s="37"/>
-      <c r="O47" s="36" t="s">
+      <c r="N47" s="36" t="s">
         <v>262</v>
       </c>
-      <c r="P47" s="37"/>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O47" s="37"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="31">
         <v>45388</v>
       </c>
@@ -5737,7 +5706,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="31">
         <v>45388</v>
       </c>
@@ -5760,7 +5729,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="31">
         <v>45388</v>
       </c>
@@ -5783,7 +5752,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="31">
         <v>45388</v>
       </c>
@@ -5805,11 +5774,11 @@
       <c r="L51" s="4" t="s">
         <v>472</v>
       </c>
-      <c r="P51" s="4" t="s">
+      <c r="O51" s="4" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="31">
         <v>45388</v>
       </c>
@@ -5838,7 +5807,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="31">
         <v>45388</v>
       </c>
@@ -5864,7 +5833,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="31">
         <v>45388</v>
       </c>
@@ -5896,7 +5865,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="35">
         <v>45389</v>
       </c>
@@ -5926,13 +5895,12 @@
       </c>
       <c r="L55" s="36"/>
       <c r="M55" s="37"/>
-      <c r="N55" s="37"/>
-      <c r="O55" s="36" t="s">
+      <c r="N55" s="36" t="s">
         <v>262</v>
       </c>
-      <c r="P55" s="36"/>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O55" s="36"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="28">
         <v>45389</v>
       </c>
@@ -5966,10 +5934,9 @@
       <c r="M56" s="29"/>
       <c r="N56" s="29"/>
       <c r="O56" s="29"/>
-      <c r="P56" s="29"/>
-      <c r="Q56" s="60"/>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P56" s="60"/>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="14">
         <v>45389</v>
       </c>
@@ -6003,15 +5970,14 @@
         <v>150</v>
       </c>
       <c r="M57" s="15"/>
-      <c r="N57" s="15"/>
-      <c r="O57" s="15" t="s">
+      <c r="N57" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="P57" s="41">
+      <c r="O57" s="41">
         <v>45397</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="31">
         <v>45389</v>
       </c>
@@ -6037,7 +6003,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="31">
         <v>45389</v>
       </c>
@@ -6060,7 +6026,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="31">
         <v>45389</v>
       </c>
@@ -6089,7 +6055,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="62">
         <v>45389</v>
       </c>
@@ -6121,15 +6087,14 @@
         <v>843</v>
       </c>
       <c r="M61" s="63"/>
-      <c r="N61" s="63"/>
+      <c r="N61" s="63" t="s">
+        <v>51</v>
+      </c>
       <c r="O61" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="P61" s="63" t="s">
         <v>1050</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="31">
         <v>45389</v>
       </c>
@@ -6155,7 +6120,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="31">
         <v>45389</v>
       </c>
@@ -6184,7 +6149,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="31">
         <v>45390</v>
       </c>
@@ -6213,7 +6178,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="42">
         <v>45390</v>
       </c>
@@ -6243,13 +6208,12 @@
       </c>
       <c r="L65" s="43"/>
       <c r="M65" s="43"/>
-      <c r="N65" s="43"/>
-      <c r="O65" s="39" t="s">
+      <c r="N65" s="39" t="s">
         <v>187</v>
       </c>
-      <c r="P65" s="43"/>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O65" s="43"/>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="31">
         <v>45390</v>
       </c>
@@ -6272,7 +6236,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="14">
         <v>45390</v>
       </c>
@@ -6302,15 +6266,14 @@
         <v>493</v>
       </c>
       <c r="M67" s="15"/>
-      <c r="N67" s="15"/>
-      <c r="O67" s="15" t="s">
+      <c r="N67" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="P67" s="41">
+      <c r="O67" s="41">
         <v>45391</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="31">
         <v>45390</v>
       </c>
@@ -6333,7 +6296,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="31">
         <v>45390</v>
       </c>
@@ -6356,7 +6319,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="22">
         <v>45390</v>
       </c>
@@ -6388,16 +6351,15 @@
       <c r="M70" s="23" t="s">
         <v>844</v>
       </c>
-      <c r="N70" s="23"/>
+      <c r="N70" s="23" t="s">
+        <v>261</v>
+      </c>
       <c r="O70" s="23" t="s">
-        <v>261</v>
-      </c>
-      <c r="P70" s="23" t="s">
         <v>301</v>
       </c>
-      <c r="Q70" s="60"/>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P70" s="60"/>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="31">
         <v>45390</v>
       </c>
@@ -6426,7 +6388,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="22">
         <v>45391</v>
       </c>
@@ -6462,16 +6424,15 @@
         <v>608</v>
       </c>
       <c r="M72" s="23"/>
-      <c r="N72" s="23"/>
+      <c r="N72" s="23" t="s">
+        <v>261</v>
+      </c>
       <c r="O72" s="23" t="s">
-        <v>261</v>
-      </c>
-      <c r="P72" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="Q72" s="60"/>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P72" s="60"/>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="31">
         <v>45391</v>
       </c>
@@ -6491,7 +6452,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="22">
         <v>45391</v>
       </c>
@@ -6527,16 +6488,15 @@
         <v>609</v>
       </c>
       <c r="M74" s="23"/>
-      <c r="N74" s="23"/>
+      <c r="N74" s="23" t="s">
+        <v>261</v>
+      </c>
       <c r="O74" s="23" t="s">
-        <v>261</v>
-      </c>
-      <c r="P74" s="23" t="s">
         <v>217</v>
       </c>
-      <c r="Q74" s="60"/>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P74" s="60"/>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="52">
         <v>45391</v>
       </c>
@@ -6572,9 +6532,8 @@
       <c r="M75" s="53"/>
       <c r="N75" s="53"/>
       <c r="O75" s="53"/>
-      <c r="P75" s="53"/>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="8">
         <v>45391</v>
       </c>
@@ -6605,13 +6564,12 @@
       </c>
       <c r="M76" s="9"/>
       <c r="N76" s="9"/>
-      <c r="O76" s="9"/>
-      <c r="P76" s="45" t="s">
+      <c r="O76" s="45" t="s">
         <v>218</v>
       </c>
-      <c r="Q76" s="60"/>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P76" s="60"/>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="8">
         <v>45391</v>
       </c>
@@ -6645,9 +6603,8 @@
       </c>
       <c r="N77" s="9"/>
       <c r="O77" s="9"/>
-      <c r="P77" s="9"/>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="17">
         <v>45391</v>
       </c>
@@ -6679,9 +6636,8 @@
       <c r="M78" s="18"/>
       <c r="N78" s="18"/>
       <c r="O78" s="18"/>
-      <c r="P78" s="18"/>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="17">
         <v>45391</v>
       </c>
@@ -6709,13 +6665,12 @@
       </c>
       <c r="L79" s="51"/>
       <c r="M79" s="51"/>
-      <c r="N79" s="51"/>
-      <c r="O79" s="18" t="s">
+      <c r="N79" s="18" t="s">
         <v>187</v>
       </c>
-      <c r="P79" s="51"/>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O79" s="51"/>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="17">
         <v>45391</v>
       </c>
@@ -6745,13 +6700,12 @@
       </c>
       <c r="L80" s="18"/>
       <c r="M80" s="18"/>
-      <c r="N80" s="18"/>
-      <c r="O80" s="18" t="s">
+      <c r="N80" s="18" t="s">
         <v>262</v>
       </c>
-      <c r="P80" s="18"/>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O80" s="18"/>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" s="31">
         <v>45392</v>
       </c>
@@ -6774,7 +6728,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" s="35">
         <v>45392</v>
       </c>
@@ -6806,13 +6760,12 @@
       </c>
       <c r="L82" s="37"/>
       <c r="M82" s="37"/>
-      <c r="N82" s="37"/>
-      <c r="O82" s="36" t="s">
+      <c r="N82" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="P82" s="37"/>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O82" s="37"/>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" s="31">
         <v>45392</v>
       </c>
@@ -6835,7 +6788,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" s="31">
         <v>45392</v>
       </c>
@@ -6870,7 +6823,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" s="22">
         <v>45392</v>
       </c>
@@ -6902,16 +6855,15 @@
       </c>
       <c r="L85" s="23"/>
       <c r="M85" s="23"/>
-      <c r="N85" s="23"/>
+      <c r="N85" s="23" t="s">
+        <v>261</v>
+      </c>
       <c r="O85" s="23" t="s">
-        <v>261</v>
-      </c>
-      <c r="P85" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="Q85" s="60"/>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P85" s="60"/>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" s="31">
         <v>45392</v>
       </c>
@@ -6934,7 +6886,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="35">
         <v>45393</v>
       </c>
@@ -6966,13 +6918,12 @@
       </c>
       <c r="L87" s="43"/>
       <c r="M87" s="43"/>
-      <c r="N87" s="43"/>
-      <c r="O87" s="39" t="s">
+      <c r="N87" s="39" t="s">
         <v>187</v>
       </c>
-      <c r="P87" s="43"/>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O87" s="43"/>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" s="31">
         <v>45393</v>
       </c>
@@ -7001,7 +6952,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" s="31">
         <v>45393</v>
       </c>
@@ -7030,7 +6981,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" s="8">
         <v>45393</v>
       </c>
@@ -7066,9 +7017,8 @@
       <c r="M90" s="9"/>
       <c r="N90" s="9"/>
       <c r="O90" s="9"/>
-      <c r="P90" s="9"/>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" s="25">
         <v>45393</v>
       </c>
@@ -7104,15 +7054,14 @@
         <v>240</v>
       </c>
       <c r="M91" s="26"/>
-      <c r="N91" s="26"/>
+      <c r="N91" s="26" t="s">
+        <v>50</v>
+      </c>
       <c r="O91" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="P91" s="26" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" s="31">
         <v>45393</v>
       </c>
@@ -7147,7 +7096,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" s="31">
         <v>45393</v>
       </c>
@@ -7182,7 +7131,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" s="31">
         <v>45393</v>
       </c>
@@ -7208,7 +7157,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" s="22">
         <v>45393</v>
       </c>
@@ -7242,15 +7191,14 @@
         <v>250</v>
       </c>
       <c r="M95" s="23"/>
-      <c r="N95" s="23"/>
+      <c r="N95" s="23" t="s">
+        <v>261</v>
+      </c>
       <c r="O95" s="23" t="s">
-        <v>261</v>
-      </c>
-      <c r="P95" s="23" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" s="8">
         <v>45394</v>
       </c>
@@ -7284,9 +7232,8 @@
       <c r="M96" s="9"/>
       <c r="N96" s="9"/>
       <c r="O96" s="9"/>
-      <c r="P96" s="9"/>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="31">
         <v>45394</v>
       </c>
@@ -7306,7 +7253,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="8">
         <v>45394</v>
       </c>
@@ -7334,9 +7281,8 @@
       <c r="M98" s="9"/>
       <c r="N98" s="9"/>
       <c r="O98" s="9"/>
-      <c r="P98" s="9"/>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="11">
         <v>45394</v>
       </c>
@@ -7364,9 +7310,8 @@
       <c r="M99" s="12"/>
       <c r="N99" s="12"/>
       <c r="O99" s="12"/>
-      <c r="P99" s="12"/>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="11">
         <v>45394</v>
       </c>
@@ -7394,9 +7339,8 @@
       <c r="M100" s="12"/>
       <c r="N100" s="12"/>
       <c r="O100" s="12"/>
-      <c r="P100" s="12"/>
-    </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="31">
         <v>45395</v>
       </c>
@@ -7425,7 +7369,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="31">
         <v>45395</v>
       </c>
@@ -7454,7 +7398,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="31">
         <v>45395</v>
       </c>
@@ -7463,7 +7407,7 @@
       </c>
       <c r="G103" s="32"/>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="31">
         <v>45395</v>
       </c>
@@ -7492,7 +7436,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="8">
         <v>45395</v>
       </c>
@@ -7526,9 +7470,8 @@
       <c r="M105" s="9"/>
       <c r="N105" s="9"/>
       <c r="O105" s="9"/>
-      <c r="P105" s="9"/>
-    </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="8">
         <v>45395</v>
       </c>
@@ -7564,9 +7507,8 @@
       <c r="M106" s="9"/>
       <c r="N106" s="9"/>
       <c r="O106" s="9"/>
-      <c r="P106" s="9"/>
-    </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" s="31">
         <v>45395</v>
       </c>
@@ -7586,7 +7528,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" s="31">
         <v>45395</v>
       </c>
@@ -7606,7 +7548,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="31">
         <v>45395</v>
       </c>
@@ -7629,7 +7571,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" s="31">
         <v>45395</v>
       </c>
@@ -7652,7 +7594,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="31">
         <v>45396</v>
       </c>
@@ -7672,7 +7614,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" s="31">
         <v>45396</v>
       </c>
@@ -7692,7 +7634,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="8">
         <v>45396</v>
       </c>
@@ -7728,9 +7670,8 @@
       <c r="M113" s="9"/>
       <c r="N113" s="9"/>
       <c r="O113" s="9"/>
-      <c r="P113" s="9"/>
-    </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" s="14">
         <v>45396</v>
       </c>
@@ -7762,15 +7703,14 @@
       </c>
       <c r="L114" s="15"/>
       <c r="M114" s="15"/>
-      <c r="N114" s="15"/>
+      <c r="N114" s="15" t="s">
+        <v>51</v>
+      </c>
       <c r="O114" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="P114" s="15" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" s="31">
         <v>45396</v>
       </c>
@@ -7790,7 +7730,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" s="31">
         <v>45396</v>
       </c>
@@ -7810,7 +7750,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="8">
         <v>45396</v>
       </c>
@@ -7844,9 +7784,8 @@
       <c r="M117" s="9"/>
       <c r="N117" s="9"/>
       <c r="O117" s="9"/>
-      <c r="P117" s="9"/>
-    </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="22">
         <v>45397</v>
       </c>
@@ -7878,15 +7817,14 @@
       </c>
       <c r="L118" s="23"/>
       <c r="M118" s="23"/>
-      <c r="N118" s="23"/>
+      <c r="N118" s="23" t="s">
+        <v>261</v>
+      </c>
       <c r="O118" s="23" t="s">
-        <v>261</v>
-      </c>
-      <c r="P118" s="23" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" s="8">
         <v>45397</v>
       </c>
@@ -7922,9 +7860,8 @@
       <c r="M119" s="9"/>
       <c r="N119" s="9"/>
       <c r="O119" s="9"/>
-      <c r="P119" s="9"/>
-    </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" s="31">
         <v>45397</v>
       </c>
@@ -7959,7 +7896,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" s="14">
         <v>45397</v>
       </c>
@@ -7991,15 +7928,14 @@
       </c>
       <c r="L121" s="15"/>
       <c r="M121" s="15"/>
-      <c r="N121" s="15"/>
+      <c r="N121" s="15" t="s">
+        <v>51</v>
+      </c>
       <c r="O121" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="P121" s="15" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" s="31">
         <v>45397</v>
       </c>
@@ -8033,11 +7969,11 @@
       <c r="L122" s="4" t="s">
         <v>953</v>
       </c>
-      <c r="P122" s="4" t="s">
+      <c r="O122" s="4" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" s="31">
         <v>45398</v>
       </c>
@@ -8069,7 +8005,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" s="22">
         <v>45398</v>
       </c>
@@ -8103,15 +8039,14 @@
         <v>954</v>
       </c>
       <c r="M124" s="23"/>
-      <c r="N124" s="23"/>
+      <c r="N124" s="23" t="s">
+        <v>261</v>
+      </c>
       <c r="O124" s="23" t="s">
-        <v>261</v>
-      </c>
-      <c r="P124" s="23" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" s="14">
         <v>45398</v>
       </c>
@@ -8135,15 +8070,14 @@
       </c>
       <c r="L125" s="15"/>
       <c r="M125" s="15"/>
-      <c r="N125" s="15"/>
+      <c r="N125" s="15" t="s">
+        <v>51</v>
+      </c>
       <c r="O125" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="P125" s="15" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" s="8">
         <v>45398</v>
       </c>
@@ -8176,12 +8110,11 @@
       </c>
       <c r="M126" s="9"/>
       <c r="N126" s="9"/>
-      <c r="O126" s="9"/>
-      <c r="P126" s="9" t="s">
+      <c r="O126" s="9" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" s="31">
         <v>45398</v>
       </c>
@@ -8201,7 +8134,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" s="31">
         <v>45398</v>
       </c>
@@ -8224,7 +8157,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" s="31">
         <v>45399</v>
       </c>
@@ -8244,7 +8177,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" s="8">
         <v>45399</v>
       </c>
@@ -8281,12 +8214,11 @@
       </c>
       <c r="M130" s="9"/>
       <c r="N130" s="9"/>
-      <c r="O130" s="9"/>
-      <c r="P130" s="9" t="s">
+      <c r="O130" s="9" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" s="31">
         <v>45399</v>
       </c>
@@ -8309,7 +8241,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" s="31">
         <v>45399</v>
       </c>
@@ -8335,7 +8267,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" s="22">
         <v>45399</v>
       </c>
@@ -8367,15 +8299,14 @@
         <v>953</v>
       </c>
       <c r="M133" s="23"/>
-      <c r="N133" s="23"/>
+      <c r="N133" s="23" t="s">
+        <v>261</v>
+      </c>
       <c r="O133" s="23" t="s">
-        <v>261</v>
-      </c>
-      <c r="P133" s="23" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" s="31">
         <v>45399</v>
       </c>
@@ -8398,7 +8329,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" s="61">
         <v>45399</v>
       </c>
@@ -8430,15 +8361,14 @@
         <v>649</v>
       </c>
       <c r="M135" s="15"/>
-      <c r="N135" s="15"/>
+      <c r="N135" s="15" t="s">
+        <v>51</v>
+      </c>
       <c r="O135" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="P135" s="15" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" s="17">
         <v>45399</v>
       </c>
@@ -8466,9 +8396,8 @@
       <c r="M136" s="18"/>
       <c r="N136" s="18"/>
       <c r="O136" s="18"/>
-      <c r="P136" s="18"/>
-    </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" s="17">
         <v>45399</v>
       </c>
@@ -8504,9 +8433,8 @@
       <c r="M137" s="18"/>
       <c r="N137" s="18"/>
       <c r="O137" s="18"/>
-      <c r="P137" s="18"/>
-    </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" s="31">
         <v>45399</v>
       </c>
@@ -8526,7 +8454,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" s="31">
         <v>45399</v>
       </c>
@@ -8549,7 +8477,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" s="31">
         <v>45400</v>
       </c>
@@ -8578,7 +8506,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" s="31">
         <v>45400</v>
       </c>
@@ -8606,11 +8534,11 @@
       <c r="M141" s="4" t="s">
         <v>953</v>
       </c>
-      <c r="P141" s="4" t="s">
+      <c r="O141" s="4" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" s="31">
         <v>45400</v>
       </c>
@@ -8636,7 +8564,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" s="28">
         <v>45400</v>
       </c>
@@ -8670,9 +8598,8 @@
       <c r="M143" s="29"/>
       <c r="N143" s="29"/>
       <c r="O143" s="29"/>
-      <c r="P143" s="29"/>
-    </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" s="31">
         <v>45400</v>
       </c>
@@ -8701,7 +8628,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" s="31">
         <v>45401</v>
       </c>
@@ -8733,7 +8660,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" s="8">
         <v>45401</v>
       </c>
@@ -8763,9 +8690,8 @@
       <c r="M146" s="9"/>
       <c r="N146" s="9"/>
       <c r="O146" s="9"/>
-      <c r="P146" s="9"/>
-    </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" s="28">
         <v>45401</v>
       </c>
@@ -8803,9 +8729,8 @@
       <c r="M147" s="29"/>
       <c r="N147" s="29"/>
       <c r="O147" s="29"/>
-      <c r="P147" s="29"/>
-    </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" s="31">
         <v>45401</v>
       </c>
@@ -8824,11 +8749,11 @@
       <c r="K148" s="50" t="s">
         <v>505</v>
       </c>
-      <c r="O148" s="4" t="s">
+      <c r="N148" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" s="31">
         <v>45402</v>
       </c>
@@ -8851,7 +8776,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" s="31">
         <v>45402</v>
       </c>
@@ -8873,11 +8798,11 @@
       <c r="L150" s="4" t="s">
         <v>954</v>
       </c>
-      <c r="O150" s="4" t="s">
+      <c r="N150" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" s="31">
         <v>45402</v>
       </c>
@@ -8903,7 +8828,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" s="31">
         <v>45402</v>
       </c>
@@ -8923,7 +8848,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" s="31">
         <v>45402</v>
       </c>
@@ -8943,7 +8868,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" s="31">
         <v>45402</v>
       </c>
@@ -8963,7 +8888,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155" s="31">
         <v>45402</v>
       </c>
@@ -8983,7 +8908,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" s="31">
         <v>45402</v>
       </c>
@@ -9003,7 +8928,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157" s="31">
         <v>45402</v>
       </c>
@@ -9026,7 +8951,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158" s="17">
         <v>45403</v>
       </c>
@@ -9053,10 +8978,9 @@
       <c r="L158" s="18"/>
       <c r="M158" s="18"/>
       <c r="N158" s="18"/>
-      <c r="O158" s="18"/>
-      <c r="P158" s="51"/>
-    </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O158" s="51"/>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159" s="31">
         <v>45403</v>
       </c>
@@ -9079,7 +9003,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160" s="31">
         <v>45403</v>
       </c>
@@ -9102,7 +9026,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161" s="8">
         <v>45403</v>
       </c>
@@ -9134,9 +9058,8 @@
       <c r="M161" s="9"/>
       <c r="N161" s="9"/>
       <c r="O161" s="9"/>
-      <c r="P161" s="9"/>
-    </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" s="17">
         <v>45403</v>
       </c>
@@ -9166,9 +9089,8 @@
       <c r="M162" s="18"/>
       <c r="N162" s="18"/>
       <c r="O162" s="18"/>
-      <c r="P162" s="18"/>
-    </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" s="17">
         <v>45403</v>
       </c>
@@ -9198,9 +9120,8 @@
       <c r="M163" s="18"/>
       <c r="N163" s="18"/>
       <c r="O163" s="18"/>
-      <c r="P163" s="18"/>
-    </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" s="31">
         <v>45403</v>
       </c>
@@ -9220,7 +9141,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165" s="8">
         <v>45404</v>
       </c>
@@ -9254,9 +9175,8 @@
       <c r="M165" s="9"/>
       <c r="N165" s="9"/>
       <c r="O165" s="9"/>
-      <c r="P165" s="9"/>
-    </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166" s="14">
         <v>45404</v>
       </c>
@@ -9292,15 +9212,14 @@
       </c>
       <c r="L166" s="15"/>
       <c r="M166" s="15"/>
-      <c r="N166" s="15"/>
+      <c r="N166" s="15" t="s">
+        <v>51</v>
+      </c>
       <c r="O166" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="P166" s="15" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167" s="14">
         <v>45404</v>
       </c>
@@ -9332,15 +9251,14 @@
       </c>
       <c r="L167" s="15"/>
       <c r="M167" s="15"/>
-      <c r="N167" s="15"/>
+      <c r="N167" s="15" t="s">
+        <v>51</v>
+      </c>
       <c r="O167" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="P167" s="15" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168" s="31">
         <v>45404</v>
       </c>
@@ -9366,7 +9284,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169" s="31">
         <v>45404</v>
       </c>
@@ -9389,7 +9307,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170" s="31">
         <v>45404</v>
       </c>
@@ -9415,7 +9333,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171" s="31">
         <v>45404</v>
       </c>
@@ -9435,7 +9353,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" s="14">
         <v>45404</v>
       </c>
@@ -9467,15 +9385,14 @@
       </c>
       <c r="L172" s="15"/>
       <c r="M172" s="15"/>
-      <c r="N172" s="15"/>
+      <c r="N172" s="15" t="s">
+        <v>51</v>
+      </c>
       <c r="O172" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="P172" s="15" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173" s="31">
         <v>45404</v>
       </c>
@@ -9498,7 +9415,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174" s="31">
         <v>45404</v>
       </c>
@@ -9527,7 +9444,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175" s="8">
         <v>45405</v>
       </c>
@@ -9563,9 +9480,8 @@
       <c r="M175" s="9"/>
       <c r="N175" s="9"/>
       <c r="O175" s="9"/>
-      <c r="P175" s="9"/>
-    </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176" s="22">
         <v>45405</v>
       </c>
@@ -9593,15 +9509,14 @@
         <v>954</v>
       </c>
       <c r="M176" s="23"/>
-      <c r="N176" s="23"/>
+      <c r="N176" s="23" t="s">
+        <v>261</v>
+      </c>
       <c r="O176" s="23" t="s">
-        <v>261</v>
-      </c>
-      <c r="P176" s="23" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177" s="22">
         <v>45405</v>
       </c>
@@ -9635,15 +9550,14 @@
       </c>
       <c r="L177" s="23"/>
       <c r="M177" s="23"/>
-      <c r="N177" s="23"/>
+      <c r="N177" s="23" t="s">
+        <v>261</v>
+      </c>
       <c r="O177" s="23" t="s">
-        <v>261</v>
-      </c>
-      <c r="P177" s="23" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178" s="22">
         <v>45405</v>
       </c>
@@ -9671,15 +9585,14 @@
         <v>954</v>
       </c>
       <c r="M178" s="23"/>
-      <c r="N178" s="23"/>
+      <c r="N178" s="23" t="s">
+        <v>261</v>
+      </c>
       <c r="O178" s="23" t="s">
-        <v>261</v>
-      </c>
-      <c r="P178" s="23" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179" s="17">
         <v>45405</v>
       </c>
@@ -9715,9 +9628,8 @@
       <c r="M179" s="18"/>
       <c r="N179" s="18"/>
       <c r="O179" s="18"/>
-      <c r="P179" s="18"/>
-    </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A180" s="31">
         <v>45405</v>
       </c>
@@ -9740,7 +9652,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181" s="31">
         <v>45405</v>
       </c>
@@ -9763,7 +9675,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A182" s="31">
         <v>45406</v>
       </c>
@@ -9792,7 +9704,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A183" s="22">
         <v>45406</v>
       </c>
@@ -9824,15 +9736,14 @@
       </c>
       <c r="L183" s="23"/>
       <c r="M183" s="23"/>
-      <c r="N183" s="23"/>
+      <c r="N183" s="23" t="s">
+        <v>261</v>
+      </c>
       <c r="O183" s="23" t="s">
-        <v>261</v>
-      </c>
-      <c r="P183" s="23" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A184" s="14">
         <v>45406</v>
       </c>
@@ -9862,15 +9773,14 @@
       </c>
       <c r="L184" s="15"/>
       <c r="M184" s="15"/>
-      <c r="N184" s="15"/>
+      <c r="N184" s="15" t="s">
+        <v>51</v>
+      </c>
       <c r="O184" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="P184" s="15" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185" s="17">
         <v>45406</v>
       </c>
@@ -9900,9 +9810,8 @@
       <c r="M185" s="18"/>
       <c r="N185" s="18"/>
       <c r="O185" s="18"/>
-      <c r="P185" s="18"/>
-    </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A186" s="8">
         <v>45406</v>
       </c>
@@ -9936,9 +9845,8 @@
       <c r="M186" s="9"/>
       <c r="N186" s="9"/>
       <c r="O186" s="9"/>
-      <c r="P186" s="9"/>
-    </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A187" s="31">
         <v>45406</v>
       </c>
@@ -9958,7 +9866,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A188" s="56">
         <v>45406</v>
       </c>
@@ -9990,13 +9898,12 @@
         <v>964</v>
       </c>
       <c r="M188" s="57"/>
-      <c r="N188" s="57"/>
-      <c r="O188" s="57" t="s">
+      <c r="N188" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="P188" s="57"/>
-    </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O188" s="57"/>
+    </row>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A189" s="31">
         <v>45406</v>
       </c>
@@ -10022,7 +9929,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A190" s="31">
         <v>45406</v>
       </c>
@@ -10048,7 +9955,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A191" s="22">
         <v>45406</v>
       </c>
@@ -10078,15 +9985,14 @@
       </c>
       <c r="L191" s="33"/>
       <c r="M191" s="23"/>
-      <c r="N191" s="23"/>
+      <c r="N191" s="23" t="s">
+        <v>261</v>
+      </c>
       <c r="O191" s="23" t="s">
-        <v>261</v>
-      </c>
-      <c r="P191" s="23" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A192" s="31">
         <v>45406</v>
       </c>
@@ -10115,7 +10021,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A193" s="31">
         <v>45406</v>
       </c>
@@ -10150,7 +10056,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A194" s="14">
         <v>45406</v>
       </c>
@@ -10180,15 +10086,14 @@
         <v>918</v>
       </c>
       <c r="M194" s="15"/>
-      <c r="N194" s="15"/>
+      <c r="N194" s="15" t="s">
+        <v>51</v>
+      </c>
       <c r="O194" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="P194" s="15" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A195" s="31">
         <v>45406</v>
       </c>
@@ -10210,11 +10115,11 @@
       <c r="K195" s="4" t="s">
         <v>739</v>
       </c>
-      <c r="O195" s="4" t="s">
+      <c r="N195" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A196" s="31">
         <v>45407</v>
       </c>
@@ -10234,7 +10139,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A197" s="31">
         <v>45407</v>
       </c>
@@ -10256,11 +10161,11 @@
       <c r="L197" s="4" t="s">
         <v>964</v>
       </c>
-      <c r="O197" s="4" t="s">
+      <c r="N197" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A198" s="22">
         <v>45407</v>
       </c>
@@ -10292,15 +10197,14 @@
         <v>964</v>
       </c>
       <c r="M198" s="23"/>
-      <c r="N198" s="23"/>
+      <c r="N198" s="23" t="s">
+        <v>261</v>
+      </c>
       <c r="O198" s="23" t="s">
-        <v>261</v>
-      </c>
-      <c r="P198" s="23" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A199" s="8">
         <v>45407</v>
       </c>
@@ -10332,9 +10236,8 @@
       <c r="M199" s="9"/>
       <c r="N199" s="9"/>
       <c r="O199" s="9"/>
-      <c r="P199" s="9"/>
-    </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A200" s="31">
         <v>45407</v>
       </c>
@@ -10363,7 +10266,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A201" s="31">
         <v>45407</v>
       </c>
@@ -10383,7 +10286,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A202" s="31">
         <v>45407</v>
       </c>
@@ -10415,7 +10318,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A203" s="8">
         <v>45408</v>
       </c>
@@ -10451,9 +10354,8 @@
       <c r="M203" s="9"/>
       <c r="N203" s="9"/>
       <c r="O203" s="9"/>
-      <c r="P203" s="9"/>
-    </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A204" s="31">
         <v>45408</v>
       </c>
@@ -10476,7 +10378,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A205" s="28">
         <v>45408</v>
       </c>
@@ -10513,12 +10415,11 @@
       <c r="L205" s="29"/>
       <c r="M205" s="29"/>
       <c r="N205" s="29"/>
-      <c r="O205" s="29"/>
-      <c r="P205" s="29" t="s">
+      <c r="O205" s="29" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A206" s="31">
         <v>45408</v>
       </c>
@@ -10547,7 +10448,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A207" s="31">
         <v>45408</v>
       </c>
@@ -10573,7 +10474,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A208" s="31">
         <v>45408</v>
       </c>
@@ -10602,7 +10503,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A209" s="31">
         <v>45408</v>
       </c>
@@ -10628,7 +10529,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A210" s="31">
         <v>45409</v>
       </c>
@@ -10648,7 +10549,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A211" s="31">
         <v>45409</v>
       </c>
@@ -10668,7 +10569,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A212" s="31">
         <v>45409</v>
       </c>
@@ -10691,7 +10592,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A213" s="31">
         <v>45409</v>
       </c>
@@ -10711,7 +10612,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A214" s="31">
         <v>45410</v>
       </c>
@@ -10737,7 +10638,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A215" s="31">
         <v>45410</v>
       </c>
@@ -10757,7 +10658,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A216" s="31">
         <v>45411</v>
       </c>
@@ -10777,7 +10678,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A217" s="31">
         <v>45411</v>
       </c>
@@ -10803,7 +10704,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A218" s="31">
         <v>45411</v>
       </c>
@@ -10832,7 +10733,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A219" s="8">
         <v>45411</v>
       </c>
@@ -10870,9 +10771,8 @@
       <c r="M219" s="9"/>
       <c r="N219" s="9"/>
       <c r="O219" s="9"/>
-      <c r="P219" s="9"/>
-    </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A220" s="31">
         <v>45411</v>
       </c>
@@ -10895,7 +10795,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A221" s="31">
         <v>45411</v>
       </c>
@@ -10915,7 +10815,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A222" s="31">
         <v>45411</v>
       </c>
@@ -10938,7 +10838,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A223" s="22">
         <v>45411</v>
       </c>
@@ -10964,15 +10864,14 @@
       </c>
       <c r="L223" s="23"/>
       <c r="M223" s="23"/>
-      <c r="N223" s="23"/>
+      <c r="N223" s="23" t="s">
+        <v>261</v>
+      </c>
       <c r="O223" s="23" t="s">
-        <v>261</v>
-      </c>
-      <c r="P223" s="23" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A224" s="31">
         <v>45412</v>
       </c>
@@ -10998,7 +10897,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A225" s="31">
         <v>45412</v>
       </c>
@@ -11018,7 +10917,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A226" s="14">
         <v>45412</v>
       </c>
@@ -11044,15 +10943,14 @@
       </c>
       <c r="L226" s="15"/>
       <c r="M226" s="15"/>
-      <c r="N226" s="15"/>
+      <c r="N226" s="15" t="s">
+        <v>51</v>
+      </c>
       <c r="O226" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="P226" s="15" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A227" s="31">
         <v>45412</v>
       </c>
@@ -11075,7 +10973,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A228" s="22">
         <v>45412</v>
       </c>
@@ -11101,15 +10999,14 @@
       </c>
       <c r="L228" s="23"/>
       <c r="M228" s="23"/>
-      <c r="N228" s="23"/>
+      <c r="N228" s="23" t="s">
+        <v>261</v>
+      </c>
       <c r="O228" s="23" t="s">
-        <v>261</v>
-      </c>
-      <c r="P228" s="23" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A229" s="31">
         <v>45412</v>
       </c>
@@ -11132,7 +11029,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A230" s="31">
         <v>45412</v>
       </c>
@@ -11152,7 +11049,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A231" s="31">
         <v>45412</v>
       </c>
@@ -11187,7 +11084,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A232" s="31">
         <v>45413</v>
       </c>
@@ -11207,7 +11104,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A233" s="25">
         <v>45413</v>
       </c>
@@ -11243,15 +11140,14 @@
         <v>964</v>
       </c>
       <c r="M233" s="26"/>
-      <c r="N233" s="26"/>
+      <c r="N233" s="26" t="s">
+        <v>50</v>
+      </c>
       <c r="O233" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="P233" s="26" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A234" s="17">
         <v>45413</v>
       </c>
@@ -11285,9 +11181,8 @@
       <c r="M234" s="18"/>
       <c r="N234" s="18"/>
       <c r="O234" s="18"/>
-      <c r="P234" s="18"/>
-    </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A235" s="31">
         <v>45413</v>
       </c>
@@ -11313,7 +11208,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A236" s="17">
         <v>45413</v>
       </c>
@@ -11345,9 +11240,8 @@
       </c>
       <c r="N236" s="18"/>
       <c r="O236" s="18"/>
-      <c r="P236" s="18"/>
-    </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A237" s="31">
         <v>45413</v>
       </c>
@@ -11367,7 +11261,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="238" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A238" s="31">
         <v>45413</v>
       </c>
@@ -11390,7 +11284,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A239" s="31">
         <v>45413</v>
       </c>
@@ -11416,7 +11310,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A240" s="31">
         <v>45413</v>
       </c>
@@ -11436,7 +11330,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="241" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A241" s="31">
         <v>45413</v>
       </c>
@@ -11459,7 +11353,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="242" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A242" s="31">
         <v>45413</v>
       </c>
@@ -11485,7 +11379,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="243" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A243" s="31">
         <v>45414</v>
       </c>
@@ -11508,7 +11402,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A244" s="31">
         <v>45414</v>
       </c>
@@ -11528,7 +11422,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A245" s="8">
         <v>45414</v>
       </c>
@@ -11560,9 +11454,8 @@
       <c r="M245" s="9"/>
       <c r="N245" s="9"/>
       <c r="O245" s="9"/>
-      <c r="P245" s="9"/>
-    </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A246" s="31">
         <v>45414</v>
       </c>
@@ -11585,7 +11478,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A247" s="31">
         <v>45414</v>
       </c>
@@ -11605,7 +11498,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A248" s="31">
         <v>45414</v>
       </c>
@@ -11628,7 +11521,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="249" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A249" s="31">
         <v>45415</v>
       </c>
@@ -11659,11 +11552,11 @@
       <c r="K249" s="4" t="s">
         <v>927</v>
       </c>
-      <c r="P249" s="4" t="s">
+      <c r="O249" s="4" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A250" s="31">
         <v>45415</v>
       </c>
@@ -11698,7 +11591,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A251" s="31">
         <v>45415</v>
       </c>
@@ -11721,7 +11614,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A252" s="31">
         <v>45415</v>
       </c>
@@ -11744,7 +11637,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A253" s="31">
         <v>45415</v>
       </c>
@@ -11764,7 +11657,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="254" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A254" s="22">
         <v>45415</v>
       </c>
@@ -11798,15 +11691,14 @@
       </c>
       <c r="L254" s="23"/>
       <c r="M254" s="23"/>
-      <c r="N254" s="23"/>
+      <c r="N254" s="23" t="s">
+        <v>261</v>
+      </c>
       <c r="O254" s="23" t="s">
-        <v>261</v>
-      </c>
-      <c r="P254" s="23" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="255" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A255" s="14">
         <v>45415</v>
       </c>
@@ -11838,15 +11730,14 @@
       </c>
       <c r="L255" s="15"/>
       <c r="M255" s="15"/>
-      <c r="N255" s="15"/>
+      <c r="N255" s="15" t="s">
+        <v>51</v>
+      </c>
       <c r="O255" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="P255" s="15" t="s">
         <v>952</v>
       </c>
     </row>
-    <row r="256" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A256" s="31">
         <v>45415</v>
       </c>
@@ -11866,7 +11757,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="257" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A257" s="31">
         <v>45416</v>
       </c>
@@ -11892,7 +11783,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="258" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A258" s="31">
         <v>45416</v>
       </c>
@@ -11912,7 +11803,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="259" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A259" s="31">
         <v>45416</v>
       </c>
@@ -11935,7 +11826,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="260" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A260" s="31">
         <v>45416</v>
       </c>
@@ -11954,11 +11845,11 @@
       <c r="K260" s="4" t="s">
         <v>1007</v>
       </c>
-      <c r="O260" s="4" t="s">
+      <c r="N260" s="4" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="261" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A261" s="31">
         <v>45416</v>
       </c>
@@ -11978,7 +11869,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="262" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A262" s="31">
         <v>45416</v>
       </c>
@@ -11998,7 +11889,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="263" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A263" s="31">
         <v>45416</v>
       </c>
@@ -12024,7 +11915,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="264" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A264" s="31">
         <v>45417</v>
       </c>
@@ -12043,11 +11934,11 @@
       <c r="K264" s="4" t="s">
         <v>1022</v>
       </c>
-      <c r="O264" s="4" t="s">
+      <c r="N264" s="4" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="265" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A265" s="31">
         <v>45417</v>
       </c>
@@ -12070,7 +11961,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="266" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A266" s="31">
         <v>45417</v>
       </c>
@@ -12104,11 +11995,11 @@
       <c r="L266" s="4" t="s">
         <v>1030</v>
       </c>
-      <c r="O266" s="4" t="s">
+      <c r="N266" s="4" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="267" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A267" s="31">
         <v>45417</v>
       </c>
@@ -12131,7 +12022,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="268" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A268" s="31">
         <v>45417</v>
       </c>
@@ -12157,7 +12048,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="269" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A269" s="31">
         <v>45417</v>
       </c>
@@ -12180,7 +12071,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="270" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A270" s="14">
         <v>45417</v>
       </c>
@@ -12210,15 +12101,14 @@
       </c>
       <c r="L270" s="15"/>
       <c r="M270" s="15"/>
-      <c r="N270" s="15"/>
+      <c r="N270" s="15" t="s">
+        <v>51</v>
+      </c>
       <c r="O270" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="P270" s="15" t="s">
         <v>952</v>
       </c>
     </row>
-    <row r="271" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A271" s="17">
         <v>45417</v>
       </c>
@@ -12250,9 +12140,8 @@
       <c r="M271" s="18"/>
       <c r="N271" s="18"/>
       <c r="O271" s="18"/>
-      <c r="P271" s="18"/>
-    </row>
-    <row r="272" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A272" s="31">
         <v>45417</v>
       </c>
@@ -12275,7 +12164,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="273" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A273" s="31">
         <v>45417</v>
       </c>
@@ -12307,7 +12196,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="274" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A274" s="31">
         <v>45417</v>
       </c>
@@ -12330,7 +12219,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="275" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A275" s="14">
         <v>45418</v>
       </c>
@@ -12366,15 +12255,14 @@
         <v>1038</v>
       </c>
       <c r="M275" s="15"/>
-      <c r="N275" s="15"/>
+      <c r="N275" s="15" t="s">
+        <v>51</v>
+      </c>
       <c r="O275" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="P275" s="15" t="s">
         <v>1035</v>
       </c>
     </row>
-    <row r="276" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A276" s="31">
         <v>45418</v>
       </c>
@@ -12400,7 +12288,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="277" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A277" s="31">
         <v>45418</v>
       </c>
@@ -12417,7 +12305,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="278" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A278" s="31">
         <v>45418</v>
       </c>
@@ -12437,7 +12325,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="279" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A279" s="31">
         <v>45418</v>
       </c>
@@ -12457,7 +12345,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="280" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A280" s="31">
         <v>45418</v>
       </c>
@@ -12477,7 +12365,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="281" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A281" s="25">
         <v>45419</v>
       </c>
@@ -12513,15 +12401,14 @@
       </c>
       <c r="L281" s="26"/>
       <c r="M281" s="26"/>
-      <c r="N281" s="26"/>
+      <c r="N281" s="26" t="s">
+        <v>50</v>
+      </c>
       <c r="O281" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="P281" s="26" t="s">
         <v>1049</v>
       </c>
     </row>
-    <row r="282" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A282" s="31">
         <v>45419</v>
       </c>
@@ -12541,7 +12428,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="283" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A283" s="31">
         <v>45419</v>
       </c>
@@ -12561,7 +12448,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="284" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A284" s="31">
         <v>45419</v>
       </c>
@@ -12581,7 +12468,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="285" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A285" s="31">
         <v>45419</v>
       </c>
@@ -12601,7 +12488,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="286" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A286" s="25">
         <v>45419</v>
       </c>
@@ -12631,15 +12518,14 @@
       </c>
       <c r="L286" s="26"/>
       <c r="M286" s="26"/>
-      <c r="N286" s="26"/>
+      <c r="N286" s="26" t="s">
+        <v>50</v>
+      </c>
       <c r="O286" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="P286" s="26" t="s">
         <v>1080</v>
       </c>
     </row>
-    <row r="287" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A287" s="31">
         <v>45419</v>
       </c>
@@ -12662,7 +12548,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="288" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A288" s="31">
         <v>45419</v>
       </c>
@@ -12694,7 +12580,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="289" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A289" s="25">
         <v>45420</v>
       </c>
@@ -12722,15 +12608,14 @@
       </c>
       <c r="L289" s="26"/>
       <c r="M289" s="26"/>
-      <c r="N289" s="26"/>
+      <c r="N289" s="26" t="s">
+        <v>50</v>
+      </c>
       <c r="O289" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="P289" s="26" t="s">
         <v>1083</v>
       </c>
     </row>
-    <row r="290" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A290" s="31">
         <v>45420</v>
       </c>
@@ -12750,7 +12635,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="291" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A291" s="31">
         <v>45420</v>
       </c>
@@ -12776,55 +12661,55 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="292" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A292" s="31"/>
       <c r="G292" s="32"/>
     </row>
-    <row r="293" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A293" s="31"/>
       <c r="G293" s="32"/>
     </row>
-    <row r="294" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A294" s="31"/>
       <c r="G294" s="32"/>
     </row>
-    <row r="295" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A295" s="31"/>
       <c r="G295" s="32"/>
     </row>
-    <row r="296" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A296" s="31"/>
       <c r="G296" s="32"/>
     </row>
-    <row r="297" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A297" s="31"/>
       <c r="G297" s="32"/>
     </row>
-    <row r="298" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A298" s="31"/>
       <c r="G298" s="32"/>
     </row>
-    <row r="299" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A299" s="31"/>
       <c r="G299" s="32"/>
     </row>
-    <row r="300" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A300" s="31"/>
       <c r="G300" s="32"/>
     </row>
-    <row r="301" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A301" s="31"/>
       <c r="G301" s="32"/>
     </row>
-    <row r="302" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A302" s="31"/>
       <c r="G302" s="32"/>
     </row>
-    <row r="303" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A303" s="31"/>
       <c r="G303" s="32"/>
     </row>
-    <row r="304" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A304" s="31"/>
       <c r="G304" s="32"/>
     </row>
@@ -19575,8 +19460,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C144 C146:C1989" xr:uid="{5621FDED-ABF2-43E6-AC50-2601095590B7}">
       <formula1>INDIRECT($C$1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1989" xr:uid="{F688FC34-E833-4CD7-A4D5-C5F546A92EE3}">
-      <formula1>INDIRECT($O$1)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N1989" xr:uid="{F688FC34-E833-4CD7-A4D5-C5F546A92EE3}">
+      <formula1>INDIRECT($N$1)</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1989" xr:uid="{93647A22-8740-4623-B66D-0B97A8FAEE52}">
       <formula1>INDIRECT($H$1)</formula1>

--- a/Lead.xlsx
+++ b/Lead.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodrigo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB059D0-E6A6-44FA-83CF-076D19619009}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6945E80B-6A28-4F7C-8071-1C6841EA502C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4065,9 +4065,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P1989"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4511,7 +4511,7 @@
       <c r="L11" s="15"/>
       <c r="M11" s="15"/>
       <c r="N11" s="15" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="O11" s="15" t="s">
         <v>172</v>
@@ -4542,7 +4542,7 @@
       <c r="L12" s="15"/>
       <c r="M12" s="15"/>
       <c r="N12" s="15" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="O12" s="15" t="s">
         <v>172</v>
@@ -8070,7 +8070,7 @@
       <c r="L125" s="15"/>
       <c r="M125" s="15"/>
       <c r="N125" s="15" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="O125" s="15" t="s">
         <v>362</v>
@@ -19455,7 +19455,7 @@
   </sheetData>
   <dataConsolidate/>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="4">
+  <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C144 C146:C1989" xr:uid="{5621FDED-ABF2-43E6-AC50-2601095590B7}">
       <formula1>INDIRECT($C$1)</formula1>
     </dataValidation>

--- a/Lead.xlsx
+++ b/Lead.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ATUAL 2024\Projetos R\Clinica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F00C601-C499-4479-8491-7F7ED866D381}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A180315F-B910-4AAD-8394-067CC5CA7FE3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5961" uniqueCount="3032">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5959" uniqueCount="3030">
   <si>
     <t>Data</t>
   </si>
@@ -6572,9 +6572,6 @@
     <t>Alex Wanderley</t>
   </si>
   <si>
-    <t>11/23/1977</t>
-  </si>
-  <si>
     <t>Garanhuns</t>
   </si>
   <si>
@@ -6612,9 +6609,6 @@
   </si>
   <si>
     <t>Nando Costa</t>
-  </si>
-  <si>
-    <t>08/25/1970</t>
   </si>
   <si>
     <t>Banzae</t>
@@ -10045,13 +10039,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AE1548"/>
+  <dimension ref="A1:U1548"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C514" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W21" sqref="W21"/>
+      <selection pane="bottomRight" activeCell="D521" sqref="D521"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -10119,7 +10113,7 @@
         <v>12</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>3031</v>
+        <v>3029</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>13</v>
@@ -18762,9 +18756,7 @@
       <c r="C166" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D166" s="39">
-        <v>59</v>
-      </c>
+      <c r="D166" s="39"/>
       <c r="E166" s="16" t="s">
         <v>103</v>
       </c>
@@ -20817,9 +20809,7 @@
       <c r="C205" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D205" s="41">
-        <v>66</v>
-      </c>
+      <c r="D205" s="41"/>
       <c r="E205" s="16" t="s">
         <v>103</v>
       </c>
@@ -22121,9 +22111,7 @@
       <c r="C231" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D231" s="39">
-        <v>33</v>
-      </c>
+      <c r="D231" s="39"/>
       <c r="E231" s="16" t="s">
         <v>22</v>
       </c>
@@ -23347,9 +23335,7 @@
       <c r="C255" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D255" s="39">
-        <v>55</v>
-      </c>
+      <c r="D255" s="39"/>
       <c r="E255" s="16"/>
       <c r="F255" s="14"/>
       <c r="G255" s="63" t="s">
@@ -24659,9 +24645,7 @@
       <c r="C281" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D281" s="39">
-        <v>56</v>
-      </c>
+      <c r="D281" s="39"/>
       <c r="E281" s="16" t="s">
         <v>103</v>
       </c>
@@ -37510,23 +37494,23 @@
       <c r="C520" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="D520" s="62" t="s">
-        <v>2181</v>
+      <c r="D520" s="62">
+        <v>28452</v>
       </c>
       <c r="E520" s="63"/>
       <c r="F520" s="63" t="s">
+        <v>2181</v>
+      </c>
+      <c r="G520" s="63" t="s">
         <v>2182</v>
       </c>
-      <c r="G520" s="63" t="s">
+      <c r="H520" s="64" t="s">
         <v>2183</v>
-      </c>
-      <c r="H520" s="64" t="s">
-        <v>2184</v>
       </c>
       <c r="I520" s="63"/>
       <c r="J520" s="63"/>
       <c r="K520" s="63" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="L520" s="63"/>
       <c r="M520" s="63"/>
@@ -37558,7 +37542,7 @@
         <v>45504</v>
       </c>
       <c r="B521" s="63" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="C521" s="63" t="s">
         <v>42</v>
@@ -37571,7 +37555,7 @@
         <v>104</v>
       </c>
       <c r="G521" s="63" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="H521" s="64" t="s">
         <v>2179</v>
@@ -37607,7 +37591,7 @@
         <v>45509</v>
       </c>
       <c r="B522" s="63" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="C522" s="63" t="s">
         <v>21</v>
@@ -37616,17 +37600,17 @@
       <c r="E522" s="63"/>
       <c r="F522" s="63"/>
       <c r="G522" s="63" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="H522" s="64" t="s">
         <v>1843</v>
       </c>
       <c r="I522" s="63"/>
       <c r="J522" s="63" t="s">
+        <v>2189</v>
+      </c>
+      <c r="K522" s="63" t="s">
         <v>2190</v>
-      </c>
-      <c r="K522" s="63" t="s">
-        <v>2191</v>
       </c>
       <c r="L522" s="63"/>
       <c r="M522" s="63"/>
@@ -37658,7 +37642,7 @@
         <v>45509</v>
       </c>
       <c r="B523" s="63" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="C523" s="63" t="s">
         <v>42</v>
@@ -37671,7 +37655,7 @@
         <v>104</v>
       </c>
       <c r="G523" s="63" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="H523" s="64" t="s">
         <v>2179</v>
@@ -37707,20 +37691,20 @@
         <v>45509</v>
       </c>
       <c r="B524" s="63" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="C524" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="D524" s="63" t="s">
-        <v>2195</v>
+      <c r="D524" s="62">
+        <v>25805</v>
       </c>
       <c r="E524" s="63"/>
       <c r="F524" s="63" t="s">
-        <v>2196</v>
+        <v>2194</v>
       </c>
       <c r="G524" s="63" t="s">
-        <v>2197</v>
+        <v>2195</v>
       </c>
       <c r="H524" s="64" t="s">
         <v>2179</v>
@@ -37756,7 +37740,7 @@
         <v>45510</v>
       </c>
       <c r="B525" s="63" t="s">
-        <v>2198</v>
+        <v>2196</v>
       </c>
       <c r="C525" s="63" t="s">
         <v>42</v>
@@ -37772,7 +37756,7 @@
         <v>75999096745</v>
       </c>
       <c r="H525" s="64" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="I525" s="63"/>
       <c r="J525" s="63"/>
@@ -37805,7 +37789,7 @@
         <v>45509</v>
       </c>
       <c r="B526" s="63" t="s">
-        <v>2199</v>
+        <v>2197</v>
       </c>
       <c r="C526" s="63" t="s">
         <v>42</v>
@@ -37814,7 +37798,7 @@
       <c r="E526" s="63"/>
       <c r="F526" s="63"/>
       <c r="G526" s="63" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
       <c r="H526" s="64" t="s">
         <v>1843</v>
@@ -37822,10 +37806,10 @@
       <c r="I526" s="63"/>
       <c r="J526" s="63"/>
       <c r="K526" s="63" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
       <c r="L526" s="63" t="s">
-        <v>2202</v>
+        <v>2200</v>
       </c>
       <c r="M526" s="63"/>
       <c r="N526" s="63"/>
@@ -37856,7 +37840,7 @@
         <v>45509</v>
       </c>
       <c r="B527" s="63" t="s">
-        <v>2203</v>
+        <v>2201</v>
       </c>
       <c r="C527" s="63" t="s">
         <v>21</v>
@@ -37865,7 +37849,7 @@
       <c r="E527" s="63"/>
       <c r="F527" s="63"/>
       <c r="G527" s="63" t="s">
-        <v>2204</v>
+        <v>2202</v>
       </c>
       <c r="H527" s="64" t="s">
         <v>1843</v>
@@ -37873,7 +37857,7 @@
       <c r="I527" s="63"/>
       <c r="J527" s="63"/>
       <c r="K527" s="63" t="s">
-        <v>2205</v>
+        <v>2203</v>
       </c>
       <c r="L527" s="63"/>
       <c r="M527" s="63"/>
@@ -37905,7 +37889,7 @@
         <v>45510</v>
       </c>
       <c r="B528" s="63" t="s">
-        <v>2206</v>
+        <v>2204</v>
       </c>
       <c r="C528" s="63" t="s">
         <v>21</v>
@@ -37914,7 +37898,7 @@
       <c r="E528" s="63"/>
       <c r="F528" s="63"/>
       <c r="G528" s="63" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
       <c r="H528" s="64" t="s">
         <v>57</v>
@@ -37924,7 +37908,7 @@
       </c>
       <c r="J528" s="63"/>
       <c r="K528" s="63" t="s">
-        <v>2208</v>
+        <v>2206</v>
       </c>
       <c r="L528" s="63"/>
       <c r="M528" s="63"/>
@@ -37956,7 +37940,7 @@
         <v>45510</v>
       </c>
       <c r="B529" s="63" t="s">
-        <v>2209</v>
+        <v>2207</v>
       </c>
       <c r="C529" s="63" t="s">
         <v>21</v>
@@ -37965,7 +37949,7 @@
       <c r="E529" s="63"/>
       <c r="F529" s="63"/>
       <c r="G529" s="63" t="s">
-        <v>2210</v>
+        <v>2208</v>
       </c>
       <c r="H529" s="64" t="s">
         <v>698</v>
@@ -37975,7 +37959,7 @@
       </c>
       <c r="J529" s="63"/>
       <c r="K529" s="63" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="L529" s="63"/>
       <c r="M529" s="63"/>
@@ -38007,7 +37991,7 @@
         <v>45510</v>
       </c>
       <c r="B530" s="63" t="s">
-        <v>2212</v>
+        <v>2210</v>
       </c>
       <c r="C530" s="63" t="s">
         <v>42</v>
@@ -38020,7 +38004,7 @@
         <v>104</v>
       </c>
       <c r="G530" s="63" t="s">
-        <v>2213</v>
+        <v>2211</v>
       </c>
       <c r="H530" s="64" t="s">
         <v>57</v>
@@ -38028,7 +38012,7 @@
       <c r="I530" s="63"/>
       <c r="J530" s="63"/>
       <c r="K530" s="63" t="s">
-        <v>2214</v>
+        <v>2212</v>
       </c>
       <c r="L530" s="63"/>
       <c r="M530" s="63"/>
@@ -38058,7 +38042,7 @@
         <v>45510</v>
       </c>
       <c r="B531" s="63" t="s">
-        <v>2215</v>
+        <v>2213</v>
       </c>
       <c r="C531" s="63" t="s">
         <v>21</v>
@@ -38068,20 +38052,20 @@
         <v>286</v>
       </c>
       <c r="F531" s="63" t="s">
-        <v>2216</v>
+        <v>2214</v>
       </c>
       <c r="G531" s="63" t="s">
-        <v>2217</v>
+        <v>2215</v>
       </c>
       <c r="H531" s="64" t="s">
         <v>57</v>
       </c>
       <c r="I531" s="63"/>
       <c r="J531" s="63" t="s">
-        <v>2218</v>
+        <v>2216</v>
       </c>
       <c r="K531" s="63" t="s">
-        <v>2219</v>
+        <v>2217</v>
       </c>
       <c r="L531" s="63"/>
       <c r="M531" s="63"/>
@@ -38113,7 +38097,7 @@
         <v>45510</v>
       </c>
       <c r="B532" s="63" t="s">
-        <v>2220</v>
+        <v>2218</v>
       </c>
       <c r="C532" s="63" t="s">
         <v>42</v>
@@ -38122,7 +38106,7 @@
       <c r="E532" s="63"/>
       <c r="F532" s="63"/>
       <c r="G532" s="63" t="s">
-        <v>2221</v>
+        <v>2219</v>
       </c>
       <c r="H532" s="64" t="s">
         <v>1843</v>
@@ -38130,7 +38114,7 @@
       <c r="I532" s="63"/>
       <c r="J532" s="63"/>
       <c r="K532" s="63" t="s">
-        <v>2222</v>
+        <v>2220</v>
       </c>
       <c r="L532" s="63"/>
       <c r="M532" s="63"/>
@@ -38171,7 +38155,7 @@
       <c r="E533" s="63"/>
       <c r="F533" s="63"/>
       <c r="G533" s="63" t="s">
-        <v>2223</v>
+        <v>2221</v>
       </c>
       <c r="H533" s="64" t="s">
         <v>698</v>
@@ -38179,13 +38163,13 @@
       <c r="I533" s="63"/>
       <c r="J533" s="63"/>
       <c r="K533" s="63" t="s">
+        <v>2222</v>
+      </c>
+      <c r="L533" s="63" t="s">
+        <v>2223</v>
+      </c>
+      <c r="M533" s="63" t="s">
         <v>2224</v>
-      </c>
-      <c r="L533" s="63" t="s">
-        <v>2225</v>
-      </c>
-      <c r="M533" s="63" t="s">
-        <v>2226</v>
       </c>
       <c r="N533" s="63"/>
       <c r="O533" s="63" t="s">
@@ -38215,7 +38199,7 @@
         <v>45511</v>
       </c>
       <c r="B534" s="63" t="s">
-        <v>2227</v>
+        <v>2225</v>
       </c>
       <c r="C534" s="63" t="s">
         <v>21</v>
@@ -38224,7 +38208,7 @@
       <c r="E534" s="63"/>
       <c r="F534" s="63"/>
       <c r="G534" s="63" t="s">
-        <v>2228</v>
+        <v>2226</v>
       </c>
       <c r="H534" s="64" t="s">
         <v>698</v>
@@ -38232,7 +38216,7 @@
       <c r="I534" s="63"/>
       <c r="J534" s="63"/>
       <c r="K534" s="63" t="s">
-        <v>2229</v>
+        <v>2227</v>
       </c>
       <c r="L534" s="63"/>
       <c r="M534" s="63"/>
@@ -38264,7 +38248,7 @@
         <v>45511</v>
       </c>
       <c r="B535" s="63" t="s">
-        <v>2230</v>
+        <v>2228</v>
       </c>
       <c r="C535" s="63" t="s">
         <v>21</v>
@@ -38277,17 +38261,17 @@
         <v>2146</v>
       </c>
       <c r="G535" s="63" t="s">
-        <v>2231</v>
+        <v>2229</v>
       </c>
       <c r="H535" s="64" t="s">
         <v>698</v>
       </c>
       <c r="I535" s="63"/>
       <c r="J535" s="63" t="s">
-        <v>2232</v>
+        <v>2230</v>
       </c>
       <c r="K535" s="63" t="s">
-        <v>2233</v>
+        <v>2231</v>
       </c>
       <c r="L535" s="63"/>
       <c r="M535" s="63"/>
@@ -38319,7 +38303,7 @@
         <v>45512</v>
       </c>
       <c r="B536" s="63" t="s">
-        <v>2234</v>
+        <v>2232</v>
       </c>
       <c r="C536" s="63" t="s">
         <v>21</v>
@@ -38332,7 +38316,7 @@
         <v>1216</v>
       </c>
       <c r="G536" s="63" t="s">
-        <v>2235</v>
+        <v>2233</v>
       </c>
       <c r="H536" s="64"/>
       <c r="I536" s="63" t="s">
@@ -38374,7 +38358,7 @@
         <v>45512</v>
       </c>
       <c r="B537" s="63" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
       <c r="C537" s="63" t="s">
         <v>42</v>
@@ -38385,7 +38369,7 @@
         <v>125</v>
       </c>
       <c r="G537" s="63" t="s">
-        <v>2237</v>
+        <v>2235</v>
       </c>
       <c r="H537" s="64" t="s">
         <v>1843</v>
@@ -38393,7 +38377,7 @@
       <c r="I537" s="63"/>
       <c r="J537" s="63"/>
       <c r="K537" s="54" t="s">
-        <v>2238</v>
+        <v>2236</v>
       </c>
       <c r="L537" s="63"/>
       <c r="M537" s="63"/>
@@ -38425,7 +38409,7 @@
         <v>45512</v>
       </c>
       <c r="B538" s="63" t="s">
-        <v>2239</v>
+        <v>2237</v>
       </c>
       <c r="C538" s="63" t="s">
         <v>42</v>
@@ -38434,7 +38418,7 @@
       <c r="E538" s="63"/>
       <c r="F538" s="63"/>
       <c r="G538" s="63" t="s">
-        <v>2240</v>
+        <v>2238</v>
       </c>
       <c r="H538" s="64" t="s">
         <v>698</v>
@@ -38442,10 +38426,10 @@
       <c r="I538" s="63"/>
       <c r="J538" s="63"/>
       <c r="K538" s="54" t="s">
-        <v>2241</v>
+        <v>2239</v>
       </c>
       <c r="L538" s="63" t="s">
-        <v>2242</v>
+        <v>2240</v>
       </c>
       <c r="M538" s="63"/>
       <c r="N538" s="63"/>
@@ -38476,14 +38460,14 @@
         <v>45512</v>
       </c>
       <c r="B539" s="63" t="s">
-        <v>2243</v>
+        <v>2241</v>
       </c>
       <c r="C539" s="63"/>
       <c r="D539" s="62"/>
       <c r="E539" s="63"/>
       <c r="F539" s="63"/>
       <c r="G539" s="63" t="s">
-        <v>2244</v>
+        <v>2242</v>
       </c>
       <c r="H539" s="64" t="s">
         <v>698</v>
@@ -38491,13 +38475,13 @@
       <c r="I539" s="63"/>
       <c r="J539" s="63"/>
       <c r="K539" s="63" t="s">
+        <v>2243</v>
+      </c>
+      <c r="L539" s="63" t="s">
+        <v>2244</v>
+      </c>
+      <c r="M539" s="63" t="s">
         <v>2245</v>
-      </c>
-      <c r="L539" s="63" t="s">
-        <v>2246</v>
-      </c>
-      <c r="M539" s="63" t="s">
-        <v>2247</v>
       </c>
       <c r="N539" s="63"/>
       <c r="O539" s="63" t="s">
@@ -38527,7 +38511,7 @@
         <v>45512</v>
       </c>
       <c r="B540" s="63" t="s">
-        <v>2248</v>
+        <v>2246</v>
       </c>
       <c r="C540" s="63" t="s">
         <v>42</v>
@@ -38536,7 +38520,7 @@
       <c r="E540" s="63"/>
       <c r="F540" s="63"/>
       <c r="G540" s="63" t="s">
-        <v>2249</v>
+        <v>2247</v>
       </c>
       <c r="H540" s="64" t="s">
         <v>57</v>
@@ -38544,13 +38528,13 @@
       <c r="I540" s="63"/>
       <c r="J540" s="63"/>
       <c r="K540" s="63" t="s">
+        <v>2248</v>
+      </c>
+      <c r="L540" s="63" t="s">
+        <v>2249</v>
+      </c>
+      <c r="M540" s="63" t="s">
         <v>2250</v>
-      </c>
-      <c r="L540" s="63" t="s">
-        <v>2251</v>
-      </c>
-      <c r="M540" s="63" t="s">
-        <v>2252</v>
       </c>
       <c r="N540" s="63"/>
       <c r="O540" s="63" t="s">
@@ -38580,14 +38564,14 @@
         <v>45512</v>
       </c>
       <c r="B541" s="63" t="s">
-        <v>2253</v>
+        <v>2251</v>
       </c>
       <c r="C541" s="63"/>
       <c r="D541" s="62"/>
       <c r="E541" s="63"/>
       <c r="F541" s="63"/>
       <c r="G541" s="63" t="s">
-        <v>2254</v>
+        <v>2252</v>
       </c>
       <c r="H541" s="64" t="s">
         <v>1843</v>
@@ -38595,13 +38579,13 @@
       <c r="I541" s="63"/>
       <c r="J541" s="63"/>
       <c r="K541" s="63" t="s">
-        <v>2255</v>
+        <v>2253</v>
       </c>
       <c r="L541" s="63" t="s">
-        <v>2256</v>
+        <v>2254</v>
       </c>
       <c r="M541" s="63" t="s">
-        <v>2252</v>
+        <v>2250</v>
       </c>
       <c r="N541" s="63"/>
       <c r="O541" s="63" t="s">
@@ -38631,7 +38615,7 @@
         <v>45513</v>
       </c>
       <c r="B542" s="63" t="s">
-        <v>2257</v>
+        <v>2255</v>
       </c>
       <c r="C542" s="63" t="s">
         <v>42</v>
@@ -38640,7 +38624,7 @@
       <c r="E542" s="63"/>
       <c r="F542" s="63"/>
       <c r="G542" s="63" t="s">
-        <v>2258</v>
+        <v>2256</v>
       </c>
       <c r="H542" s="64" t="s">
         <v>57</v>
@@ -38648,10 +38632,10 @@
       <c r="I542" s="63"/>
       <c r="J542" s="63"/>
       <c r="K542" s="63" t="s">
-        <v>2259</v>
+        <v>2257</v>
       </c>
       <c r="L542" s="63" t="s">
-        <v>2260</v>
+        <v>2258</v>
       </c>
       <c r="M542" s="63"/>
       <c r="N542" s="63"/>
@@ -38682,7 +38666,7 @@
         <v>45513</v>
       </c>
       <c r="B543" s="63" t="s">
-        <v>2261</v>
+        <v>2259</v>
       </c>
       <c r="C543" s="63" t="s">
         <v>42</v>
@@ -38691,18 +38675,18 @@
       <c r="E543" s="63"/>
       <c r="F543" s="63"/>
       <c r="G543" s="63" t="s">
-        <v>2262</v>
+        <v>2260</v>
       </c>
       <c r="H543" s="64"/>
       <c r="I543" s="63" t="s">
-        <v>2263</v>
+        <v>2261</v>
       </c>
       <c r="J543" s="63"/>
       <c r="K543" s="63" t="s">
-        <v>2264</v>
+        <v>2262</v>
       </c>
       <c r="L543" s="63" t="s">
-        <v>2265</v>
+        <v>2263</v>
       </c>
       <c r="M543" s="63"/>
       <c r="N543" s="63"/>
@@ -38733,7 +38717,7 @@
         <v>45513</v>
       </c>
       <c r="B544" s="63" t="s">
-        <v>2266</v>
+        <v>2264</v>
       </c>
       <c r="C544" s="63" t="s">
         <v>42</v>
@@ -38742,7 +38726,7 @@
       <c r="E544" s="63"/>
       <c r="F544" s="63"/>
       <c r="G544" s="63" t="s">
-        <v>2267</v>
+        <v>2265</v>
       </c>
       <c r="H544" s="64" t="s">
         <v>1843</v>
@@ -38750,10 +38734,10 @@
       <c r="I544" s="63"/>
       <c r="J544" s="63"/>
       <c r="K544" s="63" t="s">
-        <v>2268</v>
+        <v>2266</v>
       </c>
       <c r="L544" s="63" t="s">
-        <v>2269</v>
+        <v>2267</v>
       </c>
       <c r="M544" s="63"/>
       <c r="N544" s="63"/>
@@ -38793,7 +38777,7 @@
       <c r="E545" s="63"/>
       <c r="F545" s="63"/>
       <c r="G545" s="63" t="s">
-        <v>2270</v>
+        <v>2268</v>
       </c>
       <c r="H545" s="64" t="s">
         <v>57</v>
@@ -38801,13 +38785,13 @@
       <c r="I545" s="63"/>
       <c r="J545" s="63"/>
       <c r="K545" s="63" t="s">
+        <v>2269</v>
+      </c>
+      <c r="L545" s="63" t="s">
+        <v>2270</v>
+      </c>
+      <c r="M545" s="63" t="s">
         <v>2271</v>
-      </c>
-      <c r="L545" s="63" t="s">
-        <v>2272</v>
-      </c>
-      <c r="M545" s="63" t="s">
-        <v>2273</v>
       </c>
       <c r="N545" s="63"/>
       <c r="O545" s="63" t="s">
@@ -38846,19 +38830,19 @@
       <c r="E546" s="63"/>
       <c r="F546" s="63"/>
       <c r="G546" s="63" t="s">
-        <v>2274</v>
+        <v>2272</v>
       </c>
       <c r="H546" s="64"/>
       <c r="I546" s="63"/>
       <c r="J546" s="63"/>
       <c r="K546" s="63" t="s">
+        <v>2273</v>
+      </c>
+      <c r="L546" s="63" t="s">
+        <v>2274</v>
+      </c>
+      <c r="M546" s="63" t="s">
         <v>2275</v>
-      </c>
-      <c r="L546" s="63" t="s">
-        <v>2276</v>
-      </c>
-      <c r="M546" s="63" t="s">
-        <v>2277</v>
       </c>
       <c r="N546" s="63"/>
       <c r="O546" s="63" t="s">
@@ -38888,7 +38872,7 @@
         <v>45514</v>
       </c>
       <c r="B547" s="63" t="s">
-        <v>2278</v>
+        <v>2276</v>
       </c>
       <c r="C547" s="63" t="s">
         <v>42</v>
@@ -38901,7 +38885,7 @@
         <v>104</v>
       </c>
       <c r="G547" s="63" t="s">
-        <v>2279</v>
+        <v>2277</v>
       </c>
       <c r="H547" s="64" t="s">
         <v>34</v>
@@ -38911,13 +38895,13 @@
       </c>
       <c r="J547" s="63"/>
       <c r="K547" s="63" t="s">
+        <v>2278</v>
+      </c>
+      <c r="L547" s="63" t="s">
+        <v>2279</v>
+      </c>
+      <c r="M547" s="63" t="s">
         <v>2280</v>
-      </c>
-      <c r="L547" s="63" t="s">
-        <v>2281</v>
-      </c>
-      <c r="M547" s="63" t="s">
-        <v>2282</v>
       </c>
       <c r="N547" s="63"/>
       <c r="O547" s="63" t="s">
@@ -38947,7 +38931,7 @@
         <v>45514</v>
       </c>
       <c r="B548" s="63" t="s">
-        <v>2283</v>
+        <v>2281</v>
       </c>
       <c r="C548" s="63" t="s">
         <v>42</v>
@@ -38957,10 +38941,10 @@
         <v>103</v>
       </c>
       <c r="F548" s="63" t="s">
-        <v>2284</v>
+        <v>2282</v>
       </c>
       <c r="G548" s="63" t="s">
-        <v>2285</v>
+        <v>2283</v>
       </c>
       <c r="H548" s="64" t="s">
         <v>1843</v>
@@ -38970,7 +38954,7 @@
       </c>
       <c r="J548" s="63"/>
       <c r="K548" s="63" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="L548" s="63"/>
       <c r="M548" s="63"/>
@@ -39002,7 +38986,7 @@
         <v>45514</v>
       </c>
       <c r="B549" s="63" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="C549" s="63" t="s">
         <v>42</v>
@@ -39015,7 +38999,7 @@
         <v>979</v>
       </c>
       <c r="G549" s="63" t="s">
-        <v>2288</v>
+        <v>2286</v>
       </c>
       <c r="H549" s="64" t="s">
         <v>1843</v>
@@ -39023,13 +39007,13 @@
       <c r="I549" s="63"/>
       <c r="J549" s="63"/>
       <c r="K549" s="63" t="s">
+        <v>2287</v>
+      </c>
+      <c r="L549" s="63" t="s">
+        <v>2288</v>
+      </c>
+      <c r="M549" s="63" t="s">
         <v>2289</v>
-      </c>
-      <c r="L549" s="63" t="s">
-        <v>2290</v>
-      </c>
-      <c r="M549" s="63" t="s">
-        <v>2291</v>
       </c>
       <c r="N549" s="63"/>
       <c r="O549" s="63" t="s">
@@ -39059,7 +39043,7 @@
         <v>45514</v>
       </c>
       <c r="B550" s="63" t="s">
-        <v>2292</v>
+        <v>2290</v>
       </c>
       <c r="C550" s="63" t="s">
         <v>21</v>
@@ -39068,7 +39052,7 @@
       <c r="E550" s="63"/>
       <c r="F550" s="63"/>
       <c r="G550" s="63" t="s">
-        <v>2293</v>
+        <v>2291</v>
       </c>
       <c r="H550" s="64" t="s">
         <v>1843</v>
@@ -39076,10 +39060,10 @@
       <c r="I550" s="63"/>
       <c r="J550" s="63"/>
       <c r="K550" s="63" t="s">
-        <v>2294</v>
+        <v>2292</v>
       </c>
       <c r="L550" s="63" t="s">
-        <v>2295</v>
+        <v>2293</v>
       </c>
       <c r="M550" s="63"/>
       <c r="N550" s="63"/>
@@ -39110,7 +39094,7 @@
         <v>45514</v>
       </c>
       <c r="B551" s="63" t="s">
-        <v>2296</v>
+        <v>2294</v>
       </c>
       <c r="C551" s="63" t="s">
         <v>21</v>
@@ -39119,7 +39103,7 @@
       <c r="E551" s="63"/>
       <c r="F551" s="63"/>
       <c r="G551" s="63" t="s">
-        <v>2297</v>
+        <v>2295</v>
       </c>
       <c r="H551" s="64" t="s">
         <v>34</v>
@@ -39129,7 +39113,7 @@
         <v>1260</v>
       </c>
       <c r="K551" s="63" t="s">
-        <v>2298</v>
+        <v>2296</v>
       </c>
       <c r="L551" s="63"/>
       <c r="M551" s="63"/>
@@ -39161,7 +39145,7 @@
         <v>45515</v>
       </c>
       <c r="B552" s="63" t="s">
-        <v>2299</v>
+        <v>2297</v>
       </c>
       <c r="C552" s="63" t="s">
         <v>42</v>
@@ -39174,7 +39158,7 @@
         <v>1216</v>
       </c>
       <c r="G552" s="63" t="s">
-        <v>2300</v>
+        <v>2298</v>
       </c>
       <c r="H552" s="64" t="s">
         <v>1843</v>
@@ -39182,10 +39166,10 @@
       <c r="I552" s="63"/>
       <c r="J552" s="63"/>
       <c r="K552" s="63" t="s">
-        <v>2301</v>
+        <v>2299</v>
       </c>
       <c r="L552" s="63" t="s">
-        <v>2302</v>
+        <v>2300</v>
       </c>
       <c r="M552" s="63"/>
       <c r="N552" s="63"/>
@@ -39216,7 +39200,7 @@
         <v>45517</v>
       </c>
       <c r="B553" s="63" t="s">
-        <v>2303</v>
+        <v>2301</v>
       </c>
       <c r="C553" s="63" t="s">
         <v>21</v>
@@ -39229,7 +39213,7 @@
         <v>784</v>
       </c>
       <c r="G553" s="63" t="s">
-        <v>2304</v>
+        <v>2302</v>
       </c>
       <c r="H553" s="64" t="s">
         <v>698</v>
@@ -39237,7 +39221,7 @@
       <c r="I553" s="63"/>
       <c r="J553" s="63"/>
       <c r="K553" s="63" t="s">
-        <v>2305</v>
+        <v>2303</v>
       </c>
       <c r="L553" s="63"/>
       <c r="M553" s="63"/>
@@ -39269,7 +39253,7 @@
         <v>45517</v>
       </c>
       <c r="B554" s="63" t="s">
-        <v>2306</v>
+        <v>2304</v>
       </c>
       <c r="C554" s="63" t="s">
         <v>21</v>
@@ -39282,7 +39266,7 @@
         <v>1216</v>
       </c>
       <c r="G554" s="63" t="s">
-        <v>2307</v>
+        <v>2305</v>
       </c>
       <c r="H554" s="64" t="s">
         <v>698</v>
@@ -39292,7 +39276,7 @@
       </c>
       <c r="J554" s="63"/>
       <c r="K554" s="63" t="s">
-        <v>2308</v>
+        <v>2306</v>
       </c>
       <c r="L554" s="63"/>
       <c r="M554" s="63"/>
@@ -39324,7 +39308,7 @@
         <v>45518</v>
       </c>
       <c r="B555" s="63" t="s">
-        <v>2309</v>
+        <v>2307</v>
       </c>
       <c r="C555" s="63" t="s">
         <v>21</v>
@@ -39333,7 +39317,7 @@
       <c r="E555" s="63"/>
       <c r="F555" s="63"/>
       <c r="G555" s="63" t="s">
-        <v>2310</v>
+        <v>2308</v>
       </c>
       <c r="H555" s="64" t="s">
         <v>1843</v>
@@ -39341,7 +39325,7 @@
       <c r="I555" s="63"/>
       <c r="J555" s="63"/>
       <c r="K555" s="63" t="s">
-        <v>2311</v>
+        <v>2309</v>
       </c>
       <c r="L555" s="63"/>
       <c r="M555" s="63"/>
@@ -39373,7 +39357,7 @@
         <v>45519</v>
       </c>
       <c r="B556" s="63" t="s">
-        <v>2312</v>
+        <v>2310</v>
       </c>
       <c r="C556" s="63" t="s">
         <v>21</v>
@@ -39386,7 +39370,7 @@
         <v>104</v>
       </c>
       <c r="G556" s="63" t="s">
-        <v>2313</v>
+        <v>2311</v>
       </c>
       <c r="H556" s="64" t="s">
         <v>1843</v>
@@ -39396,10 +39380,10 @@
       </c>
       <c r="J556" s="63"/>
       <c r="K556" s="63" t="s">
-        <v>2314</v>
+        <v>2312</v>
       </c>
       <c r="L556" s="63" t="s">
-        <v>2315</v>
+        <v>2313</v>
       </c>
       <c r="M556" s="63"/>
       <c r="N556" s="63"/>
@@ -39430,7 +39414,7 @@
         <v>45520</v>
       </c>
       <c r="B557" s="63" t="s">
-        <v>2316</v>
+        <v>2314</v>
       </c>
       <c r="C557" s="63" t="s">
         <v>42</v>
@@ -39439,20 +39423,20 @@
       <c r="E557" s="63"/>
       <c r="F557" s="63"/>
       <c r="G557" s="63" t="s">
-        <v>2317</v>
+        <v>2315</v>
       </c>
       <c r="H557" s="64" t="s">
         <v>1843</v>
       </c>
       <c r="I557" s="63"/>
       <c r="J557" s="63" t="s">
+        <v>2316</v>
+      </c>
+      <c r="K557" s="63" t="s">
+        <v>2317</v>
+      </c>
+      <c r="L557" s="63" t="s">
         <v>2318</v>
-      </c>
-      <c r="K557" s="63" t="s">
-        <v>2319</v>
-      </c>
-      <c r="L557" s="63" t="s">
-        <v>2320</v>
       </c>
       <c r="M557" s="63"/>
       <c r="N557" s="63"/>
@@ -39483,7 +39467,7 @@
         <v>45521</v>
       </c>
       <c r="B558" s="63" t="s">
-        <v>2321</v>
+        <v>2319</v>
       </c>
       <c r="C558" s="63" t="s">
         <v>42</v>
@@ -39492,7 +39476,7 @@
       <c r="E558" s="63"/>
       <c r="F558" s="63"/>
       <c r="G558" s="63" t="s">
-        <v>2322</v>
+        <v>2320</v>
       </c>
       <c r="H558" s="64" t="s">
         <v>1843</v>
@@ -39500,13 +39484,13 @@
       <c r="I558" s="63"/>
       <c r="J558" s="63"/>
       <c r="K558" s="63" t="s">
+        <v>2321</v>
+      </c>
+      <c r="L558" s="63" t="s">
+        <v>2322</v>
+      </c>
+      <c r="M558" s="63" t="s">
         <v>2323</v>
-      </c>
-      <c r="L558" s="63" t="s">
-        <v>2324</v>
-      </c>
-      <c r="M558" s="63" t="s">
-        <v>2325</v>
       </c>
       <c r="N558" s="63"/>
       <c r="O558" s="63" t="s">
@@ -39536,7 +39520,7 @@
         <v>45521</v>
       </c>
       <c r="B559" s="63" t="s">
-        <v>2326</v>
+        <v>2324</v>
       </c>
       <c r="C559" s="63" t="s">
         <v>42</v>
@@ -39549,7 +39533,7 @@
         <v>104</v>
       </c>
       <c r="G559" s="63" t="s">
-        <v>2327</v>
+        <v>2325</v>
       </c>
       <c r="H559" s="64" t="s">
         <v>1843</v>
@@ -39559,10 +39543,10 @@
       </c>
       <c r="J559" s="63"/>
       <c r="K559" s="63" t="s">
-        <v>2328</v>
+        <v>2326</v>
       </c>
       <c r="L559" s="63" t="s">
-        <v>2329</v>
+        <v>2327</v>
       </c>
       <c r="M559" s="63"/>
       <c r="N559" s="63"/>
@@ -39593,7 +39577,7 @@
         <v>45521</v>
       </c>
       <c r="B560" s="63" t="s">
-        <v>2330</v>
+        <v>2328</v>
       </c>
       <c r="C560" s="63" t="s">
         <v>42</v>
@@ -39606,7 +39590,7 @@
         <v>104</v>
       </c>
       <c r="G560" s="63" t="s">
-        <v>2331</v>
+        <v>2329</v>
       </c>
       <c r="H560" s="64" t="s">
         <v>698</v>
@@ -39616,7 +39600,7 @@
       </c>
       <c r="J560" s="63"/>
       <c r="K560" s="63" t="s">
-        <v>2332</v>
+        <v>2330</v>
       </c>
       <c r="L560" s="63"/>
       <c r="M560" s="63"/>
@@ -39648,7 +39632,7 @@
         <v>45521</v>
       </c>
       <c r="B561" s="63" t="s">
-        <v>2333</v>
+        <v>2331</v>
       </c>
       <c r="C561" s="63" t="s">
         <v>42</v>
@@ -39657,7 +39641,7 @@
       <c r="E561" s="63"/>
       <c r="F561" s="63"/>
       <c r="G561" s="63" t="s">
-        <v>2334</v>
+        <v>2332</v>
       </c>
       <c r="H561" s="64" t="s">
         <v>1843</v>
@@ -39665,10 +39649,10 @@
       <c r="I561" s="63"/>
       <c r="J561" s="63"/>
       <c r="K561" s="63" t="s">
-        <v>2335</v>
+        <v>2333</v>
       </c>
       <c r="L561" s="63" t="s">
-        <v>2336</v>
+        <v>2334</v>
       </c>
       <c r="M561" s="63"/>
       <c r="N561" s="63"/>
@@ -39699,7 +39683,7 @@
         <v>45522</v>
       </c>
       <c r="B562" s="63" t="s">
-        <v>2337</v>
+        <v>2335</v>
       </c>
       <c r="C562" s="63" t="s">
         <v>21</v>
@@ -39708,7 +39692,7 @@
       <c r="E562" s="63"/>
       <c r="F562" s="63"/>
       <c r="G562" s="63" t="s">
-        <v>2338</v>
+        <v>2336</v>
       </c>
       <c r="H562" s="64" t="s">
         <v>34</v>
@@ -39720,10 +39704,10 @@
         <v>1260</v>
       </c>
       <c r="K562" s="63" t="s">
-        <v>2339</v>
+        <v>2337</v>
       </c>
       <c r="L562" s="63" t="s">
-        <v>2340</v>
+        <v>2338</v>
       </c>
       <c r="M562" s="63"/>
       <c r="N562" s="63"/>
@@ -39754,7 +39738,7 @@
         <v>45523</v>
       </c>
       <c r="B563" s="63" t="s">
-        <v>2341</v>
+        <v>2339</v>
       </c>
       <c r="C563" s="63" t="s">
         <v>21</v>
@@ -39767,7 +39751,7 @@
         <v>104</v>
       </c>
       <c r="G563" s="63" t="s">
-        <v>2342</v>
+        <v>2340</v>
       </c>
       <c r="H563" s="64" t="s">
         <v>1843</v>
@@ -39777,10 +39761,10 @@
       </c>
       <c r="J563" s="63"/>
       <c r="K563" s="63" t="s">
-        <v>2343</v>
+        <v>2341</v>
       </c>
       <c r="L563" s="63" t="s">
-        <v>2344</v>
+        <v>2342</v>
       </c>
       <c r="M563" s="63"/>
       <c r="N563" s="63"/>
@@ -39813,7 +39797,7 @@
         <v>45524</v>
       </c>
       <c r="B564" s="63" t="s">
-        <v>2345</v>
+        <v>2343</v>
       </c>
       <c r="C564" s="63" t="s">
         <v>21</v>
@@ -39822,7 +39806,7 @@
       <c r="E564" s="63"/>
       <c r="F564" s="63"/>
       <c r="G564" s="63" t="s">
-        <v>2346</v>
+        <v>2344</v>
       </c>
       <c r="H564" s="64" t="s">
         <v>1843</v>
@@ -39830,7 +39814,7 @@
       <c r="I564" s="63"/>
       <c r="J564" s="63"/>
       <c r="K564" s="63" t="s">
-        <v>2347</v>
+        <v>2345</v>
       </c>
       <c r="L564" s="63" t="s">
         <v>2141</v>
@@ -39864,14 +39848,14 @@
         <v>45525</v>
       </c>
       <c r="B565" s="63" t="s">
-        <v>2348</v>
+        <v>2346</v>
       </c>
       <c r="C565" s="63"/>
       <c r="D565" s="62"/>
       <c r="E565" s="63"/>
       <c r="F565" s="63"/>
       <c r="G565" s="63" t="s">
-        <v>2349</v>
+        <v>2347</v>
       </c>
       <c r="H565" s="64" t="s">
         <v>1843</v>
@@ -39879,7 +39863,7 @@
       <c r="I565" s="63"/>
       <c r="J565" s="63"/>
       <c r="K565" s="63" t="s">
-        <v>2350</v>
+        <v>2348</v>
       </c>
       <c r="L565" s="63" t="s">
         <v>2141</v>
@@ -39913,7 +39897,7 @@
         <v>45525</v>
       </c>
       <c r="B566" s="63" t="s">
-        <v>2351</v>
+        <v>2349</v>
       </c>
       <c r="C566" s="63" t="s">
         <v>21</v>
@@ -39922,7 +39906,7 @@
       <c r="E566" s="63"/>
       <c r="F566" s="63"/>
       <c r="G566" s="63" t="s">
-        <v>2352</v>
+        <v>2350</v>
       </c>
       <c r="H566" s="64" t="s">
         <v>1843</v>
@@ -39930,10 +39914,10 @@
       <c r="I566" s="63"/>
       <c r="J566" s="63"/>
       <c r="K566" s="63" t="s">
-        <v>2353</v>
+        <v>2351</v>
       </c>
       <c r="L566" s="63" t="s">
-        <v>2354</v>
+        <v>2352</v>
       </c>
       <c r="M566" s="63"/>
       <c r="N566" s="63"/>
@@ -39964,7 +39948,7 @@
         <v>45525</v>
       </c>
       <c r="B567" s="63" t="s">
-        <v>2355</v>
+        <v>2353</v>
       </c>
       <c r="C567" s="63" t="s">
         <v>42</v>
@@ -39973,7 +39957,7 @@
       <c r="E567" s="63"/>
       <c r="F567" s="63"/>
       <c r="G567" s="63" t="s">
-        <v>2356</v>
+        <v>2354</v>
       </c>
       <c r="H567" s="64" t="s">
         <v>1843</v>
@@ -39981,10 +39965,10 @@
       <c r="I567" s="63"/>
       <c r="J567" s="63"/>
       <c r="K567" s="63" t="s">
-        <v>2357</v>
+        <v>2355</v>
       </c>
       <c r="L567" s="63" t="s">
-        <v>2358</v>
+        <v>2356</v>
       </c>
       <c r="M567" s="63"/>
       <c r="N567" s="63"/>
@@ -40015,7 +39999,7 @@
         <v>45525</v>
       </c>
       <c r="B568" s="63" t="s">
-        <v>2359</v>
+        <v>2357</v>
       </c>
       <c r="C568" s="63" t="s">
         <v>42</v>
@@ -40024,16 +40008,16 @@
       <c r="E568" s="63"/>
       <c r="F568" s="63"/>
       <c r="G568" s="63" t="s">
-        <v>2360</v>
+        <v>2358</v>
       </c>
       <c r="H568" s="64"/>
       <c r="I568" s="63"/>
       <c r="J568" s="63"/>
       <c r="K568" s="63" t="s">
-        <v>2361</v>
+        <v>2359</v>
       </c>
       <c r="L568" s="63" t="s">
-        <v>2362</v>
+        <v>2360</v>
       </c>
       <c r="M568" s="63"/>
       <c r="N568" s="63"/>
@@ -40064,7 +40048,7 @@
         <v>45526</v>
       </c>
       <c r="B569" s="63" t="s">
-        <v>2363</v>
+        <v>2361</v>
       </c>
       <c r="C569" s="63" t="s">
         <v>21</v>
@@ -40073,15 +40057,15 @@
       <c r="E569" s="63"/>
       <c r="F569" s="63"/>
       <c r="G569" s="63" t="s">
-        <v>2364</v>
+        <v>2362</v>
       </c>
       <c r="H569" s="64"/>
       <c r="I569" s="63"/>
       <c r="J569" s="63" t="s">
-        <v>2365</v>
+        <v>2363</v>
       </c>
       <c r="K569" s="63" t="s">
-        <v>2366</v>
+        <v>2364</v>
       </c>
       <c r="L569" s="63"/>
       <c r="M569" s="63"/>
@@ -40113,7 +40097,7 @@
         <v>45526</v>
       </c>
       <c r="B570" s="63" t="s">
-        <v>2367</v>
+        <v>2365</v>
       </c>
       <c r="C570" s="63" t="s">
         <v>21</v>
@@ -40122,7 +40106,7 @@
       <c r="E570" s="63"/>
       <c r="F570" s="63"/>
       <c r="G570" s="63" t="s">
-        <v>2368</v>
+        <v>2366</v>
       </c>
       <c r="H570" s="64" t="s">
         <v>698</v>
@@ -40132,10 +40116,10 @@
       </c>
       <c r="J570" s="63"/>
       <c r="K570" s="63" t="s">
-        <v>2369</v>
+        <v>2367</v>
       </c>
       <c r="L570" s="63" t="s">
-        <v>2370</v>
+        <v>2368</v>
       </c>
       <c r="M570" s="63"/>
       <c r="N570" s="63"/>
@@ -40166,7 +40150,7 @@
         <v>45526</v>
       </c>
       <c r="B571" s="63" t="s">
-        <v>2371</v>
+        <v>2369</v>
       </c>
       <c r="C571" s="63" t="s">
         <v>21</v>
@@ -40175,7 +40159,7 @@
       <c r="E571" s="63"/>
       <c r="F571" s="63"/>
       <c r="G571" s="63" t="s">
-        <v>2372</v>
+        <v>2370</v>
       </c>
       <c r="H571" s="64" t="s">
         <v>698</v>
@@ -40187,10 +40171,10 @@
         <v>1260</v>
       </c>
       <c r="K571" s="63" t="s">
-        <v>2373</v>
+        <v>2371</v>
       </c>
       <c r="L571" s="63" t="s">
-        <v>2374</v>
+        <v>2372</v>
       </c>
       <c r="M571" s="63"/>
       <c r="N571" s="63"/>
@@ -40221,7 +40205,7 @@
         <v>45527</v>
       </c>
       <c r="B572" s="63" t="s">
-        <v>2375</v>
+        <v>2373</v>
       </c>
       <c r="C572" s="63" t="s">
         <v>21</v>
@@ -40234,7 +40218,7 @@
         <v>2119</v>
       </c>
       <c r="G572" s="63" t="s">
-        <v>2376</v>
+        <v>2374</v>
       </c>
       <c r="H572" s="64" t="s">
         <v>34</v>
@@ -40244,10 +40228,10 @@
       </c>
       <c r="J572" s="63"/>
       <c r="K572" s="63" t="s">
-        <v>2377</v>
+        <v>2375</v>
       </c>
       <c r="L572" s="63" t="s">
-        <v>2378</v>
+        <v>2376</v>
       </c>
       <c r="M572" s="63"/>
       <c r="N572" s="63"/>
@@ -40278,7 +40262,7 @@
         <v>45527</v>
       </c>
       <c r="B573" s="63" t="s">
-        <v>2379</v>
+        <v>2377</v>
       </c>
       <c r="C573" s="63" t="s">
         <v>21</v>
@@ -40291,7 +40275,7 @@
         <v>104</v>
       </c>
       <c r="G573" s="63" t="s">
-        <v>2380</v>
+        <v>2378</v>
       </c>
       <c r="H573" s="64" t="s">
         <v>34</v>
@@ -40301,7 +40285,7 @@
       </c>
       <c r="J573" s="63"/>
       <c r="K573" s="63" t="s">
-        <v>2381</v>
+        <v>2379</v>
       </c>
       <c r="L573" s="63"/>
       <c r="M573" s="63"/>
@@ -40333,7 +40317,7 @@
         <v>45527</v>
       </c>
       <c r="B574" s="63" t="s">
-        <v>2382</v>
+        <v>2380</v>
       </c>
       <c r="C574" s="63" t="s">
         <v>21</v>
@@ -40342,7 +40326,7 @@
       <c r="E574" s="63"/>
       <c r="F574" s="63"/>
       <c r="G574" s="63" t="s">
-        <v>2383</v>
+        <v>2381</v>
       </c>
       <c r="H574" s="64" t="s">
         <v>698</v>
@@ -40350,10 +40334,10 @@
       <c r="I574" s="63"/>
       <c r="J574" s="63"/>
       <c r="K574" s="63" t="s">
-        <v>2384</v>
+        <v>2382</v>
       </c>
       <c r="L574" s="63" t="s">
-        <v>2385</v>
+        <v>2383</v>
       </c>
       <c r="M574" s="63"/>
       <c r="N574" s="63"/>
@@ -40384,7 +40368,7 @@
         <v>45527</v>
       </c>
       <c r="B575" s="63" t="s">
-        <v>2386</v>
+        <v>2384</v>
       </c>
       <c r="C575" s="63" t="s">
         <v>21</v>
@@ -40393,7 +40377,7 @@
       <c r="E575" s="63"/>
       <c r="F575" s="63"/>
       <c r="G575" s="63" t="s">
-        <v>2387</v>
+        <v>2385</v>
       </c>
       <c r="H575" s="64" t="s">
         <v>34</v>
@@ -40401,10 +40385,10 @@
       <c r="I575" s="63"/>
       <c r="J575" s="63"/>
       <c r="K575" s="63" t="s">
-        <v>2373</v>
+        <v>2371</v>
       </c>
       <c r="L575" s="63" t="s">
-        <v>2388</v>
+        <v>2386</v>
       </c>
       <c r="M575" s="63"/>
       <c r="N575" s="63"/>
@@ -40435,7 +40419,7 @@
         <v>45527</v>
       </c>
       <c r="B576" s="63" t="s">
-        <v>2389</v>
+        <v>2387</v>
       </c>
       <c r="C576" s="63" t="s">
         <v>21</v>
@@ -40444,7 +40428,7 @@
       <c r="E576" s="63"/>
       <c r="F576" s="63"/>
       <c r="G576" s="63" t="s">
-        <v>2390</v>
+        <v>2388</v>
       </c>
       <c r="H576" s="64" t="s">
         <v>698</v>
@@ -40454,10 +40438,10 @@
         <v>1260</v>
       </c>
       <c r="K576" s="63" t="s">
-        <v>2391</v>
+        <v>2389</v>
       </c>
       <c r="L576" s="63" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="M576" s="63"/>
       <c r="N576" s="63"/>
@@ -40488,7 +40472,7 @@
         <v>45527</v>
       </c>
       <c r="B577" s="63" t="s">
-        <v>2393</v>
+        <v>2391</v>
       </c>
       <c r="C577" s="63" t="s">
         <v>21</v>
@@ -40501,10 +40485,10 @@
         <v>1216</v>
       </c>
       <c r="G577" s="63" t="s">
-        <v>2394</v>
+        <v>2392</v>
       </c>
       <c r="H577" s="64" t="s">
-        <v>2395</v>
+        <v>2393</v>
       </c>
       <c r="I577" s="63" t="s">
         <v>73</v>
@@ -40513,10 +40497,10 @@
         <v>1770</v>
       </c>
       <c r="K577" s="63" t="s">
-        <v>2396</v>
+        <v>2394</v>
       </c>
       <c r="L577" s="63" t="s">
-        <v>2397</v>
+        <v>2395</v>
       </c>
       <c r="M577" s="63"/>
       <c r="N577" s="63"/>
@@ -40554,7 +40538,7 @@
       <c r="E578" s="63"/>
       <c r="F578" s="63"/>
       <c r="G578" s="63" t="s">
-        <v>2398</v>
+        <v>2396</v>
       </c>
       <c r="H578" s="64" t="s">
         <v>698</v>
@@ -40564,10 +40548,10 @@
         <v>1770</v>
       </c>
       <c r="K578" s="63" t="s">
-        <v>2399</v>
+        <v>2397</v>
       </c>
       <c r="L578" s="63" t="s">
-        <v>2400</v>
+        <v>2398</v>
       </c>
       <c r="M578" s="63"/>
       <c r="N578" s="63"/>
@@ -40598,7 +40582,7 @@
         <v>45528</v>
       </c>
       <c r="B579" s="63" t="s">
-        <v>2401</v>
+        <v>2399</v>
       </c>
       <c r="C579" s="63" t="s">
         <v>42</v>
@@ -40611,17 +40595,17 @@
         <v>104</v>
       </c>
       <c r="G579" s="63" t="s">
-        <v>2402</v>
+        <v>2400</v>
       </c>
       <c r="H579" s="64" t="s">
         <v>698</v>
       </c>
       <c r="I579" s="63" t="s">
-        <v>2403</v>
+        <v>2401</v>
       </c>
       <c r="J579" s="63"/>
       <c r="K579" s="63" t="s">
-        <v>2404</v>
+        <v>2402</v>
       </c>
       <c r="L579" s="63"/>
       <c r="M579" s="63"/>
@@ -40653,7 +40637,7 @@
         <v>45528</v>
       </c>
       <c r="B580" s="63" t="s">
-        <v>2405</v>
+        <v>2403</v>
       </c>
       <c r="C580" s="63" t="s">
         <v>42</v>
@@ -40661,20 +40645,20 @@
       <c r="D580" s="62"/>
       <c r="E580" s="63"/>
       <c r="F580" s="63" t="s">
-        <v>2406</v>
+        <v>2404</v>
       </c>
       <c r="G580" s="63" t="s">
-        <v>2407</v>
+        <v>2405</v>
       </c>
       <c r="H580" s="64" t="s">
         <v>34</v>
       </c>
       <c r="I580" s="63" t="s">
-        <v>2408</v>
+        <v>2406</v>
       </c>
       <c r="J580" s="63"/>
       <c r="K580" s="63" t="s">
-        <v>2409</v>
+        <v>2407</v>
       </c>
       <c r="L580" s="63"/>
       <c r="M580" s="63"/>
@@ -40706,7 +40690,7 @@
         <v>45528</v>
       </c>
       <c r="B581" s="63" t="s">
-        <v>2410</v>
+        <v>2408</v>
       </c>
       <c r="C581" s="63" t="s">
         <v>21</v>
@@ -40719,17 +40703,17 @@
         <v>104</v>
       </c>
       <c r="G581" s="63" t="s">
-        <v>2411</v>
+        <v>2409</v>
       </c>
       <c r="H581" s="64" t="s">
-        <v>2395</v>
+        <v>2393</v>
       </c>
       <c r="I581" s="63" t="s">
         <v>1708</v>
       </c>
       <c r="J581" s="63"/>
       <c r="K581" s="63" t="s">
-        <v>2412</v>
+        <v>2410</v>
       </c>
       <c r="L581" s="63"/>
       <c r="M581" s="63"/>
@@ -40761,7 +40745,7 @@
         <v>45528</v>
       </c>
       <c r="B582" s="63" t="s">
-        <v>2413</v>
+        <v>2411</v>
       </c>
       <c r="C582" s="63" t="s">
         <v>21</v>
@@ -40774,7 +40758,7 @@
         <v>2146</v>
       </c>
       <c r="G582" s="63" t="s">
-        <v>2414</v>
+        <v>2412</v>
       </c>
       <c r="H582" s="64" t="s">
         <v>34</v>
@@ -40782,10 +40766,10 @@
       <c r="I582" s="63"/>
       <c r="J582" s="63"/>
       <c r="K582" s="63" t="s">
-        <v>2415</v>
+        <v>2413</v>
       </c>
       <c r="L582" s="63" t="s">
-        <v>2416</v>
+        <v>2414</v>
       </c>
       <c r="M582" s="63"/>
       <c r="N582" s="63"/>
@@ -40816,7 +40800,7 @@
         <v>45528</v>
       </c>
       <c r="B583" s="63" t="s">
-        <v>2417</v>
+        <v>2415</v>
       </c>
       <c r="C583" s="63" t="s">
         <v>42</v>
@@ -40825,18 +40809,18 @@
       <c r="E583" s="63"/>
       <c r="F583" s="63"/>
       <c r="G583" s="63" t="s">
-        <v>2418</v>
+        <v>2416</v>
       </c>
       <c r="H583" s="64"/>
       <c r="I583" s="63" t="s">
-        <v>2419</v>
+        <v>2417</v>
       </c>
       <c r="J583" s="63"/>
       <c r="K583" s="63" t="s">
-        <v>2420</v>
+        <v>2418</v>
       </c>
       <c r="L583" s="63" t="s">
-        <v>2421</v>
+        <v>2419</v>
       </c>
       <c r="M583" s="63"/>
       <c r="N583" s="63"/>
@@ -40867,7 +40851,7 @@
         <v>45528</v>
       </c>
       <c r="B584" s="63" t="s">
-        <v>2422</v>
+        <v>2420</v>
       </c>
       <c r="C584" s="63" t="s">
         <v>42</v>
@@ -40876,17 +40860,17 @@
       <c r="E584" s="63"/>
       <c r="F584" s="63"/>
       <c r="G584" s="63" t="s">
-        <v>2423</v>
+        <v>2421</v>
       </c>
       <c r="H584" s="64" t="s">
         <v>34</v>
       </c>
       <c r="I584" s="63"/>
       <c r="J584" s="63" t="s">
-        <v>2424</v>
+        <v>2422</v>
       </c>
       <c r="K584" s="63" t="s">
-        <v>2425</v>
+        <v>2423</v>
       </c>
       <c r="L584" s="63"/>
       <c r="M584" s="63"/>
@@ -40918,7 +40902,7 @@
         <v>45529</v>
       </c>
       <c r="B585" s="63" t="s">
-        <v>2426</v>
+        <v>2424</v>
       </c>
       <c r="C585" s="63" t="s">
         <v>42</v>
@@ -40927,7 +40911,7 @@
       <c r="E585" s="63"/>
       <c r="F585" s="63"/>
       <c r="G585" s="63" t="s">
-        <v>2427</v>
+        <v>2425</v>
       </c>
       <c r="H585" s="64" t="s">
         <v>34</v>
@@ -40935,7 +40919,7 @@
       <c r="I585" s="63"/>
       <c r="J585" s="63"/>
       <c r="K585" s="63" t="s">
-        <v>2428</v>
+        <v>2426</v>
       </c>
       <c r="L585" s="63"/>
       <c r="M585" s="63"/>
@@ -40967,7 +40951,7 @@
         <v>45530</v>
       </c>
       <c r="B586" s="63" t="s">
-        <v>2429</v>
+        <v>2427</v>
       </c>
       <c r="C586" s="63" t="s">
         <v>21</v>
@@ -40976,13 +40960,13 @@
       <c r="E586" s="63"/>
       <c r="F586" s="63"/>
       <c r="G586" s="63" t="s">
-        <v>2430</v>
+        <v>2428</v>
       </c>
       <c r="H586" s="64"/>
       <c r="I586" s="63"/>
       <c r="J586" s="63"/>
       <c r="K586" s="63" t="s">
-        <v>2431</v>
+        <v>2429</v>
       </c>
       <c r="L586" s="63"/>
       <c r="M586" s="63"/>
@@ -41014,7 +40998,7 @@
         <v>45531</v>
       </c>
       <c r="B587" s="63" t="s">
-        <v>2432</v>
+        <v>2430</v>
       </c>
       <c r="C587" s="63" t="s">
         <v>42</v>
@@ -41022,10 +41006,10 @@
       <c r="D587" s="62"/>
       <c r="E587" s="63"/>
       <c r="F587" s="63" t="s">
-        <v>2433</v>
+        <v>2431</v>
       </c>
       <c r="G587" s="63" t="s">
-        <v>2434</v>
+        <v>2432</v>
       </c>
       <c r="H587" s="64" t="s">
         <v>698</v>
@@ -41035,7 +41019,7 @@
       </c>
       <c r="J587" s="63"/>
       <c r="K587" s="63" t="s">
-        <v>2435</v>
+        <v>2433</v>
       </c>
       <c r="L587" s="63"/>
       <c r="M587" s="63"/>
@@ -41067,7 +41051,7 @@
         <v>45531</v>
       </c>
       <c r="B588" s="63" t="s">
-        <v>2436</v>
+        <v>2434</v>
       </c>
       <c r="C588" s="63" t="s">
         <v>21</v>
@@ -41076,17 +41060,17 @@
       <c r="E588" s="63"/>
       <c r="F588" s="63"/>
       <c r="G588" s="63" t="s">
-        <v>2437</v>
+        <v>2435</v>
       </c>
       <c r="H588" s="64" t="s">
-        <v>2395</v>
+        <v>2393</v>
       </c>
       <c r="I588" s="63" t="s">
         <v>35</v>
       </c>
       <c r="J588" s="63"/>
       <c r="K588" s="63" t="s">
-        <v>2438</v>
+        <v>2436</v>
       </c>
       <c r="L588" s="63"/>
       <c r="M588" s="63"/>
@@ -41118,7 +41102,7 @@
         <v>45531</v>
       </c>
       <c r="B589" s="63" t="s">
-        <v>2439</v>
+        <v>2437</v>
       </c>
       <c r="C589" s="63" t="s">
         <v>21</v>
@@ -41129,7 +41113,7 @@
         <v>104</v>
       </c>
       <c r="G589" s="63" t="s">
-        <v>2440</v>
+        <v>2438</v>
       </c>
       <c r="H589" s="64" t="s">
         <v>698</v>
@@ -41139,7 +41123,7 @@
       </c>
       <c r="J589" s="63"/>
       <c r="K589" s="63" t="s">
-        <v>2441</v>
+        <v>2439</v>
       </c>
       <c r="L589" s="63"/>
       <c r="M589" s="63"/>
@@ -41171,7 +41155,7 @@
         <v>45531</v>
       </c>
       <c r="B590" s="63" t="s">
-        <v>2442</v>
+        <v>2440</v>
       </c>
       <c r="C590" s="63" t="s">
         <v>21</v>
@@ -41184,7 +41168,7 @@
         <v>104</v>
       </c>
       <c r="G590" s="63" t="s">
-        <v>2443</v>
+        <v>2441</v>
       </c>
       <c r="H590" s="64" t="s">
         <v>698</v>
@@ -41194,7 +41178,7 @@
       </c>
       <c r="J590" s="63"/>
       <c r="K590" s="63" t="s">
-        <v>2444</v>
+        <v>2442</v>
       </c>
       <c r="L590" s="63"/>
       <c r="M590" s="63"/>
@@ -41226,7 +41210,7 @@
         <v>45531</v>
       </c>
       <c r="B591" s="63" t="s">
-        <v>2445</v>
+        <v>2443</v>
       </c>
       <c r="C591" s="63" t="s">
         <v>21</v>
@@ -41239,17 +41223,17 @@
         <v>104</v>
       </c>
       <c r="G591" s="63" t="s">
+        <v>2444</v>
+      </c>
+      <c r="H591" s="64" t="s">
+        <v>2445</v>
+      </c>
+      <c r="I591" s="63" t="s">
         <v>2446</v>
-      </c>
-      <c r="H591" s="64" t="s">
-        <v>2447</v>
-      </c>
-      <c r="I591" s="63" t="s">
-        <v>2448</v>
       </c>
       <c r="J591" s="63"/>
       <c r="K591" s="63" t="s">
-        <v>2449</v>
+        <v>2447</v>
       </c>
       <c r="L591" s="63"/>
       <c r="M591" s="63"/>
@@ -41281,7 +41265,7 @@
         <v>45531</v>
       </c>
       <c r="B592" s="63" t="s">
-        <v>2450</v>
+        <v>2448</v>
       </c>
       <c r="C592" s="63" t="s">
         <v>21</v>
@@ -41290,7 +41274,7 @@
       <c r="E592" s="63"/>
       <c r="F592" s="63"/>
       <c r="G592" s="63" t="s">
-        <v>2451</v>
+        <v>2449</v>
       </c>
       <c r="H592" s="64" t="s">
         <v>1843</v>
@@ -41298,7 +41282,7 @@
       <c r="I592" s="63"/>
       <c r="J592" s="63"/>
       <c r="K592" s="63" t="s">
-        <v>2452</v>
+        <v>2450</v>
       </c>
       <c r="L592" s="63"/>
       <c r="M592" s="63"/>
@@ -41330,7 +41314,7 @@
         <v>45532</v>
       </c>
       <c r="B593" s="63" t="s">
-        <v>2453</v>
+        <v>2451</v>
       </c>
       <c r="C593" s="63" t="s">
         <v>42</v>
@@ -41339,7 +41323,7 @@
       <c r="E593" s="63"/>
       <c r="F593" s="63"/>
       <c r="G593" s="63" t="s">
-        <v>2454</v>
+        <v>2452</v>
       </c>
       <c r="H593" s="64" t="s">
         <v>1843</v>
@@ -41347,7 +41331,7 @@
       <c r="I593" s="63"/>
       <c r="J593" s="63"/>
       <c r="K593" s="63" t="s">
-        <v>2455</v>
+        <v>2453</v>
       </c>
       <c r="L593" s="63"/>
       <c r="M593" s="63"/>
@@ -41379,7 +41363,7 @@
         <v>45532</v>
       </c>
       <c r="B594" s="63" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="C594" s="63" t="s">
         <v>42</v>
@@ -41390,7 +41374,7 @@
       </c>
       <c r="F594" s="63"/>
       <c r="G594" s="63" t="s">
-        <v>2457</v>
+        <v>2455</v>
       </c>
       <c r="H594" s="64" t="s">
         <v>698</v>
@@ -41400,7 +41384,7 @@
       </c>
       <c r="J594" s="63"/>
       <c r="K594" s="63" t="s">
-        <v>2458</v>
+        <v>2456</v>
       </c>
       <c r="L594" s="63"/>
       <c r="M594" s="63"/>
@@ -41445,7 +41429,7 @@
         <v>2076</v>
       </c>
       <c r="G595" s="63" t="s">
-        <v>2459</v>
+        <v>2457</v>
       </c>
       <c r="H595" s="64" t="s">
         <v>698</v>
@@ -41455,7 +41439,7 @@
       </c>
       <c r="J595" s="63"/>
       <c r="K595" s="63" t="s">
-        <v>2460</v>
+        <v>2458</v>
       </c>
       <c r="L595" s="63"/>
       <c r="M595" s="63"/>
@@ -41487,7 +41471,7 @@
         <v>45532</v>
       </c>
       <c r="B596" s="63" t="s">
-        <v>2461</v>
+        <v>2459</v>
       </c>
       <c r="C596" s="63" t="s">
         <v>21</v>
@@ -41497,10 +41481,10 @@
         <v>286</v>
       </c>
       <c r="F596" s="63" t="s">
-        <v>2462</v>
+        <v>2460</v>
       </c>
       <c r="G596" s="63" t="s">
-        <v>2463</v>
+        <v>2461</v>
       </c>
       <c r="H596" s="64" t="s">
         <v>698</v>
@@ -41509,10 +41493,10 @@
         <v>73</v>
       </c>
       <c r="J596" s="63" t="s">
-        <v>2464</v>
+        <v>2462</v>
       </c>
       <c r="K596" s="63" t="s">
-        <v>2465</v>
+        <v>2463</v>
       </c>
       <c r="L596" s="63"/>
       <c r="M596" s="63"/>
@@ -41544,7 +41528,7 @@
         <v>45532</v>
       </c>
       <c r="B597" s="63" t="s">
-        <v>2466</v>
+        <v>2464</v>
       </c>
       <c r="C597" s="63" t="s">
         <v>21</v>
@@ -41557,17 +41541,17 @@
         <v>104</v>
       </c>
       <c r="G597" s="63" t="s">
-        <v>2467</v>
+        <v>2465</v>
       </c>
       <c r="H597" s="64" t="s">
-        <v>2447</v>
+        <v>2445</v>
       </c>
       <c r="I597" s="63" t="s">
         <v>1759</v>
       </c>
       <c r="J597" s="63"/>
       <c r="K597" s="63" t="s">
-        <v>2460</v>
+        <v>2458</v>
       </c>
       <c r="L597" s="63"/>
       <c r="M597" s="63"/>
@@ -41599,7 +41583,7 @@
         <v>45532</v>
       </c>
       <c r="B598" s="63" t="s">
-        <v>2468</v>
+        <v>2466</v>
       </c>
       <c r="C598" s="63" t="s">
         <v>21</v>
@@ -41608,15 +41592,15 @@
       <c r="E598" s="63"/>
       <c r="F598" s="63"/>
       <c r="G598" s="63" t="s">
-        <v>2469</v>
+        <v>2467</v>
       </c>
       <c r="H598" s="64" t="s">
-        <v>2447</v>
+        <v>2445</v>
       </c>
       <c r="I598" s="63"/>
       <c r="J598" s="63"/>
       <c r="K598" s="63" t="s">
-        <v>2470</v>
+        <v>2468</v>
       </c>
       <c r="L598" s="63"/>
       <c r="M598" s="63"/>
@@ -41648,7 +41632,7 @@
         <v>45533</v>
       </c>
       <c r="B599" s="63" t="s">
-        <v>2471</v>
+        <v>2469</v>
       </c>
       <c r="C599" s="63" t="s">
         <v>42</v>
@@ -41661,7 +41645,7 @@
         <v>104</v>
       </c>
       <c r="G599" s="63" t="s">
-        <v>2472</v>
+        <v>2470</v>
       </c>
       <c r="H599" s="64" t="s">
         <v>1843</v>
@@ -41671,7 +41655,7 @@
       </c>
       <c r="J599" s="63"/>
       <c r="K599" s="63" t="s">
-        <v>2473</v>
+        <v>2471</v>
       </c>
       <c r="L599" s="63" t="s">
         <v>1869</v>
@@ -41705,7 +41689,7 @@
         <v>45533</v>
       </c>
       <c r="B600" s="63" t="s">
-        <v>2474</v>
+        <v>2472</v>
       </c>
       <c r="C600" s="63" t="s">
         <v>21</v>
@@ -41714,7 +41698,7 @@
       <c r="E600" s="63"/>
       <c r="F600" s="63"/>
       <c r="G600" s="63" t="s">
-        <v>2475</v>
+        <v>2473</v>
       </c>
       <c r="H600" s="64" t="s">
         <v>698</v>
@@ -41722,7 +41706,7 @@
       <c r="I600" s="63"/>
       <c r="J600" s="63"/>
       <c r="K600" s="63" t="s">
-        <v>2476</v>
+        <v>2474</v>
       </c>
       <c r="L600" s="63"/>
       <c r="M600" s="63"/>
@@ -41754,7 +41738,7 @@
         <v>45533</v>
       </c>
       <c r="B601" s="63" t="s">
-        <v>2477</v>
+        <v>2475</v>
       </c>
       <c r="C601" s="63" t="s">
         <v>42</v>
@@ -41767,7 +41751,7 @@
         <v>104</v>
       </c>
       <c r="G601" s="63" t="s">
-        <v>2478</v>
+        <v>2476</v>
       </c>
       <c r="H601" s="64" t="s">
         <v>698</v>
@@ -41777,7 +41761,7 @@
       </c>
       <c r="J601" s="63"/>
       <c r="K601" s="63" t="s">
-        <v>2473</v>
+        <v>2471</v>
       </c>
       <c r="L601" s="63"/>
       <c r="M601" s="63"/>
@@ -41818,7 +41802,7 @@
       <c r="E602" s="63"/>
       <c r="F602" s="63"/>
       <c r="G602" s="63" t="s">
-        <v>2479</v>
+        <v>2477</v>
       </c>
       <c r="H602" s="64" t="s">
         <v>1843</v>
@@ -41826,7 +41810,7 @@
       <c r="I602" s="63"/>
       <c r="J602" s="63"/>
       <c r="K602" s="63" t="s">
-        <v>2480</v>
+        <v>2478</v>
       </c>
       <c r="L602" s="63"/>
       <c r="M602" s="63"/>
@@ -41858,7 +41842,7 @@
         <v>45533</v>
       </c>
       <c r="B603" s="63" t="s">
-        <v>2481</v>
+        <v>2479</v>
       </c>
       <c r="C603" s="63" t="s">
         <v>21</v>
@@ -41871,7 +41855,7 @@
         <v>104</v>
       </c>
       <c r="G603" s="63" t="s">
-        <v>2482</v>
+        <v>2480</v>
       </c>
       <c r="H603" s="64" t="s">
         <v>698</v>
@@ -41881,7 +41865,7 @@
       </c>
       <c r="J603" s="63"/>
       <c r="K603" s="63" t="s">
-        <v>2483</v>
+        <v>2481</v>
       </c>
       <c r="L603" s="63"/>
       <c r="M603" s="63"/>
@@ -41913,7 +41897,7 @@
         <v>45533</v>
       </c>
       <c r="B604" s="63" t="s">
-        <v>2484</v>
+        <v>2482</v>
       </c>
       <c r="C604" s="63" t="s">
         <v>21</v>
@@ -41922,13 +41906,13 @@
       <c r="E604" s="63"/>
       <c r="F604" s="63"/>
       <c r="G604" s="63" t="s">
-        <v>2485</v>
+        <v>2483</v>
       </c>
       <c r="H604" s="64"/>
       <c r="I604" s="63"/>
       <c r="J604" s="63"/>
       <c r="K604" s="63" t="s">
-        <v>2486</v>
+        <v>2484</v>
       </c>
       <c r="L604" s="63"/>
       <c r="M604" s="63"/>
@@ -41960,7 +41944,7 @@
         <v>45533</v>
       </c>
       <c r="B605" s="63" t="s">
-        <v>2487</v>
+        <v>2485</v>
       </c>
       <c r="C605" s="63" t="s">
         <v>21</v>
@@ -41973,17 +41957,17 @@
         <v>104</v>
       </c>
       <c r="G605" s="63" t="s">
-        <v>2488</v>
+        <v>2486</v>
       </c>
       <c r="H605" s="64" t="s">
-        <v>2489</v>
+        <v>2487</v>
       </c>
       <c r="I605" s="63" t="s">
         <v>73</v>
       </c>
       <c r="J605" s="63"/>
       <c r="K605" s="63" t="s">
-        <v>2490</v>
+        <v>2488</v>
       </c>
       <c r="L605" s="63"/>
       <c r="M605" s="63"/>
@@ -42015,7 +41999,7 @@
         <v>45533</v>
       </c>
       <c r="B606" s="63" t="s">
-        <v>2491</v>
+        <v>2489</v>
       </c>
       <c r="C606" s="63" t="s">
         <v>21</v>
@@ -42028,7 +42012,7 @@
         <v>104</v>
       </c>
       <c r="G606" s="63" t="s">
-        <v>2492</v>
+        <v>2490</v>
       </c>
       <c r="H606" s="64" t="s">
         <v>1843</v>
@@ -42036,7 +42020,7 @@
       <c r="I606" s="63"/>
       <c r="J606" s="63"/>
       <c r="K606" s="63" t="s">
-        <v>2493</v>
+        <v>2491</v>
       </c>
       <c r="L606" s="63"/>
       <c r="M606" s="63"/>
@@ -42081,17 +42065,17 @@
         <v>104</v>
       </c>
       <c r="G607" s="63" t="s">
-        <v>2494</v>
+        <v>2492</v>
       </c>
       <c r="H607" s="64" t="s">
         <v>1843</v>
       </c>
       <c r="I607" s="63" t="s">
-        <v>2495</v>
+        <v>2493</v>
       </c>
       <c r="J607" s="63"/>
       <c r="K607" s="63" t="s">
-        <v>2496</v>
+        <v>2494</v>
       </c>
       <c r="L607" s="63"/>
       <c r="M607" s="63"/>
@@ -42123,7 +42107,7 @@
         <v>45534</v>
       </c>
       <c r="B608" s="63" t="s">
-        <v>2497</v>
+        <v>2495</v>
       </c>
       <c r="C608" s="63" t="s">
         <v>42</v>
@@ -42136,7 +42120,7 @@
         <v>104</v>
       </c>
       <c r="G608" s="63" t="s">
-        <v>2498</v>
+        <v>2496</v>
       </c>
       <c r="H608" s="64" t="s">
         <v>34</v>
@@ -42146,7 +42130,7 @@
       </c>
       <c r="J608" s="63"/>
       <c r="K608" s="63" t="s">
-        <v>2496</v>
+        <v>2494</v>
       </c>
       <c r="L608" s="63"/>
       <c r="M608" s="63"/>
@@ -42178,7 +42162,7 @@
         <v>45534</v>
       </c>
       <c r="B609" s="63" t="s">
-        <v>2499</v>
+        <v>2497</v>
       </c>
       <c r="C609" s="63" t="s">
         <v>42</v>
@@ -42187,7 +42171,7 @@
       <c r="E609" s="63"/>
       <c r="F609" s="63"/>
       <c r="G609" s="63" t="s">
-        <v>2500</v>
+        <v>2498</v>
       </c>
       <c r="H609" s="64" t="s">
         <v>1843</v>
@@ -42195,7 +42179,7 @@
       <c r="I609" s="63"/>
       <c r="J609" s="63"/>
       <c r="K609" s="63" t="s">
-        <v>2501</v>
+        <v>2499</v>
       </c>
       <c r="L609" s="63"/>
       <c r="M609" s="63"/>
@@ -42227,7 +42211,7 @@
         <v>45534</v>
       </c>
       <c r="B610" s="63" t="s">
-        <v>2502</v>
+        <v>2500</v>
       </c>
       <c r="C610" s="63" t="s">
         <v>42</v>
@@ -42236,7 +42220,7 @@
       <c r="E610" s="63"/>
       <c r="F610" s="63"/>
       <c r="G610" s="63" t="s">
-        <v>2503</v>
+        <v>2501</v>
       </c>
       <c r="H610" s="64" t="s">
         <v>1843</v>
@@ -42244,7 +42228,7 @@
       <c r="I610" s="63"/>
       <c r="J610" s="63"/>
       <c r="K610" s="63" t="s">
-        <v>2501</v>
+        <v>2499</v>
       </c>
       <c r="L610" s="63"/>
       <c r="M610" s="63"/>
@@ -42276,7 +42260,7 @@
         <v>45534</v>
       </c>
       <c r="B611" s="63" t="s">
-        <v>2504</v>
+        <v>2502</v>
       </c>
       <c r="C611" s="63" t="s">
         <v>42</v>
@@ -42289,7 +42273,7 @@
         <v>1216</v>
       </c>
       <c r="G611" s="63" t="s">
-        <v>2505</v>
+        <v>2503</v>
       </c>
       <c r="H611" s="64" t="s">
         <v>1843</v>
@@ -42297,7 +42281,7 @@
       <c r="I611" s="63"/>
       <c r="J611" s="63"/>
       <c r="K611" s="63" t="s">
-        <v>2506</v>
+        <v>2504</v>
       </c>
       <c r="L611" s="63"/>
       <c r="M611" s="63"/>
@@ -42329,7 +42313,7 @@
         <v>45534</v>
       </c>
       <c r="B612" s="63" t="s">
-        <v>2507</v>
+        <v>2505</v>
       </c>
       <c r="C612" s="63" t="s">
         <v>21</v>
@@ -42338,7 +42322,7 @@
       <c r="E612" s="63"/>
       <c r="F612" s="63"/>
       <c r="G612" s="63" t="s">
-        <v>2508</v>
+        <v>2506</v>
       </c>
       <c r="H612" s="64" t="s">
         <v>1843</v>
@@ -42346,7 +42330,7 @@
       <c r="I612" s="63"/>
       <c r="J612" s="63"/>
       <c r="K612" s="63" t="s">
-        <v>2509</v>
+        <v>2507</v>
       </c>
       <c r="L612" s="63"/>
       <c r="M612" s="63"/>
@@ -42378,7 +42362,7 @@
         <v>45535</v>
       </c>
       <c r="B613" s="63" t="s">
-        <v>2510</v>
+        <v>2508</v>
       </c>
       <c r="C613" s="63" t="s">
         <v>42</v>
@@ -42387,7 +42371,7 @@
       <c r="E613" s="63"/>
       <c r="F613" s="63"/>
       <c r="G613" s="63" t="s">
-        <v>2511</v>
+        <v>2509</v>
       </c>
       <c r="H613" s="64" t="s">
         <v>1843</v>
@@ -42395,7 +42379,7 @@
       <c r="I613" s="63"/>
       <c r="J613" s="63"/>
       <c r="K613" s="63" t="s">
-        <v>2512</v>
+        <v>2510</v>
       </c>
       <c r="L613" s="63"/>
       <c r="M613" s="63"/>
@@ -42427,7 +42411,7 @@
         <v>45536</v>
       </c>
       <c r="B614" s="63" t="s">
-        <v>2513</v>
+        <v>2511</v>
       </c>
       <c r="C614" s="63" t="s">
         <v>42</v>
@@ -42436,7 +42420,7 @@
       <c r="E614" s="63"/>
       <c r="F614" s="63"/>
       <c r="G614" s="63" t="s">
-        <v>2514</v>
+        <v>2512</v>
       </c>
       <c r="H614" s="64" t="s">
         <v>698</v>
@@ -42444,7 +42428,7 @@
       <c r="I614" s="63"/>
       <c r="J614" s="63"/>
       <c r="K614" s="63" t="s">
-        <v>2515</v>
+        <v>2513</v>
       </c>
       <c r="L614" s="63"/>
       <c r="M614" s="63"/>
@@ -42476,7 +42460,7 @@
         <v>45537</v>
       </c>
       <c r="B615" s="63" t="s">
-        <v>2516</v>
+        <v>2514</v>
       </c>
       <c r="C615" s="63" t="s">
         <v>42</v>
@@ -42485,13 +42469,13 @@
       <c r="E615" s="63"/>
       <c r="F615" s="63"/>
       <c r="G615" s="63" t="s">
-        <v>2517</v>
+        <v>2515</v>
       </c>
       <c r="H615" s="64"/>
       <c r="I615" s="63"/>
       <c r="J615" s="63"/>
       <c r="K615" s="63" t="s">
-        <v>2518</v>
+        <v>2516</v>
       </c>
       <c r="L615" s="63"/>
       <c r="M615" s="63"/>
@@ -42523,7 +42507,7 @@
         <v>45537</v>
       </c>
       <c r="B616" s="63" t="s">
-        <v>2519</v>
+        <v>2517</v>
       </c>
       <c r="C616" s="63" t="s">
         <v>21</v>
@@ -42532,7 +42516,7 @@
       <c r="E616" s="63"/>
       <c r="F616" s="63"/>
       <c r="G616" s="63" t="s">
-        <v>2520</v>
+        <v>2518</v>
       </c>
       <c r="H616" s="64" t="s">
         <v>1843</v>
@@ -42540,7 +42524,7 @@
       <c r="I616" s="63"/>
       <c r="J616" s="63"/>
       <c r="K616" s="63" t="s">
-        <v>2521</v>
+        <v>2519</v>
       </c>
       <c r="L616" s="63"/>
       <c r="M616" s="63"/>
@@ -42572,7 +42556,7 @@
         <v>45538</v>
       </c>
       <c r="B617" s="63" t="s">
-        <v>2522</v>
+        <v>2520</v>
       </c>
       <c r="C617" s="63" t="s">
         <v>42</v>
@@ -42585,17 +42569,17 @@
         <v>2076</v>
       </c>
       <c r="G617" s="63" t="s">
-        <v>2523</v>
+        <v>2521</v>
       </c>
       <c r="H617" s="64" t="s">
         <v>1843</v>
       </c>
       <c r="I617" s="63" t="s">
-        <v>2524</v>
+        <v>2522</v>
       </c>
       <c r="J617" s="63"/>
       <c r="K617" s="63" t="s">
-        <v>2525</v>
+        <v>2523</v>
       </c>
       <c r="L617" s="63"/>
       <c r="M617" s="63"/>
@@ -42627,7 +42611,7 @@
         <v>45538</v>
       </c>
       <c r="B618" s="63" t="s">
-        <v>2526</v>
+        <v>2524</v>
       </c>
       <c r="C618" s="63" t="s">
         <v>42</v>
@@ -42640,7 +42624,7 @@
         <v>104</v>
       </c>
       <c r="G618" s="63" t="s">
-        <v>2527</v>
+        <v>2525</v>
       </c>
       <c r="H618" s="64"/>
       <c r="I618" s="63" t="s">
@@ -42648,7 +42632,7 @@
       </c>
       <c r="J618" s="63"/>
       <c r="K618" s="63" t="s">
-        <v>2528</v>
+        <v>2526</v>
       </c>
       <c r="L618" s="63"/>
       <c r="M618" s="63"/>
@@ -42680,7 +42664,7 @@
         <v>45538</v>
       </c>
       <c r="B619" s="63" t="s">
-        <v>2529</v>
+        <v>2527</v>
       </c>
       <c r="C619" s="63" t="s">
         <v>21</v>
@@ -42689,15 +42673,15 @@
       <c r="E619" s="63"/>
       <c r="F619" s="63"/>
       <c r="G619" s="63" t="s">
-        <v>2530</v>
+        <v>2528</v>
       </c>
       <c r="H619" s="64" t="s">
-        <v>2531</v>
+        <v>2529</v>
       </c>
       <c r="I619" s="63"/>
       <c r="J619" s="63"/>
       <c r="K619" s="63" t="s">
-        <v>2532</v>
+        <v>2530</v>
       </c>
       <c r="L619" s="63"/>
       <c r="M619" s="63"/>
@@ -42729,7 +42713,7 @@
         <v>45538</v>
       </c>
       <c r="B620" s="63" t="s">
-        <v>2533</v>
+        <v>2531</v>
       </c>
       <c r="C620" s="63" t="s">
         <v>42</v>
@@ -42738,15 +42722,15 @@
       <c r="E620" s="63"/>
       <c r="F620" s="63"/>
       <c r="G620" s="63" t="s">
-        <v>2534</v>
+        <v>2532</v>
       </c>
       <c r="H620" s="64" t="s">
-        <v>2531</v>
+        <v>2529</v>
       </c>
       <c r="I620" s="63"/>
       <c r="J620" s="63"/>
       <c r="K620" s="63" t="s">
-        <v>2535</v>
+        <v>2533</v>
       </c>
       <c r="L620" s="63"/>
       <c r="M620" s="63"/>
@@ -42787,7 +42771,7 @@
       <c r="E621" s="63"/>
       <c r="F621" s="63"/>
       <c r="G621" s="63" t="s">
-        <v>2536</v>
+        <v>2534</v>
       </c>
       <c r="H621" s="64" t="s">
         <v>1843</v>
@@ -42795,7 +42779,7 @@
       <c r="I621" s="63"/>
       <c r="J621" s="63"/>
       <c r="K621" s="63" t="s">
-        <v>2537</v>
+        <v>2535</v>
       </c>
       <c r="L621" s="63"/>
       <c r="M621" s="63"/>
@@ -42827,7 +42811,7 @@
         <v>45538</v>
       </c>
       <c r="B622" s="63" t="s">
-        <v>2538</v>
+        <v>2536</v>
       </c>
       <c r="C622" s="63" t="s">
         <v>21</v>
@@ -42836,7 +42820,7 @@
       <c r="E622" s="63"/>
       <c r="F622" s="63"/>
       <c r="G622" s="63" t="s">
-        <v>2539</v>
+        <v>2537</v>
       </c>
       <c r="H622" s="64" t="s">
         <v>1843</v>
@@ -42844,10 +42828,10 @@
       <c r="I622" s="63"/>
       <c r="J622" s="63"/>
       <c r="K622" s="63" t="s">
-        <v>2540</v>
+        <v>2538</v>
       </c>
       <c r="L622" s="63" t="s">
-        <v>2541</v>
+        <v>2539</v>
       </c>
       <c r="M622" s="63"/>
       <c r="N622" s="63"/>
@@ -42878,7 +42862,7 @@
         <v>45538</v>
       </c>
       <c r="B623" s="63" t="s">
-        <v>2542</v>
+        <v>2540</v>
       </c>
       <c r="C623" s="63" t="s">
         <v>21</v>
@@ -42887,7 +42871,7 @@
       <c r="E623" s="63"/>
       <c r="F623" s="63"/>
       <c r="G623" s="63" t="s">
-        <v>2543</v>
+        <v>2541</v>
       </c>
       <c r="H623" s="64" t="s">
         <v>1843</v>
@@ -42897,7 +42881,7 @@
       </c>
       <c r="J623" s="63"/>
       <c r="K623" s="63" t="s">
-        <v>2544</v>
+        <v>2542</v>
       </c>
       <c r="L623" s="63"/>
       <c r="M623" s="63"/>
@@ -42929,7 +42913,7 @@
         <v>45539</v>
       </c>
       <c r="B624" s="63" t="s">
-        <v>2545</v>
+        <v>2543</v>
       </c>
       <c r="C624" s="63" t="s">
         <v>42</v>
@@ -42942,7 +42926,7 @@
         <v>104</v>
       </c>
       <c r="G624" s="63" t="s">
-        <v>2546</v>
+        <v>2544</v>
       </c>
       <c r="H624" s="64" t="s">
         <v>1843</v>
@@ -42950,7 +42934,7 @@
       <c r="I624" s="63"/>
       <c r="J624" s="63"/>
       <c r="K624" s="63" t="s">
-        <v>2547</v>
+        <v>2545</v>
       </c>
       <c r="L624" s="63"/>
       <c r="M624" s="63"/>
@@ -42982,7 +42966,7 @@
         <v>45539</v>
       </c>
       <c r="B625" s="63" t="s">
-        <v>2548</v>
+        <v>2546</v>
       </c>
       <c r="C625" s="63" t="s">
         <v>21</v>
@@ -42991,18 +42975,18 @@
       <c r="E625" s="63"/>
       <c r="F625" s="63"/>
       <c r="G625" s="63" t="s">
-        <v>2549</v>
+        <v>2547</v>
       </c>
       <c r="H625" s="64" t="s">
-        <v>2531</v>
+        <v>2529</v>
       </c>
       <c r="I625" s="63"/>
       <c r="J625" s="63"/>
       <c r="K625" s="63" t="s">
-        <v>2550</v>
+        <v>2548</v>
       </c>
       <c r="L625" s="63" t="s">
-        <v>2551</v>
+        <v>2549</v>
       </c>
       <c r="M625" s="63"/>
       <c r="N625" s="63"/>
@@ -43033,7 +43017,7 @@
         <v>45539</v>
       </c>
       <c r="B626" s="63" t="s">
-        <v>2484</v>
+        <v>2482</v>
       </c>
       <c r="C626" s="63" t="s">
         <v>21</v>
@@ -43046,17 +43030,17 @@
         <v>104</v>
       </c>
       <c r="G626" s="63" t="s">
-        <v>2485</v>
+        <v>2483</v>
       </c>
       <c r="H626" s="64" t="s">
-        <v>2552</v>
+        <v>2550</v>
       </c>
       <c r="I626" s="63" t="s">
         <v>73</v>
       </c>
       <c r="J626" s="63"/>
       <c r="K626" s="63" t="s">
-        <v>2553</v>
+        <v>2551</v>
       </c>
       <c r="L626" s="63"/>
       <c r="M626" s="63"/>
@@ -43088,7 +43072,7 @@
         <v>45540</v>
       </c>
       <c r="B627" s="63" t="s">
-        <v>2554</v>
+        <v>2552</v>
       </c>
       <c r="C627" s="63" t="s">
         <v>42</v>
@@ -43097,7 +43081,7 @@
       <c r="E627" s="63"/>
       <c r="F627" s="63"/>
       <c r="G627" s="63" t="s">
-        <v>2555</v>
+        <v>2553</v>
       </c>
       <c r="H627" s="64" t="s">
         <v>1843</v>
@@ -43107,7 +43091,7 @@
       </c>
       <c r="J627" s="63"/>
       <c r="K627" s="63" t="s">
-        <v>2556</v>
+        <v>2554</v>
       </c>
       <c r="L627" s="63"/>
       <c r="M627" s="63"/>
@@ -43139,7 +43123,7 @@
         <v>45540</v>
       </c>
       <c r="B628" s="63" t="s">
-        <v>2557</v>
+        <v>2555</v>
       </c>
       <c r="C628" s="63" t="s">
         <v>42</v>
@@ -43148,7 +43132,7 @@
       <c r="E628" s="63"/>
       <c r="F628" s="63"/>
       <c r="G628" s="63" t="s">
-        <v>2558</v>
+        <v>2556</v>
       </c>
       <c r="H628" s="64" t="s">
         <v>1843</v>
@@ -43156,7 +43140,7 @@
       <c r="I628" s="63"/>
       <c r="J628" s="63"/>
       <c r="K628" s="63" t="s">
-        <v>2559</v>
+        <v>2557</v>
       </c>
       <c r="L628" s="63"/>
       <c r="M628" s="63"/>
@@ -43188,7 +43172,7 @@
         <v>45540</v>
       </c>
       <c r="B629" s="63" t="s">
-        <v>2560</v>
+        <v>2558</v>
       </c>
       <c r="C629" s="63" t="s">
         <v>21</v>
@@ -43197,7 +43181,7 @@
       <c r="E629" s="63"/>
       <c r="F629" s="63"/>
       <c r="G629" s="63" t="s">
-        <v>2561</v>
+        <v>2559</v>
       </c>
       <c r="H629" s="64" t="s">
         <v>1843</v>
@@ -43205,7 +43189,7 @@
       <c r="I629" s="63"/>
       <c r="J629" s="63"/>
       <c r="K629" s="63" t="s">
-        <v>2562</v>
+        <v>2560</v>
       </c>
       <c r="L629" s="63"/>
       <c r="M629" s="63"/>
@@ -43237,7 +43221,7 @@
         <v>45540</v>
       </c>
       <c r="B630" s="63" t="s">
-        <v>2563</v>
+        <v>2561</v>
       </c>
       <c r="C630" s="63" t="s">
         <v>42</v>
@@ -43246,7 +43230,7 @@
       <c r="E630" s="63"/>
       <c r="F630" s="63"/>
       <c r="G630" s="63" t="s">
-        <v>2564</v>
+        <v>2562</v>
       </c>
       <c r="H630" s="64" t="s">
         <v>1843</v>
@@ -43256,7 +43240,7 @@
       </c>
       <c r="J630" s="63"/>
       <c r="K630" s="63" t="s">
-        <v>2565</v>
+        <v>2563</v>
       </c>
       <c r="L630" s="63"/>
       <c r="M630" s="63"/>
@@ -43288,7 +43272,7 @@
         <v>45540</v>
       </c>
       <c r="B631" s="63" t="s">
-        <v>2566</v>
+        <v>2564</v>
       </c>
       <c r="C631" s="63" t="s">
         <v>21</v>
@@ -43297,7 +43281,7 @@
       <c r="E631" s="63"/>
       <c r="F631" s="63"/>
       <c r="G631" s="63" t="s">
-        <v>2567</v>
+        <v>2565</v>
       </c>
       <c r="H631" s="64" t="s">
         <v>1843</v>
@@ -43305,7 +43289,7 @@
       <c r="I631" s="63"/>
       <c r="J631" s="63"/>
       <c r="K631" s="63" t="s">
-        <v>2568</v>
+        <v>2566</v>
       </c>
       <c r="L631" s="63"/>
       <c r="M631" s="63"/>
@@ -43337,7 +43321,7 @@
         <v>45541</v>
       </c>
       <c r="B632" s="63" t="s">
-        <v>2569</v>
+        <v>2567</v>
       </c>
       <c r="C632" s="63" t="s">
         <v>42</v>
@@ -43346,7 +43330,7 @@
       <c r="E632" s="63"/>
       <c r="F632" s="63"/>
       <c r="G632" s="63" t="s">
-        <v>2570</v>
+        <v>2568</v>
       </c>
       <c r="H632" s="64" t="s">
         <v>1843</v>
@@ -43354,7 +43338,7 @@
       <c r="I632" s="63"/>
       <c r="J632" s="63"/>
       <c r="K632" s="63" t="s">
-        <v>2571</v>
+        <v>2569</v>
       </c>
       <c r="L632" s="63"/>
       <c r="M632" s="63"/>
@@ -43386,7 +43370,7 @@
         <v>45541</v>
       </c>
       <c r="B633" s="63" t="s">
-        <v>2572</v>
+        <v>2570</v>
       </c>
       <c r="C633" s="63" t="s">
         <v>42</v>
@@ -43395,7 +43379,7 @@
       <c r="E633" s="63"/>
       <c r="F633" s="63"/>
       <c r="G633" s="63" t="s">
-        <v>2573</v>
+        <v>2571</v>
       </c>
       <c r="H633" s="64" t="s">
         <v>1843</v>
@@ -43405,7 +43389,7 @@
       </c>
       <c r="J633" s="63"/>
       <c r="K633" s="63" t="s">
-        <v>2574</v>
+        <v>2572</v>
       </c>
       <c r="L633" s="63"/>
       <c r="M633" s="63"/>
@@ -43437,7 +43421,7 @@
         <v>45541</v>
       </c>
       <c r="B634" s="63" t="s">
-        <v>2575</v>
+        <v>2573</v>
       </c>
       <c r="C634" s="63" t="s">
         <v>42</v>
@@ -43446,13 +43430,13 @@
       <c r="E634" s="63"/>
       <c r="F634" s="63"/>
       <c r="G634" s="63" t="s">
-        <v>2576</v>
+        <v>2574</v>
       </c>
       <c r="H634" s="64"/>
       <c r="I634" s="63"/>
       <c r="J634" s="63"/>
       <c r="K634" s="63" t="s">
-        <v>2577</v>
+        <v>2575</v>
       </c>
       <c r="L634" s="63"/>
       <c r="M634" s="63"/>
@@ -43484,7 +43468,7 @@
         <v>45541</v>
       </c>
       <c r="B635" s="63" t="s">
-        <v>2578</v>
+        <v>2576</v>
       </c>
       <c r="C635" s="63" t="s">
         <v>42</v>
@@ -43493,7 +43477,7 @@
       <c r="E635" s="63"/>
       <c r="F635" s="63"/>
       <c r="G635" s="63" t="s">
-        <v>2579</v>
+        <v>2577</v>
       </c>
       <c r="H635" s="64" t="s">
         <v>1843</v>
@@ -43501,7 +43485,7 @@
       <c r="I635" s="63"/>
       <c r="J635" s="63"/>
       <c r="K635" s="63" t="s">
-        <v>2580</v>
+        <v>2578</v>
       </c>
       <c r="L635" s="63"/>
       <c r="M635" s="63"/>
@@ -43533,14 +43517,14 @@
         <v>45541</v>
       </c>
       <c r="B636" s="63" t="s">
-        <v>2581</v>
+        <v>2579</v>
       </c>
       <c r="C636" s="63"/>
       <c r="D636" s="62"/>
       <c r="E636" s="63"/>
       <c r="F636" s="63"/>
       <c r="G636" s="63" t="s">
-        <v>2582</v>
+        <v>2580</v>
       </c>
       <c r="H636" s="64" t="s">
         <v>1843</v>
@@ -43548,7 +43532,7 @@
       <c r="I636" s="63"/>
       <c r="J636" s="63"/>
       <c r="K636" s="63" t="s">
-        <v>2583</v>
+        <v>2581</v>
       </c>
       <c r="L636" s="63"/>
       <c r="M636" s="63"/>
@@ -43583,13 +43567,13 @@
       <c r="E637" s="63"/>
       <c r="F637" s="63"/>
       <c r="G637" s="63" t="s">
-        <v>2584</v>
+        <v>2582</v>
       </c>
       <c r="H637" s="64"/>
       <c r="I637" s="63"/>
       <c r="J637" s="63"/>
       <c r="K637" s="63" t="s">
-        <v>2585</v>
+        <v>2583</v>
       </c>
       <c r="L637" s="63"/>
       <c r="M637" s="63"/>
@@ -43621,7 +43605,7 @@
         <v>45541</v>
       </c>
       <c r="B638" s="63" t="s">
-        <v>2586</v>
+        <v>2584</v>
       </c>
       <c r="C638" s="63" t="s">
         <v>42</v>
@@ -43629,10 +43613,10 @@
       <c r="D638" s="62"/>
       <c r="E638" s="63"/>
       <c r="F638" s="63" t="s">
-        <v>2587</v>
+        <v>2585</v>
       </c>
       <c r="G638" s="63" t="s">
-        <v>2588</v>
+        <v>2586</v>
       </c>
       <c r="H638" s="64" t="s">
         <v>1843</v>
@@ -43640,7 +43624,7 @@
       <c r="I638" s="63"/>
       <c r="J638" s="63"/>
       <c r="K638" s="63" t="s">
-        <v>2589</v>
+        <v>2587</v>
       </c>
       <c r="L638" s="63"/>
       <c r="M638" s="63"/>
@@ -43672,7 +43656,7 @@
         <v>45542</v>
       </c>
       <c r="B639" s="63" t="s">
-        <v>2590</v>
+        <v>2588</v>
       </c>
       <c r="C639" s="63" t="s">
         <v>42</v>
@@ -43681,7 +43665,7 @@
       <c r="E639" s="63"/>
       <c r="F639" s="63"/>
       <c r="G639" s="63" t="s">
-        <v>2591</v>
+        <v>2589</v>
       </c>
       <c r="H639" s="64" t="s">
         <v>1843</v>
@@ -43689,7 +43673,7 @@
       <c r="I639" s="63"/>
       <c r="J639" s="63"/>
       <c r="K639" s="63" t="s">
-        <v>2592</v>
+        <v>2590</v>
       </c>
       <c r="L639" s="63"/>
       <c r="M639" s="63"/>
@@ -43719,7 +43703,7 @@
         <v>45544</v>
       </c>
       <c r="B640" s="63" t="s">
-        <v>2593</v>
+        <v>2591</v>
       </c>
       <c r="C640" s="63" t="s">
         <v>42</v>
@@ -43728,7 +43712,7 @@
       <c r="E640" s="63"/>
       <c r="F640" s="63"/>
       <c r="G640" s="63" t="s">
-        <v>2594</v>
+        <v>2592</v>
       </c>
       <c r="H640" s="64" t="s">
         <v>1843</v>
@@ -43736,7 +43720,7 @@
       <c r="I640" s="63"/>
       <c r="J640" s="63"/>
       <c r="K640" s="63" t="s">
-        <v>2595</v>
+        <v>2593</v>
       </c>
       <c r="L640" s="63"/>
       <c r="M640" s="63"/>
@@ -43768,7 +43752,7 @@
         <v>45544</v>
       </c>
       <c r="B641" s="63" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
       <c r="C641" s="63" t="s">
         <v>21</v>
@@ -43777,7 +43761,7 @@
       <c r="E641" s="63"/>
       <c r="F641" s="63"/>
       <c r="G641" s="63" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="H641" s="64" t="s">
         <v>34</v>
@@ -43785,7 +43769,7 @@
       <c r="I641" s="63"/>
       <c r="J641" s="63"/>
       <c r="K641" s="63" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
       <c r="L641" s="63"/>
       <c r="M641" s="63"/>
@@ -43826,7 +43810,7 @@
       <c r="E642" s="63"/>
       <c r="F642" s="63"/>
       <c r="G642" s="63" t="s">
-        <v>2599</v>
+        <v>2597</v>
       </c>
       <c r="H642" s="64" t="s">
         <v>57</v>
@@ -43834,10 +43818,10 @@
       <c r="I642" s="63"/>
       <c r="J642" s="63"/>
       <c r="K642" s="63" t="s">
-        <v>2600</v>
+        <v>2598</v>
       </c>
       <c r="L642" s="63" t="s">
-        <v>2601</v>
+        <v>2599</v>
       </c>
       <c r="M642" s="63"/>
       <c r="N642" s="63"/>
@@ -43868,7 +43852,7 @@
         <v>45545</v>
       </c>
       <c r="B643" s="63" t="s">
-        <v>2602</v>
+        <v>2600</v>
       </c>
       <c r="C643" s="63" t="s">
         <v>42</v>
@@ -43877,7 +43861,7 @@
       <c r="E643" s="63"/>
       <c r="F643" s="63"/>
       <c r="G643" s="63" t="s">
-        <v>2603</v>
+        <v>2601</v>
       </c>
       <c r="H643" s="64" t="s">
         <v>34</v>
@@ -43885,10 +43869,10 @@
       <c r="I643" s="63"/>
       <c r="J643" s="63"/>
       <c r="K643" s="63" t="s">
-        <v>2580</v>
+        <v>2578</v>
       </c>
       <c r="L643" s="63" t="s">
-        <v>2604</v>
+        <v>2602</v>
       </c>
       <c r="M643" s="63"/>
       <c r="N643" s="63"/>
@@ -43928,7 +43912,7 @@
       <c r="E644" s="63"/>
       <c r="F644" s="63"/>
       <c r="G644" s="63" t="s">
-        <v>2605</v>
+        <v>2603</v>
       </c>
       <c r="H644" s="64" t="s">
         <v>34</v>
@@ -43936,7 +43920,7 @@
       <c r="I644" s="63"/>
       <c r="J644" s="63"/>
       <c r="K644" s="63" t="s">
-        <v>2606</v>
+        <v>2604</v>
       </c>
       <c r="L644" s="63"/>
       <c r="M644" s="63"/>
@@ -43968,7 +43952,7 @@
         <v>45545</v>
       </c>
       <c r="B645" s="63" t="s">
-        <v>2607</v>
+        <v>2605</v>
       </c>
       <c r="C645" s="63" t="s">
         <v>21</v>
@@ -43981,7 +43965,7 @@
         <v>104</v>
       </c>
       <c r="G645" s="63" t="s">
-        <v>2608</v>
+        <v>2606</v>
       </c>
       <c r="H645" s="64" t="s">
         <v>34</v>
@@ -43991,7 +43975,7 @@
       </c>
       <c r="J645" s="63"/>
       <c r="K645" s="63" t="s">
-        <v>2609</v>
+        <v>2607</v>
       </c>
       <c r="L645" s="63"/>
       <c r="M645" s="63"/>
@@ -44023,7 +44007,7 @@
         <v>45545</v>
       </c>
       <c r="B646" s="63" t="s">
-        <v>2610</v>
+        <v>2608</v>
       </c>
       <c r="C646" s="63" t="s">
         <v>21</v>
@@ -44036,7 +44020,7 @@
         <v>104</v>
       </c>
       <c r="G646" s="63" t="s">
-        <v>2611</v>
+        <v>2609</v>
       </c>
       <c r="H646" s="64" t="s">
         <v>57</v>
@@ -44044,7 +44028,7 @@
       <c r="I646" s="63"/>
       <c r="J646" s="63"/>
       <c r="K646" s="63" t="s">
-        <v>2612</v>
+        <v>2610</v>
       </c>
       <c r="L646" s="63"/>
       <c r="M646" s="63"/>
@@ -44081,7 +44065,7 @@
       <c r="E647" s="63"/>
       <c r="F647" s="63"/>
       <c r="G647" s="63" t="s">
-        <v>2613</v>
+        <v>2611</v>
       </c>
       <c r="H647" s="64" t="s">
         <v>34</v>
@@ -44089,7 +44073,7 @@
       <c r="I647" s="63"/>
       <c r="J647" s="63"/>
       <c r="K647" s="63" t="s">
-        <v>2614</v>
+        <v>2612</v>
       </c>
       <c r="L647" s="63"/>
       <c r="M647" s="63"/>
@@ -44126,7 +44110,7 @@
       <c r="E648" s="63"/>
       <c r="F648" s="63"/>
       <c r="G648" s="63" t="s">
-        <v>2615</v>
+        <v>2613</v>
       </c>
       <c r="H648" s="64" t="s">
         <v>34</v>
@@ -44134,7 +44118,7 @@
       <c r="I648" s="63"/>
       <c r="J648" s="63"/>
       <c r="K648" s="63" t="s">
-        <v>2616</v>
+        <v>2614</v>
       </c>
       <c r="L648" s="63"/>
       <c r="M648" s="63"/>
@@ -44166,7 +44150,7 @@
         <v>45546</v>
       </c>
       <c r="B649" s="63" t="s">
-        <v>2617</v>
+        <v>2615</v>
       </c>
       <c r="C649" s="63" t="s">
         <v>21</v>
@@ -44175,7 +44159,7 @@
       <c r="E649" s="63"/>
       <c r="F649" s="63"/>
       <c r="G649" s="63" t="s">
-        <v>2618</v>
+        <v>2616</v>
       </c>
       <c r="H649" s="64" t="s">
         <v>57</v>
@@ -44183,7 +44167,7 @@
       <c r="I649" s="63"/>
       <c r="J649" s="63"/>
       <c r="K649" s="63" t="s">
-        <v>2619</v>
+        <v>2617</v>
       </c>
       <c r="L649" s="63"/>
       <c r="M649" s="63"/>
@@ -44215,7 +44199,7 @@
         <v>45546</v>
       </c>
       <c r="B650" s="63" t="s">
-        <v>2620</v>
+        <v>2618</v>
       </c>
       <c r="C650" s="63" t="s">
         <v>21</v>
@@ -44228,19 +44212,19 @@
         <v>1216</v>
       </c>
       <c r="G650" s="63" t="s">
-        <v>2621</v>
+        <v>2619</v>
       </c>
       <c r="H650" s="64" t="s">
         <v>57</v>
       </c>
       <c r="I650" s="63" t="s">
+        <v>2620</v>
+      </c>
+      <c r="J650" s="63" t="s">
+        <v>2621</v>
+      </c>
+      <c r="K650" s="63" t="s">
         <v>2622</v>
-      </c>
-      <c r="J650" s="63" t="s">
-        <v>2623</v>
-      </c>
-      <c r="K650" s="63" t="s">
-        <v>2624</v>
       </c>
       <c r="L650" s="63"/>
       <c r="M650" s="63"/>
@@ -44272,7 +44256,7 @@
         <v>45546</v>
       </c>
       <c r="B651" s="63" t="s">
-        <v>2625</v>
+        <v>2623</v>
       </c>
       <c r="C651" s="63" t="s">
         <v>42</v>
@@ -44285,7 +44269,7 @@
         <v>1216</v>
       </c>
       <c r="G651" s="63" t="s">
-        <v>2626</v>
+        <v>2624</v>
       </c>
       <c r="H651" s="64" t="s">
         <v>57</v>
@@ -44293,7 +44277,7 @@
       <c r="I651" s="63"/>
       <c r="J651" s="63"/>
       <c r="K651" s="63" t="s">
-        <v>2627</v>
+        <v>2625</v>
       </c>
       <c r="L651" s="63"/>
       <c r="M651" s="63"/>
@@ -44325,7 +44309,7 @@
         <v>45546</v>
       </c>
       <c r="B652" s="63" t="s">
-        <v>2628</v>
+        <v>2626</v>
       </c>
       <c r="C652" s="63" t="s">
         <v>21</v>
@@ -44334,7 +44318,7 @@
       <c r="E652" s="63"/>
       <c r="F652" s="63"/>
       <c r="G652" s="63" t="s">
-        <v>2629</v>
+        <v>2627</v>
       </c>
       <c r="H652" s="64" t="s">
         <v>57</v>
@@ -44342,7 +44326,7 @@
       <c r="I652" s="63"/>
       <c r="J652" s="63"/>
       <c r="K652" s="63" t="s">
-        <v>2630</v>
+        <v>2628</v>
       </c>
       <c r="L652" s="63"/>
       <c r="M652" s="63"/>
@@ -44374,7 +44358,7 @@
         <v>45546</v>
       </c>
       <c r="B653" s="63" t="s">
-        <v>2631</v>
+        <v>2629</v>
       </c>
       <c r="C653" s="63" t="s">
         <v>21</v>
@@ -44383,7 +44367,7 @@
       <c r="E653" s="63"/>
       <c r="F653" s="63"/>
       <c r="G653" s="63" t="s">
-        <v>2632</v>
+        <v>2630</v>
       </c>
       <c r="H653" s="64" t="s">
         <v>57</v>
@@ -44391,7 +44375,7 @@
       <c r="I653" s="63"/>
       <c r="J653" s="63"/>
       <c r="K653" s="63" t="s">
-        <v>2633</v>
+        <v>2631</v>
       </c>
       <c r="L653" s="63"/>
       <c r="M653" s="63"/>
@@ -44423,7 +44407,7 @@
         <v>45546</v>
       </c>
       <c r="B654" s="63" t="s">
-        <v>2634</v>
+        <v>2632</v>
       </c>
       <c r="C654" s="63" t="s">
         <v>42</v>
@@ -44433,10 +44417,10 @@
         <v>22</v>
       </c>
       <c r="F654" s="63" t="s">
-        <v>2635</v>
+        <v>2633</v>
       </c>
       <c r="G654" s="63" t="s">
-        <v>2636</v>
+        <v>2634</v>
       </c>
       <c r="H654" s="64" t="s">
         <v>57</v>
@@ -44446,10 +44430,10 @@
       </c>
       <c r="J654" s="63"/>
       <c r="K654" s="63" t="s">
-        <v>2637</v>
+        <v>2635</v>
       </c>
       <c r="L654" s="63" t="s">
-        <v>2638</v>
+        <v>2636</v>
       </c>
       <c r="M654" s="63"/>
       <c r="N654" s="63"/>
@@ -44480,7 +44464,7 @@
         <v>45546</v>
       </c>
       <c r="B655" s="63" t="s">
-        <v>2639</v>
+        <v>2637</v>
       </c>
       <c r="C655" s="63" t="s">
         <v>21</v>
@@ -44489,17 +44473,17 @@
       <c r="E655" s="63"/>
       <c r="F655" s="63"/>
       <c r="G655" s="63" t="s">
-        <v>2640</v>
+        <v>2638</v>
       </c>
       <c r="H655" s="64" t="s">
         <v>57</v>
       </c>
       <c r="I655" s="63"/>
       <c r="J655" s="63" t="s">
-        <v>2641</v>
+        <v>2639</v>
       </c>
       <c r="K655" s="63" t="s">
-        <v>2642</v>
+        <v>2640</v>
       </c>
       <c r="L655" s="63"/>
       <c r="M655" s="63"/>
@@ -44531,7 +44515,7 @@
         <v>45546</v>
       </c>
       <c r="B656" s="63" t="s">
-        <v>2643</v>
+        <v>2641</v>
       </c>
       <c r="C656" s="63" t="s">
         <v>21</v>
@@ -44540,13 +44524,13 @@
       <c r="E656" s="63"/>
       <c r="F656" s="63"/>
       <c r="G656" s="63" t="s">
-        <v>2644</v>
+        <v>2642</v>
       </c>
       <c r="H656" s="64"/>
       <c r="I656" s="63"/>
       <c r="J656" s="63"/>
       <c r="K656" s="63" t="s">
-        <v>2645</v>
+        <v>2643</v>
       </c>
       <c r="L656" s="63"/>
       <c r="M656" s="63"/>
@@ -44578,7 +44562,7 @@
         <v>45547</v>
       </c>
       <c r="B657" s="63" t="s">
-        <v>2646</v>
+        <v>2644</v>
       </c>
       <c r="C657" s="63" t="s">
         <v>42</v>
@@ -44587,7 +44571,7 @@
       <c r="E657" s="63"/>
       <c r="F657" s="63"/>
       <c r="G657" s="63" t="s">
-        <v>2647</v>
+        <v>2645</v>
       </c>
       <c r="H657" s="64" t="s">
         <v>34</v>
@@ -44595,7 +44579,7 @@
       <c r="I657" s="63"/>
       <c r="J657" s="63"/>
       <c r="K657" s="63" t="s">
-        <v>2648</v>
+        <v>2646</v>
       </c>
       <c r="L657" s="63"/>
       <c r="M657" s="63"/>
@@ -44627,7 +44611,7 @@
         <v>45547</v>
       </c>
       <c r="B658" s="63" t="s">
-        <v>2649</v>
+        <v>2647</v>
       </c>
       <c r="C658" s="63" t="s">
         <v>42</v>
@@ -44636,7 +44620,7 @@
       <c r="E658" s="63"/>
       <c r="F658" s="63"/>
       <c r="G658" s="63" t="s">
-        <v>2650</v>
+        <v>2648</v>
       </c>
       <c r="H658" s="64" t="s">
         <v>57</v>
@@ -44644,7 +44628,7 @@
       <c r="I658" s="63"/>
       <c r="J658" s="63"/>
       <c r="K658" s="63" t="s">
-        <v>2651</v>
+        <v>2649</v>
       </c>
       <c r="L658" s="63"/>
       <c r="M658" s="63"/>
@@ -44676,7 +44660,7 @@
         <v>45547</v>
       </c>
       <c r="B659" s="63" t="s">
-        <v>2652</v>
+        <v>2650</v>
       </c>
       <c r="C659" s="63" t="s">
         <v>42</v>
@@ -44685,7 +44669,7 @@
       <c r="E659" s="63"/>
       <c r="F659" s="63"/>
       <c r="G659" s="63" t="s">
-        <v>2653</v>
+        <v>2651</v>
       </c>
       <c r="H659" s="64" t="s">
         <v>57</v>
@@ -44693,7 +44677,7 @@
       <c r="I659" s="63"/>
       <c r="J659" s="63"/>
       <c r="K659" s="63" t="s">
-        <v>2654</v>
+        <v>2652</v>
       </c>
       <c r="L659" s="63"/>
       <c r="M659" s="63"/>
@@ -44725,7 +44709,7 @@
         <v>45547</v>
       </c>
       <c r="B660" s="63" t="s">
-        <v>2655</v>
+        <v>2653</v>
       </c>
       <c r="C660" s="63" t="s">
         <v>42</v>
@@ -44734,7 +44718,7 @@
       <c r="E660" s="63"/>
       <c r="F660" s="63"/>
       <c r="G660" s="63" t="s">
-        <v>2656</v>
+        <v>2654</v>
       </c>
       <c r="H660" s="64" t="s">
         <v>57</v>
@@ -44744,10 +44728,10 @@
         <v>1770</v>
       </c>
       <c r="K660" s="63" t="s">
-        <v>2657</v>
+        <v>2655</v>
       </c>
       <c r="L660" s="63" t="s">
-        <v>2658</v>
+        <v>2656</v>
       </c>
       <c r="M660" s="63"/>
       <c r="N660" s="63"/>
@@ -44778,7 +44762,7 @@
         <v>45547</v>
       </c>
       <c r="B661" s="63" t="s">
-        <v>2659</v>
+        <v>2657</v>
       </c>
       <c r="C661" s="63" t="s">
         <v>42</v>
@@ -44787,7 +44771,7 @@
       <c r="E661" s="63"/>
       <c r="F661" s="63"/>
       <c r="G661" s="63" t="s">
-        <v>2660</v>
+        <v>2658</v>
       </c>
       <c r="H661" s="64" t="s">
         <v>57</v>
@@ -44795,7 +44779,7 @@
       <c r="I661" s="63"/>
       <c r="J661" s="63"/>
       <c r="K661" s="63" t="s">
-        <v>2661</v>
+        <v>2659</v>
       </c>
       <c r="L661" s="63"/>
       <c r="M661" s="63"/>
@@ -44827,7 +44811,7 @@
         <v>45547</v>
       </c>
       <c r="B662" s="63" t="s">
-        <v>2662</v>
+        <v>2660</v>
       </c>
       <c r="C662" s="63" t="s">
         <v>42</v>
@@ -44837,10 +44821,10 @@
         <v>474</v>
       </c>
       <c r="F662" s="63" t="s">
-        <v>2663</v>
+        <v>2661</v>
       </c>
       <c r="G662" s="63" t="s">
-        <v>2664</v>
+        <v>2662</v>
       </c>
       <c r="H662" s="64" t="s">
         <v>57</v>
@@ -44850,7 +44834,7 @@
       </c>
       <c r="J662" s="63"/>
       <c r="K662" s="63" t="s">
-        <v>2665</v>
+        <v>2663</v>
       </c>
       <c r="L662" s="63"/>
       <c r="M662" s="63"/>
@@ -44882,7 +44866,7 @@
         <v>45547</v>
       </c>
       <c r="B663" s="63" t="s">
-        <v>2666</v>
+        <v>2664</v>
       </c>
       <c r="C663" s="63" t="s">
         <v>21</v>
@@ -44891,7 +44875,7 @@
       <c r="E663" s="63"/>
       <c r="F663" s="63"/>
       <c r="G663" s="63" t="s">
-        <v>2667</v>
+        <v>2665</v>
       </c>
       <c r="H663" s="64" t="s">
         <v>57</v>
@@ -44899,7 +44883,7 @@
       <c r="I663" s="63"/>
       <c r="J663" s="63"/>
       <c r="K663" s="63" t="s">
-        <v>2668</v>
+        <v>2666</v>
       </c>
       <c r="L663" s="63"/>
       <c r="M663" s="63"/>
@@ -44931,7 +44915,7 @@
         <v>45547</v>
       </c>
       <c r="B664" s="63" t="s">
-        <v>2669</v>
+        <v>2667</v>
       </c>
       <c r="C664" s="63" t="s">
         <v>21</v>
@@ -44940,7 +44924,7 @@
       <c r="E664" s="63"/>
       <c r="F664" s="63"/>
       <c r="G664" s="63" t="s">
-        <v>2670</v>
+        <v>2668</v>
       </c>
       <c r="H664" s="64" t="s">
         <v>57</v>
@@ -44948,7 +44932,7 @@
       <c r="I664" s="63"/>
       <c r="J664" s="63"/>
       <c r="K664" s="63" t="s">
-        <v>2671</v>
+        <v>2669</v>
       </c>
       <c r="L664" s="63"/>
       <c r="M664" s="63"/>
@@ -44980,7 +44964,7 @@
         <v>45547</v>
       </c>
       <c r="B665" s="63" t="s">
-        <v>2672</v>
+        <v>2670</v>
       </c>
       <c r="C665" s="63" t="s">
         <v>21</v>
@@ -44989,7 +44973,7 @@
       <c r="E665" s="63"/>
       <c r="F665" s="63"/>
       <c r="G665" s="63" t="s">
-        <v>2673</v>
+        <v>2671</v>
       </c>
       <c r="H665" s="64" t="s">
         <v>57</v>
@@ -44997,7 +44981,7 @@
       <c r="I665" s="63"/>
       <c r="J665" s="63"/>
       <c r="K665" s="63" t="s">
-        <v>2674</v>
+        <v>2672</v>
       </c>
       <c r="L665" s="63"/>
       <c r="M665" s="63"/>
@@ -45029,7 +45013,7 @@
         <v>45547</v>
       </c>
       <c r="B666" s="63" t="s">
-        <v>2675</v>
+        <v>2673</v>
       </c>
       <c r="C666" s="63" t="s">
         <v>21</v>
@@ -45038,7 +45022,7 @@
       <c r="E666" s="63"/>
       <c r="F666" s="63"/>
       <c r="G666" s="63" t="s">
-        <v>2676</v>
+        <v>2674</v>
       </c>
       <c r="H666" s="64" t="s">
         <v>57</v>
@@ -45046,7 +45030,7 @@
       <c r="I666" s="63"/>
       <c r="J666" s="63"/>
       <c r="K666" s="63" t="s">
-        <v>2677</v>
+        <v>2675</v>
       </c>
       <c r="L666" s="63"/>
       <c r="M666" s="63"/>
@@ -45078,7 +45062,7 @@
         <v>45547</v>
       </c>
       <c r="B667" s="63" t="s">
-        <v>2678</v>
+        <v>2676</v>
       </c>
       <c r="C667" s="63" t="s">
         <v>21</v>
@@ -45087,7 +45071,7 @@
       <c r="E667" s="63"/>
       <c r="F667" s="63"/>
       <c r="G667" s="63" t="s">
-        <v>2679</v>
+        <v>2677</v>
       </c>
       <c r="H667" s="64" t="s">
         <v>57</v>
@@ -45095,7 +45079,7 @@
       <c r="I667" s="63"/>
       <c r="J667" s="63"/>
       <c r="K667" s="63" t="s">
-        <v>2677</v>
+        <v>2675</v>
       </c>
       <c r="L667" s="63"/>
       <c r="M667" s="63"/>
@@ -45127,7 +45111,7 @@
         <v>45548</v>
       </c>
       <c r="B668" s="63" t="s">
-        <v>2680</v>
+        <v>2678</v>
       </c>
       <c r="C668" s="63" t="s">
         <v>21</v>
@@ -45140,7 +45124,7 @@
         <v>104</v>
       </c>
       <c r="G668" s="63" t="s">
-        <v>2681</v>
+        <v>2679</v>
       </c>
       <c r="H668" s="64"/>
       <c r="I668" s="63" t="s">
@@ -45148,10 +45132,10 @@
       </c>
       <c r="J668" s="63"/>
       <c r="K668" s="63" t="s">
-        <v>2682</v>
+        <v>2680</v>
       </c>
       <c r="L668" s="63" t="s">
-        <v>2683</v>
+        <v>2681</v>
       </c>
       <c r="M668" s="63"/>
       <c r="N668" s="63"/>
@@ -45182,7 +45166,7 @@
         <v>45548</v>
       </c>
       <c r="B669" s="63" t="s">
-        <v>2684</v>
+        <v>2682</v>
       </c>
       <c r="C669" s="63" t="s">
         <v>21</v>
@@ -45195,7 +45179,7 @@
         <v>104</v>
       </c>
       <c r="G669" s="63" t="s">
-        <v>2685</v>
+        <v>2683</v>
       </c>
       <c r="H669" s="64" t="s">
         <v>57</v>
@@ -45205,7 +45189,7 @@
       </c>
       <c r="J669" s="63"/>
       <c r="K669" s="63" t="s">
-        <v>2686</v>
+        <v>2684</v>
       </c>
       <c r="L669" s="63"/>
       <c r="M669" s="63"/>
@@ -45237,7 +45221,7 @@
         <v>45517</v>
       </c>
       <c r="B670" s="63" t="s">
-        <v>2687</v>
+        <v>2685</v>
       </c>
       <c r="C670" s="63" t="s">
         <v>21</v>
@@ -45246,7 +45230,7 @@
       <c r="E670" s="63"/>
       <c r="F670" s="63"/>
       <c r="G670" s="63" t="s">
-        <v>2688</v>
+        <v>2686</v>
       </c>
       <c r="H670" s="64" t="s">
         <v>57</v>
@@ -45254,7 +45238,7 @@
       <c r="I670" s="63"/>
       <c r="J670" s="63"/>
       <c r="K670" s="63" t="s">
-        <v>2689</v>
+        <v>2687</v>
       </c>
       <c r="L670" s="63"/>
       <c r="M670" s="63"/>
@@ -45286,7 +45270,7 @@
         <v>45548</v>
       </c>
       <c r="B671" s="63" t="s">
-        <v>2690</v>
+        <v>2688</v>
       </c>
       <c r="C671" s="63" t="s">
         <v>42</v>
@@ -45295,7 +45279,7 @@
       <c r="E671" s="63"/>
       <c r="F671" s="63"/>
       <c r="G671" s="63" t="s">
-        <v>2691</v>
+        <v>2689</v>
       </c>
       <c r="H671" s="64" t="s">
         <v>57</v>
@@ -45303,7 +45287,7 @@
       <c r="I671" s="63"/>
       <c r="J671" s="63"/>
       <c r="K671" s="63" t="s">
-        <v>2692</v>
+        <v>2690</v>
       </c>
       <c r="L671" s="63"/>
       <c r="M671" s="63"/>
@@ -45335,7 +45319,7 @@
         <v>45548</v>
       </c>
       <c r="B672" s="63" t="s">
-        <v>2693</v>
+        <v>2691</v>
       </c>
       <c r="C672" s="63" t="s">
         <v>42</v>
@@ -45344,17 +45328,17 @@
       <c r="E672" s="63"/>
       <c r="F672" s="63"/>
       <c r="G672" s="63" t="s">
-        <v>2694</v>
+        <v>2692</v>
       </c>
       <c r="H672" s="64" t="s">
         <v>57</v>
       </c>
       <c r="I672" s="63"/>
       <c r="J672" s="63" t="s">
-        <v>2695</v>
+        <v>2693</v>
       </c>
       <c r="K672" s="63" t="s">
-        <v>2696</v>
+        <v>2694</v>
       </c>
       <c r="L672" s="63"/>
       <c r="M672" s="63"/>
@@ -45386,7 +45370,7 @@
         <v>45548</v>
       </c>
       <c r="B673" s="63" t="s">
-        <v>2697</v>
+        <v>2695</v>
       </c>
       <c r="C673" s="63" t="s">
         <v>21</v>
@@ -45395,7 +45379,7 @@
       <c r="E673" s="63"/>
       <c r="F673" s="63"/>
       <c r="G673" s="63" t="s">
-        <v>2698</v>
+        <v>2696</v>
       </c>
       <c r="H673" s="64" t="s">
         <v>57</v>
@@ -45405,7 +45389,7 @@
       </c>
       <c r="J673" s="63"/>
       <c r="K673" s="63" t="s">
-        <v>2696</v>
+        <v>2694</v>
       </c>
       <c r="L673" s="63"/>
       <c r="M673" s="63"/>
@@ -45437,7 +45421,7 @@
         <v>45548</v>
       </c>
       <c r="B674" s="63" t="s">
-        <v>2699</v>
+        <v>2697</v>
       </c>
       <c r="C674" s="63" t="s">
         <v>21</v>
@@ -45446,15 +45430,15 @@
       <c r="E674" s="63"/>
       <c r="F674" s="63"/>
       <c r="G674" s="63" t="s">
-        <v>2700</v>
+        <v>2698</v>
       </c>
       <c r="H674" s="64"/>
       <c r="I674" s="63"/>
       <c r="J674" s="63" t="s">
-        <v>2701</v>
+        <v>2699</v>
       </c>
       <c r="K674" s="63" t="s">
-        <v>2702</v>
+        <v>2700</v>
       </c>
       <c r="L674" s="63"/>
       <c r="M674" s="63"/>
@@ -45484,7 +45468,7 @@
         <v>45549</v>
       </c>
       <c r="B675" s="63" t="s">
-        <v>2703</v>
+        <v>2701</v>
       </c>
       <c r="C675" s="63" t="s">
         <v>21</v>
@@ -45497,7 +45481,7 @@
         <v>104</v>
       </c>
       <c r="G675" s="63" t="s">
-        <v>2704</v>
+        <v>2702</v>
       </c>
       <c r="H675" s="64" t="s">
         <v>57</v>
@@ -45507,7 +45491,7 @@
       </c>
       <c r="J675" s="63"/>
       <c r="K675" s="63" t="s">
-        <v>2705</v>
+        <v>2703</v>
       </c>
       <c r="L675" s="63"/>
       <c r="M675" s="63"/>
@@ -45539,7 +45523,7 @@
         <v>45549</v>
       </c>
       <c r="B676" s="63" t="s">
-        <v>2706</v>
+        <v>2704</v>
       </c>
       <c r="C676" s="63" t="s">
         <v>21</v>
@@ -45548,7 +45532,7 @@
       <c r="E676" s="63"/>
       <c r="F676" s="63"/>
       <c r="G676" s="63" t="s">
-        <v>2707</v>
+        <v>2705</v>
       </c>
       <c r="H676" s="64" t="s">
         <v>57</v>
@@ -45558,10 +45542,10 @@
       </c>
       <c r="J676" s="63"/>
       <c r="K676" s="63" t="s">
-        <v>2708</v>
+        <v>2706</v>
       </c>
       <c r="L676" s="63" t="s">
-        <v>2709</v>
+        <v>2707</v>
       </c>
       <c r="M676" s="63"/>
       <c r="N676" s="63"/>
@@ -45592,7 +45576,7 @@
         <v>45549</v>
       </c>
       <c r="B677" s="63" t="s">
-        <v>2710</v>
+        <v>2708</v>
       </c>
       <c r="C677" s="63" t="s">
         <v>21</v>
@@ -45601,7 +45585,7 @@
       <c r="E677" s="63"/>
       <c r="F677" s="63"/>
       <c r="G677" s="63" t="s">
-        <v>2711</v>
+        <v>2709</v>
       </c>
       <c r="H677" s="64" t="s">
         <v>57</v>
@@ -45609,7 +45593,7 @@
       <c r="I677" s="63"/>
       <c r="J677" s="63"/>
       <c r="K677" s="63" t="s">
-        <v>2712</v>
+        <v>2710</v>
       </c>
       <c r="L677" s="63"/>
       <c r="M677" s="63"/>
@@ -45650,7 +45634,7 @@
       <c r="E678" s="63"/>
       <c r="F678" s="63"/>
       <c r="G678" s="63" t="s">
-        <v>2713</v>
+        <v>2711</v>
       </c>
       <c r="H678" s="64" t="s">
         <v>57</v>
@@ -45660,7 +45644,7 @@
       </c>
       <c r="J678" s="63"/>
       <c r="K678" s="63" t="s">
-        <v>2714</v>
+        <v>2712</v>
       </c>
       <c r="L678" s="63"/>
       <c r="M678" s="63"/>
@@ -45690,7 +45674,7 @@
         <v>45549</v>
       </c>
       <c r="B679" s="63" t="s">
-        <v>2715</v>
+        <v>2713</v>
       </c>
       <c r="C679" s="63" t="s">
         <v>42</v>
@@ -45699,15 +45683,15 @@
       <c r="E679" s="63"/>
       <c r="F679" s="63"/>
       <c r="G679" s="63" t="s">
-        <v>2716</v>
+        <v>2714</v>
       </c>
       <c r="H679" s="64"/>
       <c r="I679" s="63"/>
       <c r="J679" s="63" t="s">
-        <v>2717</v>
+        <v>2715</v>
       </c>
       <c r="K679" s="63" t="s">
-        <v>2718</v>
+        <v>2716</v>
       </c>
       <c r="L679" s="63"/>
       <c r="M679" s="63"/>
@@ -45739,7 +45723,7 @@
         <v>45549</v>
       </c>
       <c r="B680" s="63" t="s">
-        <v>2719</v>
+        <v>2717</v>
       </c>
       <c r="C680" s="63" t="s">
         <v>42</v>
@@ -45752,7 +45736,7 @@
         <v>104</v>
       </c>
       <c r="G680" s="63" t="s">
-        <v>2720</v>
+        <v>2718</v>
       </c>
       <c r="H680" s="64" t="s">
         <v>57</v>
@@ -45762,7 +45746,7 @@
       </c>
       <c r="J680" s="63"/>
       <c r="K680" s="63" t="s">
-        <v>2721</v>
+        <v>2719</v>
       </c>
       <c r="L680" s="63"/>
       <c r="M680" s="63"/>
@@ -45794,7 +45778,7 @@
         <v>45549</v>
       </c>
       <c r="B681" s="63" t="s">
-        <v>2722</v>
+        <v>2720</v>
       </c>
       <c r="C681" s="63" t="s">
         <v>42</v>
@@ -45803,7 +45787,7 @@
       <c r="E681" s="63"/>
       <c r="F681" s="63"/>
       <c r="G681" s="63" t="s">
-        <v>2723</v>
+        <v>2721</v>
       </c>
       <c r="H681" s="64" t="s">
         <v>57</v>
@@ -45811,10 +45795,10 @@
       <c r="I681" s="63"/>
       <c r="J681" s="63"/>
       <c r="K681" s="63" t="s">
-        <v>2724</v>
+        <v>2722</v>
       </c>
       <c r="L681" s="63" t="s">
-        <v>2725</v>
+        <v>2723</v>
       </c>
       <c r="M681" s="63"/>
       <c r="N681" s="63"/>
@@ -45845,7 +45829,7 @@
         <v>45550</v>
       </c>
       <c r="B682" s="63" t="s">
-        <v>2726</v>
+        <v>2724</v>
       </c>
       <c r="C682" s="63" t="s">
         <v>42</v>
@@ -45854,17 +45838,17 @@
       <c r="E682" s="63"/>
       <c r="F682" s="63"/>
       <c r="G682" s="63" t="s">
-        <v>2727</v>
+        <v>2725</v>
       </c>
       <c r="H682" s="64" t="s">
         <v>57</v>
       </c>
       <c r="I682" s="63" t="s">
-        <v>2728</v>
+        <v>2726</v>
       </c>
       <c r="J682" s="63"/>
       <c r="K682" s="63" t="s">
-        <v>2729</v>
+        <v>2727</v>
       </c>
       <c r="L682" s="63"/>
       <c r="M682" s="63"/>
@@ -45896,7 +45880,7 @@
         <v>45550</v>
       </c>
       <c r="B683" s="63" t="s">
-        <v>2730</v>
+        <v>2728</v>
       </c>
       <c r="C683" s="63" t="s">
         <v>21</v>
@@ -45905,17 +45889,17 @@
       <c r="E683" s="63"/>
       <c r="F683" s="63"/>
       <c r="G683" s="63" t="s">
-        <v>2731</v>
+        <v>2729</v>
       </c>
       <c r="H683" s="64" t="s">
         <v>57</v>
       </c>
       <c r="I683" s="63" t="s">
-        <v>2732</v>
+        <v>2730</v>
       </c>
       <c r="J683" s="63"/>
       <c r="K683" s="63" t="s">
-        <v>2733</v>
+        <v>2731</v>
       </c>
       <c r="L683" s="63"/>
       <c r="M683" s="63"/>
@@ -45947,7 +45931,7 @@
         <v>45550</v>
       </c>
       <c r="B684" s="63" t="s">
-        <v>2734</v>
+        <v>2732</v>
       </c>
       <c r="C684" s="63" t="s">
         <v>21</v>
@@ -45956,7 +45940,7 @@
       <c r="E684" s="63"/>
       <c r="F684" s="63"/>
       <c r="G684" s="63" t="s">
-        <v>2735</v>
+        <v>2733</v>
       </c>
       <c r="H684" s="64" t="s">
         <v>34</v>
@@ -45966,7 +45950,7 @@
       </c>
       <c r="J684" s="63"/>
       <c r="K684" s="63" t="s">
-        <v>2736</v>
+        <v>2734</v>
       </c>
       <c r="L684" s="63"/>
       <c r="M684" s="63"/>
@@ -45998,7 +45982,7 @@
         <v>45550</v>
       </c>
       <c r="B685" s="63" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
       <c r="C685" s="63" t="s">
         <v>42</v>
@@ -46007,7 +45991,7 @@
       <c r="E685" s="63"/>
       <c r="F685" s="63"/>
       <c r="G685" s="63" t="s">
-        <v>2737</v>
+        <v>2735</v>
       </c>
       <c r="H685" s="64" t="s">
         <v>57</v>
@@ -46015,7 +45999,7 @@
       <c r="I685" s="63"/>
       <c r="J685" s="63"/>
       <c r="K685" s="63" t="s">
-        <v>2738</v>
+        <v>2736</v>
       </c>
       <c r="L685" s="63"/>
       <c r="M685" s="63"/>
@@ -46047,7 +46031,7 @@
         <v>45550</v>
       </c>
       <c r="B686" s="63" t="s">
-        <v>2739</v>
+        <v>2737</v>
       </c>
       <c r="C686" s="63" t="s">
         <v>42</v>
@@ -46056,13 +46040,13 @@
       <c r="E686" s="63"/>
       <c r="F686" s="63"/>
       <c r="G686" s="63" t="s">
-        <v>2740</v>
+        <v>2738</v>
       </c>
       <c r="H686" s="64"/>
       <c r="I686" s="63"/>
       <c r="J686" s="63"/>
       <c r="K686" s="63" t="s">
-        <v>2741</v>
+        <v>2739</v>
       </c>
       <c r="L686" s="63"/>
       <c r="M686" s="63"/>
@@ -46103,7 +46087,7 @@
       <c r="E687" s="63"/>
       <c r="F687" s="63"/>
       <c r="G687" s="63" t="s">
-        <v>2742</v>
+        <v>2740</v>
       </c>
       <c r="H687" s="64" t="s">
         <v>57</v>
@@ -46111,7 +46095,7 @@
       <c r="I687" s="63"/>
       <c r="J687" s="63"/>
       <c r="K687" s="63" t="s">
-        <v>2738</v>
+        <v>2736</v>
       </c>
       <c r="L687" s="63"/>
       <c r="M687" s="63"/>
@@ -46143,7 +46127,7 @@
         <v>45550</v>
       </c>
       <c r="B688" s="63" t="s">
-        <v>2743</v>
+        <v>2741</v>
       </c>
       <c r="C688" s="63" t="s">
         <v>21</v>
@@ -46152,7 +46136,7 @@
       <c r="E688" s="63"/>
       <c r="F688" s="63"/>
       <c r="G688" s="63" t="s">
-        <v>2744</v>
+        <v>2742</v>
       </c>
       <c r="H688" s="64" t="s">
         <v>57</v>
@@ -46160,7 +46144,7 @@
       <c r="I688" s="63"/>
       <c r="J688" s="63"/>
       <c r="K688" s="63" t="s">
-        <v>2745</v>
+        <v>2743</v>
       </c>
       <c r="L688" s="63"/>
       <c r="M688" s="63"/>
@@ -46192,7 +46176,7 @@
         <v>45550</v>
       </c>
       <c r="B689" s="63" t="s">
-        <v>2746</v>
+        <v>2744</v>
       </c>
       <c r="C689" s="63" t="s">
         <v>21</v>
@@ -46201,7 +46185,7 @@
       <c r="E689" s="63"/>
       <c r="F689" s="63"/>
       <c r="G689" s="63" t="s">
-        <v>2747</v>
+        <v>2745</v>
       </c>
       <c r="H689" s="64" t="s">
         <v>57</v>
@@ -46209,7 +46193,7 @@
       <c r="I689" s="63"/>
       <c r="J689" s="63"/>
       <c r="K689" s="63" t="s">
-        <v>2748</v>
+        <v>2746</v>
       </c>
       <c r="L689" s="63"/>
       <c r="M689" s="63"/>
@@ -46241,7 +46225,7 @@
         <v>45551</v>
       </c>
       <c r="B690" s="63" t="s">
-        <v>2749</v>
+        <v>2747</v>
       </c>
       <c r="C690" s="63" t="s">
         <v>21</v>
@@ -46250,7 +46234,7 @@
       <c r="E690" s="63"/>
       <c r="F690" s="63"/>
       <c r="G690" s="63" t="s">
-        <v>2750</v>
+        <v>2748</v>
       </c>
       <c r="H690" s="64" t="s">
         <v>57</v>
@@ -46258,7 +46242,7 @@
       <c r="I690" s="63"/>
       <c r="J690" s="63"/>
       <c r="K690" s="63" t="s">
-        <v>2751</v>
+        <v>2749</v>
       </c>
       <c r="L690" s="63"/>
       <c r="M690" s="63"/>
@@ -46290,7 +46274,7 @@
         <v>45552</v>
       </c>
       <c r="B691" s="63" t="s">
-        <v>2752</v>
+        <v>2750</v>
       </c>
       <c r="C691" s="63" t="s">
         <v>21</v>
@@ -46299,7 +46283,7 @@
       <c r="E691" s="63"/>
       <c r="F691" s="63"/>
       <c r="G691" s="63" t="s">
-        <v>2753</v>
+        <v>2751</v>
       </c>
       <c r="H691" s="64"/>
       <c r="I691" s="63" t="s">
@@ -46307,10 +46291,10 @@
       </c>
       <c r="J691" s="63"/>
       <c r="K691" s="63" t="s">
-        <v>2754</v>
+        <v>2752</v>
       </c>
       <c r="L691" s="63" t="s">
-        <v>2755</v>
+        <v>2753</v>
       </c>
       <c r="M691" s="63"/>
       <c r="N691" s="63"/>
@@ -46341,7 +46325,7 @@
         <v>45552</v>
       </c>
       <c r="B692" s="63" t="s">
-        <v>2756</v>
+        <v>2754</v>
       </c>
       <c r="C692" s="63" t="s">
         <v>42</v>
@@ -46350,7 +46334,7 @@
       <c r="E692" s="63"/>
       <c r="F692" s="63"/>
       <c r="G692" s="63" t="s">
-        <v>2757</v>
+        <v>2755</v>
       </c>
       <c r="H692" s="64" t="s">
         <v>34</v>
@@ -46358,7 +46342,7 @@
       <c r="I692" s="63"/>
       <c r="J692" s="63"/>
       <c r="K692" s="63" t="s">
-        <v>2758</v>
+        <v>2756</v>
       </c>
       <c r="L692" s="63"/>
       <c r="M692" s="63"/>
@@ -46397,7 +46381,7 @@
       <c r="E693" s="63"/>
       <c r="F693" s="63"/>
       <c r="G693" s="63" t="s">
-        <v>2759</v>
+        <v>2757</v>
       </c>
       <c r="H693" s="64" t="s">
         <v>57</v>
@@ -46405,7 +46389,7 @@
       <c r="I693" s="63"/>
       <c r="J693" s="63"/>
       <c r="K693" s="63" t="s">
-        <v>2760</v>
+        <v>2758</v>
       </c>
       <c r="L693" s="63"/>
       <c r="M693" s="63"/>
@@ -46437,7 +46421,7 @@
         <v>45553</v>
       </c>
       <c r="B694" s="63" t="s">
-        <v>2761</v>
+        <v>2759</v>
       </c>
       <c r="C694" s="63" t="s">
         <v>21</v>
@@ -46446,17 +46430,17 @@
       <c r="E694" s="63"/>
       <c r="F694" s="63"/>
       <c r="G694" s="63" t="s">
-        <v>2762</v>
+        <v>2760</v>
       </c>
       <c r="H694" s="64" t="s">
         <v>57</v>
       </c>
       <c r="I694" s="63" t="s">
-        <v>2763</v>
+        <v>2761</v>
       </c>
       <c r="J694" s="63"/>
       <c r="K694" s="63" t="s">
-        <v>2764</v>
+        <v>2762</v>
       </c>
       <c r="L694" s="63"/>
       <c r="M694" s="63"/>
@@ -46486,7 +46470,7 @@
         <v>45553</v>
       </c>
       <c r="B695" s="63" t="s">
-        <v>2765</v>
+        <v>2763</v>
       </c>
       <c r="C695" s="63" t="s">
         <v>42</v>
@@ -46495,7 +46479,7 @@
       <c r="E695" s="63"/>
       <c r="F695" s="63"/>
       <c r="G695" s="63" t="s">
-        <v>2766</v>
+        <v>2764</v>
       </c>
       <c r="H695" s="64" t="s">
         <v>57</v>
@@ -46503,7 +46487,7 @@
       <c r="I695" s="63"/>
       <c r="J695" s="63"/>
       <c r="K695" s="63" t="s">
-        <v>2758</v>
+        <v>2756</v>
       </c>
       <c r="L695" s="63"/>
       <c r="M695" s="63"/>
@@ -46533,7 +46517,7 @@
         <v>45553</v>
       </c>
       <c r="B696" s="63" t="s">
-        <v>2767</v>
+        <v>2765</v>
       </c>
       <c r="C696" s="63" t="s">
         <v>21</v>
@@ -46542,7 +46526,7 @@
       <c r="E696" s="63"/>
       <c r="F696" s="63"/>
       <c r="G696" s="63" t="s">
-        <v>2768</v>
+        <v>2766</v>
       </c>
       <c r="H696" s="64" t="s">
         <v>57</v>
@@ -46552,7 +46536,7 @@
         <v>1770</v>
       </c>
       <c r="K696" s="63" t="s">
-        <v>2769</v>
+        <v>2767</v>
       </c>
       <c r="L696" s="63"/>
       <c r="M696" s="63"/>
@@ -46584,7 +46568,7 @@
         <v>45554</v>
       </c>
       <c r="B697" s="63" t="s">
-        <v>2770</v>
+        <v>2768</v>
       </c>
       <c r="C697" s="63" t="s">
         <v>21</v>
@@ -46593,7 +46577,7 @@
       <c r="E697" s="63"/>
       <c r="F697" s="63"/>
       <c r="G697" s="63" t="s">
-        <v>2771</v>
+        <v>2769</v>
       </c>
       <c r="H697" s="64" t="s">
         <v>34</v>
@@ -46601,7 +46585,7 @@
       <c r="I697" s="63"/>
       <c r="J697" s="63"/>
       <c r="K697" s="63" t="s">
-        <v>2772</v>
+        <v>2770</v>
       </c>
       <c r="L697" s="63"/>
       <c r="M697" s="63"/>
@@ -46631,7 +46615,7 @@
         <v>45554</v>
       </c>
       <c r="B698" s="63" t="s">
-        <v>2773</v>
+        <v>2771</v>
       </c>
       <c r="C698" s="63" t="s">
         <v>42</v>
@@ -46640,7 +46624,7 @@
       <c r="E698" s="63"/>
       <c r="F698" s="63"/>
       <c r="G698" s="63" t="s">
-        <v>2774</v>
+        <v>2772</v>
       </c>
       <c r="H698" s="64" t="s">
         <v>57</v>
@@ -46676,7 +46660,7 @@
         <v>45554</v>
       </c>
       <c r="B699" s="63" t="s">
-        <v>2775</v>
+        <v>2773</v>
       </c>
       <c r="C699" s="63" t="s">
         <v>42</v>
@@ -46685,7 +46669,7 @@
       <c r="E699" s="63"/>
       <c r="F699" s="63"/>
       <c r="G699" s="63" t="s">
-        <v>2776</v>
+        <v>2774</v>
       </c>
       <c r="H699" s="64" t="s">
         <v>57</v>
@@ -46695,10 +46679,10 @@
         <v>1260</v>
       </c>
       <c r="K699" s="63" t="s">
-        <v>2777</v>
+        <v>2775</v>
       </c>
       <c r="L699" s="63" t="s">
-        <v>2778</v>
+        <v>2776</v>
       </c>
       <c r="M699" s="63"/>
       <c r="N699" s="63"/>
@@ -46729,7 +46713,7 @@
         <v>45554</v>
       </c>
       <c r="B700" s="63" t="s">
-        <v>2639</v>
+        <v>2637</v>
       </c>
       <c r="C700" s="63" t="s">
         <v>21</v>
@@ -46738,7 +46722,7 @@
       <c r="E700" s="63"/>
       <c r="F700" s="63"/>
       <c r="G700" s="63" t="s">
-        <v>2779</v>
+        <v>2777</v>
       </c>
       <c r="H700" s="64" t="s">
         <v>57</v>
@@ -46774,7 +46758,7 @@
         <v>45554</v>
       </c>
       <c r="B701" s="63" t="s">
-        <v>2780</v>
+        <v>2778</v>
       </c>
       <c r="C701" s="63" t="s">
         <v>21</v>
@@ -46787,20 +46771,20 @@
         <v>104</v>
       </c>
       <c r="G701" s="63" t="s">
-        <v>2781</v>
+        <v>2779</v>
       </c>
       <c r="H701" s="64" t="s">
         <v>57</v>
       </c>
       <c r="I701" s="63" t="s">
-        <v>2524</v>
+        <v>2522</v>
       </c>
       <c r="J701" s="63"/>
       <c r="K701" s="63" t="s">
-        <v>2782</v>
+        <v>2780</v>
       </c>
       <c r="L701" s="63" t="s">
-        <v>2783</v>
+        <v>2781</v>
       </c>
       <c r="M701" s="63"/>
       <c r="N701" s="63"/>
@@ -46840,7 +46824,7 @@
         <v>45554</v>
       </c>
       <c r="B702" s="63" t="s">
-        <v>2784</v>
+        <v>2782</v>
       </c>
       <c r="C702" s="63" t="s">
         <v>42</v>
@@ -46853,17 +46837,17 @@
         <v>104</v>
       </c>
       <c r="G702" s="63" t="s">
-        <v>2785</v>
+        <v>2783</v>
       </c>
       <c r="H702" s="64" t="s">
         <v>57</v>
       </c>
       <c r="I702" s="63" t="s">
-        <v>2524</v>
+        <v>2522</v>
       </c>
       <c r="J702" s="63"/>
       <c r="K702" s="63" t="s">
-        <v>2786</v>
+        <v>2784</v>
       </c>
       <c r="L702" s="63"/>
       <c r="M702" s="63"/>
@@ -46904,7 +46888,7 @@
         <v>45554</v>
       </c>
       <c r="B703" s="63" t="s">
-        <v>2787</v>
+        <v>2785</v>
       </c>
       <c r="C703" s="63" t="s">
         <v>21</v>
@@ -46912,10 +46896,10 @@
       <c r="D703" s="62"/>
       <c r="E703" s="63"/>
       <c r="F703" s="63" t="s">
-        <v>2216</v>
+        <v>2214</v>
       </c>
       <c r="G703" s="63" t="s">
-        <v>2788</v>
+        <v>2786</v>
       </c>
       <c r="H703" s="64"/>
       <c r="I703" s="63"/>
@@ -46923,7 +46907,7 @@
         <v>1770</v>
       </c>
       <c r="K703" s="63" t="s">
-        <v>2789</v>
+        <v>2787</v>
       </c>
       <c r="L703" s="63"/>
       <c r="M703" s="63"/>
@@ -46955,7 +46939,7 @@
         <v>45554</v>
       </c>
       <c r="B704" s="63" t="s">
-        <v>2790</v>
+        <v>2788</v>
       </c>
       <c r="C704" s="63" t="s">
         <v>42</v>
@@ -46964,7 +46948,7 @@
       <c r="E704" s="63"/>
       <c r="F704" s="63"/>
       <c r="G704" s="63" t="s">
-        <v>2791</v>
+        <v>2789</v>
       </c>
       <c r="H704" s="64" t="s">
         <v>57</v>
@@ -46974,7 +46958,7 @@
       </c>
       <c r="J704" s="63"/>
       <c r="K704" s="63" t="s">
-        <v>2792</v>
+        <v>2790</v>
       </c>
       <c r="L704" s="63"/>
       <c r="M704" s="63"/>
@@ -47006,7 +46990,7 @@
         <v>45554</v>
       </c>
       <c r="B705" s="63" t="s">
-        <v>2793</v>
+        <v>2791</v>
       </c>
       <c r="C705" s="63" t="s">
         <v>21</v>
@@ -47019,13 +47003,13 @@
         <v>104</v>
       </c>
       <c r="G705" s="63" t="s">
-        <v>2794</v>
+        <v>2792</v>
       </c>
       <c r="H705" s="64"/>
       <c r="I705" s="63"/>
       <c r="J705" s="63"/>
       <c r="K705" s="63" t="s">
-        <v>2795</v>
+        <v>2793</v>
       </c>
       <c r="L705" s="63"/>
       <c r="M705" s="63"/>
@@ -47055,7 +47039,7 @@
         <v>45555</v>
       </c>
       <c r="B706" s="63" t="s">
-        <v>2796</v>
+        <v>2794</v>
       </c>
       <c r="C706" s="63" t="s">
         <v>21</v>
@@ -47068,7 +47052,7 @@
         <v>104</v>
       </c>
       <c r="G706" s="63" t="s">
-        <v>2797</v>
+        <v>2795</v>
       </c>
       <c r="H706" s="64" t="s">
         <v>57</v>
@@ -47076,7 +47060,7 @@
       <c r="I706" s="63"/>
       <c r="J706" s="63"/>
       <c r="K706" s="63" t="s">
-        <v>2798</v>
+        <v>2796</v>
       </c>
       <c r="L706" s="63"/>
       <c r="M706" s="63"/>
@@ -47108,7 +47092,7 @@
         <v>45555</v>
       </c>
       <c r="B707" s="63" t="s">
-        <v>2799</v>
+        <v>2797</v>
       </c>
       <c r="C707" s="63" t="s">
         <v>21</v>
@@ -47117,7 +47101,7 @@
       <c r="E707" s="63"/>
       <c r="F707" s="63"/>
       <c r="G707" s="63" t="s">
-        <v>2800</v>
+        <v>2798</v>
       </c>
       <c r="H707" s="64" t="s">
         <v>57</v>
@@ -47127,7 +47111,7 @@
       </c>
       <c r="J707" s="63"/>
       <c r="K707" s="63" t="s">
-        <v>2801</v>
+        <v>2799</v>
       </c>
       <c r="L707" s="63"/>
       <c r="M707" s="63"/>
@@ -47159,7 +47143,7 @@
         <v>45555</v>
       </c>
       <c r="B708" s="63" t="s">
-        <v>2802</v>
+        <v>2800</v>
       </c>
       <c r="C708" s="63" t="s">
         <v>42</v>
@@ -47168,7 +47152,7 @@
       <c r="E708" s="63"/>
       <c r="F708" s="63"/>
       <c r="G708" s="63" t="s">
-        <v>2803</v>
+        <v>2801</v>
       </c>
       <c r="H708" s="64" t="s">
         <v>57</v>
@@ -47180,7 +47164,7 @@
         <v>1770</v>
       </c>
       <c r="K708" s="63" t="s">
-        <v>2804</v>
+        <v>2802</v>
       </c>
       <c r="L708" s="63"/>
       <c r="M708" s="63"/>
@@ -47210,7 +47194,7 @@
         <v>45555</v>
       </c>
       <c r="B709" s="63" t="s">
-        <v>2805</v>
+        <v>2803</v>
       </c>
       <c r="C709" s="63" t="s">
         <v>42</v>
@@ -47223,7 +47207,7 @@
         <v>1313</v>
       </c>
       <c r="G709" s="63" t="s">
-        <v>2806</v>
+        <v>2804</v>
       </c>
       <c r="H709" s="64" t="s">
         <v>57</v>
@@ -47233,7 +47217,7 @@
       </c>
       <c r="J709" s="63"/>
       <c r="K709" s="63" t="s">
-        <v>2807</v>
+        <v>2805</v>
       </c>
       <c r="L709" s="63"/>
       <c r="M709" s="63"/>
@@ -47265,7 +47249,7 @@
         <v>45556</v>
       </c>
       <c r="B710" s="63" t="s">
-        <v>2808</v>
+        <v>2806</v>
       </c>
       <c r="C710" s="63" t="s">
         <v>21</v>
@@ -47278,7 +47262,7 @@
         <v>104</v>
       </c>
       <c r="G710" s="63" t="s">
-        <v>2809</v>
+        <v>2807</v>
       </c>
       <c r="H710" s="64" t="s">
         <v>57</v>
@@ -47288,7 +47272,7 @@
       </c>
       <c r="J710" s="63"/>
       <c r="K710" s="63" t="s">
-        <v>2810</v>
+        <v>2808</v>
       </c>
       <c r="L710" s="63"/>
       <c r="M710" s="63"/>
@@ -47320,7 +47304,7 @@
         <v>45556</v>
       </c>
       <c r="B711" s="63" t="s">
-        <v>2811</v>
+        <v>2809</v>
       </c>
       <c r="C711" s="63" t="s">
         <v>42</v>
@@ -47329,7 +47313,7 @@
       <c r="E711" s="63"/>
       <c r="F711" s="63"/>
       <c r="G711" s="63" t="s">
-        <v>2812</v>
+        <v>2810</v>
       </c>
       <c r="H711" s="64" t="s">
         <v>34</v>
@@ -47337,7 +47321,7 @@
       <c r="I711" s="63"/>
       <c r="J711" s="63"/>
       <c r="K711" s="63" t="s">
-        <v>2813</v>
+        <v>2811</v>
       </c>
       <c r="L711" s="63"/>
       <c r="M711" s="63"/>
@@ -47378,7 +47362,7 @@
       <c r="E712" s="63"/>
       <c r="F712" s="63"/>
       <c r="G712" s="63" t="s">
-        <v>2814</v>
+        <v>2812</v>
       </c>
       <c r="H712" s="64" t="s">
         <v>34</v>
@@ -47414,7 +47398,7 @@
         <v>45557</v>
       </c>
       <c r="B713" s="63" t="s">
-        <v>2815</v>
+        <v>2813</v>
       </c>
       <c r="C713" s="63" t="s">
         <v>42</v>
@@ -47423,7 +47407,7 @@
       <c r="E713" s="63"/>
       <c r="F713" s="63"/>
       <c r="G713" s="63" t="s">
-        <v>2816</v>
+        <v>2814</v>
       </c>
       <c r="H713" s="64" t="s">
         <v>57</v>
@@ -47431,7 +47415,7 @@
       <c r="I713" s="63"/>
       <c r="J713" s="63"/>
       <c r="K713" s="63" t="s">
-        <v>2817</v>
+        <v>2815</v>
       </c>
       <c r="L713" s="63"/>
       <c r="M713" s="63"/>
@@ -47463,7 +47447,7 @@
         <v>45557</v>
       </c>
       <c r="B714" s="63" t="s">
-        <v>2818</v>
+        <v>2816</v>
       </c>
       <c r="C714" s="63" t="s">
         <v>21</v>
@@ -47472,7 +47456,7 @@
       <c r="E714" s="63"/>
       <c r="F714" s="63"/>
       <c r="G714" s="63" t="s">
-        <v>2819</v>
+        <v>2817</v>
       </c>
       <c r="H714" s="64" t="s">
         <v>57</v>
@@ -47482,7 +47466,7 @@
       </c>
       <c r="J714" s="63"/>
       <c r="K714" s="63" t="s">
-        <v>2820</v>
+        <v>2818</v>
       </c>
       <c r="L714" s="63"/>
       <c r="M714" s="63"/>
@@ -47514,7 +47498,7 @@
         <v>45557</v>
       </c>
       <c r="B715" s="63" t="s">
-        <v>2821</v>
+        <v>2819</v>
       </c>
       <c r="C715" s="63" t="s">
         <v>42</v>
@@ -47524,10 +47508,10 @@
         <v>103</v>
       </c>
       <c r="F715" s="63" t="s">
-        <v>2822</v>
+        <v>2820</v>
       </c>
       <c r="G715" s="63" t="s">
-        <v>2823</v>
+        <v>2821</v>
       </c>
       <c r="H715" s="64" t="s">
         <v>57</v>
@@ -47537,7 +47521,7 @@
       </c>
       <c r="J715" s="63"/>
       <c r="K715" s="63" t="s">
-        <v>2824</v>
+        <v>2822</v>
       </c>
       <c r="L715" s="63"/>
       <c r="M715" s="63"/>
@@ -47569,7 +47553,7 @@
         <v>45557</v>
       </c>
       <c r="B716" s="63" t="s">
-        <v>2825</v>
+        <v>2823</v>
       </c>
       <c r="C716" s="63" t="s">
         <v>42</v>
@@ -47578,17 +47562,17 @@
       <c r="E716" s="63"/>
       <c r="F716" s="63"/>
       <c r="G716" s="63" t="s">
-        <v>2826</v>
+        <v>2824</v>
       </c>
       <c r="H716" s="64" t="s">
         <v>57</v>
       </c>
       <c r="I716" s="63" t="s">
-        <v>2827</v>
+        <v>2825</v>
       </c>
       <c r="J716" s="63"/>
       <c r="K716" s="63" t="s">
-        <v>2828</v>
+        <v>2826</v>
       </c>
       <c r="L716" s="63"/>
       <c r="M716" s="63"/>
@@ -47620,7 +47604,7 @@
         <v>45557</v>
       </c>
       <c r="B717" s="63" t="s">
-        <v>2829</v>
+        <v>2827</v>
       </c>
       <c r="C717" s="63" t="s">
         <v>42</v>
@@ -47630,20 +47614,20 @@
         <v>474</v>
       </c>
       <c r="F717" s="63" t="s">
-        <v>2830</v>
+        <v>2828</v>
       </c>
       <c r="G717" s="63" t="s">
-        <v>2831</v>
+        <v>2829</v>
       </c>
       <c r="H717" s="64" t="s">
         <v>57</v>
       </c>
       <c r="I717" s="63" t="s">
-        <v>2832</v>
+        <v>2830</v>
       </c>
       <c r="J717" s="63"/>
       <c r="K717" s="63" t="s">
-        <v>2833</v>
+        <v>2831</v>
       </c>
       <c r="L717" s="63"/>
       <c r="M717" s="63"/>
@@ -47675,7 +47659,7 @@
         <v>45557</v>
       </c>
       <c r="B718" s="63" t="s">
-        <v>2834</v>
+        <v>2832</v>
       </c>
       <c r="C718" s="63" t="s">
         <v>42</v>
@@ -47684,7 +47668,7 @@
       <c r="E718" s="63"/>
       <c r="F718" s="63"/>
       <c r="G718" s="63" t="s">
-        <v>2835</v>
+        <v>2833</v>
       </c>
       <c r="H718" s="64" t="s">
         <v>57</v>
@@ -47692,7 +47676,7 @@
       <c r="I718" s="63"/>
       <c r="J718" s="63"/>
       <c r="K718" s="63" t="s">
-        <v>2836</v>
+        <v>2834</v>
       </c>
       <c r="L718" s="63"/>
       <c r="M718" s="63"/>
@@ -47733,7 +47717,7 @@
       <c r="E719" s="63"/>
       <c r="F719" s="63"/>
       <c r="G719" s="63" t="s">
-        <v>2837</v>
+        <v>2835</v>
       </c>
       <c r="H719" s="64" t="s">
         <v>34</v>
@@ -47741,7 +47725,7 @@
       <c r="I719" s="63"/>
       <c r="J719" s="63"/>
       <c r="K719" s="63" t="s">
-        <v>2838</v>
+        <v>2836</v>
       </c>
       <c r="L719" s="63"/>
       <c r="M719" s="63"/>
@@ -47773,7 +47757,7 @@
         <v>45558</v>
       </c>
       <c r="B720" s="63" t="s">
-        <v>2839</v>
+        <v>2837</v>
       </c>
       <c r="C720" s="63" t="s">
         <v>42</v>
@@ -47782,20 +47766,20 @@
       <c r="E720" s="63"/>
       <c r="F720" s="63"/>
       <c r="G720" s="63" t="s">
-        <v>2840</v>
+        <v>2838</v>
       </c>
       <c r="H720" s="64" t="s">
         <v>57</v>
       </c>
       <c r="I720" s="63"/>
       <c r="J720" s="63" t="s">
+        <v>2839</v>
+      </c>
+      <c r="K720" s="63" t="s">
+        <v>2840</v>
+      </c>
+      <c r="L720" s="63" t="s">
         <v>2841</v>
-      </c>
-      <c r="K720" s="63" t="s">
-        <v>2842</v>
-      </c>
-      <c r="L720" s="63" t="s">
-        <v>2843</v>
       </c>
       <c r="M720" s="63"/>
       <c r="N720" s="63"/>
@@ -47826,7 +47810,7 @@
         <v>45558</v>
       </c>
       <c r="B721" s="63" t="s">
-        <v>2844</v>
+        <v>2842</v>
       </c>
       <c r="C721" s="63" t="s">
         <v>21</v>
@@ -47835,7 +47819,7 @@
       <c r="E721" s="63"/>
       <c r="F721" s="63"/>
       <c r="G721" s="63" t="s">
-        <v>2845</v>
+        <v>2843</v>
       </c>
       <c r="H721" s="64" t="s">
         <v>57</v>
@@ -47871,7 +47855,7 @@
         <v>45558</v>
       </c>
       <c r="B722" s="63" t="s">
-        <v>2846</v>
+        <v>2844</v>
       </c>
       <c r="C722" s="63" t="s">
         <v>42</v>
@@ -47880,7 +47864,7 @@
       <c r="E722" s="63"/>
       <c r="F722" s="63"/>
       <c r="G722" s="63" t="s">
-        <v>2847</v>
+        <v>2845</v>
       </c>
       <c r="H722" s="64" t="s">
         <v>57</v>
@@ -47888,7 +47872,7 @@
       <c r="I722" s="63"/>
       <c r="J722" s="63"/>
       <c r="K722" s="63" t="s">
-        <v>2848</v>
+        <v>2846</v>
       </c>
       <c r="L722" s="63"/>
       <c r="M722" s="63"/>
@@ -47925,7 +47909,7 @@
       <c r="E723" s="63"/>
       <c r="F723" s="63"/>
       <c r="G723" s="63" t="s">
-        <v>2849</v>
+        <v>2847</v>
       </c>
       <c r="H723" s="64" t="s">
         <v>57</v>
@@ -47961,7 +47945,7 @@
         <v>45558</v>
       </c>
       <c r="B724" s="63" t="s">
-        <v>2850</v>
+        <v>2848</v>
       </c>
       <c r="C724" s="63" t="s">
         <v>21</v>
@@ -47973,7 +47957,7 @@
         <v>1274</v>
       </c>
       <c r="H724" s="64" t="s">
-        <v>2531</v>
+        <v>2529</v>
       </c>
       <c r="I724" s="63"/>
       <c r="J724" s="63"/>
@@ -48006,7 +47990,7 @@
         <v>45559</v>
       </c>
       <c r="B725" s="63" t="s">
-        <v>2851</v>
+        <v>2849</v>
       </c>
       <c r="C725" s="63" t="s">
         <v>42</v>
@@ -48015,15 +47999,15 @@
       <c r="E725" s="63"/>
       <c r="F725" s="63"/>
       <c r="G725" s="63" t="s">
-        <v>2852</v>
+        <v>2850</v>
       </c>
       <c r="H725" s="64" t="s">
-        <v>2531</v>
+        <v>2529</v>
       </c>
       <c r="I725" s="63"/>
       <c r="J725" s="63"/>
       <c r="K725" s="63" t="s">
-        <v>2853</v>
+        <v>2851</v>
       </c>
       <c r="L725" s="63"/>
       <c r="M725" s="63"/>
@@ -48064,7 +48048,7 @@
       <c r="E726" s="63"/>
       <c r="F726" s="63"/>
       <c r="G726" s="63" t="s">
-        <v>2854</v>
+        <v>2852</v>
       </c>
       <c r="H726" s="64" t="s">
         <v>57</v>
@@ -48072,7 +48056,7 @@
       <c r="I726" s="63"/>
       <c r="J726" s="63"/>
       <c r="K726" s="63" t="s">
-        <v>2855</v>
+        <v>2853</v>
       </c>
       <c r="L726" s="63"/>
       <c r="M726" s="63"/>
@@ -48104,7 +48088,7 @@
         <v>45559</v>
       </c>
       <c r="B727" s="63" t="s">
-        <v>2856</v>
+        <v>2854</v>
       </c>
       <c r="C727" s="63" t="s">
         <v>21</v>
@@ -48113,7 +48097,7 @@
       <c r="E727" s="63"/>
       <c r="F727" s="63"/>
       <c r="G727" s="63" t="s">
-        <v>2857</v>
+        <v>2855</v>
       </c>
       <c r="H727" s="64" t="s">
         <v>57</v>
@@ -48123,7 +48107,7 @@
         <v>1770</v>
       </c>
       <c r="K727" s="63" t="s">
-        <v>2858</v>
+        <v>2856</v>
       </c>
       <c r="L727" s="63"/>
       <c r="M727" s="63"/>
@@ -48155,7 +48139,7 @@
         <v>45560</v>
       </c>
       <c r="B728" s="63" t="s">
-        <v>2859</v>
+        <v>2857</v>
       </c>
       <c r="C728" s="63" t="s">
         <v>42</v>
@@ -48168,17 +48152,17 @@
         <v>104</v>
       </c>
       <c r="G728" s="63" t="s">
-        <v>2860</v>
+        <v>2858</v>
       </c>
       <c r="H728" s="64" t="s">
         <v>57</v>
       </c>
       <c r="I728" s="63" t="s">
-        <v>2732</v>
+        <v>2730</v>
       </c>
       <c r="J728" s="63"/>
       <c r="K728" s="63" t="s">
-        <v>2861</v>
+        <v>2859</v>
       </c>
       <c r="L728" s="63"/>
       <c r="M728" s="63"/>
@@ -48210,7 +48194,7 @@
         <v>45560</v>
       </c>
       <c r="B729" s="63" t="s">
-        <v>2862</v>
+        <v>2860</v>
       </c>
       <c r="C729" s="63" t="s">
         <v>42</v>
@@ -48219,13 +48203,13 @@
       <c r="E729" s="63"/>
       <c r="F729" s="63"/>
       <c r="G729" s="63" t="s">
-        <v>2863</v>
+        <v>2861</v>
       </c>
       <c r="H729" s="64"/>
       <c r="I729" s="63"/>
       <c r="J729" s="63"/>
       <c r="K729" s="63" t="s">
-        <v>2864</v>
+        <v>2862</v>
       </c>
       <c r="L729" s="63"/>
       <c r="M729" s="63"/>
@@ -48257,7 +48241,7 @@
         <v>45560</v>
       </c>
       <c r="B730" s="63" t="s">
-        <v>2865</v>
+        <v>2863</v>
       </c>
       <c r="C730" s="63" t="s">
         <v>21</v>
@@ -48270,10 +48254,10 @@
         <v>104</v>
       </c>
       <c r="G730" s="63" t="s">
-        <v>2866</v>
+        <v>2864</v>
       </c>
       <c r="H730" s="64" t="s">
-        <v>2867</v>
+        <v>2865</v>
       </c>
       <c r="I730" s="63" t="s">
         <v>1513</v>
@@ -48323,7 +48307,7 @@
         <v>104</v>
       </c>
       <c r="G731" s="63" t="s">
-        <v>2868</v>
+        <v>2866</v>
       </c>
       <c r="H731" s="64" t="s">
         <v>57</v>
@@ -48333,7 +48317,7 @@
       </c>
       <c r="J731" s="63"/>
       <c r="K731" s="63" t="s">
-        <v>2869</v>
+        <v>2867</v>
       </c>
       <c r="L731" s="63"/>
       <c r="M731" s="63"/>
@@ -48365,7 +48349,7 @@
         <v>45560</v>
       </c>
       <c r="B732" s="63" t="s">
-        <v>2870</v>
+        <v>2868</v>
       </c>
       <c r="C732" s="63" t="s">
         <v>42</v>
@@ -48374,7 +48358,7 @@
       <c r="E732" s="63"/>
       <c r="F732" s="63"/>
       <c r="G732" s="63" t="s">
-        <v>2871</v>
+        <v>2869</v>
       </c>
       <c r="H732" s="64" t="s">
         <v>57</v>
@@ -48382,7 +48366,7 @@
       <c r="I732" s="63"/>
       <c r="J732" s="63"/>
       <c r="K732" s="63" t="s">
-        <v>2872</v>
+        <v>2870</v>
       </c>
       <c r="L732" s="63"/>
       <c r="M732" s="63"/>
@@ -48402,7 +48386,7 @@
         <v>45561</v>
       </c>
       <c r="B733" s="63" t="s">
-        <v>2873</v>
+        <v>2871</v>
       </c>
       <c r="C733" s="63" t="s">
         <v>21</v>
@@ -48415,17 +48399,17 @@
         <v>104</v>
       </c>
       <c r="G733" s="63" t="s">
-        <v>2874</v>
+        <v>2872</v>
       </c>
       <c r="H733" s="64" t="s">
-        <v>2531</v>
+        <v>2529</v>
       </c>
       <c r="I733" s="63" t="s">
         <v>1192</v>
       </c>
       <c r="J733" s="63"/>
       <c r="K733" s="63" t="s">
-        <v>2875</v>
+        <v>2873</v>
       </c>
       <c r="L733" s="63"/>
       <c r="M733" s="63"/>
@@ -48466,7 +48450,7 @@
         <v>45561</v>
       </c>
       <c r="B734" s="63" t="s">
-        <v>2876</v>
+        <v>2874</v>
       </c>
       <c r="C734" s="63" t="s">
         <v>42</v>
@@ -48475,15 +48459,15 @@
       <c r="E734" s="63"/>
       <c r="F734" s="63"/>
       <c r="G734" s="63" t="s">
-        <v>2877</v>
+        <v>2875</v>
       </c>
       <c r="H734" s="64" t="s">
-        <v>2531</v>
+        <v>2529</v>
       </c>
       <c r="I734" s="63"/>
       <c r="J734" s="63"/>
       <c r="K734" s="63" t="s">
-        <v>2878</v>
+        <v>2876</v>
       </c>
       <c r="L734" s="63"/>
       <c r="M734" s="63"/>
@@ -48515,7 +48499,7 @@
         <v>45561</v>
       </c>
       <c r="B735" s="63" t="s">
-        <v>2879</v>
+        <v>2877</v>
       </c>
       <c r="C735" s="63" t="s">
         <v>21</v>
@@ -48528,7 +48512,7 @@
         <v>104</v>
       </c>
       <c r="G735" s="63" t="s">
-        <v>2880</v>
+        <v>2878</v>
       </c>
       <c r="H735" s="64"/>
       <c r="I735" s="63" t="s">
@@ -48536,7 +48520,7 @@
       </c>
       <c r="J735" s="63"/>
       <c r="K735" s="63" t="s">
-        <v>2881</v>
+        <v>2879</v>
       </c>
       <c r="L735" s="63"/>
       <c r="M735" s="63"/>
@@ -48568,7 +48552,7 @@
         <v>45561</v>
       </c>
       <c r="B736" s="63" t="s">
-        <v>2882</v>
+        <v>2880</v>
       </c>
       <c r="C736" s="63" t="s">
         <v>42</v>
@@ -48581,17 +48565,17 @@
         <v>104</v>
       </c>
       <c r="G736" s="63" t="s">
-        <v>2883</v>
+        <v>2881</v>
       </c>
       <c r="H736" s="64" t="s">
-        <v>2531</v>
+        <v>2529</v>
       </c>
       <c r="I736" s="63" t="s">
         <v>73</v>
       </c>
       <c r="J736" s="63"/>
       <c r="K736" s="63" t="s">
-        <v>2884</v>
+        <v>2882</v>
       </c>
       <c r="L736" s="63"/>
       <c r="M736" s="63"/>
@@ -48623,22 +48607,22 @@
         <v>45561</v>
       </c>
       <c r="B737" s="63" t="s">
-        <v>2885</v>
+        <v>2883</v>
       </c>
       <c r="C737" s="63"/>
       <c r="D737" s="62"/>
       <c r="E737" s="63"/>
       <c r="F737" s="63"/>
       <c r="G737" s="63" t="s">
-        <v>2886</v>
+        <v>2884</v>
       </c>
       <c r="H737" s="64" t="s">
-        <v>2531</v>
+        <v>2529</v>
       </c>
       <c r="I737" s="63"/>
       <c r="J737" s="63"/>
       <c r="K737" s="63" t="s">
-        <v>2887</v>
+        <v>2885</v>
       </c>
       <c r="L737" s="63"/>
       <c r="M737" s="63"/>
@@ -48670,7 +48654,7 @@
         <v>45561</v>
       </c>
       <c r="B738" s="63" t="s">
-        <v>2888</v>
+        <v>2886</v>
       </c>
       <c r="C738" s="63" t="s">
         <v>42</v>
@@ -48679,7 +48663,7 @@
       <c r="E738" s="63"/>
       <c r="F738" s="63"/>
       <c r="G738" s="63" t="s">
-        <v>2889</v>
+        <v>2887</v>
       </c>
       <c r="H738" s="64" t="s">
         <v>34</v>
@@ -48687,7 +48671,7 @@
       <c r="I738" s="63"/>
       <c r="J738" s="63"/>
       <c r="K738" s="63" t="s">
-        <v>2890</v>
+        <v>2888</v>
       </c>
       <c r="L738" s="63"/>
       <c r="M738" s="63"/>
@@ -48719,7 +48703,7 @@
         <v>45561</v>
       </c>
       <c r="B739" s="63" t="s">
-        <v>2891</v>
+        <v>2889</v>
       </c>
       <c r="C739" s="63" t="s">
         <v>21</v>
@@ -48728,15 +48712,15 @@
       <c r="E739" s="63"/>
       <c r="F739" s="63"/>
       <c r="G739" s="63" t="s">
-        <v>2892</v>
+        <v>2890</v>
       </c>
       <c r="H739" s="64" t="s">
-        <v>2531</v>
+        <v>2529</v>
       </c>
       <c r="I739" s="63"/>
       <c r="J739" s="63"/>
       <c r="K739" s="63" t="s">
-        <v>2893</v>
+        <v>2891</v>
       </c>
       <c r="L739" s="63"/>
       <c r="M739" s="63"/>
@@ -48768,7 +48752,7 @@
         <v>45561</v>
       </c>
       <c r="B740" s="63" t="s">
-        <v>2545</v>
+        <v>2543</v>
       </c>
       <c r="C740" s="63" t="s">
         <v>42</v>
@@ -48777,15 +48761,15 @@
       <c r="E740" s="63"/>
       <c r="F740" s="63"/>
       <c r="G740" s="63" t="s">
-        <v>2894</v>
+        <v>2892</v>
       </c>
       <c r="H740" s="64" t="s">
-        <v>2531</v>
+        <v>2529</v>
       </c>
       <c r="I740" s="63"/>
       <c r="J740" s="63"/>
       <c r="K740" s="63" t="s">
-        <v>2895</v>
+        <v>2893</v>
       </c>
       <c r="L740" s="63"/>
       <c r="M740" s="63"/>
@@ -48817,7 +48801,7 @@
         <v>45562</v>
       </c>
       <c r="B741" s="63" t="s">
-        <v>2896</v>
+        <v>2894</v>
       </c>
       <c r="C741" s="63" t="s">
         <v>21</v>
@@ -48826,7 +48810,7 @@
       <c r="E741" s="63"/>
       <c r="F741" s="63"/>
       <c r="G741" s="63" t="s">
-        <v>2897</v>
+        <v>2895</v>
       </c>
       <c r="H741" s="64"/>
       <c r="I741" s="63" t="s">
@@ -48834,7 +48818,7 @@
       </c>
       <c r="J741" s="63"/>
       <c r="K741" s="63" t="s">
-        <v>2898</v>
+        <v>2896</v>
       </c>
       <c r="L741" s="63"/>
       <c r="M741" s="63"/>
@@ -48866,7 +48850,7 @@
         <v>45562</v>
       </c>
       <c r="B742" s="63" t="s">
-        <v>2899</v>
+        <v>2897</v>
       </c>
       <c r="C742" s="63" t="s">
         <v>21</v>
@@ -48879,20 +48863,20 @@
         <v>104</v>
       </c>
       <c r="G742" s="63" t="s">
-        <v>2900</v>
+        <v>2898</v>
       </c>
       <c r="H742" s="64" t="s">
-        <v>2531</v>
+        <v>2529</v>
       </c>
       <c r="I742" s="63" t="s">
-        <v>2832</v>
+        <v>2830</v>
       </c>
       <c r="J742" s="63"/>
       <c r="K742" s="63" t="s">
-        <v>2901</v>
+        <v>2899</v>
       </c>
       <c r="L742" s="63" t="s">
-        <v>2902</v>
+        <v>2900</v>
       </c>
       <c r="M742" s="63"/>
       <c r="N742" s="63"/>
@@ -48923,7 +48907,7 @@
         <v>45562</v>
       </c>
       <c r="B743" s="63" t="s">
-        <v>2903</v>
+        <v>2901</v>
       </c>
       <c r="C743" s="63" t="s">
         <v>21</v>
@@ -48936,15 +48920,15 @@
         <v>104</v>
       </c>
       <c r="G743" s="63" t="s">
-        <v>2904</v>
+        <v>2902</v>
       </c>
       <c r="H743" s="64" t="s">
-        <v>2867</v>
+        <v>2865</v>
       </c>
       <c r="I743" s="63"/>
       <c r="J743" s="63"/>
       <c r="K743" s="63" t="s">
-        <v>2905</v>
+        <v>2903</v>
       </c>
       <c r="L743" s="63"/>
       <c r="M743" s="63"/>
@@ -48976,7 +48960,7 @@
         <v>45562</v>
       </c>
       <c r="B744" s="63" t="s">
-        <v>2906</v>
+        <v>2904</v>
       </c>
       <c r="C744" s="63" t="s">
         <v>21</v>
@@ -48985,7 +48969,7 @@
       <c r="E744" s="63"/>
       <c r="F744" s="63"/>
       <c r="G744" s="63" t="s">
-        <v>2907</v>
+        <v>2905</v>
       </c>
       <c r="H744" s="64" t="s">
         <v>57</v>
@@ -48993,7 +48977,7 @@
       <c r="I744" s="63"/>
       <c r="J744" s="63"/>
       <c r="K744" s="63" t="s">
-        <v>2908</v>
+        <v>2906</v>
       </c>
       <c r="L744" s="63"/>
       <c r="M744" s="63"/>
@@ -49025,7 +49009,7 @@
         <v>45562</v>
       </c>
       <c r="B745" s="63" t="s">
-        <v>2909</v>
+        <v>2907</v>
       </c>
       <c r="C745" s="63" t="s">
         <v>42</v>
@@ -49034,7 +49018,7 @@
       <c r="E745" s="63"/>
       <c r="F745" s="63"/>
       <c r="G745" s="63" t="s">
-        <v>2910</v>
+        <v>2908</v>
       </c>
       <c r="H745" s="64" t="s">
         <v>57</v>
@@ -49042,10 +49026,10 @@
       <c r="I745" s="63"/>
       <c r="J745" s="63"/>
       <c r="K745" s="63" t="s">
-        <v>2911</v>
+        <v>2909</v>
       </c>
       <c r="L745" s="63" t="s">
-        <v>2912</v>
+        <v>2910</v>
       </c>
       <c r="M745" s="63"/>
       <c r="N745" s="63"/>
@@ -49076,7 +49060,7 @@
         <v>45563</v>
       </c>
       <c r="B746" s="63" t="s">
-        <v>2710</v>
+        <v>2708</v>
       </c>
       <c r="C746" s="63" t="s">
         <v>21</v>
@@ -49089,17 +49073,17 @@
         <v>104</v>
       </c>
       <c r="G746" s="63" t="s">
-        <v>2913</v>
+        <v>2911</v>
       </c>
       <c r="H746" s="64" t="s">
-        <v>2531</v>
+        <v>2529</v>
       </c>
       <c r="I746" s="63" t="s">
         <v>1330</v>
       </c>
       <c r="J746" s="63"/>
       <c r="K746" s="63" t="s">
-        <v>2914</v>
+        <v>2912</v>
       </c>
       <c r="L746" s="63"/>
       <c r="M746" s="63"/>
@@ -49131,7 +49115,7 @@
         <v>45563</v>
       </c>
       <c r="B747" s="63" t="s">
-        <v>2915</v>
+        <v>2913</v>
       </c>
       <c r="C747" s="63" t="s">
         <v>21</v>
@@ -49144,17 +49128,17 @@
         <v>104</v>
       </c>
       <c r="G747" s="63" t="s">
-        <v>2916</v>
+        <v>2914</v>
       </c>
       <c r="H747" s="64" t="s">
-        <v>2867</v>
+        <v>2865</v>
       </c>
       <c r="I747" s="63" t="s">
         <v>1513</v>
       </c>
       <c r="J747" s="63"/>
       <c r="K747" s="63" t="s">
-        <v>2917</v>
+        <v>2915</v>
       </c>
       <c r="L747" s="63"/>
       <c r="M747" s="63"/>
@@ -49186,7 +49170,7 @@
         <v>45563</v>
       </c>
       <c r="B748" s="63" t="s">
-        <v>2918</v>
+        <v>2916</v>
       </c>
       <c r="C748" s="63" t="s">
         <v>21</v>
@@ -49195,17 +49179,17 @@
       <c r="E748" s="63"/>
       <c r="F748" s="63"/>
       <c r="G748" s="63" t="s">
-        <v>2919</v>
+        <v>2917</v>
       </c>
       <c r="H748" s="64" t="s">
-        <v>2867</v>
+        <v>2865</v>
       </c>
       <c r="I748" s="63" t="s">
         <v>73</v>
       </c>
       <c r="J748" s="63"/>
       <c r="K748" s="63" t="s">
-        <v>2920</v>
+        <v>2918</v>
       </c>
       <c r="L748" s="63"/>
       <c r="M748" s="63"/>
@@ -49237,7 +49221,7 @@
         <v>45564</v>
       </c>
       <c r="B749" s="63" t="s">
-        <v>2921</v>
+        <v>2919</v>
       </c>
       <c r="C749" s="63" t="s">
         <v>42</v>
@@ -49250,17 +49234,17 @@
         <v>104</v>
       </c>
       <c r="G749" s="63" t="s">
-        <v>2922</v>
+        <v>2920</v>
       </c>
       <c r="H749" s="64" t="s">
         <v>57</v>
       </c>
       <c r="I749" s="63" t="s">
-        <v>2923</v>
+        <v>2921</v>
       </c>
       <c r="J749" s="63"/>
       <c r="K749" s="63" t="s">
-        <v>2917</v>
+        <v>2915</v>
       </c>
       <c r="L749" s="63"/>
       <c r="M749" s="63"/>
@@ -49292,7 +49276,7 @@
         <v>45564</v>
       </c>
       <c r="B750" s="63" t="s">
-        <v>2924</v>
+        <v>2922</v>
       </c>
       <c r="C750" s="63" t="s">
         <v>42</v>
@@ -49301,15 +49285,15 @@
       <c r="E750" s="63"/>
       <c r="F750" s="63"/>
       <c r="G750" s="63" t="s">
-        <v>2925</v>
+        <v>2923</v>
       </c>
       <c r="H750" s="64" t="s">
-        <v>2531</v>
+        <v>2529</v>
       </c>
       <c r="I750" s="63"/>
       <c r="J750" s="63"/>
       <c r="K750" s="63" t="s">
-        <v>2926</v>
+        <v>2924</v>
       </c>
       <c r="L750" s="63"/>
       <c r="M750" s="63"/>
@@ -49341,7 +49325,7 @@
         <v>45564</v>
       </c>
       <c r="B751" s="63" t="s">
-        <v>2927</v>
+        <v>2925</v>
       </c>
       <c r="C751" s="63" t="s">
         <v>21</v>
@@ -49354,7 +49338,7 @@
         <v>104</v>
       </c>
       <c r="G751" s="63" t="s">
-        <v>2928</v>
+        <v>2926</v>
       </c>
       <c r="H751" s="64" t="s">
         <v>57</v>
@@ -49364,7 +49348,7 @@
       </c>
       <c r="J751" s="63"/>
       <c r="K751" s="63" t="s">
-        <v>2929</v>
+        <v>2927</v>
       </c>
       <c r="L751" s="63"/>
       <c r="M751" s="63"/>
@@ -49396,7 +49380,7 @@
         <v>45564</v>
       </c>
       <c r="B752" s="63" t="s">
-        <v>2930</v>
+        <v>2928</v>
       </c>
       <c r="C752" s="63" t="s">
         <v>42</v>
@@ -49409,7 +49393,7 @@
         <v>104</v>
       </c>
       <c r="G752" s="63" t="s">
-        <v>2931</v>
+        <v>2929</v>
       </c>
       <c r="H752" s="64" t="s">
         <v>34</v>
@@ -49419,7 +49403,7 @@
       </c>
       <c r="J752" s="63"/>
       <c r="K752" s="63" t="s">
-        <v>2932</v>
+        <v>2930</v>
       </c>
       <c r="L752" s="63"/>
       <c r="M752" s="63"/>
@@ -49451,7 +49435,7 @@
         <v>45564</v>
       </c>
       <c r="B753" s="63" t="s">
-        <v>2933</v>
+        <v>2931</v>
       </c>
       <c r="C753" s="63" t="s">
         <v>42</v>
@@ -49460,17 +49444,17 @@
       <c r="E753" s="63"/>
       <c r="F753" s="63"/>
       <c r="G753" s="63" t="s">
-        <v>2934</v>
+        <v>2932</v>
       </c>
       <c r="H753" s="64" t="s">
         <v>57</v>
       </c>
       <c r="I753" s="63" t="s">
-        <v>2935</v>
+        <v>2933</v>
       </c>
       <c r="J753" s="63"/>
       <c r="K753" s="63" t="s">
-        <v>2936</v>
+        <v>2934</v>
       </c>
       <c r="L753" s="63"/>
       <c r="M753" s="63"/>
@@ -49502,7 +49486,7 @@
         <v>45564</v>
       </c>
       <c r="B754" s="63" t="s">
-        <v>2937</v>
+        <v>2935</v>
       </c>
       <c r="C754" s="63" t="s">
         <v>42</v>
@@ -49515,7 +49499,7 @@
         <v>104</v>
       </c>
       <c r="G754" s="63" t="s">
-        <v>2938</v>
+        <v>2936</v>
       </c>
       <c r="H754" s="64" t="s">
         <v>57</v>
@@ -49523,7 +49507,7 @@
       <c r="I754" s="63"/>
       <c r="J754" s="63"/>
       <c r="K754" s="63" t="s">
-        <v>2939</v>
+        <v>2937</v>
       </c>
       <c r="L754" s="63"/>
       <c r="M754" s="63"/>
@@ -49555,7 +49539,7 @@
         <v>45565</v>
       </c>
       <c r="B755" s="63" t="s">
-        <v>2940</v>
+        <v>2938</v>
       </c>
       <c r="C755" s="63" t="s">
         <v>42</v>
@@ -49568,7 +49552,7 @@
         <v>104</v>
       </c>
       <c r="G755" s="63" t="s">
-        <v>2941</v>
+        <v>2939</v>
       </c>
       <c r="H755" s="64" t="s">
         <v>57</v>
@@ -49576,10 +49560,10 @@
       <c r="I755" s="63"/>
       <c r="J755" s="63"/>
       <c r="K755" s="63" t="s">
-        <v>2942</v>
+        <v>2940</v>
       </c>
       <c r="L755" s="63" t="s">
-        <v>2943</v>
+        <v>2941</v>
       </c>
       <c r="M755" s="63"/>
       <c r="N755" s="63"/>
@@ -49610,7 +49594,7 @@
         <v>45566</v>
       </c>
       <c r="B756" s="63" t="s">
-        <v>2944</v>
+        <v>2942</v>
       </c>
       <c r="C756" s="63" t="s">
         <v>21</v>
@@ -49619,7 +49603,7 @@
       <c r="E756" s="63"/>
       <c r="F756" s="63"/>
       <c r="G756" s="63" t="s">
-        <v>2945</v>
+        <v>2943</v>
       </c>
       <c r="H756" s="64" t="s">
         <v>57</v>
@@ -49627,7 +49611,7 @@
       <c r="I756" s="63"/>
       <c r="J756" s="63"/>
       <c r="K756" s="63" t="s">
-        <v>2946</v>
+        <v>2944</v>
       </c>
       <c r="L756" s="63"/>
       <c r="M756" s="63"/>
@@ -49659,7 +49643,7 @@
         <v>45566</v>
       </c>
       <c r="B757" s="63" t="s">
-        <v>2947</v>
+        <v>2945</v>
       </c>
       <c r="C757" s="63" t="s">
         <v>21</v>
@@ -49668,15 +49652,15 @@
       <c r="E757" s="63"/>
       <c r="F757" s="63"/>
       <c r="G757" s="63" t="s">
-        <v>2948</v>
+        <v>2946</v>
       </c>
       <c r="H757" s="64" t="s">
-        <v>2949</v>
+        <v>2947</v>
       </c>
       <c r="I757" s="63"/>
       <c r="J757" s="63"/>
       <c r="K757" s="63" t="s">
-        <v>2950</v>
+        <v>2948</v>
       </c>
       <c r="L757" s="63"/>
       <c r="M757" s="63"/>
@@ -49708,7 +49692,7 @@
         <v>45566</v>
       </c>
       <c r="B758" s="63" t="s">
-        <v>2951</v>
+        <v>2949</v>
       </c>
       <c r="C758" s="63" t="s">
         <v>21</v>
@@ -49717,15 +49701,15 @@
       <c r="E758" s="63"/>
       <c r="F758" s="63"/>
       <c r="G758" s="63" t="s">
-        <v>2952</v>
+        <v>2950</v>
       </c>
       <c r="H758" s="64" t="s">
-        <v>2949</v>
+        <v>2947</v>
       </c>
       <c r="I758" s="63"/>
       <c r="J758" s="63"/>
       <c r="K758" s="63" t="s">
-        <v>2953</v>
+        <v>2951</v>
       </c>
       <c r="L758" s="63"/>
       <c r="M758" s="63"/>
@@ -49762,15 +49746,15 @@
       <c r="E759" s="63"/>
       <c r="F759" s="63"/>
       <c r="G759" s="63" t="s">
-        <v>2954</v>
+        <v>2952</v>
       </c>
       <c r="H759" s="64" t="s">
-        <v>2531</v>
+        <v>2529</v>
       </c>
       <c r="I759" s="63"/>
       <c r="J759" s="63"/>
       <c r="K759" s="63" t="s">
-        <v>2955</v>
+        <v>2953</v>
       </c>
       <c r="L759" s="63"/>
       <c r="M759" s="63"/>
@@ -49802,7 +49786,7 @@
         <v>45566</v>
       </c>
       <c r="B760" s="63" t="s">
-        <v>2337</v>
+        <v>2335</v>
       </c>
       <c r="C760" s="63" t="s">
         <v>21</v>
@@ -49811,7 +49795,7 @@
       <c r="E760" s="63"/>
       <c r="F760" s="63"/>
       <c r="G760" s="63" t="s">
-        <v>2956</v>
+        <v>2954</v>
       </c>
       <c r="H760" s="64" t="s">
         <v>57</v>
@@ -49821,7 +49805,7 @@
       </c>
       <c r="J760" s="63"/>
       <c r="K760" s="63" t="s">
-        <v>2957</v>
+        <v>2955</v>
       </c>
       <c r="L760" s="63"/>
       <c r="M760" s="63"/>
@@ -49853,7 +49837,7 @@
         <v>45567</v>
       </c>
       <c r="B761" s="63" t="s">
-        <v>2958</v>
+        <v>2956</v>
       </c>
       <c r="C761" s="63" t="s">
         <v>42</v>
@@ -49862,13 +49846,13 @@
       <c r="E761" s="63"/>
       <c r="F761" s="63"/>
       <c r="G761" s="63" t="s">
-        <v>2959</v>
+        <v>2957</v>
       </c>
       <c r="H761" s="64"/>
       <c r="I761" s="63"/>
       <c r="J761" s="63"/>
       <c r="K761" s="63" t="s">
-        <v>2960</v>
+        <v>2958</v>
       </c>
       <c r="L761" s="63"/>
       <c r="M761" s="63"/>
@@ -49900,7 +49884,7 @@
         <v>45567</v>
       </c>
       <c r="B762" s="63" t="s">
-        <v>2961</v>
+        <v>2959</v>
       </c>
       <c r="C762" s="63" t="s">
         <v>21</v>
@@ -49909,7 +49893,7 @@
       <c r="E762" s="63"/>
       <c r="F762" s="63"/>
       <c r="G762" s="63" t="s">
-        <v>2962</v>
+        <v>2960</v>
       </c>
       <c r="H762" s="64" t="s">
         <v>57</v>
@@ -49917,7 +49901,7 @@
       <c r="I762" s="63"/>
       <c r="J762" s="63"/>
       <c r="K762" s="63" t="s">
-        <v>2963</v>
+        <v>2961</v>
       </c>
       <c r="L762" s="63"/>
       <c r="M762" s="63"/>
@@ -49949,7 +49933,7 @@
         <v>45567</v>
       </c>
       <c r="B763" s="63" t="s">
-        <v>2964</v>
+        <v>2962</v>
       </c>
       <c r="C763" s="63" t="s">
         <v>21</v>
@@ -49958,7 +49942,7 @@
       <c r="E763" s="63"/>
       <c r="F763" s="63"/>
       <c r="G763" s="63" t="s">
-        <v>2965</v>
+        <v>2963</v>
       </c>
       <c r="H763" s="64" t="s">
         <v>57</v>
@@ -49966,7 +49950,7 @@
       <c r="I763" s="63"/>
       <c r="J763" s="63"/>
       <c r="K763" s="63" t="s">
-        <v>2966</v>
+        <v>2964</v>
       </c>
       <c r="L763" s="63"/>
       <c r="M763" s="63"/>
@@ -49998,7 +49982,7 @@
         <v>45568</v>
       </c>
       <c r="B764" s="63" t="s">
-        <v>2967</v>
+        <v>2965</v>
       </c>
       <c r="C764" s="63" t="s">
         <v>21</v>
@@ -50007,17 +49991,17 @@
       <c r="E764" s="63"/>
       <c r="F764" s="63"/>
       <c r="G764" s="63" t="s">
-        <v>2968</v>
+        <v>2966</v>
       </c>
       <c r="H764" s="64" t="s">
-        <v>2949</v>
+        <v>2947</v>
       </c>
       <c r="I764" s="63" t="s">
         <v>73</v>
       </c>
       <c r="J764" s="63"/>
       <c r="K764" s="63" t="s">
-        <v>2969</v>
+        <v>2967</v>
       </c>
       <c r="L764" s="63"/>
       <c r="M764" s="63"/>
@@ -50049,7 +50033,7 @@
         <v>45568</v>
       </c>
       <c r="B765" s="63" t="s">
-        <v>2970</v>
+        <v>2968</v>
       </c>
       <c r="C765" s="63" t="s">
         <v>42</v>
@@ -50058,15 +50042,15 @@
       <c r="E765" s="63"/>
       <c r="F765" s="63"/>
       <c r="G765" s="63" t="s">
-        <v>2971</v>
+        <v>2969</v>
       </c>
       <c r="H765" s="64" t="s">
-        <v>2531</v>
+        <v>2529</v>
       </c>
       <c r="I765" s="63"/>
       <c r="J765" s="63"/>
       <c r="K765" s="63" t="s">
-        <v>2972</v>
+        <v>2970</v>
       </c>
       <c r="L765" s="63"/>
       <c r="M765" s="63"/>
@@ -50098,7 +50082,7 @@
         <v>45568</v>
       </c>
       <c r="B766" s="63" t="s">
-        <v>2973</v>
+        <v>2971</v>
       </c>
       <c r="C766" s="63" t="s">
         <v>21</v>
@@ -50107,10 +50091,10 @@
       <c r="E766" s="63"/>
       <c r="F766" s="63"/>
       <c r="G766" s="63" t="s">
-        <v>2974</v>
+        <v>2972</v>
       </c>
       <c r="H766" s="64" t="s">
-        <v>2949</v>
+        <v>2947</v>
       </c>
       <c r="I766" s="63"/>
       <c r="J766" s="63"/>
@@ -50143,7 +50127,7 @@
         <v>45568</v>
       </c>
       <c r="B767" s="63" t="s">
-        <v>2975</v>
+        <v>2973</v>
       </c>
       <c r="C767" s="63" t="s">
         <v>21</v>
@@ -50156,17 +50140,17 @@
         <v>104</v>
       </c>
       <c r="G767" s="63" t="s">
-        <v>2976</v>
+        <v>2974</v>
       </c>
       <c r="H767" s="64" t="s">
-        <v>2531</v>
+        <v>2529</v>
       </c>
       <c r="I767" s="63" t="s">
         <v>35</v>
       </c>
       <c r="J767" s="63"/>
       <c r="K767" s="63" t="s">
-        <v>2977</v>
+        <v>2975</v>
       </c>
       <c r="L767" s="63"/>
       <c r="M767" s="63"/>
@@ -50198,7 +50182,7 @@
         <v>45568</v>
       </c>
       <c r="B768" s="63" t="s">
-        <v>2978</v>
+        <v>2976</v>
       </c>
       <c r="C768" s="63" t="s">
         <v>42</v>
@@ -50207,7 +50191,7 @@
       <c r="E768" s="63"/>
       <c r="F768" s="63"/>
       <c r="G768" s="63" t="s">
-        <v>2979</v>
+        <v>2977</v>
       </c>
       <c r="H768" s="64" t="s">
         <v>57</v>
@@ -50245,7 +50229,7 @@
         <v>45568</v>
       </c>
       <c r="B769" s="63" t="s">
-        <v>2980</v>
+        <v>2978</v>
       </c>
       <c r="C769" s="63" t="s">
         <v>21</v>
@@ -50258,17 +50242,17 @@
         <v>104</v>
       </c>
       <c r="G769" s="63" t="s">
-        <v>2981</v>
+        <v>2979</v>
       </c>
       <c r="H769" s="64" t="s">
-        <v>2949</v>
+        <v>2947</v>
       </c>
       <c r="I769" s="63" t="s">
         <v>698</v>
       </c>
       <c r="J769" s="63"/>
       <c r="K769" s="63" t="s">
-        <v>2982</v>
+        <v>2980</v>
       </c>
       <c r="L769" s="63"/>
       <c r="M769" s="63"/>
@@ -50300,7 +50284,7 @@
         <v>45569</v>
       </c>
       <c r="B770" s="63" t="s">
-        <v>2355</v>
+        <v>2353</v>
       </c>
       <c r="C770" s="63" t="s">
         <v>42</v>
@@ -50313,17 +50297,17 @@
         <v>784</v>
       </c>
       <c r="G770" s="63" t="s">
-        <v>2983</v>
+        <v>2981</v>
       </c>
       <c r="H770" s="64" t="s">
-        <v>2531</v>
+        <v>2529</v>
       </c>
       <c r="I770" s="63" t="s">
         <v>73</v>
       </c>
       <c r="J770" s="63"/>
       <c r="K770" s="63" t="s">
-        <v>2982</v>
+        <v>2980</v>
       </c>
       <c r="L770" s="63"/>
       <c r="M770" s="63"/>
@@ -50362,7 +50346,7 @@
       <c r="E771" s="63"/>
       <c r="F771" s="63"/>
       <c r="G771" s="63" t="s">
-        <v>2984</v>
+        <v>2982</v>
       </c>
       <c r="H771" s="64" t="s">
         <v>57</v>
@@ -50370,7 +50354,7 @@
       <c r="I771" s="63"/>
       <c r="J771" s="63"/>
       <c r="K771" s="63" t="s">
-        <v>2985</v>
+        <v>2983</v>
       </c>
       <c r="L771" s="63"/>
       <c r="M771" s="63"/>
@@ -50402,7 +50386,7 @@
         <v>45569</v>
       </c>
       <c r="B772" s="63" t="s">
-        <v>2986</v>
+        <v>2984</v>
       </c>
       <c r="C772" s="63" t="s">
         <v>21</v>
@@ -50411,17 +50395,17 @@
       <c r="E772" s="63"/>
       <c r="F772" s="63"/>
       <c r="G772" s="63" t="s">
-        <v>2987</v>
+        <v>2985</v>
       </c>
       <c r="H772" s="64" t="s">
-        <v>2988</v>
+        <v>2986</v>
       </c>
       <c r="I772" s="63" t="s">
         <v>35</v>
       </c>
       <c r="J772" s="63"/>
       <c r="K772" s="63" t="s">
-        <v>2989</v>
+        <v>2987</v>
       </c>
       <c r="L772" s="63"/>
       <c r="M772" s="63"/>
@@ -50459,10 +50443,10 @@
       <c r="D773" s="62"/>
       <c r="E773" s="63"/>
       <c r="F773" s="63" t="s">
-        <v>2990</v>
+        <v>2988</v>
       </c>
       <c r="G773" s="63" t="s">
-        <v>2991</v>
+        <v>2989</v>
       </c>
       <c r="H773" s="64" t="s">
         <v>57</v>
@@ -50472,7 +50456,7 @@
       </c>
       <c r="J773" s="63"/>
       <c r="K773" s="63" t="s">
-        <v>2982</v>
+        <v>2980</v>
       </c>
       <c r="L773" s="63"/>
       <c r="M773" s="63"/>
@@ -50504,7 +50488,7 @@
         <v>45569</v>
       </c>
       <c r="B774" s="63" t="s">
-        <v>2992</v>
+        <v>2990</v>
       </c>
       <c r="C774" s="63" t="s">
         <v>21</v>
@@ -50513,15 +50497,15 @@
       <c r="E774" s="63"/>
       <c r="F774" s="63"/>
       <c r="G774" s="63" t="s">
-        <v>2993</v>
+        <v>2991</v>
       </c>
       <c r="H774" s="64" t="s">
-        <v>2949</v>
+        <v>2947</v>
       </c>
       <c r="I774" s="63"/>
       <c r="J774" s="63"/>
       <c r="K774" s="63" t="s">
-        <v>2994</v>
+        <v>2992</v>
       </c>
       <c r="L774" s="63"/>
       <c r="M774" s="63"/>
@@ -50553,7 +50537,7 @@
         <v>45570</v>
       </c>
       <c r="B775" s="63" t="s">
-        <v>2995</v>
+        <v>2993</v>
       </c>
       <c r="C775" s="63" t="s">
         <v>21</v>
@@ -50565,12 +50549,12 @@
         <v>1865</v>
       </c>
       <c r="H775" s="64" t="s">
-        <v>2988</v>
+        <v>2986</v>
       </c>
       <c r="I775" s="63"/>
       <c r="J775" s="63"/>
       <c r="K775" s="63" t="s">
-        <v>2996</v>
+        <v>2994</v>
       </c>
       <c r="L775" s="63"/>
       <c r="M775" s="63"/>
@@ -77983,18 +77967,18 @@
         <v>39</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>2997</v>
+        <v>2995</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="B7" s="22" t="s">
-        <v>2998</v>
+        <v>2996</v>
       </c>
       <c r="C7" s="22" t="s">
         <v>69</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>2999</v>
+        <v>2997</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -78005,7 +77989,7 @@
         <v>30</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>3000</v>
+        <v>2998</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -78016,15 +78000,15 @@
         <v>1101</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>3001</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="B10" s="22" t="s">
-        <v>3002</v>
+        <v>3000</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>3003</v>
+        <v>3001</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -78032,7 +78016,7 @@
         <v>1803</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>3004</v>
+        <v>3002</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -78040,36 +78024,36 @@
         <v>1819</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>3005</v>
+        <v>3003</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="B13" s="22" t="s">
-        <v>3006</v>
+        <v>3004</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>3007</v>
+        <v>3005</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="B14" s="22" t="s">
-        <v>3008</v>
+        <v>3006</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>3009</v>
+        <v>3007</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="B15" s="22" t="s">
-        <v>3010</v>
+        <v>3008</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>3011</v>
+        <v>3009</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="B16" s="22" t="s">
-        <v>3012</v>
+        <v>3010</v>
       </c>
       <c r="D16" s="22" t="s">
         <v>319</v>
@@ -78080,111 +78064,111 @@
         <v>1843</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>3013</v>
+        <v>3011</v>
       </c>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="22" t="s">
-        <v>2395</v>
+        <v>2393</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>3014</v>
+        <v>3012</v>
       </c>
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="70" t="s">
-        <v>3015</v>
+        <v>3013</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>3016</v>
+        <v>3014</v>
       </c>
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="71" t="s">
-        <v>3017</v>
+        <v>3015</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>3018</v>
+        <v>3016</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="15.75" customHeight="1">
       <c r="B21" s="70" t="s">
-        <v>2447</v>
+        <v>2445</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>3019</v>
+        <v>3017</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="15.75" customHeight="1">
       <c r="B22" s="70" t="s">
-        <v>3020</v>
+        <v>3018</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>3021</v>
+        <v>3019</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="15.75" customHeight="1">
       <c r="B23" s="70" t="s">
-        <v>2867</v>
+        <v>2865</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>3022</v>
+        <v>3020</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="15.75" customHeight="1">
       <c r="B24" s="70" t="s">
-        <v>2489</v>
+        <v>2487</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>3023</v>
+        <v>3021</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="15.75" customHeight="1">
       <c r="B25" s="72" t="s">
-        <v>2552</v>
+        <v>2550</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>3024</v>
+        <v>3022</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="15.75" customHeight="1">
       <c r="B26" s="72" t="s">
-        <v>3025</v>
+        <v>3023</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>3026</v>
+        <v>3024</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="15.75" customHeight="1">
       <c r="B27" s="70" t="s">
-        <v>2531</v>
+        <v>2529</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>3027</v>
+        <v>3025</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="15.75" customHeight="1">
       <c r="B28" s="70" t="s">
-        <v>3028</v>
+        <v>3026</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>3029</v>
+        <v>3027</v>
       </c>
     </row>
     <row r="29" spans="2:4" ht="15.75" customHeight="1">
       <c r="B29" s="72" t="s">
-        <v>3030</v>
+        <v>3028</v>
       </c>
       <c r="D29" s="22"/>
     </row>
     <row r="30" spans="2:4" ht="15.75" customHeight="1">
       <c r="B30" s="72" t="s">
-        <v>2949</v>
+        <v>2947</v>
       </c>
     </row>
     <row r="31" spans="2:4" ht="15.75" customHeight="1">
       <c r="B31" s="72" t="s">
-        <v>2988</v>
+        <v>2986</v>
       </c>
     </row>
     <row r="32" spans="2:4" ht="15.75" customHeight="1"/>

--- a/Lead.xlsx
+++ b/Lead.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ATUAL 2024\Projetos R\Clinica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ATUAL 2024\Projetos R\Clinica\Leads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A180315F-B910-4AAD-8394-067CC5CA7FE3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A5614EB-1EBA-41EA-AA75-3CBFFB86E530}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5959" uniqueCount="3030">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6011" uniqueCount="3049">
   <si>
     <t>Data</t>
   </si>
@@ -9117,6 +9117,63 @@
   </si>
   <si>
     <t>Contato 4</t>
+  </si>
+  <si>
+    <t>08/10Liguei só chama,mandei mensagem no whats.</t>
+  </si>
+  <si>
+    <t>Jadielma Gregorio</t>
+  </si>
+  <si>
+    <t>(75)99109-8078</t>
+  </si>
+  <si>
+    <t>07/10 Consegui falar com ela no whats,porém ela não quer agendar ,por que no momento está sem dinheiro .</t>
+  </si>
+  <si>
+    <t>(75)99261-6773</t>
+  </si>
+  <si>
+    <t>07/10Liguei só chama,deixei mensagem no whats.</t>
+  </si>
+  <si>
+    <t>Manoel</t>
+  </si>
+  <si>
+    <t>(79)99995-9713</t>
+  </si>
+  <si>
+    <t>07/10Liguei só chama,deixei mensagem no whats .</t>
+  </si>
+  <si>
+    <t>Ciel</t>
+  </si>
+  <si>
+    <t>(75)98828-1166</t>
+  </si>
+  <si>
+    <t>(75)99110-3586</t>
+  </si>
+  <si>
+    <t>07/10Consegui falar com ele por ,ligação porém não quis deixar agendando,falou que entra em contato depois.</t>
+  </si>
+  <si>
+    <t>Valdomiro Santos</t>
+  </si>
+  <si>
+    <t>(75)98833-4116</t>
+  </si>
+  <si>
+    <t>07/10Consegui agendar por ligação.</t>
+  </si>
+  <si>
+    <t>Andreia</t>
+  </si>
+  <si>
+    <t>(75)98836-4027</t>
+  </si>
+  <si>
+    <t>Marcia</t>
   </si>
 </sst>
 </file>
@@ -9439,7 +9496,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -9587,11 +9644,79 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="30">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC27BA0"/>
+          <bgColor rgb="FFC27BA0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF666666"/>
+          <bgColor rgb="FF666666"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF6B26B"/>
+          <bgColor rgb="FFF6B26B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEA9999"/>
+          <bgColor rgb="FFEA9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6AA84F"/>
+          <bgColor rgb="FF6AA84F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00B0F0"/>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -9774,24 +9899,24 @@
   </dxfs>
   <tableStyles count="4">
     <tableStyle name="Listas-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="21"/>
-      <tableStyleElement type="firstRowStripe" dxfId="20"/>
-      <tableStyleElement type="secondRowStripe" dxfId="19"/>
+      <tableStyleElement type="headerRow" dxfId="29"/>
+      <tableStyleElement type="firstRowStripe" dxfId="28"/>
+      <tableStyleElement type="secondRowStripe" dxfId="27"/>
     </tableStyle>
     <tableStyle name="Listas-style 2" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="headerRow" dxfId="18"/>
-      <tableStyleElement type="firstRowStripe" dxfId="17"/>
-      <tableStyleElement type="secondRowStripe" dxfId="16"/>
+      <tableStyleElement type="headerRow" dxfId="26"/>
+      <tableStyleElement type="firstRowStripe" dxfId="25"/>
+      <tableStyleElement type="secondRowStripe" dxfId="24"/>
     </tableStyle>
     <tableStyle name="Listas-style 3" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF02000000}">
-      <tableStyleElement type="headerRow" dxfId="15"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="secondRowStripe" dxfId="13"/>
+      <tableStyleElement type="headerRow" dxfId="23"/>
+      <tableStyleElement type="firstRowStripe" dxfId="22"/>
+      <tableStyleElement type="secondRowStripe" dxfId="21"/>
     </tableStyle>
     <tableStyle name="Listas-style 4" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF03000000}">
-      <tableStyleElement type="headerRow" dxfId="12"/>
-      <tableStyleElement type="firstRowStripe" dxfId="11"/>
-      <tableStyleElement type="secondRowStripe" dxfId="10"/>
+      <tableStyleElement type="headerRow" dxfId="20"/>
+      <tableStyleElement type="firstRowStripe" dxfId="19"/>
+      <tableStyleElement type="secondRowStripe" dxfId="18"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -10042,10 +10167,10 @@
   <dimension ref="A1:U1548"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C514" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C767" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D521" sqref="D521"/>
+      <selection pane="bottomRight" activeCell="A783" sqref="A783"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -18756,7 +18881,9 @@
       <c r="C166" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D166" s="39"/>
+      <c r="D166" s="39">
+        <v>59</v>
+      </c>
       <c r="E166" s="16" t="s">
         <v>103</v>
       </c>
@@ -20809,7 +20936,9 @@
       <c r="C205" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D205" s="41"/>
+      <c r="D205" s="41">
+        <v>66</v>
+      </c>
       <c r="E205" s="16" t="s">
         <v>103</v>
       </c>
@@ -22111,7 +22240,9 @@
       <c r="C231" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D231" s="39"/>
+      <c r="D231" s="39">
+        <v>33</v>
+      </c>
       <c r="E231" s="16" t="s">
         <v>22</v>
       </c>
@@ -23335,7 +23466,9 @@
       <c r="C255" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D255" s="39"/>
+      <c r="D255" s="39">
+        <v>55</v>
+      </c>
       <c r="E255" s="16"/>
       <c r="F255" s="14"/>
       <c r="G255" s="63" t="s">
@@ -24645,7 +24778,9 @@
       <c r="C281" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D281" s="39"/>
+      <c r="D281" s="39">
+        <v>56</v>
+      </c>
       <c r="E281" s="16" t="s">
         <v>103</v>
       </c>
@@ -37445,7 +37580,7 @@
       <c r="C519" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="D519" s="62">
+      <c r="D519" s="73">
         <v>26050</v>
       </c>
       <c r="E519" s="63"/>
@@ -37494,7 +37629,7 @@
       <c r="C520" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="D520" s="62">
+      <c r="D520" s="73">
         <v>28452</v>
       </c>
       <c r="E520" s="63"/>
@@ -37547,7 +37682,7 @@
       <c r="C521" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="D521" s="62">
+      <c r="D521" s="73">
         <v>31271</v>
       </c>
       <c r="E521" s="63"/>
@@ -37596,7 +37731,7 @@
       <c r="C522" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="D522" s="62"/>
+      <c r="D522" s="73"/>
       <c r="E522" s="63"/>
       <c r="F522" s="63"/>
       <c r="G522" s="63" t="s">
@@ -37647,7 +37782,7 @@
       <c r="C523" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="D523" s="62">
+      <c r="D523" s="73">
         <v>29377</v>
       </c>
       <c r="E523" s="63"/>
@@ -37696,7 +37831,7 @@
       <c r="C524" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="D524" s="62">
+      <c r="D524" s="73">
         <v>25805</v>
       </c>
       <c r="E524" s="63"/>
@@ -37745,7 +37880,7 @@
       <c r="C525" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="D525" s="62">
+      <c r="D525" s="73">
         <v>27115</v>
       </c>
       <c r="E525" s="63"/>
@@ -40968,7 +41103,9 @@
       <c r="K586" s="63" t="s">
         <v>2429</v>
       </c>
-      <c r="L586" s="63"/>
+      <c r="L586" s="63" t="s">
+        <v>3030</v>
+      </c>
       <c r="M586" s="63"/>
       <c r="N586" s="63"/>
       <c r="O586" s="63" t="s">
@@ -50582,25 +50719,45 @@
       <c r="U775" s="65"/>
     </row>
     <row r="776" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A776" s="62"/>
-      <c r="B776" s="63"/>
-      <c r="C776" s="63"/>
+      <c r="A776" s="62">
+        <v>45570</v>
+      </c>
+      <c r="B776" s="63" t="s">
+        <v>3031</v>
+      </c>
+      <c r="C776" s="63" t="s">
+        <v>21</v>
+      </c>
       <c r="D776" s="62"/>
-      <c r="E776" s="63"/>
-      <c r="F776" s="63"/>
-      <c r="G776" s="63"/>
-      <c r="H776" s="64"/>
-      <c r="I776" s="63"/>
+      <c r="E776" s="63" t="s">
+        <v>103</v>
+      </c>
+      <c r="F776" s="63" t="s">
+        <v>104</v>
+      </c>
+      <c r="G776" s="63" t="s">
+        <v>3032</v>
+      </c>
+      <c r="H776" s="64" t="s">
+        <v>2986</v>
+      </c>
+      <c r="I776" s="63" t="s">
+        <v>73</v>
+      </c>
       <c r="J776" s="63"/>
-      <c r="K776" s="63"/>
+      <c r="K776" s="63" t="s">
+        <v>3033</v>
+      </c>
       <c r="L776" s="63"/>
       <c r="M776" s="63"/>
       <c r="N776" s="63"/>
-      <c r="O776" s="63"/>
+      <c r="O776" s="63" t="s">
+        <v>39</v>
+      </c>
       <c r="P776" s="63"/>
       <c r="Q776" s="11" t="str">
         <f t="shared" si="13"/>
-        <v>NÃO</v>
+        <v>SIM</v>
       </c>
       <c r="R776" s="11" t="str">
         <f t="shared" si="14"/>
@@ -50617,21 +50774,35 @@
       <c r="U776" s="65"/>
     </row>
     <row r="777" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A777" s="62"/>
-      <c r="B777" s="63"/>
-      <c r="C777" s="63"/>
+      <c r="A777" s="62">
+        <v>45571</v>
+      </c>
+      <c r="B777" s="63" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C777" s="63" t="s">
+        <v>21</v>
+      </c>
       <c r="D777" s="62"/>
       <c r="E777" s="63"/>
       <c r="F777" s="63"/>
-      <c r="G777" s="63"/>
-      <c r="H777" s="64"/>
+      <c r="G777" s="63" t="s">
+        <v>3034</v>
+      </c>
+      <c r="H777" s="64" t="s">
+        <v>57</v>
+      </c>
       <c r="I777" s="63"/>
       <c r="J777" s="63"/>
-      <c r="K777" s="63"/>
+      <c r="K777" s="63" t="s">
+        <v>3035</v>
+      </c>
       <c r="L777" s="63"/>
       <c r="M777" s="63"/>
       <c r="N777" s="63"/>
-      <c r="O777" s="63"/>
+      <c r="O777" s="63" t="s">
+        <v>48</v>
+      </c>
       <c r="P777" s="63"/>
       <c r="Q777" s="11" t="str">
         <f t="shared" si="13"/>
@@ -50652,21 +50823,33 @@
       <c r="U777" s="65"/>
     </row>
     <row r="778" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A778" s="62"/>
-      <c r="B778" s="63"/>
-      <c r="C778" s="63"/>
+      <c r="A778" s="62">
+        <v>45571</v>
+      </c>
+      <c r="B778" s="63" t="s">
+        <v>3036</v>
+      </c>
+      <c r="C778" s="63" t="s">
+        <v>42</v>
+      </c>
       <c r="D778" s="62"/>
       <c r="E778" s="63"/>
       <c r="F778" s="63"/>
-      <c r="G778" s="63"/>
+      <c r="G778" s="63" t="s">
+        <v>3037</v>
+      </c>
       <c r="H778" s="64"/>
       <c r="I778" s="63"/>
       <c r="J778" s="63"/>
-      <c r="K778" s="63"/>
+      <c r="K778" s="63" t="s">
+        <v>3038</v>
+      </c>
       <c r="L778" s="63"/>
       <c r="M778" s="63"/>
       <c r="N778" s="63"/>
-      <c r="O778" s="63"/>
+      <c r="O778" s="63" t="s">
+        <v>48</v>
+      </c>
       <c r="P778" s="63"/>
       <c r="Q778" s="11" t="str">
         <f t="shared" si="13"/>
@@ -50687,21 +50870,33 @@
       <c r="U778" s="65"/>
     </row>
     <row r="779" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A779" s="62"/>
-      <c r="B779" s="63"/>
+      <c r="A779" s="62">
+        <v>45571</v>
+      </c>
+      <c r="B779" s="63" t="s">
+        <v>3039</v>
+      </c>
       <c r="C779" s="63"/>
       <c r="D779" s="62"/>
       <c r="E779" s="63"/>
       <c r="F779" s="63"/>
-      <c r="G779" s="63"/>
-      <c r="H779" s="64"/>
+      <c r="G779" s="63" t="s">
+        <v>3040</v>
+      </c>
+      <c r="H779" s="64" t="s">
+        <v>34</v>
+      </c>
       <c r="I779" s="63"/>
       <c r="J779" s="63"/>
-      <c r="K779" s="63"/>
+      <c r="K779" s="63" t="s">
+        <v>3035</v>
+      </c>
       <c r="L779" s="63"/>
       <c r="M779" s="63"/>
       <c r="N779" s="63"/>
-      <c r="O779" s="63"/>
+      <c r="O779" s="63" t="s">
+        <v>48</v>
+      </c>
       <c r="P779" s="63"/>
       <c r="Q779" s="11" t="str">
         <f t="shared" si="13"/>
@@ -50722,21 +50917,37 @@
       <c r="U779" s="65"/>
     </row>
     <row r="780" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A780" s="62"/>
-      <c r="B780" s="63"/>
-      <c r="C780" s="63"/>
+      <c r="A780" s="62">
+        <v>45571</v>
+      </c>
+      <c r="B780" s="63" t="s">
+        <v>678</v>
+      </c>
+      <c r="C780" s="63" t="s">
+        <v>42</v>
+      </c>
       <c r="D780" s="62"/>
-      <c r="E780" s="63"/>
+      <c r="E780" s="63" t="s">
+        <v>474</v>
+      </c>
       <c r="F780" s="63"/>
-      <c r="G780" s="63"/>
-      <c r="H780" s="64"/>
+      <c r="G780" s="63" t="s">
+        <v>3041</v>
+      </c>
+      <c r="H780" s="64" t="s">
+        <v>2529</v>
+      </c>
       <c r="I780" s="63"/>
       <c r="J780" s="63"/>
-      <c r="K780" s="63"/>
+      <c r="K780" s="63" t="s">
+        <v>3042</v>
+      </c>
       <c r="L780" s="63"/>
       <c r="M780" s="63"/>
       <c r="N780" s="63"/>
-      <c r="O780" s="63"/>
+      <c r="O780" s="63" t="s">
+        <v>39</v>
+      </c>
       <c r="P780" s="63"/>
       <c r="Q780" s="11" t="str">
         <f t="shared" si="13"/>
@@ -50757,29 +50968,49 @@
       <c r="U780" s="65"/>
     </row>
     <row r="781" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A781" s="62"/>
-      <c r="B781" s="63"/>
-      <c r="C781" s="63"/>
+      <c r="A781" s="62">
+        <v>45572</v>
+      </c>
+      <c r="B781" s="63" t="s">
+        <v>3043</v>
+      </c>
+      <c r="C781" s="63" t="s">
+        <v>42</v>
+      </c>
       <c r="D781" s="62"/>
-      <c r="E781" s="63"/>
-      <c r="F781" s="63"/>
-      <c r="G781" s="63"/>
-      <c r="H781" s="64"/>
-      <c r="I781" s="63"/>
+      <c r="E781" s="63" t="s">
+        <v>103</v>
+      </c>
+      <c r="F781" s="63" t="s">
+        <v>104</v>
+      </c>
+      <c r="G781" s="63" t="s">
+        <v>3044</v>
+      </c>
+      <c r="H781" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="I781" s="63" t="s">
+        <v>35</v>
+      </c>
       <c r="J781" s="63"/>
-      <c r="K781" s="63"/>
+      <c r="K781" s="63" t="s">
+        <v>3045</v>
+      </c>
       <c r="L781" s="63"/>
       <c r="M781" s="63"/>
       <c r="N781" s="63"/>
-      <c r="O781" s="63"/>
+      <c r="O781" s="63" t="s">
+        <v>118</v>
+      </c>
       <c r="P781" s="63"/>
       <c r="Q781" s="11" t="str">
         <f t="shared" si="13"/>
-        <v>NÃO</v>
+        <v>SIM</v>
       </c>
       <c r="R781" s="11" t="str">
         <f t="shared" si="14"/>
-        <v>NÃO</v>
+        <v>SIM</v>
       </c>
       <c r="S781" s="11" t="str">
         <f t="shared" si="15"/>
@@ -50792,21 +51023,35 @@
       <c r="U781" s="65"/>
     </row>
     <row r="782" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A782" s="62"/>
-      <c r="B782" s="63"/>
-      <c r="C782" s="63"/>
+      <c r="A782" s="62">
+        <v>45572</v>
+      </c>
+      <c r="B782" s="63" t="s">
+        <v>3046</v>
+      </c>
+      <c r="C782" s="63" t="s">
+        <v>21</v>
+      </c>
       <c r="D782" s="62"/>
       <c r="E782" s="63"/>
       <c r="F782" s="63"/>
-      <c r="G782" s="63"/>
-      <c r="H782" s="64"/>
+      <c r="G782" s="63" t="s">
+        <v>3047</v>
+      </c>
+      <c r="H782" s="64" t="s">
+        <v>2947</v>
+      </c>
       <c r="I782" s="63"/>
       <c r="J782" s="63"/>
-      <c r="K782" s="63"/>
+      <c r="K782" s="63" t="s">
+        <v>3035</v>
+      </c>
       <c r="L782" s="63"/>
       <c r="M782" s="63"/>
       <c r="N782" s="63"/>
-      <c r="O782" s="63"/>
+      <c r="O782" s="63" t="s">
+        <v>48</v>
+      </c>
       <c r="P782" s="63"/>
       <c r="Q782" s="11" t="str">
         <f t="shared" si="13"/>
@@ -50827,14 +51072,24 @@
       <c r="U782" s="65"/>
     </row>
     <row r="783" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A783" s="62"/>
-      <c r="B783" s="63"/>
-      <c r="C783" s="63"/>
+      <c r="A783" s="62">
+        <v>45573</v>
+      </c>
+      <c r="B783" s="63" t="s">
+        <v>3048</v>
+      </c>
+      <c r="C783" s="63" t="s">
+        <v>21</v>
+      </c>
       <c r="D783" s="62"/>
       <c r="E783" s="63"/>
       <c r="F783" s="63"/>
-      <c r="G783" s="63"/>
-      <c r="H783" s="64"/>
+      <c r="G783" s="63" t="s">
+        <v>2428</v>
+      </c>
+      <c r="H783" s="64" t="s">
+        <v>2529</v>
+      </c>
       <c r="I783" s="63"/>
       <c r="J783" s="63"/>
       <c r="K783" s="63"/>
@@ -77793,53 +78048,53 @@
     </customSheetView>
   </customSheetViews>
   <conditionalFormatting sqref="Q2:U1548">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="SIM">
+    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="SIM">
       <formula>NOT(ISERROR(SEARCH(("SIM"),(Q2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:U1548">
-    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="NÃO">
+    <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="NÃO">
       <formula>NOT(ISERROR(SEARCH(("NÃO"),(Q2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:P1548">
-    <cfRule type="expression" dxfId="7" priority="3">
-      <formula>$O:$O="Agendou"</formula>
+    <cfRule type="expression" dxfId="15" priority="3">
+      <formula>$O1="Agendou"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:P1548">
-    <cfRule type="expression" dxfId="6" priority="4">
-      <formula>$O:$O="Compareceu"</formula>
+    <cfRule type="expression" dxfId="14" priority="4">
+      <formula>$O1="Compareceu"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:P1548">
-    <cfRule type="expression" dxfId="5" priority="5">
-      <formula>$O:$O="Fechou orçamento"</formula>
+    <cfRule type="expression" dxfId="13" priority="5">
+      <formula>$O1="Fechou orçamento"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:P1548">
-    <cfRule type="expression" dxfId="4" priority="6">
-      <formula>$O:$O="Sem resposta"</formula>
+    <cfRule type="expression" dxfId="12" priority="6">
+      <formula>$O1="Sem resposta"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:P1548">
-    <cfRule type="expression" dxfId="3" priority="7">
-      <formula>$O:$O="Pendente"</formula>
+    <cfRule type="expression" dxfId="11" priority="7">
+      <formula>$O1="Pendente"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:P1548">
-    <cfRule type="expression" dxfId="2" priority="8">
-      <formula>$O:$O="Encerrou"</formula>
+    <cfRule type="expression" dxfId="10" priority="8">
+      <formula>$O1="Encerrou"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:P1548">
-    <cfRule type="expression" dxfId="1" priority="9">
-      <formula>$O:$O="Faltou"</formula>
+    <cfRule type="expression" dxfId="9" priority="9">
+      <formula>$O1="Faltou"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:P1548">
-    <cfRule type="expression" dxfId="0" priority="10">
-      <formula>$O:$O="em atendimento"</formula>
+    <cfRule type="expression" dxfId="8" priority="10">
+      <formula>$O1="em atendimento"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
